--- a/final_btp_analysis.xlsx
+++ b/final_btp_analysis.xlsx
@@ -579,41 +579,17 @@
           <t>57.145146535993305, 79.46977806650706, 41.26019441838308, 66.11530283510041, 60.917992137434055, 74.90909341218622, 67.71462554177033, 72.4378908781502, 70.06153472991608, 69.03128507689613, 71.71669164169917, 69.89087832412658, 71.65125958323594, 59.15909651701467, 74.54111405517429, 76.41750358375072, 79.91914974407746, 73.37631528138733, 53.59777084427267, 65.86620441166895, 74.32253563647647, 65.47806981656262, 72.33916304448103, 64.29492074853957, 52.950809766908165, 61.149488731914865, 58.82416762922135, 51.030551013075275, 42.36237025305511, 53.54384232859332, 55.29890221517302, 71.79901343071332, 66.45891607050878, 65.58493606445957, 71.29141395668849, 67.10754964612467, 63.01502043353617, 63.725994331332366, 72.86644536955518, 63.19904377805348, 52.128836637876184, 58.83719363959213, 66.22360199883039, 64.72695304864902, 64.00433658563844, 64.70020692012248, 66.5254360201721, 63.21135030795047, 48.459814697624196, 52.095010738047236, 72.56503471918447, 68.43811369097683, 70.46056752955171, 61.77251930457568, 67.92828952464257, 68.30254383416047, 68.32454375146257, 120.48224146531389, 87.14150002718843, 75.06741565882889, 70.38172963992092, 68.46808957848884, 62.93150330363042, 50.144959936325115, 50.33913176161772, 54.85482588301176, 47.46847834786696, 52.09386508259208, 69.88536027633863, 63.474156872136255, 69.09081853787511, 66.64941215714107, 68.80391804005343, 64.37624727005884, 64.6494211027644, 68.08759705406231, 67.80481585187754, 174.21466097174473, 57.89635845714704, 63.10887902441194, 72.20461273702995, 63.95478540666718, 103.48878476664653, 81.13539713519054, 67.73387230042046, 56.4279952408681, 62.68332143524085, 79.91387591068958, 68.38583471735856, 79.16491052283845, 51.28257863496997, 92.58916946673594, 35.03427820567351, 16.947231147834263, 69.78199512288279, 66.97520556522986, 54.872998521129, 66.02223005551437, 65.20543817605883, 21.254672530411128, 65.10143137080706, 62.261581409739854, 17.728191477242913, 54.29859865258663, 65.90868615549958, 57.30279932351958, 60.93854329167063, 55.10265857278057, 15.681740541691974, 150.03424875396547, 65.63881044898181, 71.28243321862492, 59.74450628235446, 70.1185959280694, 66.97041447963237, 68.00204756238317, 63.73766912620296, 55.10863677606487, 58.880227943064625, 67.85725945276359, 62.83863880921338, 68.87937377103431, 64.27129276107785, 63.55966576214235, 62.72278067671946, 72.41310922583513, 61.68354011975366, 52.881971902293934, 66.48017678155169, 38.3465280161996, 16.352205751501266, 34.900490876515356, 66.21959469103507, 57.34210394526722, 61.56152507562937, 68.01128476509022, 63.82693368572783, 60.0146306942132, 56.599931672100034, 67.42799976510429, 74.04559866284714, 69.75059210232762, 64.35419077646473, 42.93567835799328, 62.97749868191384, 63.67411299142086, 68.63849711395416, 87.20484554930287, 61.48428378204469, 53.050691887111135, 84.08608565239479, 77.05797001233145, 50.10901489673223, 68.10269341824588, 74.86643646743515, 55.32455234641783, 65.00602326287718, 60.7210110025861, 57.836015301410605, 67.66555892804102, 63.13739094079561, 67.65407591165925, 64.78913085886317, 67.32779367429782, 67.1620068152198, 66.89571295939814, 71.23240044800804, 67.91438859950263, 141.41230136302534, 70.72083392732058, 62.059623686339116, 59.409451151036805, 62.056705961295386, 67.70611529508427, 63.34236628448204, 66.98549506164636, 68.62131503912973, 68.79129456613282, 64.0067765510351, 51.110109208421925, 61.35926785693261, 70.79021279219621, 67.69597904974302, 77.0245421436218, 62.67748221993262, 58.419481681108685, 57.41289369984328, 61.86355216279997, 64.5512880678736, 73.1548559469918, 83.31126558844574, 61.47791901832275, 59.50828176639696, 137.01166895894937, 94.10548943058497, 100.46839790440602, 36.68428105904545, 56.99150455903613, 68.03214126807887, 63.974761803204096, 63.08141378602816, 97.61931396295857, 55.502665527580575, 69.92888714313342, 88.74799030760686, 81.09425887810893, 82.97031768321139, 82.77927477000388, 63.52662546817537, 73.00095792655982, 70.84922538276257, 65.04129422797492, 16.57864461875161, 72.08186263390247, 71.70963608487374, 71.60303879348082, 67.53108597462798, 65.64409877953605, 68.27188642104926, 70.8094971085316, 74.91364854942272, 69.8770119223257, 59.98033823186737, 67.31382603459654, 62.42043340998033, 67.3387333079764, 76.29332862644843, 68.84292408323456, 72.87183277577388, 57.303114645742696, 63.16196546702482, 70.03970402506224, 62.557612690878265, 53.502557099197794, 57.39921650034146, 60.06737284834062, 48.58924197873577, 68.50165832579951, 57.96720045250009, 56.604798184327656, 51.20368442157004, 62.88127779271185, 63.215968198942065, 147.46682738210833, 85.80027606692339, 14.110745055681136, 39.3769764655679, 67.67116099678107, 69.7947962075676, 60.50477280091887, 155.98454062060037, 117.12325304995571, 76.85422748801017, 12.939005153894385, 75.6085688064399, 57.88296004836336, 33.555241904821166, 15.150484095392457, 19.53152501141928, 62.011676818356, 23.777951653916034, 61.94831352484739, 72.34103488204778, 69.83749202441837, 67.01514969707561, 62.05528801047239, 62.59368084027347, 71.40922149988755, 62.83167050320231, 64.62429772778518, 76.31341328941934, 86.4432866235889, 66.5317898756274, 68.38165625543819, 40.34897568575741, 60.47856896937535, 76.06670918835943, 73.83042249427157, 67.1849323278917, 64.58537219793536, 70.53427883593683, 69.47962068073585, 68.11761372610452</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>[0.7999118101280711, 0.5307383106430643, 0.8554147414912207, 0.7781376599490605, 0.08907510574275579, 0.618412333654443, 0.8263887370277895, 0.7665373132464315, 0.2088955255777699, 0.7951658388385283, 0.865129584174686, 0.3800242197103497, 0.7103623782906583]</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1115761814897401</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.3366231252258405</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.304364385677793</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.4858512878153063</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.8068523141899506</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.9978840581403565</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.9872887898049886</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.7145082573764376</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.9480480065186226</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.3355084675817618</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -655,41 +631,17 @@
           <t>51.13045626917663, 7.804297708299411, 68.45479813756857, 63.83796345809431, 45.0957634694566, 157.61395533315593, 123.7640195791812, 63.30367711161902, 51.185382439766094, 68.56792848881922, 81.81839475798323, 57.04553905704251, 59.942715049553485, 70.2644544072447, 53.36050917044543, 65.06425340908757, 70.9407270956493, 56.1612561064064, 67.56149517522002, 56.6579219039156, 72.60018067383754, 59.09974788013378, 57.96823126999751, 65.11608644310753, 67.27275399870098, 67.84573955880367, 65.67987029616971, 55.51897688816692, 61.67926761148286, 69.49405785987271, 72.2201243223495, 75.59054493068646, 60.453680913734, 70.87133639831322, 70.1554899505443, 123.61634906430683, 154.02768224025215, 169.02851964478737, 169.18771396846103, 163.1580719907131, 171.71171264781964, 144.75698248515002, 171.42283977970536, 58.94428743963557, 65.28852994791922, 74.02212640695961, 69.22599106853649, 59.496571395612676, 67.49869429650936, 67.94946213645082, 63.817574288604305, 100.48069909877954, 97.46045589775149, 97.90235524435373, 89.93920937050045, 56.640593113665666, 50.33700790169423, 62.44010694239103, 57.84509521216644, 54.840669439883754, 68.87018760357422, 69.90798240088053, 73.29871047032857, 48.466281091647204, 108.4369189874364, 59.63703718435666, 61.832510043300324, 60.95346059948888, 63.13126563416145, 65.77231342317236, 67.34827445076597, 58.73708679905672, 68.02153022648176, 69.71422580960179, 72.13417290944956, 172.36361640225775, 174.63235190940102, 66.97790331130388, 46.19155202660508, 147.65107603872713, 34.10758942586552, 35.38044088075221, 8.243376446689897, 151.7953645158085, 61.4436816099705, 63.49846071589781, 61.09730730685, 74.2606412330934, 67.45280765597168, 60.39891493582523, 56.73761555632223, 73.7459675866424, 66.2442244122453, 69.81381503355925, 55.633213820492486, 67.76978546512014, 140.05813557498178, 167.9093979831712, 179.5379434386569, 59.38459374489181, 55.99964361889132, 64.7468162262846, 69.44166808986722, 50.789230255206164, 55.09491735960568, 45.73136521426087, 64.40009516315423, 54.1200014275269, 57.12236334744936, 45.47921245889389, 42.49395013661556, 69.2173670152096, 47.181902149838656, 53.24437011995549, 57.323471129563046, 64.25667943030614, 62.3222438051024, 75.32357756993952, 68.5693537930083, 70.48513478605963, 66.07429873219581, 76.37955312631854, 163.62126901998957, 21.4355849814145, 74.10725745255584, 67.31930013636607, 71.19434985413028, 71.79119753383414, 72.0605619975317, 62.45557608156271, 74.74653480538038, 66.14866058667313, 70.11001031386675, 61.09936493361065, 66.93646316848421, 72.4417571822546, 132.14883808934175, 4.9358360482984605, 118.4155458171201, 9.035027022020701, 79.70282040752548, 65.18650224441873, 60.76531422398113, 60.00668598098435, 66.98940560145236, 59.971001224859435, 56.126514742000715, 54.84047050962789, 65.96777790229197, 68.484405149611, 32.85887683993723, 71.25537865238583, 87.94241147458503, 84.5640832582261, 62.401174200249116, 53.60279431059376, 63.82418097034672, 69.22104017900618, 74.09186778059619, 58.43667254133806, 60.44467675788684, 63.216573731356895, 32.34197188607552, 147.93713039778274, 59.482491880180305, 67.09210089643324, 48.43583915811452, 71.24759035392788, 68.28287588817348, 69.32805176816986, 69.0379048305611, 74.70157651269898, 90.02300852914398, 58.77558459262067, 66.4538435803688, 74.62619306439737, 69.07678019302821, 179.03282709748186, 153.95788836256526, 84.22269851631663, 117.4326284265885, 71.75409393337158, 62.45848249287782, 66.13518801120817, 51.87921075801002, 70.95690460011431, 75.15614225105439, 83.5035108224213, 65.0156340560929, 60.97003691091853, 58.43258218045831, 82.87292499900548, 133.05385133933473, 60.19430749144861, 66.07081573747976, 59.68166684749624, 135.1603662761673, 63.184258048767234, 72.51082464938582, 71.1311073443912, 66.70607685211458, 63.363236067689456, 77.46581787603256, 69.8692358070985, 70.7416110002526, 60.65275339598536, 77.58664069501656, 86.26364753419766, 117.22115179277448, 75.05046208275226, 67.72973187341165, 63.26521859776264, 51.706324555368255, 74.66182264002924, 76.4804735331549, 62.94965484559983, 71.78581407682465, 63.01399712159543, 65.72025868416837, 67.31488820250182, 67.46511504859296, 62.67944893796092, 65.37281208472781, 68.20624024274451, 59.09540521690569, 79.82424676835004, 66.53242184773346, 71.3417649085347, 54.75099927744318, 72.25773724560618, 62.05164048194846, 71.73039942951685, 62.443313543104246, 71.1394321072549, 67.26896415443585, 66.84199125975789, 64.56342103057067, 67.6390626422833, 72.39490383335315, 61.70905405908622, 65.06027430402713, 60.065262643234334, 61.875448433621834, 78.99975349128394, 76.50447283116577, 58.99253662773314, 66.07009054414759, 76.40658201058069, 60.62657656992511, 70.51977337905716, 77.6556095240771, 74.09466659363565, 76.5766685532204, 67.29686720550085, 68.61606587926626, 71.34853030687253, 70.30126086523802, 60.32464575264077, 64.39150966630604, 53.17336586951416, 76.75134297691429, 65.330783722832, 69.35375153861852, 62.06323626131336, 75.1560260336673, 59.895117915739405, 70.42872959398065, 60.929369348823236, 65.16752755750205, 76.612788064587, 66.73076472573304, 70.25031124900534, 63.871176869784115, 78.20615926598137, 71.0637855623623, 81.08583553694835, 76.83199358123706, 58.11563053385637, 70.73581845148551, 52.44797515020478, 53.10482487412964, 61.30938789327008, 63.04546878175585, 74.7506098333629, 77.12717140083252, 73.09927669024027, 68.00052770338999, 69.52498366883754, 66.95818037737405, 57.45771802337935, 60.25412370009118, 61.246507985930606, 74.59830999456575, 178.2227940622576, 2.247727854457196, 31.334184635027462, 58.17856979112571, 64.42358222019642, 67.16839398434317, 71.07774348940245, 66.21456165598907, 67.54250704663606, 66.99841222567963, 66.25252616359937, 70.29423603427047, 80.268119525202, 66.52516751588145, 68.43787426077319, 65.36578937101781, 69.69618950306744, 74.94098564980263, 71.48401084001225, 70.40395454817268, 69.02463272939049, 71.28284688725265, 79.71014770330399, 86.28724349873457, 65.63163560463848, 65.79894190302488, 69.54528809561718, 75.13775553273044, 60.03453209600712, 68.879749755459, 77.12427828584156, 29.94194786912422, 69.4938741073462, 69.91254899083879, 81.03056621758599, 70.23491585558396, 68.54228433122285, 64.4212557502839, 67.40696463772755, 74.41859986649587, 84.06253653500954, 68.71083643029189, 74.58054418444831, 79.68478649551173, 70.4957538302779, 77.68554358132846, 68.1519226349811, 81.35852488295, 81.2507318890105, 55.69784539929762, 55.18252608155559, 56.328869844148045, 74.1188864643739, 76.07634577980726, 79.12743497879973, 90.03846273809391, 77.8415311339054, 68.47993609344185, 68.70788930726863, 64.25985067458362, 65.15999624981717, 74.0831124213351, 83.05147474036625, 73.60922616969643, 59.392010090718685, 71.04872963951163, 78.58020478385362, 72.8060908581662, 70.0245045807029, 62.55979592889666, 71.9349618169058, 61.155739053897, 67.81120962539937, 63.21461421639223, 55.46291270025467, 56.57053193745413, 59.42752108197258, 64.71663864164128, 65.06450706247692, 76.80762939715284, 85.46257144509636, 79.82681841807747, 67.77189019608873, 77.8143481759236, 64.03909794891564, 42.76474328673087, 46.015433897940035, 69.78528959116097, 82.41743984054797, 67.96084224767674, 76.5891690745501, 81.3692489207012, 69.90509587057076, 69.05862007877657, 70.83474686117306, 68.96334193055382, 59.31482931752752, 65.87965532630896, 67.7844339842821, 66.31072777985567, 55.27523634488388, 72.23835281384798, 70.44390238612749, 70.94972050702556, 65.31657523223373, 58.75100861884895, 62.8505110964304, 69.97233183184478, 66.8313910516016, 64.57203421884097, 62.8154743267885, 77.17640044695699, 68.16642503433116, 71.15013366569131, 69.95059455566354, 71.53061369932063, 73.72778096738351, 66.43260492558059, 64.0781282987839, 68.15300737740337, 70.24637617265152, 65.06653602161744, 65.44391007198593, 72.88374326332098, 70.65175364391548, 59.23050908910208, 57.66450985671713, 69.27702097541265, 73.4654224203779, 56.106485434271455, 66.33638149663396, 54.081036461634085, 45.98912096687624, 51.1688985053205, 69.81510465710538, 53.35817043759361, 68.7773834006127, 60.56418552850459, 50.90066502234412, 66.75769193535454, 74.3090611325395, 75.15991547643505, 57.66913639440198, 74.88777724319587, 71.9216132117356, 65.11322496858361, 68.38321986569258, 54.474705466629096, 65.6467217039847, 70.66662373768614, 69.53019281483742, 59.225363683242726, 53.62736271409471, 73.2607926523767, 63.81807646987276, 79.91191546774819, 66.35072578676834, 75.07764098216792, 71.13863182206677, 52.109067144824174, 47.936275928858784, 52.951241980041466, 74.4263752212881, 74.12693304181226, 50.67947391478831, 48.387917792827594, 81.45122154129369, 87.6675859769885, 54.63693122437305, 48.75018616570359, 58.61490149304219, 59.890681993667464, 59.60408354235392, 77.03972990733597, 74.74602640259661, 58.05769426759532, 54.325899826843184, 58.52278227964093, 66.902724174178, 80.44717656959214, 70.16689791328922, 70.69571797774007, 81.65478656836343, 68.049792184224, 63.34792218394377, 69.29837505927527, 71.99077644645878, 81.56308178794282, 15.877036219515158, 18.33442979304783, 157.39132746389456, 136.23913653683354, 22.245010848218588, 71.88290371442, 31.82776068117831, 62.022525719238125, 71.35036263704892, 66.29962832115092, 65.1466482438873, 73.27494867260954, 62.26581189188646, 68.60765946451288, 61.4888829917078, 59.31945266966511, 64.61749545341709, 70.96640204280429, 55.45872475541641, 60.13292753205976, 75.34570489875858, 57.3829547125318, 72.99436191372773, 63.167183197081435, 70.4216311901451, 61.696130533996346, 57.67274532827809, 67.66695751851164, 65.73397519679001, 62.15257754486638, 67.9234598273614, 151.2551262411196, 61.96189772996681, 63.62199738848483, 79.64400457278333, 53.36393456501196, 79.04042781858435, 61.78916407306715, 66.17055951941407, 71.86119262285413, 70.28041841943894, 58.30254856522498, 49.35911038497687, 49.4320721953557, 47.71744354526614, 61.47974778902074, 60.89462782746387, 65.62751990627804, 74.00729363236282, 72.69884149468925, 65.93173854485714, 65.22875365775327, 63.858194760388855, 62.614999167607984, 70.15237515012636, 74.58626427203181, 65.97177927370282, 58.60454322046277, 66.0520982728723, 63.73640193852685, 83.98964808341881, 60.35783613492768, 69.82795808692542, 137.57475487475375, 144.10494586714182, 82.74681837777962, 71.81704875207019, 58.40765212004182, 74.32978335596457, 65.81157032348963, 61.443517385943956, 54.32670821053321, 64.17896943937147, 68.7489819496393, 70.60040986152434, 66.16193410339231, 51.97844756214495, 73.11231675350824, 68.95545287939919, 63.27050575911494, 64.05410453897005, 53.65031105565249, 71.03542372882154, 64.93822714646281, 63.252648512044544, 62.62330690611199, 65.18542275635798, 64.84757080017538, 115.87064184763801, 90.65025253477208, 90.24087660572597, 59.53010313234588, 54.28308172709921, 62.60707725202375, 81.8658191875575, 77.58534015743084, 76.9413438940686, 69.33100189771673, 63.85510404622109, 71.91388516895054, 51.837623394882456, 22.94813767988225, 61.073541659354646, 61.6057990642424, 59.660391830307866, 68.16448515781498, 64.19059301354352, 71.21360962276006, 72.36975251441211, 76.18239209364619, 79.58635495722233, 74.75415214402375, 69.01063858776347, 74.95714773883061, 58.02860647141522, 66.95788723994778, 74.37306450647534, 76.77376580892796, 66.77376879125488, 72.2056129896936, 66.1682989325334, 52.47814313480065, 86.89987039785507, 88.21243232332243, 63.68632149587027, 62.131236213458784, 62.127233024957725, 72.32241407582734, 73.83000085381111, 67.31321090500917, 62.88520757345273, 64.63520785924642</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[0.3003437581823688, 0.03402896081259865, 0.1833974838407929, 0.5732062127859596, 0.7421883384576811, 0.16573132173976113, 0.23062399362879893, 0.9678724123392127, 0.8002303067964632, 0.9480445049603603, 0.04598346987241553, 0.7388677417596073, 0.2958262090641751]</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>0.5202535624001217</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.6021518843084427</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9867870268166185</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.3224864330491028</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.449037859953211</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.4529706350133852</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.8525162420297118</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.5469415310350183</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.1269347775073024</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.594715718783149</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -731,41 +683,17 @@
           <t>85.57177719070094, 71.01503403659258, 101.55017851559218, 71.10749625409242, 72.96533083252429, 61.75488773880655, 65.99643373077828, 70.06619071543537, 65.14861604276945, 73.79781093657904, 65.76555687510262, 63.30258141155404, 66.10708459935002, 71.88012997979506, 69.61251034229572, 55.01896939485995, 58.88659988805573, 73.9538142763755, 85.70303256779576, 37.90592926224417, 69.83198742813536, 147.060280419048, 100.73035385231036, 69.25673555743056, 108.16035964971469, 106.41332224166537, 70.7157268997294, 72.83229947020679, 51.91640623876042, 64.5489589198871, 102.29459631253368, 84.52754597710948, 111.40888896851756, 63.7291621838672, 71.31121987614905, 63.77961958653544, 127.05907896526598, 0.3593101436155122, 37.37323973400284, 74.47829411588877, 73.77364710745437, 58.78251057376739, 61.567031584677885, 68.63961373606197, 66.38457831762338, 70.62207889993424, 67.73015480860015, 56.201247156249686, 63.43640494678013, 68.25529121910803, 64.48910108558697, 52.79257712531842, 148.08469194307062, 177.0264932995786, 68.13008766611401, 67.19921287579285, 99.91745514404248, 47.03425778298276, 68.02478499299255, 64.62285939638292, 75.01140225368329, 77.03421445970461, 153.2086757884792, 82.68626123157911, 78.57629868858191, 72.44777200803624, 127.70622769247939, 121.57720150020477, 90.55470910997747, 58.00567491469155, 107.28137852549844, 56.226981563254895, 40.12634372310335, 14.706188657973778, 56.83399033232318, 42.988723819929135, 80.09869198471044, 98.67968711894282, 69.57798024044311, 70.85375934367282, 73.8565903429436, 69.59320142593552, 67.59494534492913, 75.18782226143944, 149.06650563785809, 60.826442961825315, 73.48144024075921, 91.5326055710509, 66.36073804753315, 69.49362575821917, 70.64093825484338, 71.8417756854944, 70.64957454983312, 66.38247634491708, 67.5172166796424, 50.19008847014673, 55.807375123402856, 70.64353767766482, 68.35587930436736, 73.05305009042773, 73.79798859301158, 68.44459240987015, 65.5831182920423, 117.02684318786382, 63.77828078689063, 65.81649825549319, 63.015004633052556, 62.115350919671165, 70.84672128183529, 69.8147309912244, 62.46189704337384, 71.40394956843271, 70.56137876074835, 59.800648283207224, 69.60749613537863, 68.84277072490629, 68.85714865671018, 71.53082638464575, 62.47077350321984, 71.5558678740467, 69.33210402517426, 76.37816845422392, 65.10688883872926, 68.29207676443055, 72.85939169702725, 66.5694079300334, 75.52112012984385, 53.53176655957808, 132.26022089074002, 61.31253334725625, 73.49549877039222, 68.47786408820917, 62.494173723034535, 56.43136350961267, 67.2370511883084, 71.57358149949276, 76.74620027159702, 78.66635298521, 66.07307466883188, 69.35831103751653, 79.4914552245032, 61.42472287791418, 69.38651075995972, 65.79438395649424, 57.51381165343783, 58.24073418679486, 68.26683088987826, 64.53827316654264, 69.63007764594107, 73.89527237185268, 77.44386988184988, 65.40781145925781, 68.99830652438881, 62.25116935294581, 72.32772143990108, 65.1703750822341, 80.39242865121007, 164.58455686330421, 94.54471420851068, 75.69516014339263, 67.34472108450322, 67.39921666266693, 68.08272092202866, 67.63693436124431, 106.74956823382074, 178.77019580898875, 68.6807264802928, 63.18072900536508, 69.86601325285447, 114.52479170740972, 118.81823886104962, 66.3529479707376, 70.04944564084063, 69.0386638599158, 78.860128736872, 75.97947312543846, 63.95049738119034, 67.91472664569258, 66.95406489535192, 70.7180767866859, 54.179951126156894, 65.56916859528751, 66.70640220550207, 56.75900663818615, 66.7736340072468, 50.98573481208108, 54.510601500072404, 48.29946436939981, 47.39603980328105, 53.895131622432835, 61.22519864799891, 57.88642232548827, 57.92904253645244, 60.04920793629093, 66.12963028066372, 63.95075949848588, 56.25186483682749, 62.596653015909105, 59.57250670527124, 65.42509835371466, 63.608279042012505, 54.00271478992173, 72.38387111391755, 73.72840223610051, 71.96791927642148, 67.49196843311334, 72.36862498609784, 60.94851370945885, 71.42511426966067, 67.76323552665993, 74.62818335251806, 66.90593203597678, 58.522662317007274, 56.108674848195534, 128.45966279170142, 119.62705896261681, 70.75744528260967, 66.77104936695774, 66.88016154990207, 56.884374725776055, 59.2049761905791, 74.35111331334349, 72.72979010610587, 79.6557277731056, 67.29085232497005, 59.53680273593923, 57.82877297452686, 73.32876475078253, 71.56466995502547, 75.15262968882924, 81.36247487087618, 67.25488622779142</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>[0.7691708913460226, 0.49124401526904415, 0.8801567795671934, 0.31383606966219124, 0.6690516125246229, 0.4247441159165646, 0.10015614571689924, 0.6179593025773084, 0.35690396686097237, 0.6859986905964369, 0.09762092256351418, 0.1046578778710956, 0.2621013336011102]</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>0.8331406062188367</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.6190405022385389</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.149360371413211</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.9780574735939727</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.1938379714966422</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.7582119737978044</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.678829290165155</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.243251615497979</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.6008890470869425</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.3938004808730504</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -807,41 +735,17 @@
           <t>35.713845796199514, 83.42655398000998, 71.22812342914922, 75.68960699302784, 72.36794002327933, 74.52788465869773, 73.46118945573751, 69.58718732079771, 75.64473112855016, 72.75855524592379, 87.92798110176581, 67.44048985566982, 64.18123111526678, 68.36035839635925, 64.7826759939739, 60.318292969359206, 60.264729579650584, 65.87020117524199, 72.06696478372618, 67.28862506068235, 66.71750168577343, 67.61909512652377, 65.73002395530096, 69.2336471230984, 82.38934381074215, 68.6940475508091, 66.66970086719087, 93.9663097759999, 64.08855244108962, 69.84511329898453, 63.53347372441459, 67.57014213902322, 66.59133463752427, 121.63501126201184, 106.29249182337844, 81.12426932878206, 73.93120753898741, 70.29491848834324, 67.3784131515608, 74.00452755532108, 76.72529563929666, 68.51482439258547, 101.03533467948102, 77.52950407329443, 68.5734711253431, 69.5826349591031, 74.8975589277761, 64.88524851292075, 73.99365660325901, 71.9964463079413, 68.79484342696873, 66.44719317058467, 65.76452084246989, 61.62461035187841, 61.58895497316528, 45.69161783156446, 66.47973976717238, 68.57298280598899, 172.78533172185928, 61.779475244046886, 68.06194909510572, 70.4954501538001, 60.83639375902746, 80.3037096634653, 78.45339823549664, 61.62396759065953, 77.41706628316162, 64.30177486236163, 61.69892785156867, 61.44687726595022, 70.27872437936834, 71.0884822085334, 78.97761781881, 68.55344624798062, 66.7326379000561, 55.2427915488039, 60.58552284527204, 63.943837682107024, 68.11194133446558, 66.06027919629219, 61.27292282740736, 62.588245975601936, 65.75823339828808, 66.70968642867852, 70.68516985381424, 63.40872807037011, 59.96868283208167, 68.30528330066379, 72.31278120115175, 137.77572620537464, 147.95489355242356, 116.5689939295517, 169.01502184183502, 80.3127662558249, 86.85030163520499, 79.24689501982621, 68.78372588761752, 77.00605519664646, 74.35758898986012, 67.24081516022605, 55.8115879699701, 84.4473456936106, 78.68923194801089, 70.80312870380376, 67.31358783331908, 68.21357191087466, 110.81554408045082, 90.10099801814178, 99.30900824796151, 103.89245792883621, 61.82053026003811, 67.37084683808776, 63.63426113516166, 86.28106586067263, 94.00044834709203, 55.65868588595141, 72.35615867275273, 60.470968160640595, 59.82927555138171, 63.7076711636328, 65.60545759808598, 61.20334553038157, 81.03496923378385, 88.91482184438102, 54.782776597242844, 69.23600379953841, 67.64196435570217, 69.34862192973371, 64.10762676340234, 74.61390055739497, 76.79328331007012, 77.06474900571887, 129.95765067225918, 134.45921056106127, 57.16409235088321, 65.82173608185985, 69.40287486815323, 69.40990706211633, 65.94799291499413, 62.22129823303464, 57.87333893853593, 70.3391297218622, 73.97960323636232, 71.88248175200383, 64.04651865493327, 65.74479456952206, 65.09057933470356, 68.12340264810759, 91.89697206915258, 74.32506864130374, 83.90467103457968, 79.72521820049757, 80.95315209361067, 71.03911698166797, 68.72968060786125, 72.9954970649236, 78.03438003700737, 64.99954019040926, 71.35188378882245, 73.72681018199552, 73.99808967604737, 71.11397966349404, 92.67448893669449, 66.87179732929768, 75.61049264868615, 40.56375995935738, 73.36455764369737, 68.15283257956675, 68.21282290037114, 70.58533239729283, 64.47971929641523, 64.96223052205504, 67.57127722052137, 69.35361667715193, 74.9804041454336, 65.0381196912761, 68.30653345631083, 67.73987262537003, 71.82238861211945, 71.59505181983451, 68.92318359425232, 47.967579757998, 64.12677671393848, 71.69153651542676, 67.9647177362708, 72.20056115138775, 69.87684565607827, 69.39770726731578, 62.6830669341794, 70.24782704974837, 70.1134956952739, 74.83157480066471, 77.93831746056385, 76.11071791726617, 78.86580862315539, 76.17856124306371, 75.07386214666685, 71.53071620820401, 69.74622809610146, 51.739607832074014, 66.09670145438362, 52.47869411945928, 148.14306620148903, 71.31519045533635, 73.6615931300678, 58.40152999877792, 68.74003121526243, 71.93987657640419, 69.61216298018151, 65.14550496797088, 82.46279043693679, 62.221506806985104, 58.361880109245504, 103.76810867766999, 60.870622302137555, 9.915732638174012, 76.6349778653132, 51.242738772372654, 66.38968985385574, 71.7296909227052, 66.92886674694847, 107.42052003342828, 118.96723315319717, 38.98925462965817, 62.6829089323397, 61.2910331915516, 73.20648098069259, 66.84360554964287, 71.22594068325104, 73.28879479660927, 65.22732015737692, 69.84248570918427, 67.9841677721273, 70.49889327935641, 66.39972564693666, 66.6317352061805, 73.75350392748149, 68.76532647115123, 73.24408181950317, 65.19147820470342, 73.7086748479781, 69.46966859698486, 69.72686594625316, 73.35122735672468, 58.11572976241628, 78.02892657884549, 64.86621049646382, 55.842307845815874, 70.68726112128786, 65.32385091866284, 71.39907579397833, 69.80881837431299, 89.86934562305362, 142.46817665429072, 91.22904990199201, 68.03616056771293, 79.13008842347276, 132.4934026194558, 93.9023136455965, 63.60096653771301, 97.76579426809548, 66.40525561626012, 69.22103269728642, 69.46335569658096, 66.708518701183, 66.98679444243706, 66.91294451233891, 74.43653646047333, 72.87743080114747, 72.54402873573777, 62.599517448255476, 61.90138018860725, 71.56713013975296, 70.12382163569234, 67.25519544316165, 39.77822519306323, 175.6058403174944, 32.46296920603648, 48.782940536259886, 147.6162954399421, 70.49904611264841, 72.29747224661361, 99.70109399349353, 62.121456982237376, 49.34479554521933, 5.462404909849096, 78.53846109545489, 68.04764065117052, 74.16885244579497, 68.14186239407029, 72.49232547886449, 68.1121400838301, 69.68028133894906, 69.45821270963039, 76.5632503823201, 62.34432552410855, 92.11660961628964, 71.99451596593299, 73.17005487308282, 77.000385053358, 5.8467613275551304, 2.8151378476804956, 64.95098291752119, 70.47719750040434, 73.43293905992326, 71.49791620297994, 85.40098278012931, 96.55634872018716, 98.8349255938727, 92.54715587692372, 94.01108641172289, 72.31790356450459, 77.21537400068078, 58.4815123697821, 23.880392205338147, 76.01290939607179, 72.85422293107183, 83.87572486772294, 94.72253087889962, 77.70012953261588, 76.04321101868055, 70.79402611049272, 65.68738618901536, 99.74647281030053, 81.20617526095137, 80.21090301137333, 78.52453333530833, 84.00674754608251, 78.48269270632639, 63.67598663095008, 68.14711124947476, 72.49655616076964, 68.98883232304617, 147.26114419949758, 91.10991847059583, 62.17878199783449, 71.43557826882248, 85.89986413298963, 73.27764533843185, 68.3553536762391, 85.10248397840755, 71.24700600739732, 93.35835892147855, 87.04844706623444, 65.23046126448253, 68.05996828368951, 68.86100758175932, 69.20240083645145, 65.97106785612563, 62.40773436318572, 59.45953778367415, 72.45745870510943, 65.49684604601389, 106.44414401782862, 58.543704276187576, 68.27078600024184, 65.75625601617844, 64.1083865070142, 63.89627819218359, 64.30340821217526, 66.14233961405415, 80.84289358663545, 64.42735256598964, 67.75353750645866, 70.5965586130649, 72.05076480413004, 68.30603392902182, 72.28475006064076, 71.28343707296989, 70.73490172698183, 63.12712951767221, 73.17666798288681, 69.9022462547653, 67.8008029926583, 65.4050532809598, 59.245762822775035, 71.83210340421488, 64.82849147702386, 73.3153505822496, 75.45470809162973, 69.14607380579831, 106.70403569831007, 146.68014378175405, 55.44484888926018, 36.25553297995253, 56.949181491634874, 13.427504106820033, 168.935286213412, 37.82801409352962, 19.3263596416502, 67.03426352675201, 74.1929855940399, 76.07489600040176, 53.21317662438495, 150.0248165907945, 37.90713362490002, 92.48933188138393, 67.83561496653756, 71.7603407366677, 78.19265756121628, 106.42140878867947, 35.40976968269791, 91.50292170895308, 69.84948095922653, 71.53498322221478, 89.23574389343915, 73.99183908094952, 74.95636377006923, 75.2054146130523, 75.75969154318744, 51.806068477899814, 78.93218374997001, 67.84140504335225, 68.5063410176453, 68.83148750968385, 71.06527943492563, 73.9501604927865, 68.19927900312237, 70.61151003154143, 79.95139982476577, 68.25428232794603, 67.74931215797848, 68.92195986183758, 53.752307858008905, 71.32394746100151, 69.961803956065, 72.12319817774382, 66.41700721208217, 71.14437387494871, 78.31055651126336, 71.32910609071867, 70.86913301196965, 69.94431661606097, 78.85272869800933, 76.87604206347534, 75.74605954709172, 61.55281159207156, 64.19725560466954, 76.2608451698441, 64.21979584953499, 67.62798658096999, 57.66857663750685, 60.14921474800045, 63.258090233814876, 70.4725799077622, 67.62002804454949, 68.91253809587913, 67.10271127659456, 60.7711958479657, 68.50088383928656, 63.49334276038444, 60.89686744212594, 62.489941832474706, 68.73012903357633, 67.00968905731521, 71.34596786016928, 63.03894505500984, 71.22497832528464, 69.2018831072999, 62.133099775179815, 74.14703957665257, 70.66589732649275, 70.06153288056846, 63.94417796847922, 69.60351918744745, 67.66859947691243, 65.9117460985705, 56.412557481430994, 68.5647548237057, 62.782007188996545, 61.99540890515994, 69.12345467799697, 73.26885154513982, 71.78621888375808, 54.53482802724362, 68.32780176736364, 51.733573446731164, 65.50722315827151, 71.13837559479117, 64.23430065512544, 56.21162337152027, 63.82618410618493, 62.388350924698145, 53.0979022125629, 67.01605708169198, 70.01150783596887, 70.0858637004916, 70.87918862130665, 59.50335074174158, 65.72418058174755, 66.10093569814285, 66.9156100682323, 63.78215976357504, 68.94063065139926, 66.94917365596551, 59.74061014314625, 67.92146630498058, 67.977758491052, 66.37443193936669, 63.9442825919539, 97.39727424583519, 72.24566692189147, 68.21875428547676, 83.52571926135174, 68.45598190548657, 73.85643254242083, 79.92785507484734, 68.44193146772976, 78.54568898189126, 63.584040162781854, 65.75082329759492, 65.01412809912506, 64.26559640428164, 67.92530992021744, 56.530153076680755, 63.64567282835682, 72.32203698551918, 68.65328488919096, 63.24949346650973, 69.66569963296827, 68.91821992287136, 60.33186797727952, 69.04677571192279, 63.90085699516731, 75.7232922613652, 79.46984750742061, 77.04113483760104, 70.65113451101206, 69.48550322175382, 73.54016400371457, 65.88529063654799, 70.81603840099567, 57.99647787086332, 58.37436924996793, 78.07107058419477, 68.57142674789812, 65.84914723101504, 52.57773989430569, 54.63394709308831, 57.05702900891088, 69.13028877260952, 71.34429168927609, 72.31362781145829, 61.377188881102676, 58.254414189608845, 73.09869398780111, 71.88846625353601, 64.41437507799073, 66.41635450731859, 68.73792002814858, 67.91097804357317, 73.00598073935423, 47.97882264380406, 41.66660592813438, 65.83216638963914, 68.41908106955712, 81.90084782911953, 66.47075673161585, 65.03499120018684, 67.8570488392573, 74.57691043998233, 73.97917034518716, 63.48010268160337, 73.07085198837025, 85.14998005316669, 75.09734274199444, 64.78070398055938, 72.25805722143082, 60.858863317022184, 70.1130672901871, 106.66307513264732, 110.67340483306099, 79.27818201714567, 67.36242458109535, 18.628308239321765, 114.65342875279313, 61.78075539645728, 71.36193747758695, 64.97982097614876, 64.36468095858002, 65.93497266816689, 66.11193117754367, 69.18243360461517, 72.77049407364983, 62.94668537849865, 72.58321695168547, 68.58929458368053, 64.24879759453175, 72.1134835739772, 57.12185351050033, 61.78305225006413, 68.54579169604725, 68.158474791156, 71.39020127855129, 67.62971903264335, 70.07055927376365, 57.46370964470671, 98.1383727632289, 75.06654665809675, 62.12497751976179, 68.87349478559807, 70.34783533349095, 72.02394832122124, 66.49864216049184, 72.52817533706809, 78.47394225224542, 66.76503947498632, 73.34175782618803, 64.91272919275262, 72.04261897060881, 76.60762347883282, 67.71595928930071, 73.03364454530609, 67.25271683781145, 58.330469885370086, 72.6967010440077, 67.98079477863148, 73.72464411302984, 55.735392347124595, 72.7092587438718, 67.61849436671424, 48.385775289350185, 55.93348523606995, 71.381531889711, 72.5020257822695, 56.94143038050267, 60.6981105086514, 60.74468146985983, 64.76485276625971, 68.90082652670547, 66.54213809228794, 68.17880220380398, 71.31828171023813, 82.87748961655458, 66.69721031497106, 61.12894285637237, 60.35590130395569, 69.07371846101209, 67.45143608447643, 76.20378808892697, 66.27250528530291, 61.02237235337297, 71.77891050122501, 73.32129946572584, 75.66207755540225, 117.550969926745, 64.17598662452525, 64.977377261374, 68.42816530639209, 65.49426371682803, 61.0731763223135, 71.76482900553916, 66.987799588142, 71.82397991765998, 67.03017317130464, 72.18691020065818, 68.14197302604434, 71.17577784032747</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>[0.09197629586520906, 0.35605698827532206, 0.7588387835266122, 0.2628953245015637, 0.6097804861159396, 0.6496849343814459, 0.7752531859912151, 0.09656457450099909, 0.9999634202962301, 0.4437864645522208, 0.4845093926921272, 0.8520107297429249, 0.42711698553963984]</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>0.6496000067595487</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.4429012411198558</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.4754514376263592</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.1817770924468994</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.6160847069128382</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.2538628186737169</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.1512035505255318</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.5709170182837052</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.1266867037575502</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.2915122882353249</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -883,41 +787,17 @@
           <t>111.71656840734319, 25.622528727508872, 73.2353825654329, 79.9758414622188, 76.98439988073312, 81.48450693500635, 98.86571077256438, 66.34893819398862, 59.85385725885583, 4.556181638482675, 66.78644347855422, 69.06297458054027, 65.6278841181763, 57.745287656777265, 51.68933784393277, 63.27107351542091, 53.460821707758384, 63.793682495651794, 89.20007891280885, 75.04670665133314, 28.640741640118417, 1.2000201841380125, 93.7671826196319, 144.95295735463262, 69.90345670005917, 46.397248387243614, 58.99752141059602, 53.20733954565171, 60.26798447230846, 72.79547756870302, 76.31230016638797, 67.58346616530392, 68.31933589923374, 69.01833273639956, 70.65307361056283, 69.79061089071294, 75.9764019263308, 57.82700208109424, 69.06695860542503, 82.34180120631774, 82.30923984078586, 56.10225704762718, 67.74789485972495, 79.21727366993882, 77.10866792829447, 77.0375427672741, 70.26130099950466, 66.5548712174572, 69.30465209333217, 72.93581591686264, 69.89562872908441, 52.611961005211434, 118.23553561711216, 147.0559937624187, 170.3130890920874, 131.90477269974545, 54.150504681636825, 74.59350897233112, 52.96006796866204, 67.05418021815098, 72.64997535554643, 53.22821243097375, 74.94680211943107, 79.3075090152134, 70.11502921559365, 80.3695538657622, 94.66952110972865, 65.0083826276919, 84.70037941180658, 84.88019719193831, 77.4915089986336, 68.88208726758644, 78.14485508091678, 61.32691222426038, 57.05253533568178, 73.8176773027133, 95.81210814644724, 73.63829802853975, 76.22001495372119, 70.9113870633432, 64.60109390024984, 72.158947457957, 61.66745505201728, 69.94848140792222, 67.02303202147895, 46.322549920382954, 38.67411772167527, 149.19215293606507, 1.7401040545194355, 65.06749644582982, 28.780842303743743, 101.56293325602688, 85.65431208947119, 46.532655010891126, 30.3462277145967, 153.2052611134825, 26.601836560447264, 43.652260830816125, 70.6865961859736, 128.7797302952398, 87.81517526140973, 7.524333962559051, 143.07684864301905, 44.805761333933525, 107.96001685067473, 64.12177591119116, 69.21407366551432, 56.74773739876654, 70.9277330918319, 75.25415161533296, 155.23267504735756, 58.95086097962985, 59.18659760268075, 62.658523739891855, 62.712634279106624, 61.37983694484813, 73.07019777416956, 74.33367956982435, 69.44370084296081, 60.55123136967771, 74.52927745508065, 53.186826966274054, 51.30590441514944, 76.20783030252312, 79.47448334655537, 70.40589709916456, 79.82942670630158, 87.66724537093216, 100.57097521371783, 66.81485720906626, 82.3819488915578, 71.67876471301344, 77.14967424904748, 86.57478583431019, 96.73930641173655, 87.30166771385952, 81.32025945123412, 70.37515609897544, 86.93135341287481, 65.63886901576224, 17.430856790876483, 46.894014485105025, 28.620155849879733, 34.79860065207062, 27.940849865597553, 3.5006442669239006, 28.797157417135466, 6.390842369864624, 27.293352515537762, 5.165616486332656, 70.83133349822168, 66.02632056217277, 72.82166488012629, 96.71567689890148, 57.98316870084542, 73.5995567567034, 77.4011325388729, 79.65399816631788, 36.89289976950962, 50.074420201890916, 32.8541900163353, 2.861277884207549, 73.95545463243366, 75.65568626741707, 81.43619998436591, 74.73144665484483, 82.75691150380042, 66.33789062379077, 70.08140248675818, 56.57565400549044, 75.05648945084624, 10.670683587595246, 147.25339849423307, 138.4069389344176, 35.371715392744335, 80.03481489122647, 72.63174500723765, 64.69510428436561, 172.2874779574213, 155.53680214244932, 61.710956682030705, 69.70584806961446, 76.32492651045672, 8.41213689250967, 64.23727349535238, 17.079501757726863, 29.273537401900402, 1.3442542620415499, 21.86717882725918, 4.475651689307662, 81.58170206272871, 72.7393448453532, 69.85011572647821, 30.803315698731314, 59.77863801411743, 60.440182796782295, 50.06817169960179, 52.921486307911586, 41.44148719184053, 23.1133680700473, 137.83510166106214, 57.793043380552454, 67.8554041601322, 70.90490744287324, 106.53383710095035, 105.47425193988045, 75.00439802827653, 74.46746311702744, 57.76887987655652, 77.40802393085596, 76.31084492044558, 62.20824091323172, 81.50075694614749, 71.18581887026943, 58.162078891121446, 72.54425800366586, 60.253419481579044, 77.30554756991664, 65.9669240943493, 64.07167363858561, 66.13825973825615, 68.91901300331175, 65.01573756635689, 75.86781529202482, 62.21744849389939, 64.55898887554717, 56.24371960288004, 78.13652040635064, 72.15100840309631, 75.5854950096188, 71.38118775643525, 81.37190953794037, 19.78699330310726, 55.739492240872174, 21.696973294458243, 41.438064154784755, 65.76965380856113, 33.52541045793792, 39.31453810002919, 81.51404148088346, 72.88365815371104, 104.50696818338008, 54.28083163106975, 64.1424579093389, 2.402992849315814, 64.01277118868887, 78.63017283794942, 93.15563723903146, 176.34594226860506, 179.61357687218364, 71.3396979169715, 71.26159257071772, 74.52580609436839, 60.92154004783736, 73.02343292742272, 75.83940208136413, 78.78076537534578, 79.53833145000642, 63.8233537098181, 44.22822704244732, 59.250427482604266, 52.12544920574265, 62.921119916770486, 64.84592273461242, 61.9658515578979, 15.843506155491616, 74.05891414416584, 75.92377371556951, 71.50516137109423, 80.08076609761488, 65.09584265799276, 70.88810558933783, 135.8522570500817, 75.99678161055371, 64.55639618455983, 66.50356087351625, 61.2599510380237, 75.79008196741805, 76.9404052321327, 73.5465700724989, 83.30810465997561, 61.41231855958287, 66.66621769822494, 52.04259041348363, 74.02181836376081, 70.50496028160141, 74.40483435264578, 70.20083527426792, 77.84070905809595, 69.34762744847164, 65.99192675339606, 66.57307963001361, 54.79162273733143, 44.028258521434225, 84.74885631993514, 80.89850431508394, 69.20143633372398, 66.39042808212184, 82.96031646033305, 139.07648976782872, 173.1241262736983, 138.8851311525706, 148.79855114897038, 53.942479032821815, 144.29368650103302, 32.149632002675354, 66.7029998610845, 100.03433003714625, 109.09332336413186, 71.34186101152531, 162.85188550578744, 127.42074491506686, 5.439100831180931, 69.84343187081929, 76.78584952210032, 64.606255156946, 66.08925482227048, 72.42397293279754, 62.76904904713699, 178.9603598588087, 139.79644687902842, 113.61232977265192, 46.673562667774604, 44.49226152602366, 76.35454550961857, 50.633194619794054, 105.19909421990297, 100.3525929127804, 109.2025755136994, 15.47339857192536, 118.79641546120398, 10.050078904712693, 114.51708499877925, 5.293170515731001, 48.676729536871825, 14.679209860062356, 129.7967788828668, 73.59175951011646, 79.3127440838073, 78.71034508163989, 73.19989956904013, 74.80472111727529, 74.54555019932175, 130.19365733930297, 65.91352036724442, 107.97219827149885, 61.54642613594654, 50.71383579692789, 71.42727517766825, 146.5328228315135, 172.92797732732973, 76.1340269738814, 82.97664956459298, 72.31036004779847, 72.69002394795315, 78.68983301197012, 75.57362613473362, 68.45546318987562, 71.44399383952899, 5.129458393517298, 22.017434105692, 50.47909908009812, 145.82644119548206, 122.73884338362683, 79.9067456872327, 68.43042559563415, 115.80898892621822, 68.32685124415188, 11.185148780696732, 178.01458922391836, 74.80057887522399, 68.23216563490026, 69.99662794069155, 70.10516446625857, 72.35335699905107, 64.97325423329109, 68.25029892630299, 73.1745230517446, 63.87331241249694, 54.10473472064848, 71.326989524016, 73.40001055489579, 132.4946932183237, 72.4127147700385, 80.91614264742813, 84.24967540445009, 81.09293349046044, 80.95873641272105, 66.96641118847833, 71.41813067130522, 71.39533957335183, 66.85349495791287, 77.18665412270578, 70.66104914060834, 70.63825967139799, 77.83523185656378, 83.28134563083, 75.29608958475475, 78.25208915011086, 74.33401976991416, 66.87612035266672, 73.81049557078238, 144.11358908086365, 140.72847609772856, 77.11145406336908, 70.91940217996769, 76.37412617602551, 75.02929580752914, 75.08379899132827, 68.26330028963461, 125.17881217522329, 138.25456138540295, 69.19089995774638, 71.17628498246654, 71.76279258079242, 80.08525872030353, 92.39178790417266, 73.89645948925191, 79.68518000234756, 74.90037529831194, 75.2591912718039, 61.671640233581336, 71.44639212268474, 73.19668268597182, 77.36720845555779, 73.2281932347624, 55.32669141026987, 71.58882004137524, 75.3943245959543, 73.20739628841488, 73.63689120084058, 79.01107428097433, 68.3675207838622, 65.11162173059462, 79.12841209331089, 79.42791755833125, 67.49830394492615, 62.99383143561458, 70.73229992776663, 81.3867277586741, 81.13318982240212, 68.87212757250121, 72.43930529799721, 72.0033977151121, 70.61987172995818, 151.77960380770577, 157.32352436239066, 137.15670912643017, 68.8928390327265, 80.84155949505796, 50.03604970948731, 74.31229002314318, 72.56866633680211, 72.76054175040113, 76.10507665839476, 67.53845344266183, 64.3059287319076, 62.7336732749698, 70.66281346004783, 72.79751349305536, 87.00988654771936, 93.02154310012226, 76.28734040315625, 88.1290563943866, 106.67896905352136, 72.4887193750287, 70.82755365610208, 69.00157766917651, 66.84510103697892, 67.73270320591388, 67.871517246001, 76.23844669109813, 75.76528580622855, 72.17902122665083, 69.3066875548506, 76.15682461775204, 68.21968374044569, 66.82595840284559, 69.65343080116186, 60.11171145729074, 84.05797636382972, 64.74768848923786, 67.99154044238706, 64.54085335945985, 73.3877255637991, 69.56654109741137, 68.90947330178408, 75.78308283143843, 66.62319365179248, 66.87390810498106, 52.45908957488298, 78.90236361500334, 85.8117313991532, 87.54936729297017, 68.02855446865789, 73.51841988190685, 77.05655379712461, 68.34857182110434, 68.09988733345776, 74.77374557464631, 67.82451611910498, 80.78564003084689, 14.054633636871689, 158.2723066338919, 145.83392186010855, 85.77913985475614, 84.27797232918962, 67.12682256784355, 62.17500935070299, 55.99702624213329, 75.42354680091493, 68.67438897282958, 73.9970643248556, 83.89791605636819, 87.58908871054446, 67.54264185262922, 73.6884173772405, 93.51305570226137, 117.32520782451888, 177.83573994411023, 52.422420729344, 82.4954814550666, 28.15179200491248, 71.14219607952256, 75.9845970720582, 66.15434001008367, 66.56568208152918, 63.443515376801095, 85.58540213394316, 74.10851618661658, 73.51155001576389, 75.8775087248021, 100.11270038208693, 93.97074264142654, 67.23620834890139, 70.70074563010637, 143.75544759152717, 12.867001109014616, 131.98503278148917, 21.918295416605456, 68.03018571604035, 79.83485795482258, 61.682619085691144, 70.2562790884974, 63.08948323825541, 66.60971252648909, 82.37135430075897, 77.16025092694024, 79.025234067661, 79.60511400031841, 82.0535263887482, 70.8295597741489, 75.98550395032854, 73.37680521916073, 66.8352097299816, 75.85774144569258, 70.4531908778804, 139.02100312740276, 166.57775305034903, 175.16925319999206, 148.898646050195, 72.50554187715218, 73.82412297406455, 74.15265947659707, 80.78188572484596, 80.36083522313099, 67.81132739271543, 82.50684158768154, 60.08035531389732, 67.29012306722514, 81.3771987809892, 81.01836128227362, 71.9930715365657, 86.8289354527699, 85.24432987212005, 91.67480241363198, 91.64838941687108, 95.51732366037258, 101.34596083966689, 101.91461505492154, 108.24146988595676, 107.57384004653515, 107.62836868786975, 108.08858810504384, 106.13101634195891, 112.01473845949593, 64.38110519470668, 65.19914902031437, 74.49341669384523, 64.46013204211405, 73.72503514289546, 65.22533217257, 77.74877162764543</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>[0.48296816078727345, 0.5112880736901768, 0.5159403715776206, 0.644806628238209, 0.7462682190663967, 0.8215145257962255, 0.31844687360594026, 0.804015085768811, 0.31792059827969354, 0.36770523028321, 0.9213607022965815, 0.3273476478860984, 0.7019941762387635]</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>0.3119531666575253</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.822498122254796</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.08482172019700795</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.7258505638234624</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.4202973376583947</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.07224109335954176</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.3428711419562889</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.9954051222911442</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.1927131841079563</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.2218643944967569</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -959,41 +839,17 @@
           <t>73.04930786345984, 62.75377637787037, 76.45433244202393, 69.8623884228864, 69.13642184026058, 71.30237540502422, 61.735402653189574, 74.34334759113152, 72.29371662611297, 71.44198850840091, 73.84659905232111, 64.32697532979297, 66.57079301857216, 63.77953826253691, 69.02211524460603, 69.89853139303705, 72.85387557206096, 75.86807923740895, 71.22529128238507, 122.90805344428135, 30.02597151854221, 68.71953112377271, 67.79328777400141, 77.62143843535623, 72.40902656817268, 77.6126005275806, 76.38355205058424, 79.98748036778962, 23.42886914258808, 12.922379246753689, 0.213955788168106, 9.726223885775804, 21.602300472591292, 7.2917516070456605, 16.840334928192465, 17.23457541999148, 25.46630398583202, 49.4961856273113, 160.22918083387242, 39.46477718349801, 51.94061200015422, 23.825158951968877, 23.74264084206553, 35.1117237881188, 54.187422083338745, 77.18403575494109, 64.66053812934575, 76.00284537525448, 73.90674620960489, 79.70631943472989, 77.36440520591849, 75.16521802909996, 66.7313046333316, 72.97388227970345, 74.85255698720606, 78.65777902830163, 80.6363332728782, 67.61162466396117, 78.23504871191852, 74.80197852398494, 69.69074052550307, 67.80948143070887, 78.01061779036573, 72.23178794176113, 72.20902672976487, 75.58397046682536, 75.20729942541192, 67.83881898422628, 71.12950802131508, 69.91237382852417, 64.45359138764344, 70.1034758204079, 67.60288711722498, 6.275077783623192, 36.786855597495354, 46.26834963620987, 85.24433317217677, 90.12577321298072, 61.7034866621174, 55.65351509236694, 54.86923996901736, 82.22974196730087, 110.65530020308655, 53.275555972956695, 111.01944033329075, 111.36345879605835, 72.81396420843953, 34.46980839576009, 52.745653292809074, 59.66745336359906, 64.22074396305771, 57.864996357947064, 69.01582163742465, 69.98682286099279, 73.47603984792653, 18.39790411857054, 50.359000089892376, 173.62597007415815, 171.83956577295496, 159.49505643159316, 179.61266231201924, 154.40499606123515, 31.926413977419003</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>[0.14940727166138423, 0.5913040352109051, 0.7979713422910919, 0.012009564274606421, 0.39556420900958156, 0.029919075523376137, 0.010551666206430221, 0.7148566674443584, 0.26903464538328226, 0.9917074399287527, 0.3154704208884609, 0.028542921555536505, 0.42610766223979224]</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>0.02946982207631854</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.2977575213900818</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.8320008141876631</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.8820469182419289</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.8602989130129962</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.8900267542138435</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.1159510440349176</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.8724475127667624</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.8295383523080824</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.23335277116898</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1035,41 +891,17 @@
           <t>73.39993846546943, 70.13638138913936, 67.61165009655521, 166.782818603913, 32.98739657086027, 64.35304372096073, 67.95458909049444, 66.88650148842748, 61.618863112741025, 66.3742861600603, 66.81441590532086, 66.80249348867075, 72.94596984990423, 76.01303277879244, 76.02616884398111, 71.90590276320533, 67.57983935579844, 73.11101502373812, 64.21720299573983, 157.5390065428664, 50.86657036454277, 127.18114523699317, 64.87545562292655, 78.08988591501463, 74.29955843822889, 66.76219009928879, 70.85640784348554, 74.20304439063258, 70.60988023642555, 70.86903007321534, 65.81399614142879, 71.09452692803241, 71.01879411348735, 63.52105820218489, 74.1858580960776, 70.38365913570625, 59.31657232657959, 73.35428141480739, 67.23748076846458, 69.93447582108485, 68.52245991019373, 72.83983249775078, 62.67697526430453, 74.77871565228868, 70.59006335169636, 67.46705097994116, 73.41856760313992, 77.4382385865575, 71.5917587761976, 69.73574769695671, 66.82672308670939, 71.14778039378179, 72.02730032404801, 65.30797502882923, 68.35565202645994, 73.1008372351109, 68.56609678882876, 94.32563753525194, 91.89800381611686, 83.3692599683059, 74.98529469824138, 52.400019320256895, 57.596067583614875, 59.44404081058425, 33.90536412903843, 27.835810058670287, 63.896164795487884, 85.21401240705332, 73.02709878736059, 53.91455598327757, 93.50538352866273, 68.51494252644741, 66.56280123191752, 88.48712513470417, 77.14135158960259, 70.0937684480094, 66.84405239049019, 71.80753211356287, 51.79749251802352, 62.86090317036242, 97.79823342784232, 64.43110118379514, 60.75877370168761, 74.95387063530595, 74.46071298718755, 73.66318281480012, 13.218360872320497, 43.40092776785376, 35.63983542399806, 51.18833598189789, 21.076879518688994, 78.91840223468412, 69.78038852259257, 68.18475112328125, 73.12755610585381, 75.20563406532945, 69.98488835842828, 70.14304769161328, 62.3142884241165, 66.6992468615123, 74.42105796782653, 73.79078782637423, 75.0670084876018, 66.70555598962221, 65.35159376335528, 136.83237784823993, 39.310128451054496, 68.13543378612847, 93.13600995304576, 27.015326553146114, 130.32723763591403, 64.36855592972918, 81.35492540091458, 77.5511515042331, 75.1805289278843, 30.768584056610347, 89.38181320146599, 127.80550666844215, 37.90477920491907, 75.82558453879324, 73.52628204415362, 72.27016879900769, 76.4614612794981, 73.36429355653436, 52.87979866093941, 9.835928195484577, 86.90180134004028, 97.94039366948067, 166.34229059487836, 121.10671534167639, 89.4549564802704, 47.54553242438994, 69.68898133685829, 74.27889222318053, 65.95159103911442, 67.83367075324146, 65.95659312397513, 71.97174858159003, 66.94378800120693, 71.43144855071041, 74.38969104162993, 72.62943126523196, 69.48382599864668, 82.15735737732587, 36.15438564664684, 49.416087802646395, 65.2002222858953, 68.44852096022142, 68.43150884398514, 55.91743937113283, 71.93407853183399, 58.39879405504746, 10.001432437488349, 64.6803631697388, 34.13270412289833, 34.53670007494137, 34.773465318839875, 54.451004861391404, 65.78246820226558, 76.55784505618246, 72.27590891369715, 67.5759672326938, 70.77766176437092, 67.82364861807784, 72.80065655914979, 34.46347085465901, 90.78016032551811, 41.14159632760685, 108.40338781280714, 106.46274040761122, 68.09701343765892, 72.21431341421668, 70.52129828039115, 71.51227068922731, 67.5723256198778, 70.64565677811606, 65.65276872540852, 75.8501885285532, 75.77488717649345, 75.85528677730395, 3.1743349627139645, 107.27040428215948, 14.37980331621406, 25.044707848034747, 69.89936881729142, 39.28482709173856, 54.996782509947344, 62.73707517004866, 74.85967805042009, 76.73960712708532, 70.24797600637048, 71.15002792444417, 75.4989776821768, 71.419084895099, 67.84258997741296, 69.57146667753759, 65.5411846153873, 66.27517377826096, 69.71449760921381, 67.92351819631222, 64.13469089997565, 67.4788532142201, 68.93978071567555, 68.42520938232404, 68.5953577577516, 66.03089062585143, 67.22276504404556, 68.31463801262593, 70.15895197976064, 70.0062829207429, 72.22672347781332, 68.88936462302196, 69.1721332110914, 74.21972230569727, 71.75985067195546, 76.10873275818966, 80.73814317599907, 99.62217746736881, 95.27174345971832, 91.03259286311051, 74.6094597576275, 70.9085819723961, 71.83996528563404, 70.34188649090137, 75.13064420863498, 75.31531722237793, 74.30172863500098, 72.6110661513886, 74.66735876806406, 76.58103573003893, 77.06250531569908, 77.06773824216475, 78.49872396403828, 78.02973074802085, 79.94194044558296, 77.35935990482527, 76.76500597867927, 78.67167652337577, 72.97949189599395, 64.42879821614613, 63.76304660866888, 66.30216461285318, 66.56057280232953, 67.32349188803974, 69.0333695898182, 69.92881666642424, 71.18102160217566, 70.23910219829207, 73.9258730263629, 71.07450386496379, 74.58022954973639, 76.92193733669917, 71.59335892559356, 71.98730495490102, 69.9236848810287, 76.34275889844537, 68.827626272183, 66.74206012104749, 72.50927301498592, 77.92987290707875, 77.74130021468959, 72.65184477818661, 75.18723631235544, 83.76585370619041, 64.9653665324349, 66.41898715487353, 78.25677156086299, 72.53088351396346, 75.05491784844787, 73.46726795380452, 74.26914323449783, 75.23071570899158, 75.48722430703022, 77.03972641387509, 71.9509868023877, 73.8125939439945, 67.52530651399063, 75.09846133941396, 77.9916086417731, 73.12722806149132, 71.64962162443726, 73.11695382191814, 75.69227909668977, 71.39660244160407, 71.23514967778674, 69.85473691847005, 74.91675440032635, 70.40057133860178, 67.62379994035803, 71.28758561077592, 126.20088687894815, 102.17030440873918, 86.68187123061327, 38.90852779162889, 32.990646967162434, 176.0079464877015, 88.87113462471294, 35.922675166005064, 76.75409442358468, 66.67880207507332, 73.81759185223144, 76.7809952467625, 73.4170809269633, 64.75847619846314, 60.27016421765857, 77.25876458066915, 80.7843530761787, 67.6960231202022, 66.8682969086923, 77.587895113701, 51.87567941977663, 74.4024489204478, 73.22765853603877, 77.86792801426297, 88.74262877509818, 74.73831830385892, 69.51297794977098, 70.05857625523532, 76.6697569018951, 74.1762223448724, 71.59513749809699, 75.35086399045119, 66.16604972774715, 77.43209036210656, 70.64749114715175, 72.31002484418893, 73.04410951836094, 66.62776949454125, 72.91844516120005, 69.11936971732214, 75.36736102324632, 70.9452270500741, 67.78979112370342, 67.3683433847537, 70.25238296672637, 71.22632236414196, 71.4937699624676, 69.05779904726582, 71.92316646058057, 77.55037946478872, 71.70067249702265, 77.58919751187723, 73.47171291277272, 72.54326506390932, 70.56008624106605, 71.17337267816413, 71.93306129399477, 81.48120989935116, 72.97561182021494, 70.6797547004839, 66.95497873706717, 72.09667502666538, 74.1218227622428, 75.15493536153788, 64.3067193460918, 68.4343072714386, 70.21400633031676, 65.04826799202067, 65.03063347488, 67.89047037447439, 69.41331744537993, 64.87951953966065, 68.66454930908994, 66.44047521088102, 66.50509389672601, 73.15694725351766, 69.55212251669927, 69.84315259223044, 74.21655319530771, 73.36017205507473, 70.73821349430068, 73.10490787570303, 71.02176352529526, 71.10941341679843, 73.69369289979247, 73.58939449392737, 72.06901276906189, 69.81430042438227, 71.31589845696571, 71.93443379713268, 66.36334505130606, 72.86704737702833, 70.06784861829311, 70.80486702084231, 64.25813031610076, 70.77238384523147, 70.24865111681612, 72.33197587876901, 67.49500697603163, 69.42211007415429, 67.34430160942834, 65.86897614092898, 68.13265722539892, 67.66059159123176, 59.97635140753023, 68.20275406225969, 68.81022116053892, 68.8265260085841, 71.01298828184437, 65.39895284450667, 72.01117503109815, 72.52262004889627, 70.99434718249616, 69.62594218132455, 69.48755104623918, 77.28540481578374, 70.50878620257615, 69.52035641490286, 68.85216968881136, 65.91382926182726, 68.28150921236578, 67.7451707654509, 68.5391003992508, 68.06135662352206, 75.4340221364621, 71.78050356333702, 70.30022387003727, 68.82994230412277, 70.82355363449179, 68.42286870319653, 72.10285310981598, 72.81459835548975, 71.18470042963936, 66.30993267090476, 69.31667355010866, 71.42340960292086, 72.18111542909772, 72.97799585192396, 75.71429911918737, 68.67496918279662, 72.19714444485273, 70.23551801588076, 78.50391220775353, 76.16897228935385, 72.11703426783492, 74.3541259888501, 73.66835649135876, 74.02303582430416, 73.06687834462838, 72.85387577039668, 73.99623913257749, 73.80495482834847, 72.47849258492354, 70.35305550431704, 71.4983844179473, 71.2749891721598, 71.4825872577332, 70.91141032102104, 67.61051739223241, 69.6424830953981, 69.35617429324128, 71.46106592750272, 71.55192836628227, 69.7932603550598, 70.4642602084704, 66.44897815285812, 67.10752060982135, 59.77826061861085, 67.84483310321463, 72.21194034076991, 66.89492868137614, 64.87602421715361, 65.5532607314132, 73.77538810313712, 64.87990267182334, 70.56144882283695, 75.32797839571747, 71.30984051265075, 66.08672972257645, 66.56690420411466, 66.90974047652848, 73.61115079345991, 73.69803788130987, 64.91066172990546, 72.69684282094364, 69.25663843323672, 74.3363459008998, 65.3697648130004, 67.31371749258948, 71.59090743131324, 70.51594909981871, 74.02433599937254, 72.72431812447697, 65.30852541139176, 72.26894250077505, 66.13747574121632, 66.59696186651395, 64.59464060416543, 68.19281030068221, 72.00101051291423, 61.90144485201357, 61.75679437864565, 63.62544830620386, 66.51475756601783, 70.0290066928213, 68.49011176272171, 72.30553016133472, 70.05895016863218, 71.97870299772805, 71.86219562781427, 70.17082594590049, 71.37426634111254, 72.87641128356097, 74.2590393713798, 72.28679310840312, 72.31448906153904, 74.95200131414802, 77.05681728923035, 73.2522131534972, 72.85160571443093, 73.82983137730305, 73.63495515407683, 73.0243443679633, 72.81577790241923, 69.61623362572703, 71.8956966262281, 63.62510051158355, 67.6303564171265, 68.50767020829377, 72.01557015296737, 70.89713263448095, 74.16098862739942, 68.44131403230999, 62.3164083009366, 72.24802709577544, 71.15260282795387, 69.47017225477305, 72.50784816331493</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>[0.752638466806138, 0.9153177654452064, 0.19838017064050384, 0.46364377431655135, 0.26491925296793606, 0.7847852058366582, 0.24394139314963592, 0.32926395120964247, 0.21737921248872838, 0.36802443660387285, 0.6895729812698121, 0.9653362860639789, 0.07029351702630904]</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>0.5894634124050564</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.7134109399119902</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.2083219446623927</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.7624967856790871</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.3319238263395359</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.08610585690732897</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.217633037281097</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.01768237377447412</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.2716772147581611</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.1526560782004196</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1111,41 +943,17 @@
           <t>77.10921411215645, 73.89992078710996, 69.40256774179187, 58.69494630042656, 58.21107330776641, 78.02725683487658, 97.19770458602304, 68.91250441426719, 66.63758813022662, 72.175594629117, 71.8330098640587, 71.497525234741, 77.91776042292102, 70.18427325609295, 70.20062358325075, 69.56125615047138, 72.84288235506222, 68.58298541008249, 68.82609187273053, 69.66210794404282, 61.996502394604086, 55.03675382259296, 73.67115216041891, 66.01187913372547, 71.33054166338937, 64.41086471678531, 86.92272145557511, 70.97750110764993, 68.2601275665623, 68.05459059018698, 58.253609985427474, 71.84445239266496, 70.34432709215186, 68.27275066933103, 70.9045073868196, 72.64010115347561, 73.7808032491374, 74.6278748660535, 66.46544667381934, 75.33739443570582, 76.55806706468097, 75.06214849204542, 68.06366195641891, 70.54935575468981, 74.8356625808239, 72.03843647823356, 72.05280575510642, 77.65582234748614, 76.67759605630434, 69.32783006892953, 65.49304329320817, 74.90877552589724, 85.20344779310784, 79.50717794022133, 79.77568127348076, 84.49600456801709, 73.3108381899707, 69.66797460225838, 69.77338460926924, 76.64728538203593, 61.704043295009335, 67.84827902473079, 69.27074837144748, 68.78655917840345, 67.75498291567544, 75.36477966062408, 80.6252684913594, 68.45654962991925, 71.90761195407593, 91.77784150860336, 88.96783594380796, 70.52247816228649, 66.17109475498638, 76.00490287511901, 71.47279524884162, 75.14644454211661, 73.57575030000038, 71.71583566474445, 61.70916099281139, 74.6134405955467, 91.77978842919742, 74.741592098929, 94.93918761009483, 86.34775079505998, 73.13322646922175, 79.10574448877455, 76.82800445460705, 72.10177457848197, 68.13258711233924, 65.59874007142638, 117.58620785715972, 18.67880808009021, 34.01843773617487, 31.29762320799073, 20.43343171614287, 70.19047666350937, 27.932782657780304, 147.29790808328832, 56.23233211534533, 99.43501472755273, 93.44944132923115, 85.87910755281344, 56.740816671123305, 168.81955254017706, 107.42001041841496, 112.87286085837886, 121.50806939368269, 16.723056927565214, 70.16900377217931, 73.27441744703285, 4.290611028251206, 50.84504739428396, 82.56068916638485, 75.23799569879446, 72.56816181506885, 80.31244919498292, 76.83588648729912, 75.13755005990508, 88.22882004517251, 87.35542091003587, 77.67589723347415, 83.39880566358701, 87.34806749599305, 75.27002356064115, 72.27955969847469, 69.4322118496037, 95.27071719322379, 92.480215196222, 79.1059202656649, 80.54234543357204, 70.79423895399057, 74.01722447132616, 90.82390313417245, 74.05158545713886, 72.07091081149889, 73.34798938835766, 76.28681682803678, 74.25068841410953, 83.48959273497711, 71.29717528561635, 75.6357592125029, 85.13052814124116, 78.80872739882598, 88.9058268280568, 66.08715108344497, 71.38087178193399, 71.78054730642374, 85.08469956888908, 73.71476808354802, 97.47545416486038, 53.755135747567486, 34.93488922134282, 14.505788297394101, 87.21213786401418, 88.87159741705496, 87.5741494201079, 95.44185812657192, 80.54272381301358, 72.14397578453135, 73.42328617927326, 78.11362613488446, 78.04520114440962, 73.77732910195597, 74.73217549969392, 71.65635963315744, 69.54378506547906, 65.19130452965034, 69.03209535836255, 62.52708195019037, 78.19913910082326, 73.49021908421773, 94.05909611166983, 94.9318680664023, 94.28100508352671, 105.01399769674099, 79.27840530831912, 61.13823664827433, 79.96063721591219, 73.54921766598872, 64.89465577902753, 66.43721213087798, 66.82863946118502, 67.33863216046035, 72.4572804636701, 74.62784280311868, 78.99133480421565, 96.50756911075864, 93.91782181382166, 84.77448403305304, 88.68899528779764, 75.08821231266585, 69.58135126953417, 70.05297501685574, 84.20698390018894, 73.23786601390654, 69.23544719829678, 81.66483360310649, 75.80642323872054, 67.1889774210754, 31.22016495622319, 45.33293915105709, 43.40957394585661, 17.44362424752311, 25.84930570411211, 16.574114442014473, 11.88682228842998, 30.24714872081486, 54.08337356623691, 66.0966527725083, 53.04188793502149, 60.356131668841, 67.34602386239462, 71.18831548192779, 64.9584036584082, 62.54826779080386, 77.08091086977988, 70.90832259853106, 67.89319479727985, 69.78151851847217, 79.69354205919579, 51.76476059280116, 66.37963827941012, 29.497184543097873, 97.3210788514152, 67.78847031889266, 70.98906655444942, 80.45317025705856, 84.87075526768633, 69.49950322464986, 72.50020435180272, 66.14231518142192, 68.35051260988365, 72.47393583772426, 68.68070040029367, 67.38347990190523, 68.3607732036431, 68.53628214193256, 67.35801614638972, 20.873133462175833, 65.16381374355079, 154.75132368253816, 157.95488801038263, 126.96585278404993, 17.274180588754536, 101.31531639588344, 58.645230440339155, 69.38162809898151, 37.322782083506034, 46.23118419696762, 69.51212994121632, 73.1601240045254, 76.55841001886355, 61.82229337512953, 67.4954836127409, 70.01025480848017, 63.77969327914878, 61.31211969967049, 73.29846351254336, 65.3181119202682, 64.9820889011297, 63.27646135930951, 66.2593331100876, 68.52522246469698</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>[0.38097395484590835, 0.3050911045711808, 0.7146862056184795, 0.9483835096527184, 0.16897408235723488, 0.2599973753649306, 0.961141255085851, 0.764419410271551, 0.8949853914690147, 0.057647040424028906, 0.3021606116052632, 0.7583449795325015, 0.44754788204308016]</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>0.1277895059205518</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.110169174413639</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.2984196670256184</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.4757982117041015</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.07530389112264813</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.2673438252940191</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.5156972595257956</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.7414335883844362</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.2279978340371703</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.9623447386657734</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1187,41 +995,17 @@
           <t>73.07611051652408, 68.9835473198922, 70.00173985922319, 70.92249842021127, 61.72484942259861, 75.09741681382806, 77.36313859639662, 67.88251602475945, 72.69464801113757, 65.09367700689941, 33.48931828388066, 72.60445301963968, 71.81419196215215, 27.954574763400686, 59.118558450364006, 61.943863494609204, 69.32367150955093, 75.79386043369551, 92.1117480210692, 81.87640561936078, 71.68513245206107, 70.51797711290173, 72.72595097408947, 72.69339458598188, 68.13235847759381, 77.1136717772295, 65.25426915984832, 72.87811664033548, 72.59070987248548, 77.14632053043182, 64.5594964267754, 68.8867379240271, 67.91223325325961, 69.48764694927507, 68.50137044838593, 69.4733069723248, 69.48992981273231, 77.88112715745147, 77.40110716377976, 80.1030419687336, 72.57116254047283, 68.39036725269213, 73.13833586205315, 63.94247787125946, 71.32285587661255, 70.46996614903078, 13.165746973833196, 93.44437228802579, 59.142190424479175, 62.11435744890561, 69.58229862324575, 68.26507343571055, 73.66095967496355, 69.48349119003099, 72.03076931086126, 76.28488114136438, 80.71109410211295, 25.27212616551635, 8.587564670413908, 50.488001356874605, 131.84520793089985, 20.56472355815494, 63.42900482657619, 69.34660890873913, 75.12094051834642, 69.12070084664619, 61.08763946772159</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>[0.5258278390569131, 0.9717571793874689, 0.4914204169438572, 0.2558951997071859, 0.6793011476843469, 0.418635025272717, 0.16061354526462812, 0.7735376414681572, 0.44890802576966915, 0.4347754143585798, 0.5166833116633833, 0.8521233219736332, 0.12754448201798851]</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>0.4748013367166292</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.3050171594085647</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.6790487092716762</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.2951844975825383</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.1904574582976331</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.03480432110592269</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.2774089888103349</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.8578321143020027</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.7525736085893289</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.2139538991706351</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1263,41 +1047,17 @@
           <t>80.12948317781628, 72.12336139572095, 68.73959888548829, 61.021865787265924, 74.60183735533633, 64.55666274590014, 59.4368329988809, 71.67691751177206, 78.9213250490974, 87.33745537223295, 58.39329765949567, 79.50082548434507, 69.44123816125327, 115.96122384630561, 152.62246741754458, 80.04830396305614, 62.88881962983315, 5.34104451507742, 31.311651606048308, 116.58647166027106, 32.46665616655262, 25.501395936632186, 37.48367609030427, 127.18705754752278, 63.6894218892526, 32.536248296892154, 179.23382292108587, 173.23648573217756, 177.90470533496452, 50.097433980066164, 19.03635356178777, 13.537165411537707, 40.308692243861636, 55.53947411394158, 56.550660851801986, 58.89013687273772, 54.208011635141844, 60.29372965643496, 62.652730144709594, 56.87834390349468, 65.44194580134392, 129.04648061093448, 99.75337575674293, 29.51983714065064, 123.51715427865506, 70.01030513829669, 53.889021389881364, 43.60275444447557, 63.713467511958726, 60.98394828006383, 20.213003397332294, 42.23967925545575, 58.74435556118875, 40.34462276915672, 30.68802301546201, 102.33025202949389, 83.5258840828456, 97.81754744338402, 71.79291637897259, 78.49642345314298, 18.81859049497848, 41.18372326733528, 8.791305681203937, 30.09215344049547, 31.73231499996465, 37.078263725253514, 151.1904169095549, 48.33376611402977, 124.71033096497659, 69.79678553218443, 56.86877628508674, 72.95310027197483, 48.246925054566944, 36.73132110148427, 54.76327930203677, 92.41845150647657, 88.57905793955265, 87.902417463027, 50.78955463802931, 44.18552285489433, 92.16822680305258, 69.90938704494936, 60.81521807897618, 71.99964983486943, 63.020865249785444, 52.48669047644091, 57.870027142549084, 76.55889794625595, 56.41830312651173, 49.56664827730414, 64.67578854097455, 67.67298789342193, 33.4284832947698, 36.61400865877908, 63.28272091871663, 83.0912158128789, 47.30865389762973, 42.00777707626233, 46.824259380351485, 126.67626753287762, 22.051635443874872, 23.063976168713353, 40.65158620199549, 52.08237043270135, 127.13842536256271, 35.611613941044695, 33.96331247272046, 54.61651083539702, 68.34692615160073, 29.847404784431465, 62.09471823124279, 56.16530971904713, 70.48568220689496, 67.51566574020693, 67.03654453514328, 43.603048871708545, 56.90225660935531, 21.508947023752867, 14.53882029036193, 65.93004836586336, 166.6954446142553, 58.3087705626084, 85.13483691947305, 98.44643390764061, 72.425822866657, 60.20201676296393, 26.830843809782003, 128.5126992629586, 92.39517868649706, 139.1981753986986, 48.30138755317781, 52.45377926776554, 86.4040350875314, 65.29155450385383, 87.55999429273577, 73.30815421238695, 70.80561494105926, 143.74254291262133, 125.25598407955111, 45.8690550813104, 121.37811423275335, 11.608899941685205, 75.05054751442242, 67.33495739584482, 66.97863248415008, 64.61405223985389, 67.79635013092135, 77.21972262576516, 50.54239580912765, 29.407544149952052, 39.407498027107486, 21.09694804350665, 32.989043745709566, 97.38908495240761, 159.85863356899324, 33.41685933176048, 50.04604117197269, 172.55927986799188, 21.04823141941625, 82.80212635043534, 51.74107977127462, 19.278650362490364, 75.64104118832253, 64.8122751068473, 32.96912770489668, 57.79503585307167, 89.41146495160808, 37.83829302603289, 69.16055559339372, 63.97264836249449, 95.4965773543262, 52.37283594117793, 11.962322296657907, 12.62778865870048, 39.19001650627131, 31.20322869640799, 170.44947604054082, 18.11936861118812, 53.357208144880985, 35.08500275130788, 64.21549708440719, 20.541292539329596, 119.62002480377213, 6.028583415386623, 90.77863734514945, 86.3868700799244, 3.4718609476544025, 0.8307023255622683, 56.4180204408228, 64.0638244983554, 47.03758231803788, 155.94141601290218, 137.3977396948392, 30.591555029175332, 101.24352292772348, 68.41879137660676, 86.12444452736712, 64.90999810805938, 76.86985469634496, 77.48462470808494, 68.87744502729197, 60.75862022896617, 58.55512299011602, 50.81106173793825, 60.37454888833866, 5.129148852089354, 39.35604714289702, 112.87273028115506, 33.584986265863236, 63.993170424917686, 149.0302321439662, 36.215933405986895, 91.93155066318518, 49.95305531055752, 8.921585584155148, 50.252241134932234, 45.851913147961994, 51.99892228075035, 32.92744469454681, 5.536658712556796, 59.179701968596156, 69.1811326031335, 26.629169538641417, 66.65070479714545, 91.58279901813654, 87.70463680180644, 122.27461443608759, 39.14561960819444, 58.8747492557783, 77.86700127301192, 66.02058389445718, 62.7092239832268, 68.86657813125571, 79.29254288658605, 34.19613709082352, 54.99320489037269, 71.70613340419716, 69.22171374706745, 75.192257410935, 86.12260454249011, 73.05592082915041, 78.97048127080527, 81.7012432303115, 60.234678720807686, 70.19668102392156, 65.68233653569666, 77.25159617455876, 64.13221059232222, 66.48786930822449, 77.80203546236419, 77.09861828884642, 104.82583180858633, 43.26345766378021, 115.14234149670237, 55.54226726122302, 104.61742476454194, 86.12809148668909, 67.47106996425782, 78.25010922130708, 63.886791711520694, 74.65677729878844, 92.89310646827519, 172.52219078617543, 90.46810536307932, 158.14271980966092, 120.57348902597114, 178.06116188515335, 108.42252900395111, 166.05269171091658, 142.53787009821417, 105.73129457322463, 91.5086601855146, 95.92773228662864, 2.672915802798378, 23.989141272620316, 53.31395042117358, 28.28084854327229, 12.215852313016427, 12.67298288118382, 31.090993058469664, 82.83181954802315, 15.03654874677043, 124.34870591720446, 28.587825270179668, 56.98473560441907, 19.53945680122437, 37.46460027249984, 64.45128910867062, 75.87946070926283, 28.916122763126303, 40.245342423432064, 20.731595359528967, 48.317436932297696, 50.98384806481501, 27.854033874598063, 5.221937809391904, 42.77536553029518, 151.43716259710612, 62.53801122832412, 72.55103534602327, 173.29585747303324, 125.94575573606467, 154.8808351406125, 131.13622388106975, 164.450358378763, 101.28514878721134, 107.55930966569478, 52.71817246308031, 57.33989854032772, 79.8626923777919, 74.56615084082802, 100.07195099186042, 64.67147852885766, 74.37230963451368, 73.17332950861172, 77.90305944979883, 71.79994341206678, 74.0915384359893, 53.64539879074422, 33.520051948066616, 176.17913691480476, 84.70814106113134, 55.9361376326261, 48.628906477856795, 34.47306345531893, 57.6707801356789, 64.09236191297313, 25.6742709889988, 73.96827177788725, 51.38882880140747, 160.40016031409428, 25.08295338225804, 16.692392415795215, 64.85361449101173, 9.621330716749394, 54.48428174863715, 49.967493371375156, 60.07887449412266, 65.61348967392337, 52.42079241818859, 68.89414178198155, 64.07162895205231, 60.090062194568176, 36.11403869308708, 83.39420532496287, 10.558980895695555, 20.655261346979405, 39.43195923086963, 32.56805256453803, 63.5537258675673, 56.975289575311294, 45.569583850720704, 79.84659276813555, 55.61358160758202, 64.49703647150001, 1.5760465590499346, 60.33203753517591, 172.97628040729222, 139.72495232143226, 23.18747364928228</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>[0.047159801869914864, 0.38492657027807853, 0.6309243873301909, 0.7877794776491526, 0.3258279495106048, 0.26866564488495903, 0.4712731541592853, 0.6786811866294306, 0.4494571929771457, 0.7262596092585093, 0.4076038047434104, 0.789759706004815, 0.08217516506904443]</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>0.4266907342126949</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.2924489023681529</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.5654758510159023</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.3974017279756807</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.97079342564716</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.3438327757791827</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.4406391752851357</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.5236703874368092</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.235803222722022</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.2789072789145763</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1339,41 +1099,17 @@
           <t>98.96800322262933, 94.75200635742577, 85.50924624823234, 78.82441944121871, 72.39191084773134, 72.83431392123444, 76.37022338522354, 81.73209376698026, 77.08818321023692, 62.215726587624445, 87.60656593974718, 75.3307081823638, 61.54401956242955, 68.15912662774429, 4.0843411822554945, 27.812205327747467, 165.06728324348177, 27.999230159337717, 22.18611929376284, 20.408606943339212, 17.223158579206682, 53.40988859767236, 26.198733020335382, 105.8000475790623, 66.17518667967386, 39.433703721163745, 99.33890270853237, 42.120469849489005, 45.61864278324472, 26.01153505671261, 29.808821462571835, 36.9976415586983, 13.617057946803515, 76.35356073539315, 15.860861065746233, 67.79301565756144, 8.37731086552554, 66.73370179448014, 2.494091859778, 43.409411201317695, 78.80423376993016, 31.084581807060626, 25.600918077088, 47.27843902762215, 36.96702989790787, 51.085221325858264, 51.834727930478095, 74.6984973974013, 68.75752729757968, 78.13513901652091, 66.4373703008765, 108.04904071803296, 62.23515363086066, 34.47599858218326, 77.44127458709859, 67.06475077638842, 52.60043515066484, 39.88967092463118, 47.92176113413625, 39.64409310808371, 26.011056245781763, 63.980490848859795, 51.201865836649134, 40.702581473753064, 85.70357785324988, 55.741024604250214, 59.07179758876218, 57.78431445458725, 63.38930625367431, 16.278687023669903, 57.79718915781817, 100.62854529109114, 107.61305942246963, 20.130553935957995, 39.07264037078572, 58.176504092246226, 60.35646768689779, 41.926061067444564, 14.614731727462766, 27.954350527666502, 29.236088192698347, 32.263653709207645, 103.57962120269474, 65.81067735301095, 156.0546369099161, 145.64400061719832, 102.6318812497863, 97.57910970890153, 3.272230093557542, 9.340394762072714, 68.01636494694702, 19.344631580863876, 94.93154201609812, 30.296122372319715, 17.641901822805963, 69.15074938480338, 63.72855870309633, 71.84387275410981, 67.49184881343727, 84.86463997178915, 82.70762806710381, 107.43105180831698, 114.39154901535942, 100.4585897429362, 112.05202609407063, 90.49353298264094, 29.295623829870834, 92.6197515281609, 98.44981581279576, 7.397060482386963, 16.47025988365313, 87.74056061188847, 32.66040611695936, 138.99160132343954, 116.88619624892257, 125.91491055047351, 138.05546991496507, 53.693073063259156, 53.23989011809952, 64.89526816812662, 62.19338874185195, 50.92425086394609, 42.01993250886772, 45.00363357452227, 107.13239825563608, 80.20887695427284, 49.22394605886887, 60.72488632167616, 88.61705788508904, 90.42943049379019, 50.988149054832554, 86.4449874903994, 80.17835315336197, 84.19244432624238, 57.51948280143786, 73.13780272820074, 61.980136840663135, 52.34576976876189, 33.84960074118587, 60.71741029275894, 103.1985729373158, 71.02765036230147, 66.67997511597919, 25.639266875387772, 88.21861138601231, 64.60966352256422, 80.94138128435957, 81.4825433332154, 64.71723001759626, 70.18384400069776, 70.3406747500609, 26.634286644092946, 0.5774280623096572, 79.93915108975338, 11.509674368779782, 40.025146487946465, 23.278572023462274, 78.9909579353111, 71.54611412479129, 97.47484259903193, 10.755182025954605, 76.68801964639196, 80.65053100455171, 73.33528905010111, 74.46314146432852, 69.7070697047637, 70.14093878963054, 15.793048348029957, 27.64887581510629, 161.94564610353032, 8.58464579694042, 153.4740709000001, 118.09690070276764, 42.720461525597244, 36.62338258084826, 37.356024099356866, 40.795175407311966, 3.9284603697324676, 54.22932299030151, 120.01526887017934, 50.75727802495964, 110.89497674422721, 51.17690435689671, 78.33574419114129, 132.7411566027388, 34.988515982668694, 83.67976181304543, 70.46957885736728, 64.05563943424461, 81.0065297223754, 66.7562984403212, 63.93988509686514, 64.28424160665533, 53.16195535683685, 61.381253962259954, 57.7753557042964, 72.16358699892385, 74.43519001812582, 65.02236524460434, 52.154630297183154, 50.17402952852011, 51.02267926554671, 32.0009173003379, 58.61332869917312, 23.878183249008625, 65.70968107141016, 34.21766654350832, 52.80232012479247, 75.57033309307506, 107.15800302391145, 43.719152123342056, 97.37654834655072, 24.941987445754958, 120.98206884629684, 61.01864402685027, 42.273499506660826, 43.72225678215216, 8.546469217694703, 102.06739796553087, 177.82330162742662, 55.78378727812537, 43.90149406378988, 38.712642001299066, 31.756259831930667, 22.75773681908452, 51.898209215989674, 59.35169482446792, 106.84353533876381, 31.563713863853696, 33.37891940138888, 38.77801935069679, 37.04019467551902, 98.27742200191169, 94.21738053317918, 104.31578403336023, 90.95159802134795, 89.93974156584022, 104.96071132852668, 91.86288339084172, 72.9342867438004, 81.86234530169112, 74.29118296985675, 89.39249313270903, 74.03813734174732, 29.53261016301525, 23.652659306182237, 75.09909015024681, 96.64571305437823, 48.297917649027916, 120.65865623163164, 96.01014320564886, 80.19468921626857, 65.4595761425069, 12.505069980143919, 6.320623309537036, 8.864884163819726, 86.59766536589215, 22.264523507753204, 14.212136590184688, 8.389012817054699, 26.051392331717977, 19.853558493974482, 19.53935782699942, 27.67183608477424, 19.346888667431053, 23.092921166330783, 21.52107035642432, 53.19850322132471, 42.343484422794404, 15.98116592543085, 22.6464065308144, 23.724244688793785, 20.43637937118335, 162.60653654583572, 64.72473959918592, 57.73022260327444, 77.75192054116454, 110.55222426314553, 48.75258877001898, 84.43299726617839, 79.61864329221083, 75.81810763386248, 84.46835119881509, 68.21098518648387, 85.2266189435725, 80.951743397854, 25.90164405613477, 16.398919199326706, 23.692087444098185, 20.473621959290476, 30.844078409218348, 30.026940520638306, 59.73740113792453, 70.35064161128008, 67.97538615333579, 63.014126563554676, 60.56867216443739, 54.77420163117567, 98.35966119019702, 107.91151628491835, 90.74672462283726, 69.70409224953775, 60.22558531361891, 85.10264550211276, 82.54716954006068, 96.9037963691435, 86.5187865316417, 12.202138761269048, 18.50750886111393, 27.72201826156602, 13.712833886733348, 32.22928885875217, 23.919288953040297, 38.84559575436587, 99.72137884850054, 11.708213729744541, 35.01254660900026, 51.45515828634349, 97.44981033944903, 96.7927071381843, 93.3570783494448, 76.75623346164126, 74.6014778527604, 76.61635600806152, 88.01070188646841, 92.14204770367927, 84.25154049430392, 174.83740059284204, 49.70842380518132, 59.5295696154229, 37.13126845858978, 116.18703560504558, 37.164235502879656, 73.09905383090293, 56.7448829464148, 84.19419388425149, 89.37822225386364, 107.58702784532764, 84.20305820131625, 26.755961225299934, 129.25245480069418, 59.46013471071714, 60.21157458697459, 118.79751225922246, 37.745571616633896, 56.959277301649415, 50.74811725595192, 83.77334221272115, 54.33075266396218, 59.131053535105195, 63.031979971431284, 76.5715171769485, 62.95513761590762, 54.370355211041435, 65.5800183814967, 35.10540713041712, 152.0662796866894, 123.9858730646, 70.2792393681192, 64.45882789811128, 89.64121413425849, 79.38067539805965, 94.03265748594542, 78.71357762688366, 74.01558609685424, 77.96100344651128, 82.11687830167375, 74.25700913444847, 138.6754811974949, 63.254522294492965, 41.35622936164636, 108.32918646210338, 78.50769315460649, 81.82538367780242, 91.82113975893829, 98.79424867063577, 87.37203166693845, 92.35609618043571, 100.19256572323071, 97.01137547340589, 77.87436931033103, 70.32067251391862, 63.23924948789403, 90.83960033238235, 78.35891162060538, 68.98719693767877, 70.82363247257472, 70.31464667319969, 78.1969195404511, 76.2539595218745, 82.73402204886389, 82.09227079081144, 73.85656620555751, 80.07109625297122, 95.63139669793979, 57.375471662938864, 93.11233742063322, 98.27743609530424, 93.81453087405563, 75.79150268834377, 81.08241510572303, 88.70793525614457, 78.32247185317443, 25.711381017193887, 66.95617575978942, 49.369854108459414, 28.961821458270652, 77.16159003143524, 34.88353061043996, 37.90308580672573, 34.7385353088173, 70.22249281032957, 71.72676799829587, 77.7094471465771, 75.61111732736775, 69.52913417439005, 93.4787055974334, 40.97637231707203, 32.392876624933045, 43.45091491264991, 104.35317607754983, 95.69691643175116, 50.358702674897096, 79.7448132233417, 54.11146434070313, 69.57830386880805, 8.290575629488853, 98.38628745525257, 31.017761715632513, 57.8031973594237, 61.98219750903206, 64.64285206656649, 72.06849660040082, 64.22243909997687, 68.5436339287111, 56.72613427287336, 72.95461293390727, 52.762064411265804, 77.1748427351519, 79.47290654621962, 75.28743908126135, 92.1024143572186, 95.84030030731473, 72.25850555090211, 72.17655530714772, 87.4729807320337, 81.4132884836037, 80.66095932446943, 31.691727371593895, 32.78599718773743, 41.24892588204201, 50.19018046482871, 39.16264284820874, 60.09041254868659, 64.35067611227605, 50.00504756713575, 68.9165446523583, 66.11412935997032, 63.32296122826478, 73.06074721351312, 78.88101505167522, 66.94977315674501, 62.43672929141158, 78.29904410078454, 73.15505982529749, 96.6107935083394, 84.24409316620154, 77.315323533741, 77.4084048853787, 76.48919013150446, 75.38891416477688, 64.43900233005976, 74.95428895711996, 74.22707967863697, 58.29721644072516, 78.99333946967104, 84.17010595865273, 72.9054286085402, 70.65576015821068</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>[0.92814247539088, 0.011667962510846785, 0.2662256439003099, 0.894193421295657, 0.6497167298454486, 0.925401491178726, 0.3842275951507036, 0.3141300342923976, 0.5381032809592258, 0.598752670478797, 0.8838658274692882, 0.4866473782289443, 0.052192891321076074]</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>0.7638079599026549</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.01280231543850407</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.07496912111313625</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.3341877830626054</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.5149550258749287</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.408635491664565</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.2077308120535518</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.4640497562513275</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.9177187418472186</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.9364325115774025</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1415,41 +1151,17 @@
           <t>50.53697821274607, 40.8741438731188, 31.17593136162756, 64.58079974432505, 90.05746046589057, 71.13889004262373, 53.71901919085037, 67.66349025789991, 66.24100754216245, 54.21702665620804, 68.32584113191659, 65.07983710599139, 65.89228652294737, 65.2290054866064, 62.91777048620622, 72.49149115255865, 64.37045130467234, 59.534893684626006, 63.91272468996251, 68.87764578724845, 64.78455872334638, 69.89230712685944, 65.43638512281862, 1.933184888967605, 59.3689647084041, 90.04974163625154, 144.20973816404776, 158.35760454862364, 111.82665651608474, 53.72777040925066, 17.93074593641293, 32.31337118803888, 27.225997837885828, 21.146555834719344, 0.8750694609304964, 12.69839477518695, 29.872587673987862, 173.1602582919036, 24.719219589944984, 47.916805544882195, 13.92312497748833, 13.565270748685723, 12.664279950265422, 76.34245402566717, 69.06119530665015, 69.61606892306848, 83.42015094418723, 166.52261224509925, 149.1823864910302, 33.1430659450844, 80.11253962689818, 40.95607786797621, 54.5351205658728, 58.53718337038198, 64.59687190996593, 69.73101244217433, 71.38493835265459, 66.75396734275505, 74.8111282775164, 69.94609822019322, 68.31506047530092, 68.07162620467895, 61.629925338521694, 64.00936359652736, 71.4412143936734, 75.13726251460054, 74.87822395011527, 70.82767764588958, 58.96539112011884, 22.34065047075838, 97.60224114160762, 84.95068153377757, 57.53646703709176, 30.62214264306368, 25.714185908779058, 60.39309745828833, 44.81282983100457, 59.01208184949835, 48.996634887885705, 1.0969083331278708, 113.5801522272698, 29.61546118749928, 39.19230115083428, 27.48716403772387, 0.16032207699327927, 52.509707824884956, 56.448934649655435, 2.905563712419924, 103.22877850493443, 63.600930864031, 58.32660380787958, 61.286020224626235, 64.9900096024127, 49.43731091757729, 65.73623836803708, 70.71381058352289, 60.79062451673422, 18.889883615192126, 65.69810589672518, 73.96302331560067, 5.048399164432908, 31.31017121222444, 33.49796590227191, 49.33431652142475, 42.88317605986312, 74.29937287481046, 92.66719788705102, 79.52171540435818, 42.18030382605916, 80.58480064236375, 8.139219010547642, 90.97249736604743, 41.332732510314166, 140.21708059111126, 38.15110876374196, 71.57071243558474, 21.818969317673943, 37.87604166616774, 65.28297498649651, 14.075716466492311, 7.558165178248613, 23.51406773429881, 1.1253475739840564, 60.80282109192179, 32.8852148555432, 28.52615551014406, 10.24064962595699, 52.78818732419619, 52.800542233042194, 39.677618440461195, 23.892368695938377, 36.432035427490355, 49.86248469314928, 37.88145941724117, 90.58034382438193, 17.668049716077412, 63.53440855370365, 64.57800459089094, 67.35741874471721, 56.34088846540168, 61.49037786665047, 67.15833379977764, 75.20865018159337, 68.04184407098161, 69.31602485197502, 67.91317941458142, 81.80327297614298, 53.495735004567855, 62.09484803769379, 57.05256576622048, 65.0879968705615, 56.1017629946494, 52.49659579771503, 57.477197120010636, 57.09663506017383, 95.44878966042984, 28.154760455051985, 32.45047747196537, 58.163950049441674, 8.712131811378292, 39.609501695255204, 12.451824518580274, 10.384335638156996, 28.31203831517018, 22.379242833863394, 14.495217285299734, 30.40251526242805, 19.218728449538062, 16.01339182577351, 135.94664179195826, 6.124360903580789, 38.521921684827966, 8.186616596865248, 12.775726079448935, 19.370490729304947, 168.7829432341859, 65.89224124602006, 54.63043302568768, 47.2171504293268, 67.35859344360667, 62.09041683561851, 75.4958390112298, 80.91020301791774, 54.51914367905785, 3.8305485355392364, 4.043609772535051, 20.884465804630942, 16.197382324571862, 99.36835926257137, 22.335373140527526, 113.79239471287705, 87.45920877794092, 76.85079219308516, 41.749338727669404, 47.37897531509741, 76.11321347490028, 61.82166394737175, 102.10940532592889, 114.81800959849699, 16.702203214862998, 40.89037122594502, 24.66158583881691, 21.160124886576835, 16.935101175361293, 172.02341880723907, 65.80390776421969, 93.00801180622236, 80.49558033795613, 53.97934739660409, 64.999653869174, 47.22720289342083, 47.26673561954523, 70.64030096832896, 37.22393203339909, 125.80210696745364, 53.88055428019678, 50.002598336451676, 55.85076442625749, 77.73608464110752, 58.91987937484251, 69.58768221583956, 66.1893866746386, 82.08391282963328, 61.59841875844874, 68.45627290627363, 67.12266372175772, 119.18627261232133, 70.38154304733577, 12.826287851948605, 70.08022497580322, 105.70696653924088, 107.8775361430707, 77.59618421793839, 11.917301236455158, 47.17088883334536, 32.15265554703066, 99.85091256646896, 47.969081918895675, 47.66472200303471, 31.76761378396564, 32.65207628087771, 12.577163124961345, 7.705603586262721, 9.28203791543772, 1.5539779885897804, 5.263431338066551, 175.75784701398845, 2.231298037385476, 16.156598602665248, 6.281763818644844, 7.147136867844835, 8.585510487030758, 23.223196362357502, 21.19551656160357, 43.765538593944534, 154.2190489456482, 15.44530097773112, 13.472488081205983, 5.3712080925634265, 47.033159688804815, 1.9576113035569032, 8.637588234950138, 9.346632440442978, 69.97774892622031, 74.03881018988137, 67.79461758046378, 75.72507217844037, 94.15813982776773, 63.795847599398826, 62.01192941495285, 86.80113353635195, 64.38220108381662, 60.79179786287043, 66.18626237840134, 64.38109746373772, 66.98428020771688, 84.79432946897319, 117.75382219243083, 53.82117193720262, 106.10746995487817, 128.29303039182807, 95.98051116170393, 72.82196464776622, 59.03835728746316, 65.87559428934702, 64.72475699556635, 70.25382619690237, 59.08936477012887, 60.61409018477972, 64.19525807868852, 67.0236303310907, 62.7625196135094, 9.560605483541524, 26.462365257211605, 16.43536542471306, 84.02959464673509, 117.34443728240949, 30.951630114782283, 39.44170964428715, 143.6021068561134, 52.163947402500284, 98.06162239783863, 49.20332963227539, 147.02340712823022, 34.81599487228536, 30.978435784299432, 26.977910028389335, 28.38754788239942, 28.23661188205164, 52.106776473431324, 105.55738332606053, 98.53925214767942, 29.73248831622818, 45.90753479698036, 62.80586642503681, 58.67366991606629, 56.25482762472769, 55.808510021359346, 63.48095914868889, 57.754322507359674, 13.398151373174768, 13.59456594356069, 83.55654318797008, 68.92053925667973, 103.19635449914313, 18.148447538371702, 4.164433371110972, 9.462537604000772, 38.40863262381794, 21.88492006139825, 139.18882889901758, 64.08417551130088, 167.12221367707673, 40.453418353977845, 61.014338293495975, 8.75333070281247, 110.37932059884963, 159.3364118536006, 149.264081016213, 115.98363040052458, 50.5975326293841, 66.20374248629744, 74.33436049438589, 67.32212067699736, 66.25674542787809, 19.050168585608056, 117.66386199875194, 70.41188128631222, 36.1598148059347, 22.76754979987533, 137.1613408932884, 102.82392696039494, 22.314143527594222, 11.18109934639573, 2.7904383400046178, 50.70335421010092, 56.61928604325647, 63.369175759705534, 0.4405892922928197, 1.8044368601762024, 73.98418559782039, 18.629185466134903, 63.311032440922496, 51.207199155938525, 54.746836969562175, 64.00359762894922, 63.75412122635283, 70.38060748761333, 66.45430974404083, 63.320122739931904, 51.40272512635786, 61.41361469087051, 171.07137554266725, 28.017478704408898, 46.09553584845998, 36.460663109040624, 31.31965669754003, 25.96874711599041, 16.25453165195147, 159.5822170127615, 51.200981925520196, 52.384476550286486, 49.10793874648169, 60.852758674892634, 60.90834693400646, 73.77071747870724, 59.189715301581174, 125.81370733750228, 93.12132669796449, 32.696305167044905, 46.23868431801707, 27.322014761105347, 39.97959587890338, 39.75579938379239, 54.753570530423076, 46.71128222757435, 58.63293743655092, 110.51425727022624, 120.01314616653698, 36.78796981539737, 25.12948195180693, 23.479465803972367, 33.377114340991476, 43.39120196022809, 37.424890164415515, 14.682569359803177, 132.8257832515571, 73.82144024544235, 18.329036049716148, 31.977708960040548, 60.8326438200859, 62.12580133329688, 62.37246647392606, 65.46757294321944, 46.86226326444221, 59.26394218758715, 63.49950260659171, 7.906465946564747, 42.38618568927218, 60.71041712958858, 3.1093926914022076, 47.507327554655966, 1.1475824485748125, 0.5319352161016212, 44.35494541071083, 62.319427877227824, 165.25415353470683, 18.849960135604892, 15.188645063069217, 70.5432348673531, 68.65458697922634, 56.23633527328412, 61.88476667732928, 62.312453589779714, 58.62806808628741, 50.64788504954515, 42.38554384959058, 45.08172083122204, 56.96414433584987, 61.84658194387514, 53.1353151012082, 59.38411678568146, 49.19049736459251, 51.27597794354795, 57.932251550520824, 47.84553358685622, 48.02603067272224, 45.106492812925545, 47.92507609692229, 56.033128780885704, 58.08282328307646, 58.20402604873098, 54.02601928476612, 61.635571503054656, 60.22087640773081, 60.99807322280367, 47.4776187766334, 56.48150917479473, 65.08352053463433, 68.25920811375342, 67.71421047160374, 68.29908219592875, 110.9908046025175, 120.47146616307948, 77.90833469786122, 68.00340109881783, 78.04068543317113, 53.37746423946053, 64.87691771580795, 61.73984212181321, 73.63542148480863, 57.467773362075256, 62.86050693123555, 57.55459252977287, 64.62841371998994, 68.1615145960698, 67.98742197846224, 66.05878929053517, 54.36739164819953, 56.44139999099524, 73.97930250711813, 23.026589960629227, 81.74679353801127, 84.31762596134156, 55.88244230868421, 118.26588957113997, 17.06744082422621, 65.14713825881017, 91.82834986956466, 28.240073557248703, 37.56897480294937, 0.2372463251625172, 60.02424122333535, 90.25635469616608, 75.04579490279522, 21.169361363070845, 16.09830941714366, 43.183566354329514, 14.287441347922794, 54.73597618959785, 72.12381044969767, 70.49586478238636, 78.46598538665562, 63.388655807909416, 70.73315398201068, 19.148495758466296, 37.337492867250155, 144.74926806368256, 144.59378454314333, 176.86522902522162, 133.21315557176862, 76.25003175622535</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>[0.04581753609620465, 0.4505238150394463, 0.35361319932111523, 0.1411439311247652, 0.7918858784614305, 0.4686318629903248, 0.7017266645386727, 0.24632998063665956, 0.27424200222239736, 0.865502504353753, 0.9446017279031016, 0.7406315696077233, 0.481886336548097]</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>0.2468971651679184</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.8976515133817138</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.7447396082329359</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.6905878077711626</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.710784002566055</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.9089919119590503</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.4951969434352036</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.120007361178353</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.05186845280183161</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.5370015446594747</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1491,41 +1203,17 @@
           <t>111.14677940974488, 43.83863353276438, 44.49114933936159, 25.1869354908168, 41.75671312101773, 74.93058968892107, 72.16445444669407, 63.59621493847363, 65.079627176681, 65.36572656362992, 53.755838501901636, 59.64903554403765, 73.16485311901847, 93.93130864356964, 44.440961791765794, 78.73593514891144, 65.5830253098689, 81.55496441042244, 76.52332837271514, 129.60140592283082, 126.30898186162379, 152.54702523183957, 168.19764958886182, 169.71244973791894, 48.60134683169091, 68.08159624263229, 51.059479919117074, 1.507921839476802, 111.88388833724068, 38.12632542548642, 42.15560675937742, 66.1185874045486, 65.10220917296742, 52.834457436721785, 64.16576921898562, 55.3118964530129, 58.930298098468505, 47.46349182065495, 59.89408908307624, 42.78681978246784, 66.67626782641182, 111.45503027441578, 68.7424977315099, 150.46646135434176, 71.05379560384239, 68.25405041876797, 54.33780064461352, 106.8923076300112, 21.517472105188183, 20.156694098928092, 84.21008300953282, 91.30883298009239, 90.6399656673328, 89.87327387719485, 73.76656432155809, 21.031396057386157, 69.7405863401039, 35.99142748650412, 177.4562545056919, 43.66480035622713, 21.312844739350215, 12.71911556324563, 70.02140179648592, 50.54312995511884, 56.12489237900127, 60.0982455000753, 54.58012549659146, 87.14935632035791, 78.96819122575747, 75.86127984030597, 15.448624207381526, 8.495966191939901, 20.522553051427277, 19.035310694985107, 48.62499905272812, 4.4510990582347185, 85.17305227544823, 47.525503231102505, 6.828676520081764, 67.11055478005449, 58.990668301366874, 156.61475144563394, 145.84351089925968, 158.19165326293734, 17.264953936335157, 59.79798269375894, 65.44900164967487, 60.4754884619847, 39.467753865100086, 50.57693858622339, 32.478771481963534, 65.14033718259653, 104.89439503948778, 45.29507119740144, 82.48286667195336, 49.07499544733664, 70.31548067597214, 63.28046093061649, 69.26857492142588, 62.87800167824856, 42.45094303994967, 47.44223538997591, 66.78600435262274, 70.33717748146584, 73.51252873558796, 67.91419456785788, 28.58644709455496, 16.560974755642135, 166.33354367538385, 53.37860376861852, 28.159866318882493, 77.51003978059974, 77.12482371166048, 73.69390527987298, 103.80562995767208, 97.1549647597737, 92.90861198949914, 113.24448934271703, 70.38764538355238, 80.72141829648123, 4.008455821180717, 5.265351079151675, 94.01210719163558, 50.03338638773548, 22.46926511617807, 21.84196098997267, 99.5215836911397, 96.74356171624687, 98.62806348052408, 95.46448731902296, 91.45773007405461, 89.17412548504706, 80.52286054175336, 85.72209303721121, 78.68608086697417, 106.4672416972136, 96.70353932871771, 56.537706920649015, 60.75688723398419, 74.8966397836108, 98.73447349227938, 149.3253561439953, 86.36646406945988, 37.77325025764698, 84.64371274909603, 73.02620872489982, 76.28177819259828, 64.61008522238527, 59.55867339526932, 82.35396920417793, 61.013572502053215, 91.36170437958025, 73.45662090024072, 73.40618626103792, 81.39761050205408, 75.97117586286562, 74.04320074606633, 127.34348001441985, 60.21630981848873, 63.100828398588334, 60.490004807849736, 62.567347030195165, 83.26884819998551, 83.7083286939869, 25.47656807834375, 63.590637692761476, 80.18850525850156, 70.46904178774166, 63.5555180538936, 52.369478519576155, 117.68053653226482, 85.36891084275898, 84.44193929641636, 80.89044235142096, 139.29872950387994, 22.653889870275943, 27.306605518983403, 26.39208783155438, 68.1147596667222, 109.27269793860336, 89.12308331470376, 78.5819479379289, 43.3118724604743, 119.0424498287498, 145.96563691438752, 75.25463877727998, 60.02817299411552, 67.35821960927962, 54.94104098884986, 21.089128083980427, 157.53960811799, 77.59624676070474, 129.2944504904812, 84.6811443546875, 85.36224349828456, 84.54338274766216, 85.07746510545985, 62.03109271891759, 75.78909287544167, 101.07997264367468, 172.4337773406063, 94.04980826172262, 75.46731587925453, 13.570361821957524, 122.62688301661993, 28.316345498143416, 28.031867218620683, 38.15451617563015, 44.72250993101182, 7.457227829014386, 36.3880816050289, 21.332578372145203, 55.93798659568684, 61.61615534394224, 48.81066545144181, 98.18128874794945, 16.016672301438106, 40.99256656501272, 78.8636324896369, 18.28883184385431, 22.28196304631281, 38.08360578255194, 41.260607061147105, 1.944639005376954, 65.29252717901473, 66.23873316359962, 61.09199871887673, 54.76539167097002, 59.45809590347245, 50.74273204790006, 61.212389451019256, 79.89153802184957, 108.35024614798549, 97.27231147708306, 75.89239225986597, 84.33987306626628, 96.97708006270983, 95.24639995497358, 64.39064845225803, 67.47791653412146, 65.92087654987863, 66.37461889830814, 57.940837481436276, 66.21667173574565, 57.761832391396716, 51.730458220528284, 52.57532125119389, 53.54711054295387, 101.1067619505357, 108.23765337904906, 121.23310638283867, 108.39082022830294, 101.41920084406922, 30.50912083789811, 6.993099593622827, 52.63122894965601, 44.287022632043495, 68.49627995626331, 70.10121354030339, 91.62153720361567, 78.40892744551682, 168.04355480509375, 102.35363487339272, 130.7858560034944, 112.33364945983854, 31.129801700666533, 168.50108770507077, 40.23289422328325, 36.3267031132509, 35.96607713545787, 35.940590003882775, 10.09399065946146, 75.37378151209533, 67.3551843990384, 85.11926694029115, 120.36332621588853, 64.53358731201104, 126.32290712824974, 127.29770383646381, 38.72519700794078, 71.11784108661695, 60.80654575110553, 61.10976954370841, 55.66770053291035, 67.23692673831779, 82.64181668815736, 75.16734046225105, 69.79233649163909, 65.90893743815579, 71.7099560286706, 22.45693297117109, 63.45289573465131, 17.865369920293723, 73.6939204295568, 14.032425529705622, 108.89370229292072, 52.14470072052408, 42.257292971669045, 16.396041820087653, 21.57555954245906, 24.726266959495227, 24.194527414217607, 27.922297787546658, 25.625065262287706, 46.81059088863195, 50.684100244198994, 90.70397927609532, 99.83332755982684, 72.84747398563327, 63.96504833164207, 16.48811571604348, 50.6541592017883, 103.01416641610248, 160.64031035744776, 56.056441656494535, 54.81518306709873, 67.95973352804558, 65.1773789771669, 68.50327042532311, 83.7847243440268, 61.1462034804561, 64.28056629590276, 67.10755756966572, 72.72846979641767, 62.48478440782644, 73.97942421591704, 162.82308593268183, 176.9170822497386, 130.00092186132807, 130.22581110261797, 125.86567573495586, 2.3011150391079394, 19.491963012338683, 7.454268989032539, 35.36159516137655, 92.99573375766427, 12.64779077970498, 79.99450692035944, 57.83952647731144, 105.97994328720763, 94.70642648724188, 43.99687024492562, 72.26179711825573, 130.1021289004899, 12.195024298795163, 106.7676381212308, 72.2814631272189, 98.18978439041828, 54.43507176219439, 32.61591634878016, 134.65900497217527, 51.382964884407066, 51.98906230044436, 75.5455578993834, 113.28987174059544, 36.85391901027776, 78.38265626669258, 80.74190740881458, 88.80070960741585, 60.198864526226444, 170.8644377767342, 54.773733453200755, 15.717754767964225, 44.65898422024583, 2.9904004991847617, 40.9837133958602, 35.810499457994155, 43.759060558726084, 0.4595127073379325, 5.488611007233647, 5.172970884389681, 21.826785227911998, 3.7494459428840536, 1.8513149219204286, 6.432093191490968, 48.84948741163542, 75.57817884916189, 34.85896693680061, 46.504618678410786, 69.99731945556854, 111.67534322002463, 53.07157374829008, 50.53522453938397, 54.89179565020471, 129.8762120255958, 39.04078570436998, 152.7241068138288, 44.254424000964555, 64.77341936496406, 68.86687989028529, 28.634235722351, 69.5843232575785, 95.81023543864151, 52.86115515130291, 133.47258822459582, 66.9558946206592, 43.450794953322415, 117.00582326397885, 14.96525391638965, 74.22536212237296, 57.86922632231444, 56.01665461299555, 62.4360201294057, 61.054400567974064, 61.74829027025959, 50.66663419668571, 64.23514967018549, 62.720106665047815, 138.15521424815032, 29.755385172747967, 55.48021512877884, 16.07691484679538, 46.149241569419786</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>[0.10164571404285139, 0.06368386975573848, 0.8379226377734428, 0.004417063088239637, 0.6767494898774885, 0.8471408856452722, 0.21259621581564692, 0.9095938294423248, 0.16441301414438392, 0.22503086651450344, 0.6621054995267921, 0.3973206224620428, 0.7667663778340073]</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
-        <v>0.04723962737636034</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.4787663301810272</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.01110924733259333</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.9543981205061131</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.3816655594243858</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.4921146156253141</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.2048637139697039</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.7647954499016393</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.7526628538189593</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.5406374467257581</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1567,41 +1255,17 @@
           <t>59.75810651950262, 57.90595632140305, 65.0964320806173, 69.74536828907979, 75.41714649346406, 161.8392464860045, 39.776336594540005, 16.800401147189707, 54.71070020581974, 51.77524116971676, 54.28999136547451, 59.24147214856736, 64.52413470395216, 65.81348838447909, 53.60492588514795, 44.373336335388984, 29.276787523013887, 10.342025795635458, 53.32754439712095, 94.32778064354957, 64.75131823662196, 65.22224092576457, 74.52955672584531, 84.89328093688567, 4.163986794612941, 26.02135245856507, 34.06771652149812, 37.71554352961505, 49.40226091182107, 67.51899330749244, 76.22052322373752, 62.2051566161087, 56.11108108187048, 63.779684687257905, 83.34817209576957, 63.642433291903586, 64.24796535834105, 91.78670375691146, 23.721964824019956, 56.68184790231172, 66.85199794510024, 34.88879353100318, 51.63686944448794, 55.09716985775211, 109.45860972998445, 66.56030469370434, 13.463803731695819, 15.982497662993293, 43.3706948368733, 58.77768238284608, 139.92192854090112, 40.103345348754566, 45.13626043619397, 34.03342446282944, 146.6448904202417, 87.71720941135638, 37.53798775817149, 21.37878445205685, 74.90334382209568, 65.19126786438498, 100.09093718908643, 90.79325394086926, 18.519959249089098, 40.399939790506735, 93.1393226936014, 95.91381572042678, 69.06933054093535, 50.39492836239184, 46.54620350190321, 0.46343714243102396, 17.63624998375934, 55.22620736066285, 26.14746908013177, 74.61870426358776, 113.54179638025546, 76.65563565914728, 65.753186302513, 166.9324806022706, 65.78663449193081, 83.85405322463559, 130.71906080315486, 63.48620340834123, 98.88976802243756, 82.73153439786488, 75.20073030794943, 67.3502519549363, 96.13616869044495, 20.91719822175677, 32.23718806205723, 50.821065191694736, 14.961212299590876, 12.417052652924754, 22.892623706498277, 81.52983100056751, 85.81370756978285, 80.36864070111626, 82.7434123131693, 15.284329931911723, 30.611105500962772, 75.910347204185, 44.755818712575135, 1.355203272825239, 1.8162085627946551, 107.39000970819012, 57.579423226898626, 75.50195154876995, 78.208228932426, 67.27798826000368, 69.86480907481427, 57.72531415965377, 58.24052667999891, 56.808230796417966, 11.10618967768029, 16.203600443885342, 15.419796751687404, 1.5259443570031237, 102.46216768126322, 18.88336672598562, 0.7254157955726855, 38.69995992911483, 28.610248587858113, 9.18940444879227, 43.18803873733251, 63.140194037655384, 138.26737203175992, 107.44536004011805, 66.28371247330612, 119.02348137188406, 61.195828924729355, 123.82779420215154, 30.328989264272245, 106.4499594196922, 39.40720762076833, 168.70886942965495, 63.53095999912655, 72.59203970791606, 68.25254778967046, 47.4260451183813, 58.97829474996143, 58.535915096397346, 62.31924808625916, 139.34543275394458, 164.7329579789597, 32.77923888523445, 137.43936023169107, 93.86621651120352, 171.5318637028968, 47.58310210064602, 53.209541130776245, 39.67959951845874, 24.152540874965347, 50.94055781242692, 44.46582348033321, 45.074215105397954, 71.82402732488902, 43.226068612881136, 68.20876308508792, 66.58422163187369, 70.96201360902413, 51.95374483216875, 52.92200116433769, 44.34954359142157, 27.10975884559007, 122.01407527538599, 67.59190502994309, 64.86299290259188, 73.97655983577566, 67.91463951679691, 57.71584572351607, 75.85157329113727, 72.70611019155648, 68.62327791170533, 69.65217935482706, 100.02125288833825, 166.20936536808154, 108.54327919811122, 86.22900549590686, 55.89742590772808, 11.268144207155649, 66.19422766148367, 111.3236921807004, 103.98157609777464, 113.27421971425161, 87.00872828598152, 90.2565849819795, 108.5113366633906, 74.01716764852073, 93.7283383454963, 75.49616172131222, 43.663016115226384, 63.51705795218105, 62.45663805655746, 73.02956520490872, 58.86500375550747, 63.95650957564575, 60.76755475916088, 68.89058444991241, 69.39695368223161, 82.56973857679353, 76.64311411489687, 67.73260453190996, 65.78135773766951, 71.6929045014245, 58.96813427151516, 64.00596168315987, 75.24206775550053, 109.71465349061016, 67.10507865142625, 150.12268402492487, 59.962248889403995, 126.73728435279861, 84.57377376926942, 39.62175771528853, 61.14293200035986, 68.60528389101772, 61.67317854251042, 66.65549236737283, 67.72605106417285, 83.04192149892116, 96.2265717466169, 90.79489780738703, 51.330226362923526, 84.32667784222438, 89.0221005591727, 91.94078449369613, 66.06578903031716, 81.28936532633256, 59.6620149993709, 8.81905834438666, 119.66406152555504, 97.61294564755315, 62.10385369294355, 80.03216080189068, 105.9146572747078, 98.3453462086935, 91.67294098516675, 87.80505826956824, 78.71963525328798, 69.42169896878718, 98.10957775644692, 121.06259170785066, 124.39886898328102, 32.24075133415423, 103.96196860464575, 122.7881666401628, 19.204009087221813, 31.929236988015806, 76.74696534493857, 20.480538269094193, 55.514498825705004, 61.06049382100165, 63.06616715789836, 58.22018458007453, 71.43431709842474, 69.84348140290726, 63.57044917536943, 57.55766994156351, 47.46594679202485, 62.127859430322175, 58.62295746422957, 78.58791653443922, 64.80169210275211, 66.0461329749751, 65.47370082880067, 66.48156619087504, 72.02178533191297, 69.76442963349179, 81.42178542860891, 75.96562603031093, 48.43580206934099, 14.819946181465438, 27.23478142727206, 18.453266963704312, 19.72011399969278, 34.38785799927736, 21.532981644568103, 20.383465977450264, 37.09589896243371, 68.30926285505797, 139.037046963757, 160.8704308875875, 59.815723591235844, 58.76638114090078, 59.5426459876221, 61.711814492454266, 57.27356624810652, 78.38327089968668, 61.97465978981253, 66.95480864169669, 62.98510704725219, 55.22889125963403, 3.650726291284502, 27.846740144461954, 95.13481634180191, 21.50091061728241, 106.41883590618575, 118.50831024702464, 103.718470166908, 94.74013178489271, 118.4301182827694, 89.47075764833065, 82.0219876450002, 36.308613995194, 56.79751847794047, 69.26585020317731, 88.57346135136477, 65.54219761283842, 23.224420825528263, 23.14500299739781, 25.3672501306143, 22.642440919553298, 27.13791751613243, 66.8517962197942, 68.71144138656771, 32.34239000899614, 85.16674378542358, 79.81114436084832, 85.59122270058975, 96.61033746215422, 77.60394987238004, 77.13967530612253, 4.408648006350886, 54.202255592631715, 16.381649709067872, 38.90725737564032, 114.95839475643729, 53.18227485185704, 73.53802261039566, 14.262577991056533, 44.20357415353491, 14.694160094817613, 21.882477007865614, 77.69314187502223, 72.53897479833752, 68.40840702088782, 78.56855647847948, 77.93050783591835, 0.941469992934444, 34.07272469191635, 30.337472642597046, 36.81395140230456, 74.14908801397159, 74.96630647080376, 75.45529359894154, 68.25044190392575, 62.59412045681651, 72.16061666523184, 85.69973984225858, 56.76710658728679, 53.047259353145726, 88.59106005605166, 47.03596632926378, 54.42558600794922, 108.39088628789331, 17.924693110885467, 72.69858356368823, 98.17732619850675, 34.53325807285308, 112.44137343903013, 34.370829895048004, 20.06822971142641, 48.79968356592359, 91.48885402275972, 36.81300740448168, 69.11270365330452, 60.97997431779594, 61.11683567887482, 64.81334467468545, 58.94453643639773, 62.45330272591733, 66.38886597199539, 50.636930935244344, 40.774593117048354, 50.397726920262386, 133.40297679442452, 48.78663521000663, 54.43735516282164, 55.70889567852869, 67.51178787667487, 72.43036638422303, 74.01275139804346, 60.330742153294935, 71.9232544112512, 73.52735193335363, 59.99848568839804, 21.727818162057858, 17.90450219904155, 24.584582531009094, 27.54963182886641, 79.74735152774541, 106.81962495152096, 67.32464998189013, 60.48340314641551, 71.47229895362148, 67.84969179335907, 74.5402107125569, 66.81752633497041, 134.40612798717416, 53.81772199920376, 73.5902479296254, 56.05654448167913, 70.85197917547258, 73.37162277996808, 64.52897108289558, 66.45015800120534, 61.46377020271502, 35.79587155974879, 20.995081131381337, 13.8301941320079, 4.473247133067204, 7.744846159463373, 31.847384129801526, 54.12705233212073, 52.37744619751774, 71.3495036675324, 91.97029026795553, 131.61454579977357, 87.67605188275844, 119.12042360111795, 99.9657964638823, 79.67388089222447, 3.6792641477192656, 3.0642096967397996, 74.78032180331542, 66.4638249191494, 62.002798578504645, 65.84153111513096, 54.41786951856957, 47.52930670295548, 23.496842188706335, 26.549664521506173, 42.337116839417746, 40.91357961026377, 33.80747580590025, 3.775751441155221, 13.836865956165221, 45.50426196412521, 70.58016978159917, 128.08607393420309, 124.91191085571832</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>[0.2773040240584491, 0.7021115762409902, 0.05813624876287993, 0.6101675123866583, 0.17383797277458635, 0.3230204366942875, 0.6080316236424792, 0.6965731376790836, 0.66410931842887, 0.6226769716164657, 0.4854161394154034, 0.4540876337087968, 0.7975497473795209]</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4888637700085918</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.7569262221713048</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.6909878862089922</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.4391537187362504</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.6130052887312257</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.4468407304801805</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.7286828391769414</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.297577863293639</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.5157034674364135</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.8265959765645884</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1643,41 +1307,17 @@
           <t>44.96622644450089, 67.85570346362759, 80.9935614086248, 94.8485019412231, 92.50373657374888, 70.41068213275912, 65.30293547949398, 60.8554022954781, 59.18702536651399, 68.0303239657985, 69.30312873186841, 71.00644119416594, 39.77325114820982, 38.0565740049084, 48.09414426348877, 113.15320734099475, 77.84174897617028, 39.823576165987284, 59.51638756736506, 103.05449515662384, 52.53750809112248, 49.03712847976472, 66.01854484607227, 71.22689288008141, 40.72108354585831, 84.01590758687138, 62.594005738825715, 68.65858142807069, 60.774453997155135, 61.96526430137206, 56.73989376358007, 62.30900193576343, 65.12802628605124, 62.59166819252006, 51.63884252030334, 54.98101119601574, 87.99006034738694, 60.36200449355107, 67.12380725525537, 59.238457309981676, 77.14004391570796, 10.092424211569524, 117.27497867335438, 130.32223774042663, 125.05738854788659, 75.18050332657032, 60.797615676212786, 99.33348660079734, 109.21499136611031, 98.27814721523991, 44.0215894957912, 71.28618299306343, 66.2404773629476, 75.86297694334633, 98.25100541035587, 50.45862958263562, 41.162456686202, 26.941053845527303, 60.35447117635819, 62.62279539256348, 72.78705111166431, 33.04977616305652, 92.27804482315305, 78.15204592236647, 97.01087332996526, 73.19413875399754, 57.88919746621303, 43.06273098496654, 5.3657614118855275, 50.01167879657386, 34.9317785115887, 64.15472981323471, 67.21400654221934, 58.34147686100999, 63.54242310632933, 73.6269356025181, 61.62462295749374, 67.32378356078404, 57.25255440981585, 60.03981570473274, 81.3890929565981, 147.57884012343968, 134.80355608189686, 47.411368689705974, 23.251723793044622, 69.78211735104952, 79.77989358930354, 64.59638896073007, 63.26303932247326, 3.954130790280037, 126.45329322895228, 117.40601824516854, 155.6796588233286, 156.8320099297383, 164.34609356912586, 104.57405978626188, 57.98203734640015, 59.93388723875134, 62.26880766330269, 70.8103353105043, 69.96411848906801, 69.24080536102903, 73.66610834840124, 101.25960776570281, 26.719877973441275, 67.50183741570774, 37.135838184952675, 176.89741507873788, 85.7238774860931, 83.69135847805765, 80.52842940080986, 60.787344554300915, 142.68878686443054, 55.740333413044155, 80.90842733331053, 137.8413367100705, 103.47178126879224, 72.80647216490055, 73.31396137729784, 84.56819638067303, 74.67723278912341, 69.3803225893509, 74.34711126079625, 75.06050385307219, 68.5642600773145, 95.72140831534209, 179.57845002964606, 125.52195597238702, 168.6057058877742, 77.55140476705098, 38.59889682818206, 146.14676055451835, 61.02150703003606, 68.59851115950184, 75.79531484607462, 67.26210425628375, 69.93473502985536, 64.78793175706903, 67.69941269761486, 66.10573980967389, 64.2700669134732, 64.82610171323515, 72.39919341985959, 84.17985502279316, 162.92488220942565, 66.84381778507456, 99.19826508879748, 152.16231797831895, 177.74319575469872, 17.28397732702234, 21.164541372919118, 1.8927269762804066, 64.23063320834657, 34.59032816057894, 50.440066064106134, 166.94782625968512, 87.64241026925644, 4.43696300894641, 25.587343985114536, 0.021976534103929104, 86.3864846766159, 4.365510101542797, 55.412533405764535, 120.38371538518629, 131.95648363122748, 1.3621308718651848, 40.34533410757213, 47.24004778126065, 106.49817411143967, 61.54749191693737, 69.20693824424224, 65.24992957982637, 64.98927007366066, 65.3690875137861, 85.53662412654458, 62.9741851816556, 68.78725031435107, 68.38085763909878, 69.38078884124452, 163.0528282167733, 25.058836939229348, 42.96631630658528, 87.00005254379045, 77.33516133077094, 43.541613639581115, 106.03859961682747, 75.97053270839415, 89.87605100170691, 50.74656263725706, 91.42666688896878, 72.70423559047391, 72.97464994082942, 77.66636110343323, 55.38495165649609, 77.6285368629881, 76.55699176486858, 64.61718052402748, 54.929408375302735, 55.48409484226588, 71.05063995684607, 68.73532609951063, 8.013221964762167, 171.34745382240905, 116.73452013969418, 54.53951038545169, 91.87258473846344, 106.19916654583425, 59.96801723609282, 98.31233408000134, 81.26342449276501, 64.07220343990295, 57.0687227866204, 63.259160655825056, 62.0941762929613, 68.2858506095124, 79.79313621860821, 53.502800708877885, 73.48190104562694, 128.98659872428834, 60.23467525806395, 54.741016990332284, 60.338552426413976, 63.83462651638485, 61.900072791072745, 47.26480682819397, 55.1103860824005, 57.47639404266074, 66.57408791017892, 72.98492358626893, 65.99532714610172, 62.65871168496917, 56.5057855576006, 58.90369126133365, 46.453804074358686, 113.28025957502597, 71.42829334946856, 83.3373671584655, 80.69187106139836, 90.04228644363873, 77.21470999849174, 76.70516250186589, 87.43857830299496, 89.28475397231068, 41.32108475345944, 66.75254919908603, 153.29096446751564, 100.45884550695939, 113.32050300105976, 79.93336597433218, 95.10220710370179, 75.84803019956023, 80.98016983527802, 76.49931518609351, 0.5438339663901048, 52.11680164726972, 67.22092720907918, 76.45066252085283, 80.10421704541947, 70.05540829691725, 77.13920530943386, 151.84732964512807, 63.08061672867657, 94.40747926796526, 149.9863172549724, 139.88962381086884, 36.64191232232378, 64.4374988632194, 84.74633224867621, 120.61830957410865, 49.70427018302302, 16.105039580767485, 62.12598781386896, 134.51038147163854, 73.90908115904568, 113.88859000704494, 68.74301903016617, 88.10101969480715, 16.26544001220298, 54.27701110782287, 74.40280958753763, 78.97408598179203, 61.17121200048514, 66.17097618377184, 45.81453352907025, 52.37287922471781, 106.93856222449507, 51.95362929389495, 27.99708738604943, 54.55040930981045, 137.96761348792162, 56.04820981423291, 57.49661103571401, 59.71099762369237, 60.52352906699557, 50.9819882347448, 60.29835241129662, 67.77620411277692, 94.35326271318607, 69.66793535463049, 87.76937674364028, 98.21350188286962, 169.1181610940833, 79.98466866075853, 83.78472668132392, 67.32928623241055, 57.044712223661904, 36.526545358839165, 71.95144438087937, 65.72153311845243, 61.67697349507043, 54.790477867632845, 50.45966788519455, 33.931106332080304, 50.37141366777982, 55.30610983780385, 66.32052998040484, 61.800362354947055, 34.940021104049535, 45.81256982545547, 115.70387260392232, 42.68053294389173, 61.37180265053817, 56.38200307204998, 52.049013912568235, 63.309805267679046, 1.2930124336439515, 50.817421414802936, 39.84165210304708, 11.455833488237994, 47.90274128438383, 44.88670456577718, 48.850477753768274, 51.66761323681935, 49.12972727723137, 49.75123232819002, 52.96480223456552, 52.963691637232046, 91.00372603363887, 61.39272599226103, 75.51914169720574, 66.5838748306907, 62.037828594038416, 67.86730059352453, 60.13530117510543, 57.44739398303561, 112.19746271308856, 106.64428651468901, 3.673390421442261, 11.513585755352127, 45.76425861068422, 99.69330837041902, 0.9188618546506244, 3.8087265749107324, 4.5367549013492265, 135.8366473668042, 77.69383599545385, 20.21762209738156, 1.3854501666926298, 179.42159446639064, 57.11348097072371, 39.31123396390803, 70.00864608163099, 40.359515547635, 75.87848620506175, 61.91056839820959, 69.67782279072911, 85.77683360458373, 72.1201124873716, 79.33885326614093, 63.168936890550164, 57.858178958087976, 66.16848239749315, 71.67140763262387, 74.87857828102659, 69.71483705977046, 66.05913353742946, 69.5290938129816, 76.21602886918285, 103.02344858258905, 60.59109200615507, 113.89116636584146, 4.008667533052568, 43.23016505468196, 153.41986654585907, 64.52699244004579, 19.596890588239084, 33.19632860706603, 17.915119260401056, 23.656420431947474, 49.60478484338353, 87.53807385259667, 48.3838217101796, 55.258458472122925, 45.94717091861903, 74.78180708752762, 71.82526399739038, 77.83291876029055, 66.55381256932147, 61.56241302266847, 56.477790512229795, 75.2507040853034, 51.79165322163975, 63.133955037884334, 62.435957526874176, 61.58267404953565, 55.477813533340154, 53.217663003861, 62.66377190531278, 89.48309766894138, 91.11786058017466, 90.2666749253677, 50.08086264048792, 74.4717450912512, 62.94175145133149, 69.03461659314338, 61.54183036846362, 73.23257112559529, 86.41653952494865, 87.0549756039016, 64.73649244748182, 63.39733238468631, 61.137448432254146, 53.63750202072527</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>[0.8398052235278098, 0.7233631585928654, 0.13803534677067564, 0.2060638040638253, 0.7390260840028102, 0.706905717723586, 0.34933601650590784, 0.3005804345273215, 0.7086428350486257, 0.6609175899350925, 0.7937809537091874, 0.5138759568051366, 0.10642442151995557]</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
-        <v>0.4998302997350098</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.01148815430254413</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.2717600339985753</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.9460379762353949</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.8240615667185878</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.2734004121382012</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.2187105561156316</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.5705805688274725</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.9817219572762954</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.987243910338353</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1719,41 +1359,17 @@
           <t>61.92744586726664, 58.28324815475918, 61.082240461636715, 66.89118339892606, 69.84762702825937, 60.367188264616395, 118.60018147333955, 58.56764636886114, 52.63483805160628, 67.09639156118465, 67.6791476202791, 55.05528278710274, 85.85629438712634, 107.60577480149132, 168.9351642918551, 147.15400436940413, 60.555199191315275, 98.2599237136533, 37.86664553442874, 50.65060366016459, 54.92309256557306, 55.177361515113425, 162.9535434099389, 75.82034815212668, 72.33901015316651, 73.98799294393945, 52.473213167364655, 18.02708631133253, 21.09372520906736, 92.24959575765108, 149.77216357357415, 20.290066942182296, 173.41287999206105, 30.19433363324875, 56.78467061695406, 61.28529730748677, 65.47180780501186, 58.63645270130742, 46.09645531738021, 57.47722650927417, 62.63375056309526, 46.75547053602851, 40.78230524410614, 50.3930244512182, 66.34454266172241, 65.52176861512766, 55.574972280298816, 64.8166563568434, 69.79132163085309, 76.1317186589401, 90.36558841555181, 90.75895887232957, 54.344514745044826, 69.6672182585557, 122.76528252062471, 156.33326304941502, 69.51525179022937, 69.94131821023319, 53.93548825182441, 148.44854547264583, 66.2923833401395, 45.14655795235067, 53.71534536826648, 122.8427458793719, 109.49249806074357, 38.45018298295905, 83.4040894359004, 63.42090955420764, 47.18178818809482, 26.82926396796984, 84.52722493224614, 112.13483535873804, 29.15233536674591, 34.53553222867393, 35.89557556942267, 34.67572313950893, 57.03130727209577, 56.3915031912813, 54.83105082566051, 47.548967114218854, 53.267740173693895, 57.359851208600766, 64.27890599449412, 26.09512193400582, 40.05622230312578, 23.4071627952509, 48.12442721698262, 94.27377817589547, 72.93910207835297, 67.40424799245018, 55.294306951073146, 36.63593684385953, 80.09250981674418, 62.744008475261914, 46.12645398231489, 51.11474108526162, 45.29621739195819, 62.32456119930883, 57.51891238893115, 53.959666771028616, 53.39090416576922, 49.46730603788734, 48.90226024310502, 58.47936733821402, 55.46078084020473, 57.31277983149273, 55.34501288787631, 48.96371993339934, 5.392043409206658, 29.80631236469169, 90.70945965531205, 93.71019199073179, 57.63515688127922, 66.766885233093, 89.11165991790527, 53.657274690587954, 7.056321934575319, 72.1084080631388, 58.57181543735338, 53.72078181791689, 60.936003764571566, 55.845068028231346, 60.772849607045096, 51.23461436741908, 55.41143348843236, 61.31060503812773, 125.79156344776379, 178.47226002407118, 24.34648756370909, 58.08314648433256, 111.02899701763455, 141.63231427364735, 37.21594978052397, 101.98702701568583, 34.493807684186585, 105.3185879428825, 117.20618677125672, 114.66522471828252, 106.0616956372566, 99.2482529935638, 55.80206991386404, 57.7734779957229, 73.69889435565842, 44.497910415937156, 54.28020731636901, 73.44217584834287, 85.56729569590406, 57.7504746554942, 44.182847021418596, 56.1166294107002, 71.10946212553249, 144.99659780878116, 175.23935695441378, 69.04849776188225, 79.88227193381702, 70.83640872294708, 136.79343818126526, 147.8698949286329, 77.4851546814575, 68.22676713461799, 75.42823344206657, 73.02478431143312, 77.75000571965435, 50.14637181462989, 85.72461261571252, 69.55744168036257, 65.55600477721741, 67.87909430541568, 126.51225722963787, 143.44862316197933, 158.29265937087254, 178.53361375112806, 155.16552915695652, 82.87646509625834, 82.12762372278192, 84.84210044159606, 85.46848324255997, 86.5142755450022, 79.01398690300115, 65.37996018793997, 85.92825072265467, 81.33367846661716, 67.28110903667975, 67.5879564846262, 67.1791787137417, 65.16004519642847, 36.76912068277933, 65.29276462809116, 71.30237080005405, 57.177574811724114, 77.83877461782683, 70.81102444953676, 75.9035233680982, 75.78090182880302, 50.33859225643721, 75.9025866493272, 52.133061852205685, 86.68386425017358, 87.89400268635909, 48.72059857743674, 67.4362350313124, 69.81901196240632, 65.95696339099601, 61.32140935819636, 64.77435652899652, 32.96407855197013, 73.73139331614335, 67.44398221672893, 61.01417153395656, 63.87640853255606, 54.725408179671774, 63.13636973394074, 68.96684711402051, 79.3664328425519, 62.12827218044703, 68.86827571003509, 77.30383531867082, 46.768586889860465, 39.760574827375194, 69.6048136750846, 141.69587476830725, 22.333629502856702, 126.28622103907861, 23.325898058910987, 23.573091031520754, 81.05784851902, 52.86936713204144, 90.69513822849402, 64.39781814742007, 65.99252731477871, 21.284469975195304, 111.26649829831999, 159.57647243558117, 142.9861320092005, 40.115393252147044, 146.33922037468952, 110.75359291802484, 103.05938708314446, 41.705476975959456, 12.053207024597478, 22.66476348718756, 80.58172996000201, 10.704658032101229, 139.98980113149224, 71.85056777554226, 119.97360669034528, 144.4527727105675, 75.29376937867667, 53.52464005134132, 64.4943238419888, 71.27736801794693, 84.36832889551573, 93.24882845465957, 102.06789975310835, 92.93905277767543, 82.28593410500423, 63.79096730660999, 130.34871011727154, 91.76604657010283, 103.80818829230594, 138.95103573230415, 67.17689912503258, 56.529388001832565, 153.54739421616597, 148.96147819820757, 52.77176840395135, 55.60943203957193, 58.63687298356862, 42.765103800096554, 58.23827328190916, 63.25793708149706, 75.44434897226796, 134.20725382159824, 46.789997071194506, 58.93639321398591, 110.49529982510937, 86.16042160784589, 83.09584923198179, 147.732412879552, 87.71414120567303, 99.9668218773976, 27.958128709692797, 50.99541392354668, 105.83145574113829, 78.19503409774325, 119.98673712163267, 114.04301937715367, 30.372889798620417, 58.78071386421223, 66.08629698048361, 74.5000503947906, 85.50850722796149, 59.54168715705165, 53.385993661346305, 50.2387518947553, 52.3738438789135, 48.18301802774703, 54.940488606249815, 91.3752283542123, 93.10415772593397, 51.83115320616934, 61.66181519425077, 64.41060095726182, 57.81475497163422, 56.14873821120756, 68.0886061582725, 72.43837396168601, 76.39134715953327, 78.14509648381052, 53.77714589522054, 58.807457805765, 164.3205279673513, 138.9100575302383, 61.61327396144278, 66.2726928129661, 64.92827718406873, 52.92817425691111, 60.58998776733405, 72.63513616757854, 45.87055405874649, 59.36145928414037, 63.05702210482139, 70.74807876176372, 59.75647037068614, 63.35826229570767, 65.21913196925159, 61.5805249495483, 63.26903853597164, 73.26402553970576, 70.15384749033466, 71.36063006154426, 71.54439541121886, 67.80698694118037, 59.44763814875256, 58.803177514482506, 75.20243351736308, 63.03813296193992, 62.05531228067768, 70.62626018999572, 54.14731527269594, 58.40598338493083, 47.74644156775098, 55.8310840484702, 43.07874754866165, 56.155986985229376, 67.76949918150376, 57.3923044229114, 60.39813454503308, 65.55640731847707, 66.07547004895454, 64.19069474141445, 64.12310161398167, 53.511861754579265, 64.5482866141532, 56.94132457804894, 47.05315515474893, 66.11009174046956, 65.72133872744627, 51.816220556528606, 65.87887762516247, 31.663729745349187, 37.645617570746886, 49.578360568164335, 49.95176564804464, 117.47526281624253, 131.10199192056714, 59.94272228963425, 41.667162983577455, 74.68007900963921, 32.76373606445353, 142.3119591904339, 110.20095157148465, 12.33737697398209, 6.428566520894556, 13.551042583119418, 49.30009629977498, 171.95008114196955, 31.01079308308875, 35.30929769743686, 46.8452235966255, 124.62565888026812, 110.90568787461679, 110.25140603996876, 57.954924871629906, 177.81379331897747, 37.04195779534092, 120.16715460587814, 145.42755986550807, 141.61840877270566, 168.22885106020064, 13.297948945661295, 146.21148838158794, 87.96689908750388, 101.1272358682306, 37.79448488307478, 55.027185091156205, 59.90565067097365, 50.75432460081311, 60.129294134005136, 30.590378780102185, 168.53859865902055, 18.34659865625398, 40.382644204746306, 117.06260775859671, 33.6644077812614, 105.10575645933774, 148.8958386857159, 44.17886021909728, 43.578686249305825, 23.076335942681215, 34.440294486352755, 65.56615877003031, 52.01104214863238, 51.589530622997366, 50.103198090745394, 64.13312064375296, 78.75982615134532, 89.33474673504959, 75.17905188486849, 61.07996748512756, 64.76341309157571, 50.576319239044004, 80.19324879378561, 65.45226905408961, 46.757726459789055, 54.35166810913157, 53.24546362699283, 62.71706617165055, 44.78586796080026, 43.90575005449169, 58.10881626745539, 115.66363355580192, 36.43504983837975, 44.40596590949659</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>[0.7376728852835489, 0.055485228478153625, 0.20019315484750044, 0.3793922034019198, 0.7560958179752413, 0.13825716722716608, 0.9442653216416793, 0.0835756345597739, 0.10100843225072875, 0.5994210204902749, 0.3213388070220079, 0.13235407203609217, 0.6039627676647845]</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
-        <v>0.116624059000364</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.717859213396367</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.4030089951618723</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.5881146933360977</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.1151201249233246</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.7976420246681467</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.3649638812299234</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.7782129892400608</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.86303683878135</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.8829013708833673</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1795,41 +1411,17 @@
           <t>57.72996405551844, 61.12626241374685, 50.081658381250804, 59.585311493925666, 68.0105968639216, 65.92706232920517, 65.73186404079125, 70.59468834571202, 62.01570314205781, 60.05919385677198, 68.21765361374794, 66.62789495590859, 68.79622505104433, 68.88354033452411, 70.69704484024533, 83.66819433231868, 71.96276986273972, 74.70848755974522, 58.522607632846096, 68.03083270099641, 78.1126757191765, 73.55758228494314, 74.00922894665696, 76.04123529148367, 59.59693340035093, 103.55150261478428, 15.367150833400709, 77.31667252254137, 73.40929270588315, 74.85508656846676, 142.44334189598908, 111.02182380831786, 16.031992937408827, 158.2858501595447, 136.24822225946193, 87.03216188321508, 65.33575728172231, 62.60516414956239, 72.2534856716679, 66.63677419962151, 73.31012237822853, 124.14006556449796, 53.04311819941328, 69.87475165172144, 1.4753774857157567, 15.951832141155878, 84.41401884374255, 121.08554802428596, 64.58873807607895, 68.77014593485828, 124.45984620844291, 131.30494950479903, 105.60524664525462, 111.34828713013252, 60.88655371078096, 1.7513951986656424, 153.5667304023016, 63.421789213990934, 62.56926847180544, 47.309736551349935, 95.76288558904618, 89.88153698007211, 52.1473748563432, 110.32218168544442, 82.19540333089323, 68.50864455928942, 36.988505782750174, 59.45455775491002, 59.57965661506799, 69.21077836195309, 79.01833176487241, 34.55840929254154, 51.37925797878124, 103.3382396556608, 109.81520867297716, 59.38906210327934, 56.07820012159036, 56.39012751398612, 55.08648461614621, 62.85428515371993, 54.0139448341068, 57.41422459877601, 60.02203608433077, 50.918959626004295, 78.07340129236475, 76.0705790529129, 109.0191927853998, 81.34994250985231, 113.57982798964288, 6.093071483902457, 71.75837695590636, 59.58204991950975, 86.26374508385182, 67.98914133273874, 59.694798598658586, 74.12104897771175, 60.9760819811993, 66.76378740667472, 64.35844127165257, 108.26751335402881, 43.85108562298388, 71.77166436067671, 14.572481232528576, 37.102507747383676, 59.81097847403045, 66.9730887021072, 58.07518743200211, 67.29725858575885, 57.24597007713674, 71.80658020465621, 76.781996016501, 70.84588437420146, 16.428721152828384, 48.15459281572909, 21.885491259243043, 47.74984552886081, 23.831275606052394, 28.881129733597906, 72.55326908920168, 68.43282669666422, 72.52353231340867, 61.71730216908335, 65.15520015569983, 88.05842260517977, 84.82545324909215, 165.46558880445866, 164.9994627228357, 64.90756550535697, 66.09229430038538, 35.673276696903756, 100.83088770145116, 64.85144417778511, 54.29737020458745, 24.188178689178606, 92.09393012381845, 116.83074353049028, 128.1990987156852, 56.53584848101086, 53.595236936431824, 62.56184891883444, 60.146737192836675, 67.99972996677606, 58.32180953919353, 57.382534506735894, 58.047439890534655, 90.11367980531723, 79.64200734900336, 83.45300393703003, 78.83018149645663, 81.93385608079973, 72.68744456726786, 64.03672537613106, 87.36530317405999, 60.414446316765876, 39.10738603659575, 62.59685576553102, 125.87800682966464, 139.5742773702215, 121.8320919312146, 93.30280008014344, 80.94789477599105, 68.75476012933115, 84.08009417054484, 88.95981909901461, 106.83750468355318, 89.64456864817338, 71.89895642403013, 112.6395530433805, 54.630947748882704, 78.28963106453632, 87.69189921858293, 83.22925339438244, 26.30343725662312, 76.4204513127755, 121.39915502953959, 92.83034736478841, 86.5717201048958, 89.41970903084155, 73.27613153591608, 78.96283869930122, 50.573361638817765, 69.66656733797026, 56.61902421220882, 117.35580414421958, 67.93605050607638, 86.71485416213731, 80.80679806351102, 90.48058517190891, 116.40408343903911, 68.75934788000694, 43.39548787734194, 62.648118646104386, 91.94918017909785, 72.0725460507219, 84.98608915814668, 61.85649095063979, 68.34914691921814, 63.92040269960131, 66.44786027301636, 57.853831472785714, 59.744323556474214, 76.80701347084614, 64.57480195747546, 73.24382699713045, 55.417021872180584, 62.46737618900018, 69.4745381646225, 72.99496433001961, 68.47956287578225, 69.56735228517167, 53.7498689719021, 73.50291570478053, 41.750475327712884, 52.83769272729601, 82.86161447894467, 66.37255731589025, 65.87950921266682, 56.99407366270869, 53.93846081220889, 52.01148877579646, 121.49548062634176, 98.4950071820821, 48.93775986719545, 131.92630378380693, 49.42817999200829, 37.45940825716478, 158.27083599202584, 135.19155207117873, 91.31454522132242, 124.82087512117984, 39.03095263948933, 36.734324378480025, 61.32953576633818, 129.9788292666431, 66.6788215428688, 58.72270552359854, 61.69761619410712, 67.92155354576984, 68.64282969954162, 67.2418555913439, 67.75320817484919, 76.97069070530699, 68.42674780137695, 67.70871444573393, 72.04853059631097, 79.48380948054134, 75.95972871221703, 79.81837026797494, 69.89521336836047, 68.54602974589017, 60.2995337090198</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>[0.16290421968327695, 0.634323227835636, 0.7130426047448606, 0.7742528817729267, 0.9480303308606287, 0.2707279902529287, 0.09714615562606344, 0.038387863508580256, 0.15855927620980748, 0.4026914134012347, 0.8219636686278927, 0.7886735987028338, 0.3761219122630818]</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1933262771902361</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.110994789474266</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.1636490306577751</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.6673393423406669</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.6769477918846484</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0.8573228030893281</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.2148835811653357</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.3159513388766609</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.2318791198183688</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.04862101965005872</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1871,41 +1463,17 @@
           <t>71.16259494486155, 57.41470315108299, 54.167237063836495, 84.93831540632304, 121.56380127292982, 44.02013052990494, 63.719377617080134, 60.456805858683985, 67.84341980010817, 59.612092825807586, 56.78172403735117, 70.36748954278056, 39.93373745815972, 26.69049586860383, 24.05639981817368</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>[0.4829126281395314, 0.9565563067839761, 0.3082795782988378, 0.026765922998783553, 0.19588925580883787, 0.6091109539920213, 0.3415786721597409, 0.9932883282514634, 0.01162246277584178, 0.9784258086867611, 0.22404487795750772, 0.8052528232930842, 0.39543414613182226]</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>0.4796201275350965</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.8538101224964909</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9446407364229568</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0.2589159649875526</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.6673462582106777</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.1067740595775601</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.6608547947721568</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0.3019150821556362</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.5233171378762321</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0.2823857713836823</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1947,41 +1515,17 @@
           <t>1.0019273264610846, 68.20357011708819, 63.39731163834378, 60.06576923563622, 66.6823170305341, 63.85979642645302, 63.390939355585886, 66.40570663851089, 51.67735939220685, 81.16485687441788, 79.47533824566335, 75.48511403383918, 72.16308728658173, 68.73448692133873, 166.2333755422721, 164.52378313172824, 85.16975613435504, 93.3654862182536, 96.4997102158687, 90.23409977458489, 89.29104466626387, 48.43184216236515, 118.82303028513546, 90.93749598795307, 109.37899959058478, 74.98556878797989, 81.25928293841311, 91.09586864662892, 78.08461001176221, 148.41106874635366, 50.871370461934916, 97.28279639164566, 51.05775822908825, 47.54273485862739, 66.59417333893303, 68.42773734721796, 36.343797036556964, 63.100807273508494, 82.56925713096875, 71.21136801298842, 81.70790474301815, 72.33520067346869, 81.78528192699515, 63.743082564122325, 75.64341568310611, 84.93828806289685, 82.21414829152356, 86.79234659269098, 70.2331331093777, 82.83303995583888, 78.57399729956528, 100.96947448472105, 89.79614687264622, 87.68390370064652, 83.08607991299802, 81.10160217687424, 79.60674509805419, 87.92352071184234, 80.24356396371299, 84.0872618942833, 76.67235673609497, 31.86932221667519, 127.11836771782541, 75.45234221753947, 74.16771151416437, 61.7428458910211, 65.1883481146914, 65.45474879951412, 46.78023947461381, 39.20787871642919, 43.67967088769987, 69.28733582312799, 46.28616478713851, 65.5470247523288, 62.5676220841034, 93.7427354929569, 66.03105071262199, 103.33294521335043, 64.1377631871135, 66.51556397584915, 67.96265520401417, 64.85966940491603, 55.995033238955806, 97.542189362197, 102.94834833581318, 55.883004047425324, 81.06002010518262, 47.64942904603985, 46.04226325217622, 44.221052519465005, 81.21897615310775, 74.21106356807417, 73.64150674690417, 64.22268225492384, 57.44406402087641, 49.879130758688554, 58.193837430556876, 61.36190018735815, 88.84366814312506, 67.26821858521792, 47.02354910962065, 88.76526598226869, 45.685748160255834, 101.47293972281034, 77.81518925193834, 120.93156824518805, 23.416963981865024, 68.76381381020448, 61.73051743223057, 61.37914721078196, 65.02523151172704, 57.62183498710915, 32.8405632945527, 4.316779996824418, 93.12730462182424, 84.39379903779589, 78.80613001536183, 87.36524139606625, 79.83827513992453, 73.28361448996957, 79.63237488571825, 90.55739660012925, 43.83949141142164, 75.91984955346723, 127.1628852748881, 61.86632185343574, 43.77230056518035, 42.6511550564316, 45.69104282437417, 45.94302190828941, 89.18594206253435, 73.47246884082581, 87.2152774020763, 75.19447294663291, 88.9658183076255, 80.05331152773823, 81.79166807227705, 80.74793225748057, 78.47951312732424, 86.22493399952167, 80.75183049819701, 75.43839851577945, 99.21428671964841, 75.19246256463974, 88.76058972030292, 58.15280923833397, 81.0470080027569, 74.57068722078535, 77.72000571978758, 85.56939948622447, 82.11815660611713, 57.17276310982361, 72.37709483526916, 68.820830856678, 76.34712089621257, 80.27234127801894, 72.70716522284025, 75.50928309671473, 97.76691758284504, 71.36403906340392, 78.16875218455046, 73.40081575521076, 44.30452715390531, 36.90889967890172, 41.129426582217484, 41.60358226398163, 39.99110068609263, 48.465902788330794, 37.395101917294156, 81.52110308167207, 93.16054180583149, 91.69112025127995, 92.99943753722302, 78.81450280690832, 59.13620451169918, 81.82474408067732, 77.00931184976469, 63.36366967525487, 64.68505442081684, 71.59791521166689, 76.07053135717763, 66.33945719076763, 63.36071126581701, 71.9798094480547, 70.28745305077052, 69.35534377698394, 75.88344389554187, 59.909695107332034, 50.167354326159725, 47.29656842267119, 88.16504003029893, 76.10609493580914, 86.66656749533854, 50.08811978020297, 1.296495074271112, 70.36566913751466, 58.999883716626734, 105.96016784674683, 70.37048165475551, 61.23335731069292, 70.51433538549048, 69.75607416882781, 72.58454807356962, 79.43960177655474, 66.3789896804029, 72.38259418595655, 104.32388708369243, 111.60379103941682, 142.93250929854185, 5.851828873624314, 101.17528137415088, 75.13427263772638, 83.92482636831444, 62.79615150804623, 57.21861548505719, 51.7005644266928, 52.01760634944403, 51.21712435658547, 64.43072907865795, 51.77748417358283, 66.27863032028522, 73.27388726290364, 63.06156952969109, 58.01542245208102, 63.603609321088086, 66.43589307919164, 122.64400387305405, 154.32873491889578, 62.2360595577317, 66.33896597700466, 64.52118797281636, 77.44730239780857, 66.70355134615534, 61.691987240454104, 60.927809518493824, 60.47177861466157, 67.76862256265059, 72.98409871273797, 68.73620923260928, 73.34477487095847, 62.37046210113961, 59.4297072526245, 85.751472059081, 47.01996725998554, 11.367368408564268, 177.79254264690607, 56.73703730636822, 80.2298241396565, 77.6390805988274, 66.0075318340055, 69.88984259819935, 77.65700391788685, 135.1940461653944, 90.25737813190781, 76.06049556708943, 137.6536665083626, 169.13321570417645, 132.22959652047845, 39.86615671199494, 80.74882948905551, 133.12378707178934, 64.63755221422292, 63.00194121866276, 144.87383974038298, 74.57747228292476, 15.756414092076227, 28.254130910684726, 82.6615640229933, 99.65867370057579, 72.87390700946088, 68.44493744451538, 78.0019300627444, 52.6040811265292, 89.60091320316084, 60.50757541245229, 67.14017024392511, 72.58901372286779, 65.54842677779234, 74.97376570413766, 64.23853251099979, 61.223454095709535, 58.27014923027195, 61.436131947386954, 69.17878406444112, 60.956709414661574, 60.99573141586606, 63.07068888377384, 57.93760454460269, 68.16622476037492, 66.0387650743451, 58.502886314483604, 56.459743993584716, 53.434846073028005, 52.352581727515066, 31.017825679651544, 3.1095511076044464, 3.118976388595898, 2.66705555322357, 65.12661189887315, 61.88301531206499, 83.06232240521585, 85.06751301784762, 43.84412909628987, 54.56889581052183, 44.56656358399907, 64.62447280123757, 61.67247676352973, 73.70762766427515, 59.06333941957096, 61.595514208224024, 65.60191539109813, 68.66121033131368, 67.37622355784431, 79.65845936898535, 82.66220019926239, 47.52207095426522, 78.47620480322493, 72.88972147613357, 80.36242092276417, 59.90055925457374, 51.84290831134884, 56.337343011161146, 50.915407384811694, 53.06602466135375, 58.29898037391439, 111.00728981007357, 59.800106158784125, 160.40196590663243, 137.75588367556472, 124.5737988500106, 165.97586053298886, 41.521308130681106, 32.70188344794148, 25.090961970173886, 37.65266513450111, 44.28998585622509, 48.75154525685045, 96.6212332594173, 173.39633262344447, 140.0095638111073, 121.28019813477889, 132.91301963790437, 134.5038469875735, 62.58234609972633, 94.00142057047039, 73.98142915976786, 67.48709924526949, 71.37243530632726, 66.22969388942454, 73.66854406277915, 64.13691460058891, 75.89086969107211, 54.17273276087343, 49.744050199778286, 55.208268285200525, 55.02923387382345, 48.57757951999104, 53.71961556003572, 59.90581378735504, 87.32401660226586, 86.70233096973423, 69.33657800501202, 129.00605280086864, 103.98905435655351, 61.39881415239498, 166.96413955239487, 157.87651838155026, 159.1237545281987, 62.21837347303779, 20.65402984991775, 131.96278261142044, 62.17312325252474, 17.51508061644189, 77.7204368280455, 84.42257153531436, 78.3170886534246, 59.05967464797199, 46.17544811929085, 67.22623442130437, 46.8959855383483</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>[0.3405247959062194, 0.06296944392755355, 0.3325475129789188, 0.31271529548085353, 0.923313710271255, 0.16692969667252466, 0.5489348649806738, 0.8697757721445109, 0.7025085743153983, 0.8485160517447179, 0.1002658059376369, 0.05503574145280454, 0.19705776795574337]</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
-        <v>0.7318876917410412</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.3197538644997687</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.6871192147475506</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.04698749488005183</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.1186033788007934</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0.1235499338535606</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.3348370684611796</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0.08546980961533968</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0.6335996697036115</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0.2220662749870495</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2019,41 +1563,17 @@
           <t>63.5391215491211, 63.84860015941665, 65.06492967503802, 61.81992481163593, 63.895417316803425, 63.77894221896931, 66.62672763985279, 62.399014070475026, 59.2691739902127, 63.54494250041827, 70.06223385148687, 62.17455324083158, 56.74680614145611, 60.41273459600475, 64.95225918236795, 67.61941010395978, 65.31895296162736, 124.53408501877826, 174.42256996209292, 73.8653409272303, 71.47208564523363, 68.29211481064841, 41.41926210689582, 34.30261380298626, 65.3594495092642, 67.39045513141457, 65.49182922410579, 92.95947191662412, 73.57744768828476, 62.26563792652486, 63.58171360196689, 83.51154204239147, 72.84968960889331, 73.82416514464228, 29.24953413445288, 73.3495716135966, 76.12500421292303, 61.90457014558172, 53.34514351027282, 70.37975696573393, 70.25788704477146, 66.96549422370245, 68.76625995528228, 69.33896340651062, 46.46999450297222, 38.634820264068445, 46.44859248386004, 114.35455669385142, 69.21697549255403, 73.56870225760578, 61.525639066181384, 38.496237862998285, 63.725890733602256, 49.13917122779119, 63.49396288199229, 80.45744924126721, 62.3038245223082, 60.123080712930175, 73.10974396569259, 62.58067734989018, 61.29365287880393, 60.085343337446076, 6.5836226662326185, 85.13688007873941, 126.41246902831354, 84.36077675475117, 78.99257467649873, 99.96897976484844, 116.39295998065474, 70.46454422238372, 90.2262641921173, 117.77812513932676, 0.6964429602128454, 76.7426711249501, 60.03421374457263, 67.71805144603195, 63.944862052596264, 50.26107441723417, 91.72930576841905, 62.17470884868854, 61.04075770685746, 63.35770624885404, 55.11213492899555, 67.00905464351281, 5.971143356350967, 67.09541826584629, 66.53793322301846, 64.41408814649328, 83.62067646690055, 64.42822867504297, 75.48695678180837, 59.746844918621925, 66.76605517504863, 68.85409220570611, 62.4504503072123, 72.2457663728388, 61.27410944325517, 67.71532175177529, 97.1020825066653, 53.90129362304705, 94.81456143835281, 92.79161911201113, 58.890577398019786, 68.46125202568865, 70.16310689010011, 49.05377830780014, 116.48915468987408, 25.708739377970353, 44.02298532024502, 78.26164279345505, 66.78434014666902, 71.00382472449087, 5.962806449554061, 81.71077694218516, 173.23200855045462, 34.990277043608096, 85.19106663669741, 42.22619016507976, 136.04820733648114, 92.90833730583287, 71.59231902229293, 86.84469314635119, 95.2181693407284, 87.940694318539, 60.566381117830545, 69.94774266262968, 77.24593649353376, 121.67106498806444, 66.77422613756917, 66.13216548939899, 69.87610974552568, 146.8872870929379, 66.32625252458284, 65.64985646886035, 72.2294748236456, 67.07226822911254, 64.72475004484983, 62.8009442563827, 65.73766820205853, 67.26577205001172, 70.53480961645424, 62.08091609112428, 60.83665994753943, 58.749759659996045, 67.50320777265867, 62.108900808872846, 68.91013133807796, 71.29771180762255, 59.305586275209045, 65.5382290513788, 66.17143409136487, 66.96530230526974, 68.71482042096115, 66.6976119355884, 67.46965340774146, 66.56978649760283, 67.7059062162746, 155.12024892155574, 129.49546734231512, 91.96248654636119, 85.36565366914998, 97.8391627583124, 102.29843812890337, 100.19569783251845, 74.79309219401264, 69.84450309133443, 79.55375744315113, 85.734393314551, 83.70821399856582, 74.96380491552219, 41.25812305627424, 133.47161359362414, 147.92773518403925, 115.25625941714998, 95.88679892973578, 156.93543443752066, 121.06777238852709, 171.46182427899015, 138.96616452083904, 155.98568441880826, 139.75181458084634, 171.55161913978097, 150.66132006539056, 136.4948688457211, 66.43694988229225, 74.64091928358526, 78.19559345270926, 71.3894104092205, 71.23585452806435, 69.59201417150301, 68.51929597476332, 76.35999213910573, 68.28082367293112, 59.95752117431926, 64.66284768846162, 63.04262508253529, 65.7496806767841, 69.11715110276772, 61.845424736210795, 66.29279888995372, 69.7407961537168, 69.41179018117212, 70.65921591256259, 60.11287050161533, 61.58859070176758, 67.20108579916506, 88.59432098107077, 73.50540127450647, 170.27486660417497, 58.781951039771755, 60.51259198962868, 133.11231384377402, 148.73177646551378, 176.81197955952445, 51.92736026100878, 56.12468059962051, 53.76792766887638, 61.32090414669758, 58.918912193205294, 68.90055225262141, 63.48180576702002, 67.35039213826967, 28.04161483911783, 38.48704111911957, 170.95784434741776, 42.39827178013183, 32.5782813416824, 27.347465673823947, 63.72203897734149, 54.61614246051302, 61.587205525957415, 63.191052302444234, 74.17424397127456, 69.63621517538404, 63.573114728001194, 65.75905946372006, 61.07416333283051, 73.85490267819591, 65.0672374068045, 67.08206036155597, 65.26034624412826, 62.24468855574103, 64.00360920299201, 72.08802500402994, 65.8775594482088, 69.34482591964301, 65.72837869038642, 78.1171209005329, 79.6169278915622, 71.58732563397973, 65.64576226482048, 69.18750207432028, 64.83620377884571, 64.53054832442012, 66.36179954165921, 67.26881663355896</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>[0.7541775970982245, 0.90185093874748, 0.7092215669012698, 0.9810301842466349, 0.20871051101255067, 0.9314538310438435, 0.047226318191468275, 0.8837050187096404, 0.6131700521289597, 0.15757514317893184, 0.15238669160824636, 0.24279309451926623, 0.46714138939587346]</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>0.9447224369629821</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.5683971044808506</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.6891553589521159</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.4263774374181558</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.2529712903794413</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0.9558089943958572</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.4758931073527137</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0.4575471102664679</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.5332181240236964</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0.9156284448957335</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2091,41 +1611,17 @@
           <t>64.70931711546913, 65.02089535494845, 72.93390946923141, 76.57103701037093, 71.98869853238885, 88.80049779601713, 91.5819925335521, 110.00890186040519, 108.02214679694025, 39.509569616544574, 29.884780745555954, 57.62724694562588, 72.02852288151924, 55.55889538785139, 73.70318839824435, 66.14584628414812, 65.44416613746634, 63.43424009113626, 65.18690829258674, 71.81383568153741, 63.560813694232976, 91.53450625615295, 81.23408959649184, 75.56879092251604, 10.740568002613369, 55.12743572824658, 60.99738740692595, 68.88024308209401, 96.59723143716083, 53.92255848180123, 75.97849267872348, 80.50444312592214, 74.77529226556416, 73.13150532224006, 76.47882847897154, 74.66076695052794, 75.29013274936106, 65.82381803415075, 74.20874766560145, 72.86848179190275, 73.52582689015918, 72.18654521921164, 75.76050402287453, 78.14823837397499, 64.85966239503908, 71.87066341726735, 69.24915724444365, 73.35328192024186, 71.74223633431086, 114.66320341902643, 158.14707880953696, 56.663540952867876, 95.96359918083954, 63.69790412310463, 74.24442207830643, 68.83833931420342, 13.368509366656687, 11.31038372103623, 69.11563642785221, 68.19876326444069, 63.87487565784676, 65.63215018055811, 16.168652298864806, 87.04128127012783, 86.26925390377815, 126.38535076157062, 149.45274466808993, 6.532225358103486, 73.59657834766702, 47.93809471043436, 75.49847837344988, 53.25788204734658, 135.58765735579448, 115.98852661177854, 70.0112656444939, 53.16218804868556, 67.3554138438415, 78.04419180698544, 76.56563267034863, 66.72672721106814, 62.51660585776233, 68.79203826396008, 69.34231772418202, 175.86584242583484, 48.712808258635725, 40.81058943599678, 55.12582704672811, 21.951419774082463, 40.41463488221136, 14.213468676170926, 50.18112718881003, 77.06631865181288, 70.99390062836606, 67.22938713951498, 55.75613068611967, 67.31273943052294, 66.34536277323859, 70.29392761911475, 77.16673618229129, 70.41717712402306, 68.35461507277317, 71.57762972354989, 74.56771338835685, 65.24139346182466, 68.1246387622927, 64.51566941510593, 70.21487362184972, 63.427700020610125, 67.81237371636023, 69.07480913008322, 80.10913618509018, 71.44106570874115, 84.52461827000661, 41.84756308506921, 62.09962167228492, 66.33992105001121, 151.48693898628144, 27.5575532272494, 68.03555748105508, 46.04424938128554, 40.283433305778566, 39.65117958778559, 60.812350825877076, 67.9574018496703, 60.71227562643366, 90.0358466326174, 4.312509487594147, 78.80213146126675, 19.308212766815465, 107.45348602753322, 57.29021860424665, 76.59347825033772, 73.6406178478975, 76.76901994264293, 99.97659107025096, 42.31045615146234, 74.95080363612185, 68.90858660345404, 67.47598085378358, 21.413695044978077, 45.895402111763616, 80.11814158177107, 72.64513438482456, 75.62379629594157, 56.39887663002344, 78.91964081762208, 68.70182453696792, 126.46596530073495, 25.27474275989383, 2.944482672106412, 66.88510515970813, 72.59461729572163, 124.12066607072343, 68.95152085689973, 67.11072154916815, 83.82120154686044, 89.86827313335046, 97.42272383726085, 75.15563967078954, 86.0403819415003, 70.52581099821937, 65.10610019075166, 71.8729250451222, 30.626050660667683, 101.80315211036233, 76.62806320812035, 70.71779708216765, 154.51017898897265, 64.29811715240885, 54.058793509524776, 104.45343239655752, 138.88560845349502, 160.95548812339823, 0.48323612831072876, 65.27997937651942, 72.20303774255311, 137.2764096991136, 132.7104298895174, 144.28465624494862, 71.8820196680589, 76.48775837484997, 69.21448323462864, 17.27495797527326, 38.75133795339206, 173.07908029734065, 63.357590942186874</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>[0.10950175842324639, 0.790912743065542, 0.4278053494602221, 0.0667403010915002, 0.6515109808969218, 0.7002771968094681, 0.20171353732834874, 0.4530201700305676, 0.35050319824964615, 0.7126821524744269, 0.6261258363154185, 0.9290030603909858, 0.35742227545319316]</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2555439694944449</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.3984691590822229</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8188275666554971</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.06745965868056025</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.01568193265974827</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.04324861883824616</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.6701300630554613</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0.2334770655038743</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.3428199760379069</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.01590296361029209</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2163,41 +1659,17 @@
           <t>74.19953040465687, 86.01489739624063, 92.37476914033611, 76.80283920277088, 71.11946333715308, 63.21634657684238, 69.67822051218145, 73.63937129251264, 75.35530089669902, 66.63803368401655, 64.19799444921006, 67.77502533297762, 66.75916042858789, 67.14211674520861, 69.32234618054719, 64.54262367970527, 61.761983991185595, 58.81961145681688, 63.11510227695358, 56.64911282394982, 57.79889433143411, 54.11648082386487, 61.01512304886454, 67.75219451939503, 72.80493713469056, 61.01017232686348, 61.850049728651754, 71.35988639848757, 73.26390713112747, 74.80403992950585, 67.29159929316829, 52.69258186285734, 69.48768372308096, 65.65683903311096, 76.36868169406097, 69.86967386329628, 79.10847772227835, 74.60917747964537, 132.44154970119078, 10.199349791937545, 56.15975611983934, 109.97542777038038, 172.48956488239912, 104.58768674334074, 57.19510047576003, 51.21815238843324, 66.5991731598572, 60.36446895400039, 145.25623254484796, 104.8482427763041, 64.20844676557044, 65.75599328962733, 72.22054885101194, 64.56655195771113, 70.01117149402786, 72.03038955944255, 92.59613492560274, 50.704179001031385, 51.52805249652494, 37.76639130773699, 73.84363037691863, 23.745225617593928, 74.41261051065115, 80.85671914916888, 62.799901859274584, 65.75428398333955, 62.85677605533856, 69.70819153601386, 52.4563385544308, 61.42107097745752, 69.33639384718717, 62.418801717256365, 48.53845764144652, 137.89584092720006, 72.25529394546248, 94.47298564109285, 64.78947625918906, 91.10683612668575, 79.99397702327221, 78.47215967546018, 79.2936551990472, 94.80111386982989, 45.98755227355685, 43.181944037425495, 64.14601887902006, 60.45327036538722, 60.40135519573428, 61.06370627039792, 73.5293484528445, 77.08763917786413, 76.31389608188931, 68.00331016315437, 64.7622595252153, 70.68572913056221, 70.0439743328899, 68.90137432479354, 73.37401149101423, 73.10802264246735, 69.31568309233761, 73.58417505705879, 73.90120016263562, 70.81508143156735, 76.17347579649041, 59.26838449516188, 61.77488637271373, 63.677998731431735, 63.59435810367951, 76.91252753230793, 75.07607758120825, 76.28967260215637, 67.16375712585219, 76.77501679617873, 73.1958620219228, 67.1656161186444, 3.5025018764581586, 72.51997005992139, 84.35384506194377, 76.35426723631447, 73.50368797608112, 64.51902049956476, 66.41425468084255, 81.94127910431266, 78.27891405986334, 77.21507294248528, 79.24012368740946, 170.26970274981042, 61.81046534279857, 74.55744552279522, 60.76893524513116, 56.26227989361081, 57.84052366825994, 55.064503788855255, 59.542803039582715, 109.65834050424323, 69.8506486096148, 113.72789483347522, 45.50760181170989, 25.111568949788463, 0.9209786632589759, 40.22435375227021, 109.57350338727781, 76.70228579786806, 72.41046295121976, 66.05366309586746, 69.47176295455651, 54.79880392301, 70.32005860358586, 3.165217880615745, 176.9501826806815, 73.29216549318804, 62.00015096954782, 67.01148472578637, 41.94350932378842, 34.09191795593, 62.37900546488944, 65.16687743135928, 83.24057464456477, 70.82361117151277, 76.01320042545021, 69.44562844533324, 66.34827386703832, 63.742395628550945, 64.04679974750498, 59.50099433381178, 63.93539343395673, 64.65964772331093, 70.98667887126639, 94.14609907823079, 57.74356523731783, 57.81402233489877, 78.1729844063472, 67.4418032669186, 71.1904784931684, 65.70436044277757, 77.95624253686388, 66.47799792126617, 61.89967982004455, 82.8795793140165, 84.02410584379042, 92.5721054206113, 81.19900205984861, 78.90579847151092, 64.23738815883496, 69.76626881731191, 69.79180602120125, 71.03479586479939, 71.95806841098462, 69.80518432981155, 35.183500756412045, 125.7818001380454, 78.62558519150704, 115.44094356101057, 106.19188905551788, 31.89569477849517, 52.32416161951463, 51.46441028044042, 42.712950927951475, 60.442704825926604, 70.71662089121145, 88.96897837399723, 66.17412447763944, 107.26886435333819, 26.096268372742006, 55.837699279487666, 57.082910924738044, 73.95880909823477, 81.23840281702763, 38.404666533589406, 71.52437090323856, 70.8517256789797, 81.154157449717, 81.61053172361561, 67.4950469355442, 71.08231515154891, 68.88317486795734, 64.61006492829922, 68.92301148761385, 69.59474192594155, 70.5975012052816, 2.736354671510813, 64.96400458852689, 85.37993072231862, 103.64061919024566, 55.66198254467993, 74.23181750638581, 65.91716108445057, 71.67742152038191, 115.22471559160076, 83.53915431636807, 32.300206169580385, 68.54378162824236, 62.869657520792344, 40.46910852785198, 134.70565871237477, 71.06260570251506, 70.79106719803903, 71.9584797625207, 21.66619927905403, 98.25621437091483, 121.32714210786658, 68.61502232285932, 38.94483246964753, 84.06695540199078, 68.85701964106434, 66.17983185294665, 78.24839093128762, 78.53334069428854, 72.81909408701425, 76.43660409719241, 73.49888698511143, 70.40029465529764, 43.436858601300024, 6.102799724864632, 132.24865116822554, 62.11879455292692, 62.81275890259742, 70.23474774204416, 68.68324891089345, 79.19781082361813, 80.30645874473547, 80.80154980376642, 76.65663324591567, 75.12278186694037, 72.09318582295768, 64.390855042192, 74.74006081262245, 75.68937808893713, 76.23283789111169, 74.53970316002162, 76.11315725416539, 73.68676395688931, 71.96134911772226, 75.90369619361736, 49.513403092059164, 73.62730159657956, 67.97150776993557, 74.92857026186662, 67.31380339100728, 65.40217133665104, 100.90786688898216, 93.87318228535496, 105.30788247097134, 100.76968505882387, 97.43237408508413, 50.10250823763453, 57.338191191394145, 60.6352764444265, 77.49448983429609, 65.50421158726046, 89.52318494790651, 62.88671377854167</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>[0.6921008982078548, 0.7186031669057031, 0.16844348264575548, 0.3111510234682566, 0.3717931424946289, 0.49894782457325704, 0.7004441983064301, 0.6264817092629128, 0.0028280000648320813, 0.6740159154554557, 0.6012857437214698, 0.7931491761920684, 0.36814374878773215]</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>0.9429610368183287</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.4384541052790621</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.4867812156599894</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0.5480885595451946</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0.5354672768829978</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0.2536794921717113</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.4471394374813156</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0.1334280848651291</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0.3313859820614999</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0.2801593901088617</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2239,41 +1711,17 @@
           <t>67.48167334269051, 65.96658432668455, 72.03502459270624, 71.40825981060992, 73.4057803165079, 68.30996314119682, 69.94235157812086, 71.11795972036539, 83.81357519336292, 55.48677256837352, 16.65793041318676, 106.83208240579837, 78.23989976795643, 98.06688739565139, 85.45448940006258, 91.46815679949869, 67.51888442297597, 69.95168067365243, 74.13350690904079, 67.25658563102405, 71.62859317404416, 88.1844596253028, 68.23754837704534, 70.41678197828888, 75.53475122717903, 62.07005723098746, 69.3293465466257, 69.91943127029236, 69.5360326445601, 69.42036804107515, 69.06252927794286, 69.99072429190552, 108.37835705070593, 14.37624225811975, 65.35400847801164, 150.22412223035874, 67.20703206875773, 67.81659150668175, 127.8299841925371, 28.888193956823308, 115.29757044865903, 132.48709547085497, 12.13763786642001, 76.18761232469043, 68.98420251816539, 78.99543364925015, 81.14208887763607, 72.25339929657586, 68.12900277254636, 68.26043634311196, 68.90373496890292, 72.66459782278596, 75.13878396408846, 71.97967000677117, 72.56440577078173, 42.8288049124834, 32.024285087231355, 111.03898796284209, 83.94935620733696, 74.1083612774527, 72.00486881947023, 70.75425639433848, 65.25585401997786, 73.94513621429181, 74.38565216405169, 119.9664114830288, 64.0414569382329, 117.51950811020308, 99.85416294779137, 126.56033880306232, 60.57072489587297, 80.04372189417806, 80.96328667714346, 69.47692221961681, 69.14309964869501, 63.731918928288934, 70.25634038605361, 68.84147738955465, 72.08433551220469, 75.10458535348903, 66.90004190263663, 67.8127915802846, 69.94948869765177, 68.1001472526074, 75.70016965035092, 71.78511768074655, 74.59444774368029, 72.33684781352352, 70.27183394598048, 71.7350908453225, 71.40019112154975, 71.81274586115032, 64.07964470876081, 62.97132163987044, 64.32404767524486, 66.14046162722201, 70.7902039290101, 65.78695071353086, 68.38433663459418, 66.0614385028416, 72.85397930681141, 77.17149943980921, 65.20165674745185, 78.1510988475521, 64.21808100743404, 93.12362484610455, 135.18155087820392, 129.00567502699138, 127.8464570908002, 70.3854676289419, 75.36252703700573, 93.52288724588993, 101.88423676953585, 108.9549037966712, 71.12377413405474, 74.25371881454029, 75.84771155523295, 65.87301643641877, 66.87592504578362, 79.7680270727085, 72.50606687263641, 69.79654464780621, 68.99236026599804, 71.70648262236371, 73.70977620373948, 72.0328441542919, 71.46516194001725, 67.5966074964246, 74.87531850175613, 68.78354744797848, 65.9179160701465, 68.68807287210771, 65.63338818085685, 69.30155669858374, 110.63236132647103, 106.40977438629525, 71.64561122194829, 85.16440436010741, 84.46909021593278, 73.97031000014033, 67.95862659272478, 66.77216170956606, 66.43231400750854, 69.88981499189933, 17.528807908566794, 33.377819949358575, 69.33300323329593, 7.758134947109628, 17.313635488764408, 23.319799834586995, 59.74136167071774, 45.96692888023374, 13.841826017143802, 65.21410935728736, 116.41405519082905, 61.758194742805614, 105.7818757250411, 99.22354419109581, 120.81700197641676, 139.63007282150133, 111.26024566146286, 109.87136874636978, 125.95445411707004, 101.17907393833089, 107.57726350543018, 44.68736640208327, 109.71855714089102, 72.65497163172667, 70.84194627431435, 69.82242266303025, 75.60134500020084, 71.24789291828664, 73.6557872950081, 76.2304100391974, 80.47228086224095, 54.89546159564337, 65.1621805293474, 69.47867253128928, 69.20216469548046, 72.13284692600128, 74.51538247585229, 65.67885876377208, 70.51988598615618, 82.95306379399399, 74.33280855221429, 77.31265256973695, 70.39050592412882, 85.50835529778634, 62.470597014840166, 57.40521847972943, 56.054427183308796, 62.38145284462842, 70.63182366308843, 86.44414407987955, 84.04528206590288, 78.44826156777022, 40.82777711900584, 63.31470094361034, 81.83925748815757, 42.90485261915567, 85.37381208540666, 50.9675500578069, 69.2805029183465, 32.15234411746866, 63.826514070523245, 64.84422816884452, 70.37926958638359, 72.68356604040875, 68.39796659355474, 71.57959086826065, 69.12137184884466, 73.71582203395924, 69.11679736065388, 69.19543844648699, 53.50533759369739, 65.76919088348617, 66.13373479126388, 69.82122046583467, 63.52841977415743, 68.01767322344656, 67.41283986132913, 64.93451493297991, 67.81527378581315, 77.94437623271615, 71.3325276125761, 77.79535690353319, 75.29434862176008, 72.9585883839916, 69.80133301763411, 72.11364916824023, 68.42048918336035, 70.51115369482893, 68.42183504990514, 71.3724076673315, 72.96187823615575, 65.93899174442807, 68.61986634620526, 67.65038881939611, 6.592773157715446, 149.10182544101042, 68.11724776022693, 66.7773347599147, 63.81784263894226, 67.71271875314562, 60.61001627555698, 58.519189249348564, 64.66279323698924, 64.76596943161628, 60.2090863698125, 57.436689311912865, 55.28806861045544, 62.76937585843353, 60.85597621511758, 58.728737521347874, 57.69507203681215, 56.753249403239714, 56.41515520355762, 57.253318463278745, 58.38269099048193, 61.656521413308596, 61.994038829133395, 56.26761242753242, 63.05878046818628, 78.93365105598215, 70.06303546656731, 71.97485534567421, 64.304619638632, 63.680610331499906, 65.82969267359019, 68.97695393055926, 65.77710325118963, 62.490937392103625, 73.4188907110391, 69.46736228965925, 69.2104917981873, 58.60042060569425, 62.80320646660313, 60.9376241558349, 65.05548351999207, 76.5412363159746, 62.18241766264998, 68.69329557660227, 64.48809755131872, 71.88599684346411, 56.48342831045045, 58.790797449392294, 63.28753909382216, 62.079392677242765, 60.728155019749295, 68.0637095986462, 60.27113300686981, 63.02957192054446, 67.20828949435143, 60.78232563181447, 67.63698190876335, 66.14759895391435, 63.63136723708726, 65.98203853270694, 70.08567954153358, 66.7336009020274, 82.08624289016267, 60.16186605218912, 41.22175541198934, 5.4087191897229685, 49.65733136153736, 34.050157363725745, 15.821703286711072, 23.58573484579359, 28.285372326324797, 16.165560486662702, 39.85157275574504, 44.75664964140503, 61.72941220463738, 62.049407686241, 70.28325010570265, 72.540723625969, 9.779188409083902, 123.8949467811021, 54.208971532048956, 60.792433992392716, 58.99179817899193, 69.55200732967637, 70.0114363698227, 69.0790876556239, 64.77409627452447, 60.297711788115784, 59.46119071276537, 65.74777489994716, 45.35654870456751, 43.53708839533001, 97.84533875990202, 74.24442688169019, 68.07187449826156, 60.60207533816645, 59.510581431645704, 65.23584128519924, 62.7991138430696, 60.560787957482205, 65.58341150428028, 78.36650984749697, 70.85060568376021, 63.214008582487914, 67.80196495348902, 64.50367562728432, 9.326685811246014, 38.768817425146246, 27.06406768880144, 47.65745517073924, 27.71010194666321, 25.83033895347353, 79.593795982102, 78.05035842802917, 72.98066505804788, 66.549524788417, 62.03395065372166, 68.15045344177767, 71.54043036742823, 74.0237012960489, 67.39691296744698, 66.49298420189747, 66.97485466415641, 68.99551578050414, 71.45744246378243, 68.88314214548421, 71.087011125917, 67.39410003785893, 77.04583329400324, 78.8616610149655, 67.41412184526858, 74.00759412807022, 64.86918540125595, 66.73944658170653, 63.65223137544382, 76.44584548685222, 54.766720219056154</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>[0.0010769008781310596, 0.7616208058437014, 0.042593039054107384, 0.21942674242280646, 0.7361353144362903, 0.3854710176860211, 0.8298780423439105, 0.5315937848749979, 0.5380664105115883, 0.06633789255605627, 0.6607918644208609, 0.01014518688590671, 0.026518901502348702]</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
-        <v>0.6004690812573862</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.4111536026810729</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.5391286600476951</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.8564092115158757</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.2530121106356885</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0.02103439094745241</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.1981597704514599</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0.08956725015938138</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0.1752251301533703</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0.2432328882724945</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2315,41 +1763,17 @@
           <t>62.83847885818996, 67.52360409567248, 67.07755100872771, 65.03145153619072, 67.86946415379194, 67.25514969813516, 63.7424158847437, 65.84313314513358, 78.48274677929864, 68.67428453428899, 68.28141987784606, 69.70334672916646, 64.01584946452267, 67.66263983043734, 77.29561221995044, 78.31018521924275, 67.36185451246658, 73.1981286596157, 65.73390658104302, 100.58220539492513, 165.39382324172382, 66.93684272114282, 76.40089519027036, 70.67919350585996, 99.28212221334606, 69.07355233334653, 69.08677048449059, 70.14404114978619, 68.66338518236451, 70.12435037400788, 72.91459252986711, 68.44826020711831, 69.16670044051632, 69.35528415842683, 68.91769160456558, 70.6106333998843, 71.7340914754254, 70.729955650481, 66.47509165863664, 68.87736348106962, 67.81298922427708, 70.64785877927964, 69.13469031423575, 72.52648258427922, 73.43594785398662, 70.07552355687871, 72.20012276543082, 72.49582618691583, 75.11987705863615, 73.37376971444749, 66.51420365207814, 80.16098220228128, 76.48444950885805, 77.62400522084461, 67.716432126564, 68.08700111244431, 70.75806947372644, 67.96057898258668, 70.76926166859941, 71.09377633247871, 74.13419773479922, 71.01708377064801, 72.74033710703345, 71.66196837849004, 70.50829977562665, 67.62382008077496, 66.01496179814832, 67.46342251716058, 126.82707489942464, 66.18350206361399, 67.07690050184672, 70.14664903523584, 70.52783300564023, 62.038747395399255, 65.46674589788982, 61.57962839188732, 82.41705707585932, 78.91778519563802, 78.1731951976178, 92.8120495650988, 73.87376867325447, 69.10129665989334, 68.3897277521196, 51.56873512852458, 95.1804652850152, 62.43063689750737, 70.92653602597316, 74.88761151215967, 74.38961503760027, 48.50774290688864, 134.43131676650253, 9.7943683410331, 19.06664722330837, 55.111064274332364, 62.083018685377645, 62.83625777165178, 64.35210187030398, 67.2997126939474, 71.07434286260724, 63.06912838011569, 67.61402745462779, 71.27441516721628, 71.43860842554183, 5.1540592539579, 138.08214903044052, 160.8759636108239, 66.26675629310554, 65.08532803100772, 67.7644979824974, 69.44886912060744, 124.65707685859729, 45.02672852943607, 41.641202318756655, 171.49919171795526, 84.02444907311383, 76.97055167909464, 77.1261008519841, 70.23667181538467, 98.79963472407816, 25.227344263359527, 47.434389955449056, 108.40222377163329, 130.5686477016599, 79.64473785745905, 78.24649917641335, 78.74796514604083, 78.02459899429523, 60.32736715588885, 81.85810848685776, 163.3971596549553, 1.6902292934875647, 162.48874402580032, 44.23266606912348, 113.86262168919393, 99.85155973988977, 109.71589556349078, 63.490406134055846, 71.1962423120589, 70.73994995649352, 70.87619452537788, 52.835638828006395, 62.13023730950162, 63.529658402381735, 33.77288753806416, 71.72162219538424, 64.86632947511897, 77.66635493762558, 111.68607352466341, 54.033604650961415, 37.79090159685187, 60.690425300186185, 47.67192221575955, 17.49303354334732, 56.417525026184364, 76.30871052820714, 65.00135541305731, 65.15378059699744, 69.85233266702419, 22.327975180102648, 121.60972327286818, 49.095388677628804, 91.64069311665318, 78.99527805453722, 70.6891450435209, 62.663335378190816, 74.44530168434954, 70.96086394604744, 74.397422671239, 154.23403565270962, 61.171933024051654, 64.30601490698662, 61.682392787641604, 66.64119745630488, 64.38739676641028, 64.24006879299044, 65.92390207839715, 64.16620053605949, 65.05572915701433, 64.94504820872365, 60.942906102693115, 36.700966652589635, 80.57170323966744, 67.09016232624128, 67.70461826468626, 61.40106271847121, 42.81525912671927, 81.65003693437765, 77.15669100366077, 72.01338276429783, 97.52129234502728, 74.42411990218831, 74.4194202873411, 98.21238201509941, 96.14974171071945, 76.27603397603791, 79.67578357244113, 78.48008206627487, 51.537220582812985, 63.16099352751821, 68.30082507072395, 72.21565322789118, 66.78660817670476, 62.85031388220261, 59.80223118860156, 67.4144626212001, 75.84898224309966, 67.81626357214608, 63.63811081480826, 69.59483755875861, 71.38044022514114, 69.24482821697751, 73.57237404053444, 70.59120702903658, 66.40632274108019, 62.58418820994459, 68.3079501667521, 67.86669808262653, 79.57918365168631, 80.37568598766937, 66.5121281387395, 70.4956240945999, 73.22122705463377, 70.73019184727207, 69.32579907451579, 74.82072387668912, 71.50362331199273, 70.5603393440022, 64.2636075653529, 63.45926384610738, 67.88990012618022, 62.27564109366421, 68.06413382631379, 93.38543826005788, 15.196890181360471, 88.51563761240678, 78.01000208883515, 54.28289141969974, 40.513410312485526, 139.5545329628827, 67.51842059386675, 61.6471889658605, 65.57939255519773, 68.81612185855455, 68.51324907570186, 67.34834541294273, 35.43763809878468, 104.19888868258464, 13.826746427228302, 10.113797341599886, 103.97691394675061, 67.70155114545294, 63.75788653364127, 70.51470184404882, 59.32145220472935, 142.21375364907394, 81.03122866213462, 77.80414246037232, 74.30827092760035, 68.08933294310027, 70.2405363013491, 87.4047633950136, 154.85868230968035, 62.21798937460951, 12.407773653191695, 52.58543733989209, 78.26527765681034, 82.63114749160125, 62.97755688694124, 73.301822867767, 77.38061981221406, 57.12170324683288, 50.35122212401395, 61.136274749676076, 76.41465212350455, 71.85377783539506, 75.89325225478117, 72.8448504414268, 78.03973566793074, 74.31386745893501, 65.59717668433179, 71.6015450056718, 177.94143913436187, 81.21836380479976, 127.93932927621087, 110.90701504518904, 4.520754117077313, 51.22442634028874, 70.63882949452817, 68.29701670539265, 66.59450939414258, 92.97404794411247, 75.61757700440047, 66.18594635828259, 68.39533053281154, 75.38460901643657, 80.60833151191504, 84.66728224321889, 71.47150639634788, 72.23736577547487, 70.93644451651873, 69.33528729247845, 70.64991568402073, 72.66212169722748, 69.19668016711587, 69.30760273508548, 66.1085466345549, 64.2566389272702, 63.425559752595134, 64.87858033645429, 63.629189468919286, 68.56581009426077, 62.07458010312758, 62.258152491450836, 62.13249870733794, 62.567805299677346, 70.82031446466773, 69.73655517338294, 59.02759248359441, 68.17684782340089, 78.40244071244193, 72.73882519861047, 68.72236466017277, 70.01999094612384, 68.73909548282666, 66.46529308658153, 70.02472159067975, 33.02475815263302, 86.8703968524788, 89.5502972605032, 127.5820286706009, 102.48369100752069, 61.22082564299574, 62.47725048710663, 68.50589489469697, 62.980148308829854, 59.67303263213994, 49.8084309541144, 135.3541806510031, 15.811430296907368, 54.722817629066405, 105.9670654745483, 8.195130160376603, 61.2574524128458, 55.56251061595155, 110.83881857706626, 106.55883264516164, 73.52056210386644, 65.92126719995335, 76.4099992544152, 27.137972299288073</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>[0.26921597881190396, 0.47753640359006233, 0.31018335485895643, 0.08060956451733348, 0.9175714706497583, 0.2890178139595968, 0.1396735644161312, 0.15635900769464606, 0.131614914661354, 0.9900733642835221, 0.5610766808030562, 0.18525177527467218, 0.6078374336314509]</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
-        <v>0.9586069352950415</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.3472457677448954</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.5866748986744124</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.3412434344560319</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.5864971079704537</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.05837707980611906</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.3423498596568239</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.8268850519685604</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0.1915579574524864</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0.1754364118166459</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2391,41 +1815,17 @@
           <t>78.58507606598981, 69.50809924400107, 72.36642270517056, 70.61167527424843, 76.35891203945478, 150.57678616494266, 99.60403088418367, 39.76443779890058, 50.2210947416624, 96.24942574237004, 63.27097694923546, 67.17275513750042, 74.50496988282814, 72.86601589383824, 78.4453458687101, 78.65530686580533, 72.74528341959973, 73.92388243903157, 69.24141872376639, 66.64234579662914, 74.64649244973992, 69.9734684701866, 97.95683923596138, 69.12024193444992, 73.9043346215284, 72.19392083919836, 76.71545458420142, 67.48587647267544, 73.73776205494691, 73.39632041263717, 74.60507413397545, 75.95305369056838, 72.4846432376396, 77.36667067095358, 71.70521200078157, 68.18557507454524, 75.09112946012026, 75.5046475321168, 100.42768477295921, 68.40250835892057, 76.79301467161504, 81.56252383826738, 75.32438160941356, 77.77068868880255, 80.86986560771619, 46.06927341216901, 53.579230451590185, 61.05502309014615, 62.52979637096937, 156.9424069715343, 50.81953305773668, 59.86832888687957, 74.82934717741213, 64.9331346110889, 64.2160148542383, 69.81438212519971, 71.07982249245268, 71.29893601738802, 68.19323571420003, 80.95928472345226, 73.67063785283642, 36.344022148850705, 48.05208154390736, 71.39152747182939, 74.24408751670104, 77.0772567221406, 78.25439028381896, 77.53234758503153, 76.5308577428011, 77.92803974236993, 158.2928716830074, 109.22530630065852, 41.21273334050109, 110.60649739715612, 48.64673446188429, 34.817733769717165, 67.74084390644977, 72.17748758870816, 66.30732380220043, 78.54725110050751, 70.98489650476101, 74.58455936344089, 77.20764922048913, 65.95039529466635, 63.339584257242535, 106.04637232647805, 6.747685867428288, 170.03203510559948, 60.35554241489222, 55.74978796946901, 90.29750554567607, 58.48936238171072, 79.3771219667608, 83.27540068957711, 91.00582605816699, 81.42645224320728, 80.4001265008436, 93.26868732800473, 25.13113737779681, 80.04772923351, 73.20795480649065, 77.07762834723857, 113.7054535557586, 34.45194737364585, 76.5900783214904, 73.45883763059238, 72.99376667061284, 75.65645657313632, 79.6862270197379, 76.19993548792502, 29.292361240103173, 131.00873325773367, 86.17995276298954, 145.41421536532368, 138.67052850357504, 60.15169045012126, 70.28421352769321, 79.1986967741228, 77.06816439770611, 75.08149987612599, 73.52109244352079, 134.42910767097734, 148.76999895977983, 67.7008150766984, 16.42870581947588, 28.849558954336953, 14.13502332777736, 33.80848817146454, 79.95248925573539, 76.36116198845598, 85.0581663782833, 80.55721063190732, 83.64742408905214, 80.29576117325534, 77.31157182771344, 74.97423185706064, 72.12894701307951, 73.21948613642179, 73.45852624921872, 75.85045822035609, 85.16426712728342, 75.54780706361208, 74.83417799898211, 80.09142203397121, 74.53267937732734, 80.01641052278512, 81.98179789304372, 81.50874226836696, 79.40831008114938, 77.85890645155425, 81.02042413247791, 78.71561638094651, 73.90943633757884, 75.29145576722726, 81.8829664518727, 83.8990127228998, 80.902986414116, 74.50477079327878, 79.30291924650155, 76.91030519974518, 75.78236112401554, 73.64450878941497, 82.58341460568494, 78.26926251841991, 84.02029805790323, 78.99444171866256, 64.87951620111474, 77.28912976500658, 79.13032746620732, 78.77019962817586, 73.3726733770986, 73.8194953376499, 84.6667412499687, 111.82004878657543, 91.07159394151466, 170.61140133835087, 71.1246522605985, 80.86993909963056, 78.11472469842413, 73.88661084056857, 73.88086220177597, 78.18093317400306, 82.1619849165599, 81.68887415322415, 89.91089392633683, 37.406960651681025, 105.57637019377474, 32.30654939805563, 77.02239121057103, 114.32260785441188, 52.973440207837, 64.63337853787066, 112.85560727484126, 64.84737525583043, 62.60270383471621, 81.20693544889212, 72.12961822356117, 68.80511248481245, 81.25724904928134, 82.92118680428887, 89.46625456995018, 70.87400583105511, 80.92059457010637, 83.02632768405147, 75.24907120891812, 71.88714770836906, 136.4050065223265, 73.82350556156233, 79.19336065219315, 83.68492957387637, 82.69946321205308, 43.74916805701681, 44.62534433103739, 7.687931434428522, 22.21997113955654, 1.1007356533739405, 43.13288789040175, 40.96790710789376, 43.5335361107701, 67.14353497315862, 69.59750217446022, 81.74877717114077, 76.46727630395979, 77.05462816594202, 72.46918184811442, 81.32304996636796, 73.12009603498069, 71.59124838140458, 77.0983897317079, 79.099179863536, 73.88476928838588, 76.74001641467042, 75.75223380542792, 76.7698423970299, 77.70094760108954, 78.73779666382656, 76.817501214828, 79.76381445846614, 83.09675354388818, 76.56667246271122, 75.89069570598028, 68.83877093108036, 76.92779364600844, 73.22344377437159, 76.88424487997668, 79.47296156332429, 76.56514621829838, 26.100306696963013, 100.76783838780828, 150.56822016241978, 64.04089167260251, 72.23788239739764, 78.48689214027321, 79.57874578258912, 80.28612081886159, 65.01060775960603, 85.71515376918995, 90.08402455807975, 95.45239765250453, 87.87952463947298, 41.81602080781249, 124.90587934954955, 82.77998819679765, 78.67726755802155, 72.9877758069802, 82.54308730988414, 75.09940160664776, 87.59350760894617, 81.91171400337355, 81.3543730704931, 78.50571716512766, 76.08136223007851, 79.26629592030248, 58.9749882940063, 67.73415218904411, 72.78159854469115, 71.89802769004868, 50.38223958898497, 81.33299010510792, 73.97882814201057, 74.57500683603143, 81.46775463245359, 64.59149075416236, 77.84785656385444, 82.62989662445594, 72.11776732742861, 72.89970132538234, 66.3823189653635, 93.77914694147161, 83.76613571204038, 82.90454388560529, 82.95271991618147, 72.56478028637584, 69.0324089546099, 86.42358479380425, 89.46285572569607, 90.08960654191183, 86.27433563150208, 75.3725400953946, 78.58878912935033, 74.53085665330946, 74.13601321802595, 61.37026706048579, 89.98495636151443, 86.28330459885206, 79.86237588587448, 78.52059824756893, 78.95833481755511, 70.33192613751298, 71.15829063573919, 69.23862262423116, 76.00635130585965, 82.00067534128863, 74.9832675281118, 167.6650084618506, 33.51327147911854, 26.59121999519407, 52.075408147762765, 17.78375353359903, 100.22350131619808, 28.579768110606132, 24.786512859886844, 29.17055417112102, 85.12997084387706, 83.90648601386007, 79.696285323274, 72.93891383212187, 72.59890530866515, 77.84541051635655, 74.70872997243535, 72.40606914644566, 67.61042470446526, 73.31696776283759, 74.92961126893505, 74.03399471542612, 75.19535268030585, 74.7348034378692, 77.79007469228789, 71.86462920154518, 74.47922297965935, 75.38721140381246, 75.68799256687628, 75.78546772333152, 72.72758949068778, 74.32905799372747, 77.38070677244653, 70.6281955559545, 76.64992609562894, 76.53616278040624, 75.53292400718128, 69.01495072697593, 72.94859260042114, 74.95664830673434, 74.42061187216316</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>[0.8942601088563636, 0.18789059622106774, 0.21153294305075954, 0.3799436929384663, 0.31551711219638245, 0.9816167979967813, 0.36460569058634706, 0.8894217810728465, 0.05189871841928739, 0.8409872271287366, 0.21652691642065514, 0.38520817922232975, 0.7390815962923859]</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
-        <v>0.7508496003148092</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.5751959595167727</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.1865598115184884</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.4727767071539806</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.3127560317586906</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0.08378400516569207</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.8643594130683425</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0.1379043262971802</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0.7462296997729165</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0.1017841704180776</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2463,41 +1863,17 @@
           <t>67.05787469184098, 62.511629011814065, 62.59030507652603, 65.86735432860546, 70.95692478058106, 71.10214994367314, 70.3132487546521, 64.22764307384733, 64.57819400621695, 65.48580728646671, 68.10543301485863, 70.38838941801846, 65.61983187825464, 73.01557575774133, 72.23295762372982, 71.39761657938521, 71.6608998794667, 75.09254536342321, 78.16922427669932, 81.190197572206, 79.97887193300242, 75.16014371700355, 80.03983785537552, 75.95259372577564, 69.08117107885604, 79.76112182226771, 70.3408766879883, 78.19623123291873, 74.5152649364421, 74.95637648079567, 76.25021109336707, 82.65985975906827, 75.25500674573085, 79.34374148538758, 79.88922768358908, 78.28314806136784, 81.5193684241925, 66.43759290029558, 75.11290365299274, 70.20223766406761, 73.17701799360962, 78.97840254767414, 75.12837176466624, 70.57412676071864, 76.05194200800663, 74.82196209932383, 76.42381263181007, 75.8009688301489, 90.62828568143762, 74.00824948720833, 83.31131258327513, 73.70944135270469, 78.01104002223909, 76.95588257582833, 76.48558835622501, 74.40834475149704, 77.09660139034942, 79.11308050756449, 68.61867602374963, 74.24229542908272, 72.55824862204773, 74.86455116925198, 74.1828640658555, 75.90953390524456, 77.71538223065328, 77.15227552409961, 76.81427199423337, 73.88311238200997, 73.47938161745155, 64.87802354408043, 67.7712581580435, 71.43940373012553, 67.12879528322007, 70.6485728436748, 70.17028380020507, 81.62750082656476, 77.11215293039116, 75.10366131548787, 74.82866093840089, 80.19019872760309, 77.40018165576487, 77.26216231756169, 80.25214412221065, 76.49171866821501, 78.0845594505569, 76.49104496294454, 78.38094297747391, 79.30933107368865, 76.623224744076, 76.99090591471496, 75.37282896203965, 74.7694631830117, 80.34416613249851, 79.175219453138, 78.29483427444771, 65.91456614500407, 78.00755622759257, 80.0934464817579, 80.03509223801508, 71.88841361360299, 75.87822708347281, 79.2300820226237, 79.45445163165597, 77.49564363276262, 79.46315779900938, 74.02733132156773, 82.83496147223357, 78.27207379381008, 73.28467815876172, 77.62001340724265, 77.14475544385157, 69.17876846798644, 76.30321840676484, 78.32836084147104, 69.63759421555233, 74.51735607795838, 72.37405656209161, 76.61010935898081, 69.20757513319009, 75.9882716863133, 76.238862054149, 64.95528827884833, 70.2941155328669, 76.60927308453222, 77.96650487399737, 69.23882065998575, 77.15263830382933, 73.46293807152907, 82.23899992678116, 79.42350722983522, 72.82825511182843, 76.89752131561605, 63.75448188110046, 70.26002721607841, 75.16582127981164, 68.49729089496131, 66.90022615379954, 72.7653911139686, 62.48891522087769, 80.23108377165018, 82.62184477243096, 80.19605273920571, 75.85319696809384, 83.65069300655651, 73.86766956222542, 69.72174307712062, 68.64469468962966, 79.6820832745724, 80.61295684267704, 75.96573806843998, 77.62184052042937, 78.32448297760939, 79.53824987830792, 71.20520213421325, 78.68265868203459, 77.19159340930561, 75.7841495514373, 73.00359957066709, 72.35690834932903, 70.65920301474473, 77.12530467982562, 71.08674387676709, 77.48985931411787, 73.41915139465637, 71.41277196940813, 72.09093703588385, 71.09108633598056, 75.69501073863763, 74.16495777745051, 75.87329608909953, 73.06631363382454, 74.11919461967491, 73.02392627998971, 73.2354115360454, 66.54369340552918, 68.01050775312406, 74.76673820357477, 71.16811269161823, 71.8662586519351, 75.86246840210988, 75.3163560449081, 76.40747074023524, 79.82967176892976, 75.1967372603963, 72.11932805926725, 74.8153219580109, 76.21742855933242, 74.69660970065122, 75.09474178705196, 75.13550817380298, 73.72899021547856, 74.73523067528468, 68.71091430097368, 67.75221789264597, 67.3255190873613, 65.16886142843178, 69.48179013472551, 74.24500388838122, 62.6014614098847, 76.4818922209313, 71.66517101717325, 71.88227002678553, 75.64806640308146, 65.4863366841552, 71.84573866599953, 72.93646282112226, 74.4208001718985, 76.76686180407712, 74.08427097125953, 70.98728845751596, 65.79235419259808, 67.6560401482365, 78.3496795899644, 73.95333599427495, 78.48520651418303, 82.94208350741036, 72.33944697734269, 76.86584419116579, 70.05437208804555, 71.34251975973292, 71.20915912368756, 71.19318343319067, 71.59756705136212, 73.23444758360844, 70.72194453955437, 79.39432689341417, 75.49884627103394, 76.25038833438742, 77.00559168746882, 76.30273405485023, 77.7332313214061, 75.5251484536406, 66.15102708591223, 71.79951627324733, 67.3823270963013, 72.01784010293485, 74.46631914896867, 71.41876769991799, 83.19008703172986, 78.74130907843991, 74.34832405682329, 74.08546050683152, 82.11251080117277, 76.87079094947151, 72.88493859010264, 74.99132757658563, 73.84256371428538, 72.91434881850886, 75.09522412789592, 74.83347204671877, 79.67474078095125, 72.19557386533108, 77.64825084059795, 73.49210479473768, 78.03762353473552, 76.0547324715492, 79.59331433454682, 72.27901394963362, 68.7230978599803, 68.88906736413631, 81.64172322953966, 79.15895204807985, 72.74410964393634, 79.47714907428487, 73.00940295793609, 77.27327180086868, 74.1212815452471, 73.41184285859045, 77.25738122944833, 76.81054178942568, 83.46635323703998, 72.12637587795048, 72.89321460345619, 70.58918416909663, 77.48616856993122, 77.21840816678007, 69.98201981643726, 83.39059555786913, 80.43140722472442, 66.26338283987963, 74.12401547002766, 77.84394518477774, 77.33882333862113, 70.21707353447461, 87.93453201635359, 74.9563402201607, 80.80569617648429, 78.43084848127813, 76.33710784051276, 78.57233120743261, 80.94336708451556, 77.46118536825892, 78.26395858445903, 65.57012006579107, 75.66727434268238, 77.97915872888477, 74.95745506738706, 80.6411575958509, 75.1132975664493, 80.23243246200514, 73.47924699165205, 81.0517994862917, 81.85218693904163, 71.93687835284662, 78.78594451509133, 79.35979582388855, 79.28553832330422, 81.82998667622465, 78.14392259782686, 80.08335670542523, 74.27620761033613, 82.06883674731475, 79.9433464340095, 79.8405135294952, 80.70028835510173, 79.1430528878326, 78.47777814966598, 79.15519986161061, 77.13598542207183, 80.5058467654969, 81.25125533726717, 84.27242118755119, 80.0897506685456, 62.10878190957602, 68.17958047002935, 78.40696257526433, 80.12861820773978, 80.59427677318219, 65.75447787457603, 78.66841021510932, 74.00467208035757, 68.06499795441243, 69.43025720030806, 73.8989988929329, 71.21535277562556, 72.50728364346955, 63.84184421590645, 64.35360246450502, 76.67859269406101, 79.74937709198363, 71.6031400762877, 78.95329054843336, 80.62370337499699, 76.25859626994391, 76.74136405419213, 77.27610821266752, 82.85243438094359, 76.33043242359496, 68.7089787571495, 66.53956366416581, 73.38390547747059, 74.0309601678914, 77.03425431903226, 72.03104109031054, 76.34545296626408, 77.80187261164313, 78.49928961438371, 75.1880404268235, 69.21210023270976, 70.43715752643004, 74.10409605763364, 74.41001703484699, 70.7235113985987, 75.2110861326476, 80.33602908438563, 78.95812373362763, 82.80910068536123, 79.76480047832754, 57.31227155729766, 66.42135419100941, 70.34193732450629, 68.31428310194389, 76.86949111469131, 76.68247317152932, 77.11923872068527, 77.51366807456756, 75.75453297483499, 79.72382469469576, 70.61715979377406, 62.51478851736613, 91.46702481519004, 74.6760015250385, 61.96317942525764, 59.68557573632529, 59.402075559808644, 66.1792077111331, 74.44699356814436, 75.54179622899557, 77.18667062336633, 79.86650101640907, 73.04647370544564, 71.88027476688677, 73.21210606386559, 67.79289763672251, 54.21010605110833, 71.50191364868778, 79.65759676161062, 73.10331697620109, 80.58365556620174, 76.54950029724097, 84.36716413903876, 83.09689731322432, 86.50102527568887, 85.19028593249529, 85.36495101892972, 83.7969192503659, 88.32315837722254, 81.15475408271757, 66.50621845183848, 79.87866485359577, 82.67752004230086, 80.67777700689996, 84.70345354374332, 75.57904618071841, 77.04814969362683, 76.13180573686785, 79.34556120088125, 74.81102369970634, 67.75367767412394, 73.9238170764846, 77.30380077234967, 75.07001247919024, 74.57430235802312, 76.57930632410726, 79.63104276188429, 73.78914617179822, 69.99892057690491, 64.78139277521832, 73.93768404253284, 71.55778265201259, 78.3257905218371, 79.90638608907058, 80.89761674862984, 71.25295432891456, 74.54003872352152, 81.47962619962138, 82.74014052094147, 78.17480825887996, 82.52784569743099, 80.77384603626658, 75.88633146182966, 73.08305043794265, 76.59092881949344, 76.74730354494558, 77.12288617933852, 78.35200901615514, 75.52318419728782, 77.74677325598672, 73.86190225365276, 80.16085315035215, 71.2405541237428, 76.9763712117292, 73.8012530193004, 75.03037716770864, 72.71177220514672, 74.64201827336916, 73.31922838877382, 73.31261965904132, 72.73133278664781, 67.7503916459017, 65.56223057247945, 67.38443168796873, 74.70452739979984, 71.80554039088913, 72.20168390476027, 71.47700335517281, 68.58140724900072, 71.33765660757493, 78.73271527803024, 74.65956538145734, 79.56516141970145, 75.43505758440226, 79.95098727630517, 81.98093853604806, 82.29687600792569, 83.7302260837106, 82.97453836783968, 83.20666773313509, 74.52653554202848, 77.10532533410702, 79.48846125579288, 74.14357644218315, 73.01209346937878, 71.1201581803943, 64.6542518431451, 65.46601243139176, 74.62923574449607, 75.62362157114755, 70.38417363922214, 58.398332013763905, 64.39894332752144, 74.83639586513208, 71.6647497678296, 84.39546697568976, 76.04165291061399, 62.27126350965082, 81.19500687351625, 72.86419224060448, 75.25837825140033, 76.69497230893823, 79.5546673991832, 75.55538665484859, 74.86071646670557, 81.9579892560065, 76.96761600370704, 67.9560058100181, 79.82154860604118, 78.98811279663614, 85.22205662362359, 79.60763837453531, 79.9066568334667, 73.38333492332781, 77.39445349847506, 75.57869910863795, 77.54859917215195, 72.20238832339679, 77.80273330042787, 66.42131920914572, 76.21172297465561, 77.64715906908435, 67.47639313270768, 74.38347640826355, 79.93561421100648, 75.49658514087658, 83.4050583795477, 75.91267031132544, 73.90566030806735, 80.16846581477176, 82.22040191716432, 79.48158792291993, 75.6078385205685, 80.44917779008703, 74.09179751033297, 77.82670714258857, 69.3036950404862, 74.7666138005337, 76.6362475468547, 75.5726553185442, 75.6847487552266, 76.22812535769312, 71.68954248932698, 79.75534489840139, 81.32720287311137, 79.38085471111603, 78.34042890064742, 80.3087239027979, 80.59056039783353</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>[0.5501503043633135, 0.21833228959825968, 0.8532123074775465, 0.99223467513828, 0.49028512597793017, 0.3272898683711568, 0.7091832773902738, 0.744349805251767, 0.5099812034266067, 0.3706047156238643, 0.7749884709311398, 0.23811352002803154, 0.6374513946489693]</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
-        <v>0.4161006327063129</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.9820734362653899</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.4406026608441148</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.9307832183194883</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0.7554012826082034</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0.4206508092274746</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.1770332061684856</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0.8031497948443991</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0.3876521676287289</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0.2422184359634955</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2535,41 +1911,17 @@
           <t>58.124871603723335, 57.69054046942235, 57.06875421842309, 56.9121613747922, 56.549820649829414, 55.88014009106639, 56.655816085327146, 57.74819695709033, 57.84803432500273, 57.78578280950336, 59.272915283138516, 59.305470455735446, 58.76008339870008, 57.77671912167406, 57.79762194627789, 58.11594632348807, 58.6268154646852, 112.46221062821098, 100.50769228520977, 137.14201756107957, 97.0617258898067, 87.59441051058127, 130.43662607995756, 44.3781556146101, 39.81218929228701, 119.35762137098139, 93.18265828824711, 130.30122603243763, 72.83933870278815, 92.02706812697248, 63.90383244916922, 56.688217171485114, 66.88596861167532, 71.24425064970634, 175.91646132138402, 41.896671755843656, 120.25632189087037, 113.95940238420678, 59.415866323790766, 158.41564455626798, 62.61467343392205, 64.33742872994604, 58.57769233631164, 62.65633344718756, 68.82015817382951, 74.43059435078857, 86.89847453429167, 91.09679623319944, 91.80307301969637, 92.89527099664551, 92.96480989291862, 92.93684873980465, 81.85285362657866, 81.83315227862617, 80.92592625960376, 78.62954286625944, 79.13831438939918, 82.0058671244232, 81.89750544364809, 82.78174646947397, 89.22658358551864, 65.96150296062358, 110.88595261352722, 61.056225110112536, 65.84959622202238, 65.40255076921628, 73.28632856002285, 65.46978015123655, 67.7188332390114, 65.70279564323727, 68.397222908249, 69.82160919256327, 68.2197206030204, 67.68162968565456, 69.38837305446424, 66.3950674865195, 68.05936913816473, 71.11154278940214, 71.99633413294485, 69.40489371215477, 74.45061952558638, 68.29434436455148, 71.66582769720405, 70.77196923833375, 71.19389416226754, 69.89616202742248, 71.51252323857693, 71.01786989239136, 65.27037651735218, 68.04201088440136, 65.53527433084419, 66.52046897016636, 69.44601913365472, 71.02373250141063, 67.09917280810166, 67.24049684960444, 68.4590646672458, 70.7266706045338, 67.89114237939609, 69.47154530827454, 66.70177999717787, 67.87427394717099, 66.04797249264634, 65.35596544335606, 63.639487827803585, 74.56548645240606, 71.40780859508209, 71.93222513935443, 75.89525745497411, 67.99307228330599, 72.24551551122424, 71.96057034344932, 69.06646815583758, 69.32148450304148, 73.87703216474021, 70.65693094101505, 71.95939925707415, 68.59272474331068, 70.00774058196798, 67.74322619046002, 71.30119367137759, 68.93821840240157, 67.21932225153634, 71.87997738166436, 72.28891837384413, 71.47334509507891, 67.89542369925768, 66.99437782179493, 70.1467317323357, 72.46468075391145, 69.77748918040648, 66.76581823382662, 64.84144850310174, 61.21365619841427, 68.5115185393503, 69.98377624920815, 69.81959806539393, 68.65861620798037, 71.0361074062502, 66.61554084843252, 67.84688218756429, 63.42288850482879, 68.47835356677085, 70.45661154311847, 66.14408929289542, 71.82164876346319, 73.3095746515885, 64.18537927141998, 66.22854081692982, 65.91864003916102, 68.29066786186937, 68.4762815490009, 72.04669473640304, 64.20610814646162, 61.81166044923188, 65.95658003881762, 67.94890246599412, 66.71201814071631, 70.61211342821657, 69.12992097512372, 66.26575848317297, 69.30425123008112, 72.14397063170601, 69.03010843782482, 67.42522607884506, 68.19641150418235, 63.33381086824509, 68.71341830817666, 70.22883137957162, 68.18597351284319, 67.2970220481139, 68.58964255481114, 67.10288870820352, 70.81195556299556, 68.04800975566904, 69.3566883114085, 69.86334741401065, 72.87315301820402, 66.03465581916123, 71.33595873592921, 73.50229166817506, 69.16192561811391, 69.61516910435013, 68.00324080782474, 64.34442667006296, 66.42517830577957, 64.38211833986024, 67.93583287926515, 71.21980939186261, 68.53919457966718, 65.444992484334, 65.14190857214568, 65.84675957279026, 67.77685677178023, 70.96527396840017, 67.29663856803205, 66.70422606468048, 69.7121899256624, 73.69496897268512, 69.0988046351353, 74.59159073337972, 66.82174410556118, 70.59369420438425, 73.35842973432972, 70.52564966416107, 73.09650877588004, 63.11721945087799, 73.4599298082889, 77.85645567758328, 74.6286669933585, 72.4002116666469, 71.0863465755636, 71.56942784727322, 67.49621161775161, 78.56377819884221, 67.15095125186267, 93.08292302363735, 74.176698558854, 72.75569765839016, 72.53354177101495, 89.48021557132805, 78.10013028394012, 77.67291421599091, 76.83499042092242, 66.69028860340885, 66.9500592345819, 65.37448493921399, 66.08213709315521, 66.56315872352792, 67.3639162335057, 68.51007358758781, 69.5737126389562, 86.61946041875207, 80.50491711142838, 71.38100279422979, 67.40573041635112, 69.18533880877442, 67.9489625384021, 69.44018694899262, 72.77708175212757, 73.83005981703006, 64.3230672682902, 71.20476153265587, 79.63449792021179, 74.87608835044922, 75.4002470450795, 67.88756741039333, 65.88613095606426, 79.1789954696433, 75.87915435746562, 67.87855563646302, 68.9674461293062, 68.91544041887484, 62.82124776329051, 64.7290788561626, 71.18665659453481, 68.80408503993749, 69.06601580899554, 68.27259205179973, 71.64476533226424, 67.80876793667206, 54.8747120973021, 21.858828492997038, 46.69566653403091, 101.53456079623231, 76.35676199841285, 70.35695106585239, 68.09091735603077, 67.52443293943574, 69.82986925210527, 72.768522146904, 72.67016913097324, 71.1745053688863, 72.31677266202557, 70.8023389866325, 69.36305974321606, 70.34009464021527, 68.89326479508355, 70.06896742526114, 70.46421718931349, 73.36537292624425, 71.77014864921595, 71.41037962277883, 69.86196836096023, 70.83431046737988, 72.76031609644895, 69.2469615433897, 70.33665211345496, 62.03420848133818, 72.28047855184853, 75.49677925099353, 66.5975931385556, 73.56505683043824, 68.35906162698615, 70.59877635109693, 72.04712686086222, 67.70719437262314, 62.53530038497077, 59.046521916890505, 58.864865044112285, 55.844584715242036, 53.927665622948375, 66.60101714674272, 74.84285218688828, 72.66699937797847, 66.50584654350655, 64.50374735741508, 69.9980231255861, 80.01576996701566, 75.63198980850194, 62.951709696065784, 65.38284113271361, 71.92226307223174, 69.13858722144577, 66.46514623049626, 65.5046269035607, 72.7189518282097, 71.88990375951563, 71.03048835269419, 73.42560877247327, 67.5902161541363, 67.68009874256411, 66.17014103131393, 77.27600448253347, 73.34976448717079, 70.39639193231666, 66.06924463673828, 67.85689027837431, 68.76971341475462, 69.05664034875556, 67.97336182982681, 71.23534794264759, 70.14290773909346, 69.87574704723849, 72.69892821993196, 70.12554683146854, 71.00334510154579, 74.81148422948698, 68.01219024160231, 71.7015743766579, 61.976282198389384, 70.70892589480371, 70.57816087136237, 70.19566554352862, 65.1536262309127, 65.2083629911017, 67.28973777345863, 69.64925679629116, 73.59827536876753, 73.01471255618881, 67.05353931693384, 66.63335753412828, 72.09504409202195, 63.04859363236118, 65.59506597126698, 66.04806568242404, 69.66602916285785, 75.05383102780114, 66.36016028335446, 64.29110099350677, 68.9671196693257, 79.74063240562393, 70.74224193434833, 65.52870775351879, 66.59559438551925, 65.92438796458673, 67.91327082126212, 68.80098721839107, 62.74844201661879, 67.80377837414, 65.56571381302207, 70.57969003573676, 66.63726522029916, 66.32465904136829, 66.22335414461972, 52.03085167308569, 75.9241840014923, 177.2494491951664, 79.23246135964759, 67.41993581287416, 68.98888686897736, 70.15705959444112, 66.45506803799006, 67.43770416986875, 62.595553409650634, 69.40441624659968, 73.63721767906401, 69.98738307822519, 69.71935832772589, 60.63113803795884, 66.49438796804912, 75.29387126640052, 68.44507204803193, 64.49719975154571, 86.1797128357614, 66.22747384520659, 68.38460573533723, 68.63837566785894, 67.67384201918371, 69.21081563340371, 66.21033652417636, 86.03949035106497, 63.18809806406394, 64.97733866423678, 70.02932553615352, 67.16008538701199, 68.51807930074352, 69.5566341593383, 69.08558879660792, 71.94955985795362, 67.83626571375645, 67.46132049976455, 67.64135737050015, 78.3482030280182, 138.10700296893623, 67.44742596076962, 67.89555080115407, 67.69411965292858, 66.69097334661953, 66.1940032030104, 71.50948627980355, 71.54127653983814, 115.84349324847577, 60.30116543487796, 22.960355591354677, 73.50583074651004, 72.92815311593961, 74.42806351175193, 74.3014262243948, 72.0535699344833, 68.40365978805615, 65.91949995301437, 74.40942459901598, 72.11781017618996, 65.05140394032503, 73.20645964812722, 63.26676577036084, 73.11027220995166, 81.63877127521266, 84.67565027802128, 87.3666568572635, 78.6110042667929, 78.0137982100443, 90.41805031868937, 101.5120972902342, 92.93302193469634, 99.9369371268953, 66.18902023026837, 72.81284081500645, 71.47236345160732, 72.78342917436184, 64.95536742174673, 63.68836518003804, 66.3649069353676, 72.07197705337025, 68.53612961110927, 65.43677257944532, 67.95604052961235, 67.79901945045829, 68.41750750788951, 67.94658146154805, 66.7810695808998, 65.23895298085988, 67.10040675870655, 67.86860714823402, 66.24444122923133, 65.36946143946895, 67.89967170768925, 64.95221713808486, 61.90751225996899, 67.55026334820815, 67.78085143770276, 65.60405335193076, 68.49142713335247, 66.52095511532849, 67.72697284820627, 68.43134611290706, 66.93090676471978, 71.3347034382356, 65.33295480080473, 66.78815567846662, 67.43246484987777, 74.63330987578212, 67.99673013174515, 72.39387408068067, 70.59923568449469, 63.8558440498476, 69.58944780201742, 70.62375597511323, 68.56053515416227, 66.10169264607048, 67.85238796292136, 66.12992649133857, 68.08056374407667, 66.17281376782479, 65.09028808480399, 69.06573655345235, 66.70574979448554, 62.629018988945866, 64.42951568144338, 70.80071993358767, 68.07802142538101, 67.33095446238309, 71.28332646016717, 63.32066912612073, 68.3354246313824, 69.9178835240714, 67.87779309142952, 68.91334508569632, 64.156550143949, 69.50644645376352, 90.38838893853213, 107.44435119204678, 118.36250212560836, 117.83806476068031, 112.57268740204745, 111.55597414578384, 107.10840769619395, 67.34421942339954, 66.58753920905754, 71.17939736834872, 71.1553686480653, 70.38292475340886, 68.93189403602805, 66.6019791118158, 71.05567914121083, 66.82604989779571, 64.22890891142586, 67.77690193277786, 65.29302077766224, 67.85060084247547, 69.88778734758505, 64.67390020872487, 65.09148844144362, 66.356208192327, 71.74549148584717, 67.27593784199688, 65.49978472088758, 65.63095322263091, 72.60635937406305, 67.55806147655741, 68.07822275592162, 69.29849092979872, 66.62511563622272, 70.48748655000534, 70.15160523068846, 67.72334468897785, 67.48480096162592, 67.15968853563803, 66.43522179813239, 66.96381170668316, 69.85131517316805, 65.40015407133896, 65.89529621367748, 66.4579415555472, 65.9412118122556, 66.31331798544988, 65.2058698616752, 65.77371635389183, 71.77589562188061, 66.55475657902322, 67.20761891330781, 70.393547207515, 67.31237770861968, 73.16525243459508, 72.8254161599163, 78.9528750867681, 67.01852940571118, 68.77389445796568, 57.4848054535768, 72.18068636024515, 57.827828991920825, 75.07496640924283, 68.29983271573997, 69.6709384124595, 71.79343638204625, 72.15352763950581, 71.91336382994378, 72.56139626030705, 73.55312890072032, 77.04944674851204, 75.35384363308326, 106.23815475980011, 148.59507702341085, 131.45114011348596, 124.27819522116981, 99.64465220273482, 69.15673050968742, 67.84910151425025, 70.56644575602493, 67.41027784433437, 65.9149016992774, 70.85124561020226, 66.82638746932768, 74.7792624856588, 81.58404044925555, 72.06257554052402, 71.30900680094882, 69.53277208313729, 65.87036643997303, 70.29662494854165, 67.99306888090675, 64.59962982641483, 70.56318394006115, 65.83778632703569, 71.31434800890626, 69.26500039975836, 70.12509426629823, 69.3980180058282, 73.87915317207421, 65.78360656651822, 72.26595338101892, 71.18708358045296, 78.34675114595008, 68.7124873998738, 74.2732623455961, 70.21217415455436, 72.75550042524826, 71.98095914964298, 68.13024811090403, 71.70057477479831, 95.47259077164117, 85.76633107210203, 93.44100084922484, 83.77035792284953, 60.422391018140495, 71.52135377544593, 75.02797838718683, 76.29576869978708, 70.94055103206803, 74.65012804719656, 70.00901761285148, 72.31271384391145, 76.36804430183331, 71.54161299702285, 67.87731675321058, 66.1192325767033, 67.19158835829633, 72.590553123041, 69.64010449227098, 81.79183863009581, 73.64628059345463, 71.65966224262263, 72.7585178984541, 56.52898698381455, 150.1108427570003, 74.11522875436307, 73.71452491598768, 77.8367227539805, 68.86528887958814, 67.30062955138915, 70.42156913411345, 70.88702533272372, 71.43481254085391, 73.60032100739166, 77.4950069503939, 74.62648392070793, 69.58459759384256, 68.66661093693746, 71.65973149220001, 64.46028231599384, 66.04442535252353, 77.04497023085841, 74.21387044654718, 72.44189407997372, 69.96098381373129, 71.18953429907776, 71.91270561420366, 68.42936439720789, 66.45028715079741, 70.61285501139412, 69.41566001155866, 69.63837277162565, 68.13097258646022, 72.51330201562931, 69.91910531729152, 68.16716062287992, 71.34067237855614, 74.9802540326153, 71.21688006360321, 69.44299907650307, 72.4820314287452, 70.9709690127685, 68.00077357849328, 70.28573782387981, 69.077051494997, 74.08415777975362, 70.04933027504337, 74.13701496441335, 73.86256885333279, 68.11877479454574, 69.09107159771382, 69.11478109626577, 74.78754603873769, 67.37566328607835, 71.56318966399614, 72.4416632014958, 66.39529985371794, 71.71821986942813, 66.38387545681798, 70.66045951998795, 68.35359111958986, 70.17722096585193, 72.72921092675548, 68.6711050789372, 66.53819981860124, 68.41473775669975, 80.18084981015087, 72.56268316781824, 75.13920246109862, 67.84342712969152, 69.92787913510801, 67.21291153200644, 66.7738891312508, 73.50542011773946, 69.91196496088861, 71.67082357046252, 71.73696557502431, 75.34225967053422, 76.22345812139703, 74.34095185493514, 76.13284673036736, 73.27089901719941, 70.92911322780184, 72.33059656302488, 72.06066392404557, 71.05174319601296, 74.04138243896217, 72.11493940696205, 73.14255250649875, 72.59272197217336, 68.57369078297809, 84.94911323074895, 68.60329643469905, 67.4588836427523, 75.06040461889286, 73.27085233052884, 71.03498504245567, 70.175883028603, 73.92700031520381, 72.0003780381076, 73.29749286288119, 70.3342624435965, 70.54595260683489, 65.32242172760246, 73.2551355014707, 68.7004340242276, 68.73193625457559, 68.5213728708889, 73.59480434954189, 67.89309728305209, 67.17648303379391, 68.07578945448793, 70.04254769362147, 72.15609749790737, 99.89250512203382, 82.24256182275126, 69.36726649555052, 70.58088693658408, 58.17593616773114, 48.01424944840769, 66.45395853514138, 63.62340427518304, 51.452892672794825, 55.98209362336835, 19.45079081759317, 28.990780119725393, 37.552951955933715, 42.202153793409856, 42.155525661285346, 49.20945462670508, 49.48758613752785, 41.92178955477524, 76.60296687309025, 79.88575321214121, 75.28275536081289, 69.38318958934133, 75.85085097399269, 76.48795407765354, 80.27373207215864, 82.73512443961296, 74.55955413216152, 71.82493717008086, 77.48459402903872, 69.66414290814544, 70.75850486625615, 71.27370707956784, 74.9500287522535, 71.00618136012503, 69.27217942044464, 82.61470764595792, 69.28210955040723, 71.65427620064958, 74.49689316617736, 71.79396607068522, 74.15239962072144, 75.07731742991119, 78.60647967812689, 70.78721679603555, 74.34152317017016, 73.32709658638623, 71.5119207024135</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>[0.5563172297801918, 0.6214742593572286, 0.07430159139256798, 0.12913675448488904, 0.86389129078697, 0.3993003113589011, 0.5699299358571224, 0.23081105953051284, 0.9915029458005016, 0.7348445900772624, 0.8118100061767115, 0.12017576075312753, 0.02841642969858782]</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>0.151620078954373</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.2408740381596107</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.6633421385110756</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.5917020543430085</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0.8348383951005753</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0.4068509944495352</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.303014293234553</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0.06228937664998568</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0.5339718014505356</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0.7947270975427688</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2611,41 +1963,17 @@
           <t>88.39417799886107, 67.19618980609272, 74.79392952974733, 88.35548169377348, 72.179078513443, 79.26119016715113, 110.40653895500621, 86.67484461454146, 100.8595692148964, 27.777249118338712, 27.994278525700892, 108.43062115260884, 50.89546003405574, 37.84570522161397, 69.00502694609374, 83.5617942303942, 80.71788189490178, 123.91702642738619, 149.23950674157217, 32.014981383174636, 68.65293622889777, 68.15272837186541, 73.22065534298574, 68.38807632286888, 70.80671600141991, 67.25555457394046, 71.23953729208226, 72.0532789247184, 69.12016325067484, 68.00783618254022, 69.14883273642862, 78.63545806671222, 83.70678846332736, 80.94179689492387, 105.43698859700419, 102.33380252569401, 71.92764237190241, 71.01291926635932, 70.41071697050215, 71.03627542392793, 70.46598153263794, 68.49112952854955, 61.557439893113624, 72.57068248416606, 70.99491893853306, 65.11603632121987, 68.34875122554752, 68.7931323095005, 67.94748848269876, 67.37552388099803, 70.37580520585092, 61.76127556220054, 58.25883017459303, 71.45236859695788, 66.21521782384778, 69.6709060460741, 70.38201632876249, 68.1560500181236, 71.4213494080061, 67.04854161614227, 65.3128631288908, 67.93135832785752, 67.35320013066, 173.75926471032682, 68.9726455561453, 67.43064465968911, 68.27042361629742, 69.68529246141036, 65.28835140594782, 70.64319410415908, 70.22705312465742, 66.95186766237546, 72.46864799123375, 67.28437336389383, 68.71149804891641, 66.66867857483841, 66.03923844904871, 65.34801011342057, 66.63439906348233, 65.54746328192357, 66.16188877831979, 37.33208637029559, 89.1412167083992, 76.1446657753721, 82.59909080510658, 78.54441573022855, 76.78305466356811, 76.16253409452501, 78.38400568060798, 77.75045559950925, 69.76912213609566, 71.53075029988563, 71.0748434934454, 71.41375736716843, 70.08100077230574, 68.79811517053979, 74.53602953457006, 73.00093359878103, 72.79886370328764, 77.84599904918336, 74.56506748722943, 71.84870792874153, 72.15008928395932, 65.98500410453642, 71.26364123493292, 68.47832696382332, 73.0768767184722, 69.86468901598302, 66.78275768287799, 72.09529264784652, 72.86195842452467, 70.58933745071568, 67.38366050298646, 71.8709243196179, 74.90661312328335, 69.78238161842235, 70.94235879282361, 70.1831270505249, 71.45062889042362, 69.85698090644726, 69.14597876106664, 70.17198776938446, 70.76775591188883, 67.73743904385694, 71.76043590537209, 70.10792027178547, 65.95691095713265, 71.34173264570873, 72.93776237735217, 72.7223845936001, 69.64186953664891, 71.06991765912689, 72.51542372597847, 71.56049781674864, 73.32432288655274, 69.14200366613206, 69.17871276892085, 68.38449373406111, 70.89786573352913, 69.12498831392467, 68.33026484447426, 69.56866227169662, 71.24630010998139, 73.85334349150052, 70.6967814643277, 68.26601634824522, 70.02666158414607, 75.59789149869584, 70.19113214320448, 67.18850095011989, 66.46237972592102, 73.49611266057582, 67.09643894995172, 69.161429932082, 70.34052083745509, 68.523501585328, 72.71918449321124, 71.0628289517906, 65.77764334882316, 68.80616503816282, 71.5085769458911, 70.72088809414491, 66.16982315807773, 71.45024619446278, 69.92133666580183, 70.18045388465141, 71.18733117596302, 73.2817966547256, 68.5279315810672, 72.39684988754807, 68.2772683615584, 68.85819582096777, 74.40964156749179, 72.97394374852992, 72.74431869669343, 73.20584662621765, 70.77851489307514, 70.7621439473732, 71.34141106087698, 66.87907197157925, 69.44071092511847, 71.34312319606451, 69.52807869006087, 69.13016300898893, 71.33879269887593, 73.31987935529874, 71.15395783518838, 67.08606163363166, 69.59596728305235, 72.82443661097922, 75.09629627437315, 71.1735046634912, 70.25595409876149, 70.8374922260994, 75.31816332453774, 68.49534685972604, 78.20395338803812, 71.98735054105792, 72.65597314967691, 68.20912245101576, 71.26851155820948, 69.0748991301249, 70.78376789793934, 70.36317607151322, 75.2106504642535, 75.34575642259928, 67.27824561476534, 71.31867039682585, 70.79451610945092, 64.33775660636658, 72.27345199040192, 97.14398150405181, 89.33602168883834, 48.57525560232493, 48.51954837522407, 68.97647918081121, 67.89152385498828, 65.37206557750591, 62.104640882159494, 67.94762862703132, 76.10748044529439, 67.53556257529203, 72.52451065837626, 60.070116451807884, 67.16393414989754, 67.15135647591633, 67.70569804622704, 69.1231862075468, 63.695750143735495, 65.06499378520259, 62.89468547994049, 70.13743317679419, 65.64142259659562, 71.18083088446078, 73.91607811169325, 65.83194079067384, 71.7849099765322, 68.23251501479518, 65.4512339901083, 66.81967861138361, 72.09131251258515, 67.94676707779617, 66.3281722409128, 68.65627939669584, 62.892476568188485, 68.30833609721051, 67.86808891124345, 67.32334340971346, 66.46590552287263, 69.26212698552244, 71.94776681059076, 71.6800837886023, 71.93408513967938, 79.55332359790256, 80.95272058345817, 104.79047183530045, 110.2596289168784, 166.7674140503838, 39.81471127029577, 70.80528862225822, 66.43570716793347, 68.4620184608208, 67.90981490434345, 67.71165331698515, 67.40114874843077, 63.9957029765886, 67.95640384748205, 66.74921088319259, 73.84238674337276, 67.12487939938455, 67.5944699503914, 68.81017887288316, 69.84458205851989, 65.5794317299049, 75.59393627557643, 65.25500313943355, 72.25478391306218, 71.35313950637068, 68.18365541545549, 69.99473787725132, 70.82371189061425, 68.04755682279267, 69.6772900827559, 70.88488773583386, 71.25013218407018, 61.02712311819027, 71.1459503311453, 70.3878362483232, 72.1314130976317, 68.59596915286382, 67.46877707508047, 69.58692859238428, 71.07685101691978, 67.82395488302276, 70.8138166065057, 67.12259416456652, 68.91804379876373, 63.54209759256109, 72.43418226406384, 67.88027164337882, 68.42729399776339, 66.4800984579139, 66.98729584860043, 69.37706291760642, 74.01454015733151, 69.4378344925523, 69.19849115560619, 73.3068227489894, 68.40836206510014, 68.02685849915625, 65.56395131420264, 70.00091183348955, 68.51490400265348, 69.90389830048812, 73.86569547192643, 68.78777301837124, 66.98377144796221, 70.96527776134724, 71.37197006186312, 70.93717693081182, 70.18049259971058, 73.31510119034505, 67.61013454632939, 73.69963968338874, 70.33218174864824, 71.13500542421305, 68.31802239567803, 74.98729382945284, 73.54785346931924, 72.10634696479757, 72.67438016536234, 70.59439554884955, 69.54481058069621, 73.0057069258562, 73.5946408484525, 79.18247675416062, 73.41215333131316, 75.1983410588014, 73.33721087599461, 73.82218491790604, 70.50086999441088, 72.44349131360924, 69.86407687011585, 75.90561583427642, 72.33768085525101, 70.25979936401636, 73.628677687129, 71.38515357747188, 71.64738348574649, 72.28395218211864, 69.71664242213782, 72.9822928551735, 71.47158221380761, 69.94551629127255, 74.99633717403105, 72.7529423439467, 74.25423002919966, 69.23027110515307, 70.9678233751717, 68.84595463215068, 75.34043991405228, 70.82288420328454, 72.95647483551458, 72.60983397534608, 70.43629558170768, 70.47771886298484, 70.95009735717979, 66.31343291313593, 69.32872941905997, 74.22065734182593, 67.56258585028795, 73.25313136394182, 73.55104327668398, 72.42333894166703, 78.77070709806908, 94.55843349016895, 71.91890367718999, 69.32974395234187, 66.76852751983472, 69.24321101257964, 67.49673324842936, 67.50351608784477, 70.58117957689683, 71.60533796180667, 67.8022293741711, 74.925019150651, 68.35955520074467, 106.07405471866154, 99.80122660600556, 122.79538355919462, 95.2390034163258, 148.87151829656418, 85.82517734188177, 79.17425122146942, 87.05119131350057, 68.2390661628596, 67.37586997733925, 67.15379813241687, 69.68319117016323, 68.17315685072174, 71.47455536335904, 68.36272292484438, 69.09294089029213, 77.247020759182, 70.99867219333018, 73.43111836289681, 75.41060292464846, 64.9819878667141, 70.74484682946576, 72.57510800513849, 73.3282591611754, 71.19385030788844, 72.84884895342266, 70.95304438299786, 85.9857945230639, 66.26164542308086, 70.20018981309707, 72.52557916523646, 73.30397399413934, 76.06723013852277, 71.67592649987087, 70.98602152013952, 70.7802487955996, 67.12147681215704, 69.7270769618117, 68.61112663565294, 69.46818306522201, 72.91333349172722, 71.93170826801072, 77.33145454168496, 69.41385130863154, 69.15529380960244, 74.80105315191679, 74.36822443448055, 72.31821475271428, 75.35026409774589, 73.4923301751752, 74.08814614563784, 70.36008973618307, 71.54529035266553, 72.34570426670405, 71.05748535080566, 70.319880269705, 68.45647127992308, 72.37566882919369, 70.16780707376508, 73.11421491261684, 67.72971513802854, 68.97026941495488, 68.70593702453166, 69.37660593455108, 72.33062252007812, 70.45932069979078, 71.82104462057221, 70.52016045309406, 72.16732051217173, 71.62450817373984, 70.48924646436554, 72.80339745472354, 104.78696286667243, 54.80672982561761, 76.55737291884995, 65.50879229761988, 70.33302501146443, 100.68100810700047, 95.46825465194199, 52.39747075530323, 59.2869661877418, 115.51356994809775, 47.96434007838328, 51.04268846622265, 60.97374372613098, 68.38479946836267, 66.80053526605985, 60.658813891649174, 69.30640867407841, 45.21916790163862, 30.700603558089377, 86.50163859808802, 63.45695127374299, 61.09017807856938, 71.4362234633767, 70.97075606303781, 72.30856638361995, 79.02257105881951, 74.91981301969113, 70.3811308725537, 76.34263047117251, 74.79051243904391, 70.20775074516892, 72.41542308125867, 71.84921827425197, 71.152546917549, 71.7582130865925, 70.88687962829461, 72.06363782099315, 73.74760652428932, 122.28352890417518, 162.7749744898442, 73.2186267900195, 71.97405734914771, 74.04670347953903, 74.27155525114291, 70.9647039263198, 73.42644000433293, 71.29079542238703, 72.77324907120675, 84.14632249103384, 101.86386907492543, 174.48215024805955, 150.31316058784435, 130.19442797890233, 66.94973837759287, 73.70458387550137, 81.18991219493878, 75.26040346873154, 72.98497107293386, 74.68758287881668, 73.58286303208412, 67.04102390758132, 73.7138227293526, 74.01778252423327, 72.37587675365985, 68.85626781022391, 71.8097980024819, 77.14805776558538</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>[0.1095162323222616, 0.2632790566326445, 0.16625394867656207, 0.0048509734211877875, 0.4698563214955128, 0.29494308035265593, 0.5623655866721552, 0.11353421165052069, 0.22135139340202714, 0.0348718614048521, 0.4916217052747007, 0.5413880130504358, 0.00031427479315271345]</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>0.1784483621651198</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.6371556579641322</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.7589372044966107</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.7227286254951016</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0.4131389299543163</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0.8112928930689465</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0.1089835795908752</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0.7689219557989048</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0.2821791959166869</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0.9092436773570811</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2687,41 +2015,17 @@
           <t>70.86678859766445, 74.15072681785232, 72.61155723589863, 71.94645984827315, 76.04994800119144, 83.41843164311356, 82.13230750186047, 73.71223411141159, 71.63036000944426, 67.5093903349873, 71.02131745919317, 78.88765598173227, 66.13911526686739, 74.22027432822998, 75.44681359610789, 62.02368332408575, 75.59283228720274, 76.32833402697862, 78.3510771073297, 75.13284662570915, 78.2654107035966, 57.4700950032688, 69.8279145064442, 69.19691400055976, 82.06771305758981, 61.60088578354354, 69.61570590714051, 69.23170276045806, 78.61762810318872, 72.92897755292556, 71.36388518463107, 77.47780924817624, 80.58259922994726, 83.40680651009441, 69.88133343857022, 75.73876787034787, 74.94774676083644, 75.63631510230309, 67.290253246162, 74.09613711083804, 73.98381492561045, 78.08562673525526, 70.87286022756746, 74.6557605604163, 74.13272877846687, 75.98054586150471, 86.25467840750288, 75.77238775614559, 73.53759715305632, 79.02364987943942, 79.85291020953481, 78.1357357881221, 79.84497432941532, 70.57638257773519, 74.47331051924664, 81.93553671543954, 71.81817948110921, 71.5360296561494, 80.26281711266274, 74.8473801011473, 75.67304796589832, 77.2346185159217, 80.08762573246848, 70.49573112328635, 73.97991716750597, 68.56564265081813, 69.92182958972576, 74.65244851340273, 76.64468893628502, 76.54181202231507, 76.27876349413103, 77.93128180325631, 60.23005842040882, 69.47852898040603, 71.09415266579522, 81.14905131109437, 79.00583289555524, 71.09993028111533, 80.14035401361372, 80.21503363313117, 77.09725172471411, 73.16543055161993, 74.65958856562858, 76.22454310345564, 72.5494424890195, 71.97082452954254, 72.06970898389496, 64.25807719376867, 70.88674868043591, 74.70487923043443, 82.61282105074231, 77.88259296058968, 71.80847687000539, 72.77118094863206, 60.08046238668526, 68.6671395471654, 76.91092837745867, 76.2061622876744, 72.35213309196543, 68.70977232594745, 78.1863069343056, 73.52130760585752, 70.17488550306662, 74.05009371326108, 69.60904394609693, 71.01928978688777, 64.79078155009464, 69.22253092945338, 71.13254867214982, 81.56870667720119, 66.5355355365239, 64.62800229428122, 61.01373213191976, 63.38419671080889, 74.01078101153442, 68.00753519441712, 67.52563867013788, 76.2389841360537, 70.01430463427837, 69.8227442857585, 72.35184037470148, 70.57736274170533, 65.46342695631846, 64.12476154515507, 70.41921003220024, 77.67286848899784, 72.97249193720278, 71.90901414293675, 94.87986310696708, 84.15004644099506, 69.06694778954773, 41.46727545013769, 42.711303306211896, 41.6795162020059, 41.276541739794276, 41.39900946221415, 42.16072131011059, 42.04180147413614, 42.94191454250867, 43.404097992554185, 44.266635126403365, 42.051977712304456, 41.81486005240517, 41.76523224073144, 41.72618253695814, 41.67243304892086, 43.05767574872914, 43.84941548090822, 43.732746472267436, 43.52699511481142, 43.21457812754746, 43.11002756131864, 42.94661485810871, 42.1239724266861, 41.545031384539506, 41.28629921381914, 40.97459749774373, 71.3262137378948, 70.73166531308125, 73.68662205588008, 79.18976569069089, 73.99365031960333, 83.22944337772402, 85.39977592235452, 90.24927517639287, 91.8273028432364, 86.3653802334928, 72.22297488178778, 80.92676549095427, 93.66766645833097, 80.34192895336922, 74.2855392575728, 90.57144149722343, 76.70269056724743, 72.8297367353613, 72.04481397588292, 71.48442544464403, 68.35625349585086, 79.408465733341, 96.17508228647844, 91.45381586858656, 84.63039404378786, 78.06327061561022, 77.239957418823, 75.18397235485801, 77.12267743055138, 74.97164017758504, 82.29275177839186, 74.87364308670769, 80.39617428549951, 81.94552053236129, 76.34792751940134, 70.99800099939164, 69.00008947793678, 72.09910045976547, 71.19307515440664, 69.66218369753248, 76.19646253602008, 75.75763514598118, 77.18846269054632, 72.37519893990874, 73.20884628589344, 90.08696772680503, 68.123518451944, 73.3688993917691, 75.95106382645227, 68.53980053400318, 77.90658271363446, 71.70885249373197, 77.98190806679676, 73.22354575162463, 76.55738611701753, 78.79184124920315, 76.48611438306456, 61.88809920114774, 66.02431222769647, 63.84168568458364, 63.048240100340045, 65.22551429670916, 58.20853676510468, 63.626589308979234, 78.9475624946252, 76.49365458554831, 80.64374924227309, 57.532612911578376, 61.486970994370466, 62.32212464555855, 75.33654111207402, 79.75153988586929, 76.88623451298128, 73.00555628942476, 73.37660740173368, 73.31577312447556, 73.20204367942195, 74.25418396012552, 71.60150704703695, 72.91521258197373, 70.43979106732668, 70.04554663015008, 63.92949300479683, 66.99498327144832, 67.19886945113555, 72.04710118947642, 71.64773037043156, 89.32361956092026, 77.53060599088576, 76.71394818744355, 79.06513904938872, 79.33380848111405, 71.87946616624725, 72.91611041387618, 71.06318846712678, 72.97647480038503, 79.7843683713675, 78.74559989171729, 77.0342580636417, 78.64229072700938, 69.31801621659392, 68.94667450775516, 78.5232005743153, 88.59443654025665, 84.97274078873244, 77.54649565082684, 79.55043534179597, 78.51681264410081, 76.93075004852547, 86.06886673984461, 71.79487607863622, 74.50702411820983, 74.61117456158969, 75.49725508051989, 76.68898881411484, 67.05687943079279, 69.69421201149642, 72.05291265642427, 77.75178333609631, 70.83594663438019, 73.7405913982722, 69.00824327318806, 69.42173157933767, 72.44870111286039, 73.3268878763605, 74.09557715297701, 74.97407833510523, 171.89289385747026, 74.71358113449669, 74.68096779047139, 69.4320303711676, 77.86360745887934, 77.94070886040807, 63.48322496213589, 66.19819151775454, 65.7753057119007, 78.82727090896724, 65.1199665191842, 65.08909245439308, 71.01754642640137, 65.33755110750594, 61.35684826175823, 65.94087487993943, 64.36076350266595, 72.85396850491858, 70.37108153199095, 68.76459507151675, 71.8772676179078, 74.1581118480722, 79.72873195792846, 78.28661963115138, 79.0037165673847, 78.3450723553782, 67.81212293911035, 70.72082059342738, 70.76973720760957, 72.37087726497742, 71.928617225799, 76.69886976740709, 77.10826007577543, 75.006349063478, 92.22390021556899, 76.7009881846168, 68.52815566485525, 73.26430275124572, 66.00788202881093, 73.69215474493286, 78.26487194902592, 77.89549652841039, 77.74134258300904, 78.34513473200438, 79.33250306347789, 82.07881618638989, 74.96808968271746, 67.50703843226613, 75.11862620934585, 60.626713558969115, 73.0964228379558, 68.61824591503512, 74.38362525078283, 74.82836468010242, 73.60640378562098, 70.94404764888901, 78.89691658230767, 80.51829970415659, 78.12302257978507, 75.99052352806008, 76.15706089372787, 69.93616193680019, 72.41887962063774, 69.72069465461108, 62.07806900983819, 63.04177215275532, 69.55646649772554, 73.37062211973364, 71.03371962581198, 77.68375569876628, 71.78932333789204, 80.78298710410994, 78.91279070823379, 78.91780381711656, 75.94057722444003, 78.18249483107182, 73.4407466984322, 75.65904931497988, 73.87358994771095, 73.2713612264555, 75.7182817771929, 67.7154759269869, 72.79668946345394, 63.24804494012919, 64.87029677891621, 70.39040239005136, 72.7165373098864, 69.35830095697231, 72.65782428562878, 74.35057040994832, 75.65140471438578, 75.21754531483175, 80.82834613469083, 75.67936767866594, 73.7365901195538, 77.65280360973999, 78.10312822072818, 80.5559034386152, 77.00145494865353, 73.19245797625278, 76.94680620989564, 77.98914482840993, 71.34126282982481, 73.5448862495399, 73.18334519498877, 71.8818492615247, 78.58595222837, 79.87518785709702, 78.31103920072539, 77.48024576220745, 80.97609918282664, 80.90895192463995, 77.92167862922207, 79.6256727459051, 72.54511050028823, 73.80284415097843, 73.5250996864692, 74.21366228774505, 67.95070105389276, 72.14747821595988, 71.87810223016821, 70.69841839894964, 63.33656529695279, 65.63931330425942, 75.57207496255732, 69.40481927769024, 70.83222677752417, 74.5716185656428, 71.57636483233655, 71.89629386667364, 71.70195678038058, 70.77276389892853, 70.583029839434, 73.75130506375272, 68.93830228131043, 68.17207001912851, 68.05079291412802, 68.54222788211726, 77.94286374029284, 74.76945662484522, 73.38817971229437, 74.76013987651353, 74.87328651864681, 74.50738619170981, 76.95634923369194, 83.889647355939, 71.35526042362966, 67.42592877415147, 70.23213222612061, 71.65268767239843, 75.22732312940805, 75.43522185442451, 73.00179399110814, 67.97327875731008, 64.87780596575995, 68.61220706091139, 67.24348384170897, 81.30806424008571, 76.32490636724059, 77.53511457124907, 78.25143798909966, 79.5290271398368, 76.09785488921486, 71.70311083765594, 69.80289820784898, 70.55419205629451, 75.7819947393, 70.87688560135955, 73.24194610836382, 79.03303487023378, 83.12444141905866, 71.0121178280799, 66.3497451647705, 67.96161699598494, 72.78415400300564, 77.44654635957305, 80.87349002320195, 74.77816168063269, 75.3790581286935, 78.78794483744636, 79.59359722544191, 82.44781743081978, 77.89552175726459, 76.81100219067109, 71.53361457202008, 68.67101241559067, 75.98267162444694, 72.85497802062768, 75.4438601725249, 75.32315072499878, 73.27861023318941, 71.76653901851503, 73.58423262999735, 76.44249189761221, 76.8713434581309, 71.73655350756268, 75.56566462905987, 75.68078776545853, 74.8270882845857, 61.6982277440689, 73.01064411250492, 67.02809664605945, 70.88464055185814, 72.2414802042222, 75.23672600879539, 72.60755962832299, 72.95718304548453, 74.09331802771777, 77.37089075190573, 78.18651444668902, 76.95616199872008, 77.64647753000322, 76.80351987083813, 77.49216586949366, 76.35657659000404, 74.73989997686728, 78.41247526793144, 78.41732067157885</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>[0.4622885134778981, 0.25160011637011903, 0.942386724008179, 0.4062729847434152, 0.6510576666080565, 0.2655531494117086, 0.5591296018604113, 0.03562166448177473, 0.7577315673176204, 0.8854221689440555, 0.8748713879421758, 0.8882600577678498, 0.8773979144177472]</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
-        <v>0.1824281886933211</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.5325269586889023</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8314984730234691</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.818655836028329</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0.7630148330078228</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0.6503651414583017</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0.09886966098328143</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0.8554331530315809</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0.3772575393234786</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0.6166926052748111</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2763,41 +2067,17 @@
           <t>75.12519142233596, 81.59545823470785, 77.60604772275558, 76.95740314223244, 78.6834857878261, 80.39240516441139, 76.36983834632338, 73.40742505452741, 77.20332248049294, 76.51588780387038, 74.0067674703634, 75.56903581373129, 78.42597335944242, 72.01615667654458, 77.4151197165594, 78.86393065930686, 79.61196110164353, 78.45824295345976, 74.54805193331478, 72.54126421298663, 77.26438406861735, 79.12379461986146, 81.99609800232628, 74.71803412151519, 75.64492934817447, 71.61389728734565, 73.23858146501242, 73.62160554567234, 73.34530163433672, 69.22525999991056, 79.43720368912415, 74.10222235287489, 66.7307900597685, 68.1963946492047, 65.6245408429363, 65.05568314782097, 73.2611757026514, 70.03502307580247, 67.98176412307144, 74.31702747662975, 74.96251634694335, 72.8822399365056, 75.67640362669873, 77.20454725173917, 71.0798638380678, 77.04210438646764, 69.4895304168378, 70.15591769070126, 67.72038099446645, 70.19133463146443, 71.62226254633073, 73.99970832012143, 70.60987989527919, 73.65536457327234, 70.36727746062421, 63.200054193007375, 67.45194161553997, 70.14064537873662, 74.55024411772825, 69.18936517730087, 72.8050620930202, 73.71376078789584, 73.97959950454356, 67.61299823416444, 67.84521534169578, 67.69473492366106, 73.70309875821232, 72.32197526396038, 77.21301947160596, 69.32332203767835, 67.42501665466004, 73.1043065259702, 69.92834241270418, 66.89271363184587, 71.94847412495382, 71.748364197499, 79.32377251611521, 75.60499602082258, 66.391057689291, 66.01865133867844, 70.34686517393116, 75.83567376078818, 68.75027494910059, 70.96915832791437, 73.38933258531092, 71.39291143209708, 75.17027387520197, 71.99459925742373, 73.40927554277809, 65.20267364302492, 72.29721501173023, 64.4778137004481, 71.01230962373602, 69.99849552339012, 76.02068743778298, 66.37646551075443, 70.72285950556262, 72.51677771595946, 74.95678441935029, 65.4373094287753, 69.41107520589145, 79.54039336466771, 65.88483945935626, 66.91316436508933, 72.70034798634285, 77.60018156923573, 76.4255960379343, 72.5472476175711, 74.25328932055902, 73.73616079464551, 72.80325826325824, 68.67412282777242, 75.89588134009205, 72.96547241111995, 67.64785180587846, 71.55612197633145, 72.67338501795554, 66.9801182927823, 65.74479073713675, 70.20920024615896, 65.90327389086349, 67.12690083530423, 76.20718434032803, 71.26497057733418, 72.55839724447664, 75.20710049027058, 68.61421537966612, 72.41570428328149, 73.43914220186313, 76.59273452933049, 74.35152455458902, 67.71843576981179, 72.54941758636244, 73.38605280430536, 72.0561007017444, 70.37560603601123, 71.12262143746828, 68.87215839656929, 75.71132602011721, 75.71766036674916, 77.6203928810992, 72.46841697163276, 73.84735788238919, 69.25888163810384, 75.96834619192757, 61.21303737688104, 69.09759876329558, 71.92840251602361, 65.20073464550617, 71.50078466091723, 74.91702241462195, 57.684355310022426, 60.50772379336632, 72.75035820816991, 71.9604850819745, 71.4711369234756, 64.54779750858754, 67.76005420496287, 71.65918040455149, 70.81229453016057, 67.19712242098447, 72.25784152832392, 69.1889482679285, 68.5253336416882, 68.49064740265975, 71.78480682217433, 70.72277851516834, 57.769385900143114, 65.54494357157448, 66.99586179966163, 72.4601904509141, 65.85794796914175, 65.79182694261682, 72.91826739866498, 76.0193336056103, 55.46613438953722, 68.00368074246818, 99.65434700618512, 78.34852496626131, 95.95553652893784, 91.15968631976455, 72.847450774444, 70.91940843762015, 65.8590665190994, 78.24722978281423, 47.75179762131789, 34.70815671778529, 33.045621751110794, 34.33831851812412, 62.53297041420378, 73.70689276151609, 75.7709853896974, 75.8612901449331, 73.62676523618795, 71.64088983758816, 73.00239793479408, 74.1719365012324, 73.58911767618116, 97.5897956698445, 43.77585315423128, 50.13533140807321, 95.50856153870708, 75.07302398776915, 71.82650822266916, 65.46087889781042, 68.50840421323063, 71.23439786227048, 71.05374150962075, 74.02031815155217, 73.93509544424344, 75.69025952626687, 75.53256644048575, 76.76935501055947, 73.94426819143922, 66.8894463842201, 68.36604173562871, 64.73991698814108, 73.1256518411748, 69.86177536256922, 74.77702903488729, 71.63835403597217, 79.24231652272138, 72.72446245206565, 72.4893408655398, 72.83299922509471, 72.21754357995091, 70.92070861662059, 73.81692660171424, 72.91999160981725, 70.28876556363957, 70.15861697085599, 63.18258247843762, 73.72826732947871, 71.15678325634241, 59.99729413018314, 74.6398841210059, 79.97498340120536, 71.55502831590208, 68.73062599381373, 75.43591148094512, 71.83917766044993, 74.6370430511113, 73.09138866590735, 70.78469744522519, 68.05557336590032, 67.19563617286208, 65.57169318822775, 60.454242940185814, 65.5344829766093, 67.92086494884903, 67.46564172316802, 70.7378552621773, 68.99217523063291, 66.0162622788814, 74.5086498366809, 73.86704731613439, 69.71306351721249, 70.14216831275826, 77.30076448328396, 63.15507754204192, 63.39771097640664, 72.27857841118328, 73.63461125193389, 78.68935417977174, 66.82499546986156, 66.88108392489985, 77.80021580142515, 75.16679099191413, 80.03571695827011, 78.55332574396907, 77.35025510689482, 57.561737496864005, 75.7833253438598, 68.28834164396218, 63.94632960358543, 71.42057908105615, 66.92287870814368, 71.8519349934271, 81.26826806568883, 80.20107496355811, 74.66571014438652, 78.29391122009899, 76.8382124044877, 67.70387388127945, 65.47878024082088, 74.42978953183888, 74.54028467679788, 75.17060298945079, 67.68878773015507, 78.75237859960565, 77.4480601953036, 72.80834470472074, 71.28468126339457, 76.89703680273323, 71.32553151158716, 76.06067643275124, 76.30196681189494, 75.06698064702684, 79.85631619266702, 71.6496837882742, 74.26501436549387, 70.46847155926037, 68.06413586398534, 69.0413803475242, 67.64450695286914, 69.97524914579608, 64.32391921845812, 67.38370890529886, 69.20939603253537, 74.75363032138867, 80.34627218174116, 75.30444876638417, 76.75249310226188, 80.93788187326304, 72.06469067629052, 66.68289802943875, 69.1638361871266, 70.72722468218744, 73.40202491267297, 72.95591309503128, 72.63490070857188, 72.16821189467285, 64.35602388534984, 72.54380129109946, 74.86685358962613, 77.69471770320327, 73.9589849283745, 75.94839929641157, 68.04061586428242, 75.0704819149538, 70.04334372263888, 74.38602664601723, 74.00738500917983, 71.33851521793774, 68.06894463291317, 75.60762436490319, 70.79475612834037, 72.66693003181392, 57.0186167549044, 59.52172895946635, 62.662794260686304, 67.71719619239144, 66.44532922757756, 69.43051510804533, 63.34333765282344, 66.10160843348324, 65.33480704365518, 73.84100337353976, 72.56424929026153, 73.85817489339648, 77.77746578635384, 73.56959017914888, 70.18657335442394, 65.6039752223911, 65.68075238149594, 67.63430608682678, 72.60034615798358, 67.47368571832284, 72.5463040077036, 73.03620407529456, 74.48978420154195, 71.0845701164348, 72.03729273243083, 71.95049184646658, 71.33984473307382, 70.08692721908389, 69.5744575997792, 68.65813410316147, 68.39217796869907, 68.17749297536203, 66.88788354562978, 77.05777648610366, 75.77258590283249, 76.97253029746958, 74.46249480746893, 74.49944759071427, 75.30919091726999, 73.7785863774981, 77.45223012665477, 79.66503430030548, 75.39040168144881, 71.36466835705518, 78.1692656059337, 74.91043782469364, 69.24851307875558, 67.39299471649677, 70.24093881914611, 75.13059378297496, 77.79217476002825, 74.8543980424703, 77.35225048918679, 76.5778740184215, 75.96538318404964, 78.46906019851485, 78.32146927188641, 71.39065777345985, 69.74017108792043, 70.33914589318009, 72.0180957079559, 72.3270641991317, 74.61872366823988, 73.85784731645207, 79.4168708195143, 76.58772935611978, 83.95804640258497, 72.12422927722454, 71.50475524165249, 76.88928628415985, 73.57388783602342, 73.87095676002996, 75.26866576301279, 75.45646896396788, 62.682295023450656, 60.317539947949285, 66.48229719866326, 68.283588747559, 75.76190465311667, 73.68899946500663, 80.39320593072529, 76.58353344754234, 76.69916530344145, 68.88901344501596, 76.4225523243749, 78.7422250778592, 80.83607000728853, 76.23557888375922, 82.43094858890788, 75.59734742580618, 80.62356891456272, 77.56655661945932, 76.73417836262063, 72.40954565281942, 81.18273703404209, 75.74847003137533, 89.02338416295177, 76.20290873204456, 66.58117159505849, 66.8791572511843, 76.80328002308626, 68.52263467187564, 71.3624089787892, 74.58926615997191, 71.33567024569855, 79.8373518793482, 80.5515482568614, 75.55191714116756, 76.5077419333188, 69.21549157454633, 59.97755444275688, 60.05767936260159, 71.09996866130462, 71.51845526777358, 73.04997013658816, 79.82326766319589, 68.34434227341517, 70.11362445283218, 71.50893953293668, 75.61193640342735, 75.30900532897078, 74.67906737231851, 74.89172286687823, 71.30896561642153, 70.81600775968317, 72.06661876268761, 69.25649591342841, 71.59066143232049, 73.24418032497209, 71.95562345122204, 76.70918380978469, 80.62700525331387, 69.72256591285961, 74.28109732214449, 75.74022229529027, 76.60482486667689, 73.03462884143993, 69.57415130357953, 73.11615726902721, 73.77527317676632, 72.21921171909815, 80.89672375119424</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>[0.7174451368206226, 0.45322824907669923, 0.5384523590323662, 0.9284400723466979, 0.7570498600445814, 0.30596523190292957, 0.8468150413031635, 0.1119239860462059, 0.8392970335548315, 0.5873736458260664, 0.201552851997987, 0.7310682412420537, 0.8041845812559032]</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>0.4461575619190794</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.9640357641375275</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.3200634135064635</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.5536739416614485</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0.0901155743949309</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0.1968763545255749</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0.2017219430882359</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0.03025938200933287</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0.2326438152132064</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0.5812168819438318</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2839,41 +2119,17 @@
           <t>79.9097005103834, 69.24454897776755, 58.59007807032334, 57.711903752214276, 93.30441322949767, 69.74376493384966, 73.3464478122921, 69.267733367883, 79.85425795014541, 65.7239437321868, 62.014464661049566, 103.0018670541178, 77.67023003071566, 73.74906495429086, 69.75164293997952, 67.36064421574378, 77.33008068687478, 74.60021400234078, 68.13424699202892, 73.18925413061888, 70.97282290397682, 69.26490502976502, 113.10212659447693, 121.48073402316378, 42.676941439938204, 84.25571889543905, 66.91703853452125, 76.51665695608868, 103.06592428754406, 107.63651245519192, 111.20897350649355, 72.79944613137347, 75.24717903938415, 59.99894538085935, 70.10764833859085, 75.98307385966676, 79.79550748623741, 77.61975058999863, 86.0161933796184, 74.89037592350049, 75.66234342109615, 81.03600709872123, 78.34636893215543, 70.316667660119, 13.804162585603917, 17.05685012761506, 58.160649265416374, 82.06183093491656, 82.10945282404874, 68.73387028638726, 79.7966160390579, 96.15731626653562, 75.16233821461152, 82.8934519425714, 73.72298619541374, 85.49220791687644, 97.49512831401904, 66.05538131891102, 63.910815552167215, 78.5170511219448, 79.33332340602121, 115.95045611065262, 88.077395813338, 50.77880879435132, 70.00701249695067, 30.398428541978806, 61.44867332818185, 81.10954465934064, 61.87911127052234, 47.67534331499861, 34.76708946977194, 85.47570362701313, 85.55186045783411, 105.04715857296424, 86.24050068439847, 63.721367736956076, 109.76224704761476, 82.61930714647531, 100.14673481034588, 83.1992451444832, 75.62948266418145, 7.737106845848971, 126.6035726662149, 82.8051809086171, 79.83117429030125, 79.046258604305, 74.06551682816473, 77.63743925540949, 75.9752750897605, 67.17101332016371, 111.22881600481732, 121.95456472599456, 73.90503536116432, 74.1612581564781, 107.81933586387467, 73.0376661398165, 72.78609474137996, 67.77396734531158, 59.090098429563575, 76.31662611659716, 83.87041115186797, 63.764676573593604, 66.4657905355156, 78.60634881995566, 73.62605455868055, 74.669039025561, 78.88479910328526, 75.56588463838028, 76.72555760623273, 70.03743595480204, 88.07829242572932, 74.43475723572803, 84.43468161162052, 74.82384126206873, 79.83184840432725, 71.68542546115773, 74.31439467893279, 71.555611160079, 72.41912954591123, 79.17201262021139, 76.59634505756439, 75.93022582624748, 99.24020561859504, 76.655947942777, 76.04412625053143, 78.31462157663525, 83.85727976332876, 70.6108592366867, 83.49126439682561, 71.94806497163704, 82.86917830931978, 74.30125671737002, 86.56371438333362, 107.88321756390644, 76.4944415488962, 99.04744734341965, 102.74448236880929, 100.84412959314608, 97.16596373203849, 99.88813931256618, 97.90165006024883, 104.9206957275016, 89.42443183331905, 71.51635158077713, 76.98353775317155, 78.5182456760337, 75.42498540617657, 78.69743960393615, 128.16158985730965, 34.355047987642365, 111.82096495694628, 32.88434212444605, 45.50785583270503, 71.22511662824898, 77.31755313269485, 97.8808326931458, 91.04046560992522, 77.98996305301168, 77.2634769345653, 27.383694335605618, 78.0103378781969, 65.10478767271573, 54.307405209492586, 85.1383527410144, 42.84203671098845, 79.47061952288972, 72.89988738018063, 81.59270117770562, 73.90199289975651, 71.83820142062284, 74.4879466769738, 78.51230190998061, 69.00838655468672, 68.82059932812724, 143.43194077316863, 26.35756495912226, 75.99369660212216, 82.65917694397046, 77.64030612571143, 73.72920018466999, 82.70575093413129, 76.17887876145902, 74.3155802971205, 114.37191053133144, 30.790026460576602, 77.96488957585805, 82.31291847655915, 58.06560562992623, 71.06847870082485, 63.502190006957264, 28.287871367090972, 135.4015998898244, 1.5644221118853023, 146.83386547238084, 72.87044558085015, 78.12924241725662, 73.30566095156139, 81.30734260305314, 77.41886327458992, 81.49884810599409, 76.27580347216723, 77.81022313009075, 74.45176558281082, 92.58238566859603, 117.02462891574638, 134.85919608756137, 130.981636332778, 91.61567415000248, 24.214890983435275, 38.510008511558155, 87.09148033035936, 61.12388742471633, 66.46023316649863, 72.07133818791645, 71.32471143552979, 78.91279697839622, 68.98281782209322, 33.44161184841768, 15.894074037885266, 59.27789485105857, 84.99047498700797, 62.479394908820154, 101.431676314304, 59.564794685330604, 63.25077160848388, 64.27312625561572, 65.54843576736243, 69.89355249644248, 80.33698687902668, 81.38009864508858, 76.1378935860011, 71.56733699334896, 71.38217643751447, 67.97013727048946, 72.87031088363695, 66.61112082927467, 76.51579728837666, 69.97212939690009, 73.35806454590562, 85.77243341054326, 67.96443606629873, 65.17975012411537, 82.48609933712746, 63.89672413480119, 99.35728252697872, 57.64533505940615, 65.18812671108151, 71.1483270811234, 70.91013475188997, 66.09767722015879, 52.76120950591375, 35.57445931929476, 23.325919598934536, 25.400313771166903, 1.931296883904504, 68.5745074154185, 66.10108516211811, 65.48634528753357, 60.2943908948775, 72.10971461228212, 59.742111452484565, 61.84349439320435, 63.91794386455124, 65.2734434846863, 88.56323126197863, 68.44742959896315, 49.376121217541886, 65.56876607461174, 62.58152972552475, 65.31508991622356, 76.79659855471499, 68.44836677342494, 47.929273566982744, 53.42357658460662, 59.18432685034346, 64.99999482546514, 64.73358875924175, 61.66209101966296, 71.92167795629535, 77.68664850311428, 69.96733842499633, 57.07159391175617, 63.745262394319724, 19.371643204546825, 15.129174314170564, 58.96427824928477, 66.35525213201342, 69.95529196436875, 66.63948317641025, 66.87470400563993, 84.6384593531498, 91.16962056026821, 88.17642879452923, 74.06282457791497, 74.65705039164918, 73.96028402097421, 87.34446704362826, 67.88382160015041, 95.68567334422292, 75.59335751115105, 67.5142114965692, 65.05724391787074, 65.16251672655143, 75.7873229742992, 73.921239725552, 62.02237509274024, 72.415042614999, 66.22793801492129, 77.83495207403456, 80.39530099683257, 61.94884847874792, 76.14237080250946, 72.71847785871486, 67.59564932036919, 65.17982926111948, 65.55088748197527, 81.7384125739628, 78.56656636809343, 56.00694092121721, 64.68943398111978, 62.15670638735421, 55.51995009608818, 57.13765955794611, 65.27949312926523, 59.00035648869169, 60.84037504848149, 68.6969999088385, 100.90505610547156, 85.3926534086196, 92.80841628605576, 81.6007727641783, 62.14529590505175, 72.90491760528924, 73.66230878709209, 3.5918489746559152, 40.87166805584338, 46.24347447723805, 69.43808076795324, 59.48385800232415, 78.65956578101549, 68.85417399141184, 87.80182010655025, 106.20098833982807, 79.000274449059, 13.639494630904249, 15.529578907214377, 15.861876948461504, 101.73625300062537, 85.01905852299775, 60.09957584853147, 66.96004516262838, 68.40415204984039, 1.4996638226774694, 141.6839241083909, 53.02296775877889, 53.22491806634511, 32.438007135133695, 11.62862369179001, 78.90690431868713, 80.57629161923752, 72.90144872498416, 79.61750558831399, 86.89284350395612, 103.81297525876504, 93.85806619429559, 81.97549552002683, 29.680324137629572, 71.4806303086342, 73.95363776293301, 78.50877597628995, 84.54209580165254, 70.27185231003868, 79.5016856861293, 83.39875550922504, 76.32054467498007, 61.9334439518526, 68.72400651338339, 116.03768549044811, 72.12802723880634, 72.02255436770173, 74.58320039695019, 72.47460020479075, 64.41215787200424, 74.24456218932345, 70.54398488860603, 78.09017393955739, 73.34154757865923, 62.88516590989788, 69.23420873850642, 75.07951721591881, 69.76097546726564, 87.99777694365557, 77.3766775366523, 73.26824148413039, 82.10884287525374, 72.88905168462853, 111.42962820062273, 87.44716225553668, 83.48853759955212, 75.59815372073822, 80.80898484796225, 76.35184389088732, 84.5100879003257, 77.0494162814823, 87.93708973706866, 86.00464288593521, 69.36911379077831, 69.23809765903701, 72.06390193969526, 73.1892782600789, 79.54134040375405, 77.68075905651077, 73.95171492626356, 76.25118220606366, 72.37380453863524, 76.12699011548436, 71.60690299543137, 71.64232023949612, 47.1805396934414, 55.86546639234288, 65.95512774889653, 76.14293386013632, 71.0284188026209, 76.67313250525238, 75.24283396188638, 70.27146202514164, 72.23262571245097, 79.28174377749149, 70.9178355688459, 77.55637670127238, 65.68219008627274, 68.4555264636052, 86.60906624880533, 81.55058122915852, 81.38214204554075, 82.83773359591187, 78.60740807394619, 84.142941115784, 89.33761289475552, 81.5213964116475, 87.63463089726183, 78.62839902870837, 85.47209207679789, 104.55816057137139, 23.06525666861451, 84.77100027709949, 74.7638458754067, 52.71850760158867, 77.05423767431458, 76.67808485477157, 67.27910810208103, 72.0263885179025, 69.95632552516051, 78.55458152720644, 97.69019968330089, 95.20255420555084, 93.74734405139978, 75.50631435141536, 65.77713487499705, 80.53144661451061, 72.42077232945687, 64.04744392752113, 73.7461478813287, 66.8103003369088, 81.82330108868013, 66.32395577609867, 74.90375497111401, 67.97950694436658, 72.1570841236634, 71.13720597323535, 64.48013461575593, 76.70548585332556, 73.61589348046823, 79.16003013215528, 68.08986189066732, 76.54313215803064, 88.1455925831991, 74.62959248765937, 72.56308727958026, 69.97939689963555, 64.17313547235258, 75.14321468428238, 72.66296384684694, 56.216388979459126, 4.510460769769374, 23.339098106492077, 67.58890000740104, 64.4300142650815, 73.8430153078378, 74.03790700510255, 64.74914123478533, 74.91022402820936, 81.29081850496807, 76.2124513667414, 67.7021471827151, 80.06045768586816, 72.64725203626749, 74.8814918258623, 74.85663111541773, 98.60751158615669, 70.167122790349, 74.48908979089757, 70.16176271418405, 68.39627927652056, 75.8265674341272, 70.58907934267427, 64.55694064583996, 68.32752822682036, 68.69195813368356, 76.13446129407889, 58.04452362660974, 60.54009201834265, 88.27338336520856, 77.39643886374846, 68.69107920697978, 69.90374018094775, 33.87697433730434, 86.02235263446731, 67.26555290022965, 100.5802144632052, 95.14026552698978, 102.13574306524525, 62.596494019034544, 68.73782184465772, 63.16294653923474, 76.82377168694812, 73.44237612833459, 155.49855219417967, 164.98205380118233, 132.6512621866518, 122.89430586047045, 66.44366894805688, 65.25113961003076, 65.17369700935635, 76.1047177004434, 74.6149481129314, 75.08084443109698, 86.99558351113285, 139.23880907462762, 26.669307657477574, 61.12924683048029, 83.29660147915746, 81.71130361673444, 77.61137382246065, 68.41152108077327, 68.01117893829262, 70.90298800982318, 157.1490274285693, 72.78766420977124, 51.435481709904735, 46.27548137271959, 55.705109831574205, 59.675275413124766, 73.0885067187342, 62.017606398476325, 72.13080355223123, 62.612253946055226, 61.08169575022601, 69.32196856263378, 73.67920003785785, 68.45270381493245, 59.99262677339795, 83.41682671476593, 75.51491749158336, 70.11860204328687, 61.36848236836597, 93.4513366110929, 74.17994421356043, 60.30969144121358, 65.06619886713013, 60.174986375629686, 73.94263120058025, 67.60073939610784, 86.83877486119107, 93.85718533023972, 59.73987838071411, 78.69217669625677, 67.84900665271199, 162.94107646814123, 61.777932692245884, 66.60620545021885, 70.07758691915548, 70.61810140983486, 46.32099035503185, 68.1735892557884, 73.15400543934014, 64.7775087812186, 141.6443161748982, 89.47879597430064</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>[0.16162995636594113, 0.1626862898382465, 0.9439684731669883, 0.9628982185040064, 0.009631767739254782, 0.708113908658195, 0.12403967101160007, 0.05587164648951559, 0.47732467643598764, 0.3501366931067579, 0.6759188877756731, 0.17585196856492835, 0.24007742845622482]</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>0.3213731356075893</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.2167362594774804</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.4323629412995336</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0.5345613471254418</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0.2608746836993497</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0.7375040304527839</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0.5592369146352915</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0.4433812377983349</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0.8489443521007646</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0.4463652723133164</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2915,41 +2171,17 @@
           <t>73.42996144913711, 66.3603745420273, 63.77164815198559, 65.66747278110812, 62.35848939902003, 64.48573175691443, 158.95396146631944, 49.55135925980649, 64.87145879655415, 67.74057023062764, 63.94862084047321, 61.07876747904542, 60.9014794502896, 22.95756036245, 60.93923851586369, 63.49997778670812, 71.77306458762652, 67.6214218537769, 67.8736556289462, 139.20770099453884</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>[0.24748537945578375, 0.7988980149187646, 0.8841790299328758, 0.8027685741105778, 0.9231246025828382, 0.37201807335270054, 0.8332031603893625, 0.8299093885214305, 0.3634272200508514, 0.13202421936348452, 0.6028539511844616, 0.30833750272416516, 0.8422212831775501]</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
-        <v>0.1749176126409093</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.05030292205233644</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8388179650768239</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0.04949493142107941</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0.6890416175047889</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0.4030029671190458</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0.6382846781607248</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0.6397992217843169</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0.6511504480460938</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0.3124700012112545</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2991,41 +2223,17 @@
           <t>114.9626059711451, 108.36791255192206, 88.03123946452683, 84.82227321796647, 109.06226400612807, 72.48762969659764, 74.43261186890874, 87.27464652242567, 78.066394510725, 82.01615010772092, 85.81401894770057, 79.80396921028205, 78.64349105422168, 76.3673148319057, 63.17616605028342, 69.32040051689687, 66.78046577813724, 69.17405389967699, 64.6840498548767, 63.58653673911165, 71.62110475410238, 111.28296141901939, 52.21751549398439, 166.38557756528442, 36.203764462944406, 96.2920372176542, 75.27758540870556, 64.18519841661883, 69.47557139651177, 67.86798398981205, 59.42011835722619, 65.63286423653821, 57.207345154340715, 66.89176394582452, 69.31054505556028, 77.21199831075333, 91.40838400570597, 61.32970974340847, 109.71235711124817, 83.12026579157978, 84.42771552685927, 63.13700721990199, 67.69828523365655, 67.68868338492595, 84.46319140229329, 88.0849700509504, 116.69378364293839, 117.76583010404279, 89.3093921339644, 61.25879729364305, 73.92146474536221, 65.40300859673907, 85.82850123850606, 77.42216534150539, 78.38888693776539, 88.09942217527404, 87.3822498753109, 93.9291223698754, 72.59217072723703, 96.04146125096257, 115.47695609380641, 94.9166085940003, 44.624063777947185, 71.24679541122042, 69.47248632641953, 67.9622153185102, 74.12221275402956, 76.3718181726651, 88.36942962779115, 93.57547858228814, 90.88660348231397, 97.93796444954674, 66.91383073121449, 75.98657760143983, 75.7738142942548, 71.9707542455098, 84.91683607216684, 70.85656178998956, 75.84489081790883, 62.50052602812319, 60.11037298235873, 62.539268168564064, 84.71885705853863, 63.118800681535205, 71.39475391552003, 67.75906170870388, 68.60211243918107, 75.13546756518453, 70.71514334332325, 51.58944974950979, 72.59958234350435, 73.05517660804134, 70.24681792204873, 74.51001839915548, 58.25631214579964, 127.10243438630248, 70.70451270080201, 84.35490337311113, 89.1600043137034, 75.38637733943425, 72.65395020802923, 80.46251866575861, 70.80037952734017, 80.85238162473712, 77.37844007115812, 67.89906139285388, 53.36613314286724, 37.34069753828723, 48.47608965453952, 37.990709633344274, 68.94618625967405, 48.53604549326077, 70.21328008139155, 74.53322489822597, 80.58021193423602, 84.21016583676133, 71.81819588909856, 64.32357264915103, 65.13922722529064, 62.018356632962416, 66.43288854783509, 63.68628856469424, 72.01415821528009, 81.998783220467, 33.282817454036916, 89.6329840050839, 50.41978062666105, 70.95291664568035, 56.72939564130791, 75.51975949927957, 70.34238153907947, 70.95494516145381, 71.4462083460942, 61.09700195142244, 76.93225971180235, 70.48888514232712, 65.55663368448477, 74.37195107225216, 72.70400284394718, 23.64604143979909, 114.67654355403575, 106.1232728920424, 62.50401747648279, 62.94666375058466, 76.83475539871797, 59.74687597162351, 73.35468878963482, 78.35888656348257, 76.00720777504077, 65.7953307265092, 58.72458152761562, 62.6700146325645, 67.41611533051044, 58.322745124287465, 95.68844281229802, 29.61796585862548, 149.30859772141844, 72.15389767317612, 86.33577005814819, 86.04253800019987, 65.71782918972116, 69.46097734945917, 78.33740603387028, 70.22376561758419, 66.07780946260306, 64.95242660353554, 71.84049897449435, 66.593428461525, 55.1179616016061, 72.91507576529408, 65.83877343746576, 77.03208615082043, 39.29609908492315, 78.58387548727731, 74.02149604048579, 141.33952722659723, 175.24084692896042, 72.30027819171819, 64.40876671290856, 72.69602838171008, 75.80904633535242, 70.59680574064117, 101.7065321972504, 71.67518785685293, 96.72072082115025, 105.02879928374423, 56.97838138625658, 67.94649479572517, 68.39578991861694, 66.10786135195568, 59.95866633046445, 125.04820060303517, 64.61957059109444, 66.12273154107818, 64.88932211745096, 58.097954728201685, 73.11847114331087, 68.57841055503985, 81.30369616469847, 62.53331260076736, 63.2691768810659, 46.3402522487124, 46.68255830513103, 32.832484710264545, 161.11446474993446, 66.15657807198808, 57.37411060046497, 58.49804472646298, 80.02911038970647, 78.88539369221172, 74.5833477600602, 69.44095170958919, 68.63031016493946, 77.3040722745747, 64.85721819723868, 76.8780566431244, 58.78254814304296, 66.77600567178878, 65.2407571539533, 76.56752229270461, 70.34492713292236, 61.99838832304109, 57.08406720566514, 64.7185367527508, 71.00989503043822, 72.53127581088015, 77.520385520742, 77.33096501432418, 66.11863115278116, 74.59174327420916, 57.39063745760577, 79.93652545810336, 73.04750852353294, 71.09268239232816, 70.84736589301347, 58.08512593247284, 68.33859830050542, 74.56308087929509, 70.00560824196043, 70.21254109382144, 61.356708149221866, 58.74588759341841, 64.27630042496418, 62.045760150210725, 59.39670129948225, 61.48575362908114, 66.74065513208652, 68.39167743967958, 61.9099450073442, 49.48680389813871, 64.6793734002619, 104.6019282542695, 51.54731389415733, 71.08756763131255, 132.57372478600007, 173.84398273094453, 80.36015575172358, 114.28900415884475, 33.38150651943822, 35.25531054537686, 23.214364936388158, 62.790166650493795, 85.83012307648373, 66.5678491431388, 116.69704822636385, 50.23746282526194, 58.810754837318854, 51.59106304534025, 56.09516123926023, 54.416372637171484, 112.2635906646338, 55.03278748545304, 49.18163083298449, 47.57804992628002, 52.20355830120009, 75.77417089000224, 137.9324766590176, 28.564253717688082, 51.79620918363309, 54.331092832411095, 65.25829040098921, 62.136133953520755, 63.262735531738855, 56.448105210035436, 61.713590610784166, 42.2342341210206, 59.21389969171382, 58.324128681118886, 83.25210089642236, 80.82162542305818, 25.709923832889782, 55.3998438502827, 63.69621942981045, 63.081336090825225, 64.57050653758853, 70.71091501943286, 63.758763017583924, 53.04072674444766, 58.867734172585685, 66.420515086533, 41.99765978476913, 50.523411336674265, 52.16444994130694, 66.93186537814532, 56.62433902346363, 61.838480202270595, 58.78475451120498, 41.82867449420103, 61.47076614676116, 57.23905872689939, 66.17756998780663, 62.365806621203305, 61.208680677223214, 74.83028920240311, 65.09341935470395, 63.53331116698381, 67.75821787762747, 69.06426592918815, 75.06667664954857, 64.22120665596093, 68.6365413402268, 50.34661736086033, 72.85283408922203, 65.9268669278265, 72.12837032825799, 70.050941671883, 58.61558946885527, 73.77150713908377, 70.71764627083711, 69.54578702697488, 175.19877089717824, 86.00020377878592, 64.69223926466205, 105.12702603338025, 66.65256472264745, 120.77525078046972, 94.19848606199983, 179.199098126439, 162.6057758522147, 126.64550120309171, 116.19442751404821, 117.23784371394282, 99.4631142085487, 65.73021503053216, 55.965220741657625, 80.36295946641249, 132.5384123165582, 95.53553988339355, 127.53803029654428, 115.16589328696891, 61.21301345978993, 25.136361253377082, 55.707312499724004, 71.74216198466802, 109.40449873631869, 104.54840570874293, 72.79731869857588, 64.912861084387, 59.73025997183289, 59.69009789818057, 58.322746222381674, 84.2493823372014, 59.198434308817745, 75.1176265813759, 102.19381615057036, 82.0362289380568, 67.28155235544317, 74.06384642850743, 95.373528274233, 107.63595027417308, 92.91014648018262, 102.2007714289191, 83.5794364847438, 70.35279090616163, 78.92477282569813, 68.58708748158814, 76.90987983298218, 81.8661925068943, 66.61991704108624, 62.19675458555153, 62.89743770146153, 67.73994117973989, 72.1216112804978, 71.84463215067493, 62.89291166179855, 78.64165938565779, 76.33723834119075, 80.3993494619972, 85.70409909987379, 71.83707598214501, 65.271409219058, 63.6278786453733, 35.20550937915079, 54.00151964535015, 144.3191643030866, 69.74461337937545, 77.72120616587672, 70.90599903065447, 65.28953507847268, 78.64998994749307, 68.61092330672979, 61.90487370920417, 61.02810023226531, 86.78993545360845, 71.96444097950035, 51.826870041837545, 21.132356002926993, 82.87843064443172, 173.07980242973832, 65.44551268350605, 71.6073567809146, 68.01925927263528, 65.14036806396729, 62.258258334383115, 69.04360168279706, 52.99508616764452, 76.20098223063185, 68.86335676844044, 70.98582690445305, 72.64569012231951, 73.65825552693202, 71.66982606915563, 75.43084290720061, 60.88210366391023, 71.79504810188867, 71.25996843463648, 74.21844502313336, 75.66465178233193, 77.37211744961094, 77.47735024196778, 70.46939985171726, 83.37765514804146, 79.85571418893078, 81.86787119770015, 78.67067048177414, 77.86586377007487, 74.51821360905427, 176.00061969265184, 106.48954323590725, 82.70599892523212, 101.29577974097502, 142.4883441978336, 45.20806742815308, 68.04772280723718, 157.8667951446913, 79.068191518388, 85.92270102252411, 85.76665247985417, 84.28308549192401, 97.73634067721795, 75.92872848530313, 77.38709690099037, 81.59039904162312, 61.085346612656686, 66.18032251490597, 81.06398838032054, 79.11060328326452, 133.7699188946681, 114.9130339451627, 113.77730574356009, 42.262163473313564, 51.58826588403613, 69.45831829442214, 69.46521533789134, 67.48721082232768, 90.33898152718108, 78.2312693716421, 76.03327848183964, 43.15396415314577, 82.07193117829043, 80.42864176829923, 71.72572797587888, 73.01943686315322, 65.36497311408904, 69.42369933811715, 74.5252775620589, 68.51662976820967, 77.8559809741039, 77.4463688433203, 164.41952291652274, 39.83600860321371, 26.654768436229254, 53.356682784549506, 85.7926674544739, 97.50788171091504, 101.68454327826069, 124.95683101494187, 126.82712320908658, 113.92789669875523, 109.88855288850847, 104.13853956442277, 119.4913207409985, 113.79576313918429, 120.55008826401827, 119.44288856798714, 109.87659199099546, 105.84170214592066, 109.50561721486169, 125.91439482498093, 81.99026381023357, 82.90317570222732, 129.67801251132565, 88.29054246843421, 79.95299499258647, 87.92523201780408, 100.5796413950854, 83.21590128038974, 92.09073942113191, 96.11656649462203, 75.7564969609889, 88.41679431876054, 83.83175390141552, 84.83323616390457, 88.90433330867035, 90.07001158130875, 86.79607611345715, 92.51093582385343, 88.36219583438611, 94.97690573216285, 89.44277369180047, 104.29825772549005, 101.26848501219078, 113.54970201850409, 59.22451444966424, 104.34782007515658, 116.34083619515656, 107.96372425404043, 79.19429043066413, 73.07057135714042, 81.76073907534852, 89.29892449713137, 82.36698466612975, 99.41655253000503, 78.11036046162177, 99.43532069840512, 117.05952616213563, 109.03404943712005, 111.64979736592589, 105.24180435985274, 94.01402952921282, 103.24404444684207, 97.26957332369139, 112.33949569527441, 137.47630709526766, 66.58435421025335, 123.3008039652353, 52.451421198443555, 58.03705600452356, 61.447857605948826, 56.51624244553413, 90.5778146668774, 91.27297317254964, 82.93411966304271, 58.491715200501595, 41.384109618642846, 94.41585929732639, 162.04712772859727, 87.54276888019048, 94.3770432154635, 102.19581094737626, 97.48691377583043, 86.5602364748324, 103.97708561587194, 99.57698093848079, 99.18258673747489, 124.2963643449219, 96.63277571168818, 135.7792666690798, 114.63969586972246, 66.97762643764237, 79.45591270300929, 101.7243726883609, 169.29250854537017, 30.441697743977215, 18.246151116150774, 89.32326541181632, 109.97958699912974, 108.91833188658985, 89.84114918109557, 95.78093241759672, 94.79722190718616, 133.4361414139624, 79.76649896938041, 88.3329154137318, 78.9705813302225, 81.24455343805396, 86.9395465252914, 88.1245918627915, 92.01932233223485, 78.479959608206, 79.035893650628, 77.06550502382667, 75.55558021674919, 104.69180463034289, 55.514411679480716, 68.29626064891963, 71.78570357180581, 120.8471024539083, 138.33571113461707, 53.505836456791556, 61.67892221621094, 60.565914813533176, 122.31360507868514, 103.05323524035423, 71.78113536657952, 176.53237539196303, 74.16686104062178, 73.83125902615187, 75.10878292466087, 75.39512462086309, 75.48534626389247, 71.9463019029845, 72.41238011139846, 106.70339113973105, 50.60471930608577, 69.16583045298889, 61.66934460751359, 50.030568945540665, 52.83558120199652, 52.75809057481053, 47.88741221296839, 62.99463003200214, 43.08982893183007, 57.05801221724024, 54.98204906480134, 50.85781503640111, 59.6638580460724, 47.198788645378954, 55.8435468929607, 50.722507460750265, 53.32869203284563, 60.138635240549746, 58.241577320611825, 46.72374737534854, 52.92107272246165, 54.64121326537845, 66.94469910726002, 61.801658158448085, 54.817539157161285, 58.254804921582334, 53.3977880412288, 52.75145697229124, 44.467107456621214, 60.407036164607895, 56.87289560969373, 48.38309284188382, 59.24153802529539, 59.374808671475805, 61.461942131606534, 59.99508290108286, 59.20882668695357, 62.28762516423769, 57.52068451681532, 54.18612109802914, 67.98937532081345, 60.70999047910535, 48.46089739440682, 55.63702417354731</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>[0.8631862986432633, 0.15478121615492169, 0.6177016590599529, 0.3332626547067645, 0.8164123638908347, 0.463937675809148, 0.13190427302326846, 0.23695680055366086, 0.20696184884081903, 0.7891181109286123, 0.8630840080511174, 0.9518444988271099, 0.7412472115241245]</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>0.966832072897586</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.7988486408627945</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8100268614949054</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.2253150066121504</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0.8514827626937449</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0.3584273671618986</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0.6375433819910612</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0.06964788115978393</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0.8070004629153092</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0.754743811053243</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3067,41 +2275,17 @@
           <t>87.30551522685525, 63.57370807462276, 65.8212065783243, 64.8990030571495, 64.33522363327471, 62.478813183907555, 75.35482710838598, 76.78253538729386, 76.22703745640004, 71.3796232767764, 57.32040790700316, 58.66326497779688, 62.04072635762806, 66.59385395685099, 61.246032248471536, 60.7681214195152, 71.92399333214733, 73.45013283052486, 67.04849656871623, 61.756307903289326, 63.18050528466373, 54.61203282602747, 56.32586493160605, 85.6025363718224, 70.42812824739988, 82.30723312203342, 102.82611136708883, 70.37368618351205, 73.91140075921824, 69.23675486893843, 64.52602982525049, 74.87822403558708, 105.06870070635624, 102.16492723773564, 101.6402776412754, 109.2664497116486, 58.3478334532073, 56.5411271597378, 47.50650338361868, 57.8803091400084, 62.51358372985397, 55.88230073627442, 63.08263588776877, 77.09723206412897, 59.98213237983351, 32.47348650099602, 54.68718888091557, 50.878351028900255, 50.23808132412933, 94.69964153847788, 18.60317164151273, 93.28287244477937, 42.229340904243905, 42.890752016522875, 68.7434421986204, 74.53809028816843, 73.01016552848054, 69.25715490228997, 83.74156381582725, 70.53413015059586, 82.14599864798483, 76.5806096686742, 70.12064179782499, 78.1320387595248, 78.98944373916524, 74.75419949345043, 72.37265371569357, 80.00907006316513, 78.50763106216874, 78.21404985146063, 74.02150348071586, 78.91748876177573, 77.97983702863803, 69.27822766335956, 68.78166356783574, 68.9196002297098, 70.4338761383976, 70.79325078390637, 64.14508412909946, 68.76801119248414, 75.3799037415839, 134.24035387194235, 68.24667039499172, 67.03545215010962, 48.496549525331766, 70.3872953293458, 73.22354934253815, 23.440892207836047, 141.1563459851957, 54.89629531469554, 68.6897883017141, 61.44262221522751, 57.86895423211217, 53.23306649755622, 63.335128417324604, 58.41421223116192, 67.53552849391258, 67.39126528258728, 60.276390048086974, 59.125441618343444, 64.32768715785701, 62.21583792788331, 54.762315149948904, 63.4837686138693, 39.253710634826156, 33.06619564431074, 71.23214602263424, 79.51027477683908, 80.06052790548972, 80.15271444164631, 75.3848675489543, 76.40955473794628, 110.66841813605652, 70.85710863636216, 65.36826937629992, 63.96050865630992, 66.11091271025978, 61.34445884832157, 69.71398953477744, 66.39675208223875, 78.14520096418941, 69.6176753319412, 73.79149654122376, 71.28990164960658, 63.454479445328566, 73.62652432174642, 64.35730607385324, 74.29729107004617, 76.98417438696328, 62.557643215825124, 69.04869850041645, 74.74788068363446, 66.04810534803666, 68.04778215949484, 159.3761078881364, 63.59069393484683, 56.916740017636776, 69.7652807968981, 68.03273291193284, 70.32295390849858, 57.194628734929346, 53.0222304594929, 74.26808707224401, 73.13143345857206, 46.17666547015599, 45.7273228784634, 55.12987135243707, 57.124200377084804, 55.943566058108324, 53.881380638048945, 51.37606902567915, 58.634427876302205, 54.3653181489925, 98.09466244818438, 83.49127854516118, 87.15423157923468, 102.86373640498773, 89.3425768793433, 94.21310321311559, 106.16002613682926, 102.20209596111386, 115.20154893840571, 109.9811673031003, 107.66891235586685, 101.88616520334193, 109.70858381920067, 72.97754351710957, 100.54340044577455, 104.39377080233687, 101.25158529867456, 98.48574827293912, 92.17550241580396, 102.58989878958234, 97.07518619932844, 105.64260739421354, 93.51692401920036, 88.58872442676314, 98.79823607043504, 104.80661797450806, 86.59487494213215, 100.60195266017118, 92.48295612622046, 89.70293768806215, 109.2342256907547, 89.2148379389972, 99.54744636954193, 100.69918302294403, 95.83311174633529, 26.594324878908935, 163.33054593694303, 67.03043142859924, 69.94288969745877, 73.59535780544677, 71.01659742415245, 55.64020786925502, 55.950951612962584, 61.47051515649507, 70.17263734252249, 57.618829647743745, 63.10161232545404, 59.22346744275427, 61.89206076262788, 48.041548452622266, 59.26629811173753, 71.07566315399578, 57.589032778411834, 54.67261741299682, 55.68326699491751, 66.26080462983828, 56.49648231046854, 77.59084010849124, 66.32049815203578, 76.6436597690346, 48.420273309465216, 66.57882511310903, 69.57404155287553, 59.01527375838295, 67.25596247880945, 66.17077312120253, 110.86625287592815, 87.8000250435678, 67.3252561911483, 62.782315788813904, 119.40329972594603, 70.75620361145441, 33.46438564143411, 70.04966243935348, 52.16102810692879, 82.05317222667624, 76.56589086893945, 75.90110256668056, 65.21175015973765, 69.72257179681651, 74.4182580526146, 68.47810568369162, 76.78889647772657, 98.4098273680761, 78.14523403088967, 76.46806252903201, 57.45972986961307, 65.47951567016764, 73.6270558939515, 65.28766789268752, 46.74702311910688, 32.11053265112242, 67.82782479616021, 66.06284668503365, 72.13675162408255, 42.43076649875384, 69.77462384961888, 90.1533949879991, 108.21299826856313, 117.31935315447093, 67.71341719106448, 70.1980709268872, 76.90908841257239, 77.25694702057757, 75.07585784909301, 76.66525670460132, 67.0917454443184, 73.61929676008776, 78.96885972931973, 76.26645490537442, 84.26944003567283, 87.66263925965988, 39.060153027233795, 46.05266410901493, 63.39362935916527, 50.672507104036214, 164.50634728157752, 95.61058989300247, 48.22501679646042, 52.74176634369952, 42.78507033104046, 61.917701357232076, 78.48772090466879, 74.56116966480545, 73.7188936457046, 71.53196765847764, 74.27923863361706, 63.345030249725596, 70.81703082543582, 39.07723973615791, 32.10156549481006, 2.1767250749167526, 81.73532225920292, 76.43696170085751, 69.68110628702429, 57.14333805348656, 68.95734965808286, 71.3584890229255, 76.16766178631846, 74.57825287096227, 66.33835349442519, 74.03946750579604, 63.67264277219081, 35.263598105118696, 49.6603809620499, 51.78883807460516, 70.23522329288238, 74.45467767285871, 90.5571638344102, 75.75486511573075, 57.18846019945708, 58.585128733446865, 59.643117890739724, 63.49546562079357, 86.7275715870082, 63.404242026055236, 62.19269320456838, 67.37386649364578, 67.55596148112807, 70.38621148568242, 75.36198712444296, 77.84311330577953, 63.931560650933825, 49.54774972817808, 45.45479208943402, 43.48723478545942, 58.747274997727516, 59.10750480391758, 130.34285061813756, 55.336936546854695, 54.19634421062092, 49.6358244343069, 48.785821498867435, 32.83111831856656, 73.61277296206092, 57.759469688375475, 98.17828556254278, 61.635338332665214, 59.95110640458262, 109.0183498842469, 79.8925932970294, 107.45917115949854, 84.99891069967958, 96.47993851844988, 88.04102064627668, 104.97753585233409, 100.98856326379597, 69.52414517125216, 96.88224318539864, 78.60708432480124, 85.98723334432812, 87.88711576226403, 68.51894324168913, 75.67222854920962, 70.2286931975062, 148.3911043994302, 101.45112340635274, 143.33640535975653, 76.07879184517115, 79.75613079450326, 85.51021292038665, 84.5943784674873, 83.7548152556515, 80.95946021588732, 73.83493634533914, 77.18005375387013, 83.80899885194223, 80.54228713755893, 77.03437322347801, 106.80490347245646, 94.25116134981711, 83.01776381500616, 75.17711062370029, 94.32828741408174, 86.79078442073124, 77.98490778831805, 104.51232309605572, 89.76374852121228, 89.27083105208236, 73.6602966969436, 89.6986815348268, 78.36417651606726, 66.4819814087, 80.16381930650668, 74.52829699571414, 72.49183291659212, 63.677158782385426, 66.90683497071575, 72.89955792450158, 77.08577481575362, 70.94780477412831, 70.60893188596272, 71.90630958294538, 79.78032339505141, 73.73777802921798, 77.33382512179686, 77.80209268019858, 76.98261912132652, 76.02903672255886, 75.61965208016382, 66.22326161911903, 90.2422912443801, 70.08181012051261, 66.95946998001256, 72.448796378039, 77.11314237731813, 83.99067432170767, 81.29289599490559, 65.74986170708826, 63.88388679123986, 77.81712173682602, 64.26068377165906, 56.76362926176285, 54.70438124381198, 54.19287417825125, 40.40298769782692, 46.49636718702463, 50.10761703528286, 57.05375688426485, 54.01014794740784, 49.66846089092997, 49.971665704869025, 122.4265671046372, 60.81027379896528, 98.66948259891717, 97.89271503161419, 77.73396343527565, 172.09737816845742, 117.14897125029043, 92.63061080187151, 7.574868683103205, 64.81224218275808, 142.14960604870143, 160.97822919040513, 94.1666607155621, 141.79819305458997, 63.45909910020436, 47.831092531564636, 52.46464033472021, 90.35540249903964, 126.03866710902722, 114.37173246425797, 77.58797341212706, 77.64214178879016, 63.17879554945269, 145.34194315433706, 124.91916162582574, 80.34018518423404, 3.083533350650301, 94.55317742380393, 48.146909184147354, 60.55259992901165, 48.24294517065315, 49.52505263703698, 69.83396763560917, 66.52464725119431, 79.75567486407726, 83.31875898234993, 71.93058502397702, 71.44502365826357, 79.7551671114431, 78.95649624007628, 99.46100775720313, 80.92849237245703, 81.1159910625301, 90.97596351690491, 80.04209058050063, 76.17950336770225, 80.64506474179291, 73.97739940273794, 78.99426626373638, 70.63897054773756, 86.65175618281444, 69.91101202721863, 80.20585691717875, 73.57792337403795, 81.35259699302517, 74.30902666680363, 77.63571793175043, 79.30723742368933, 75.4018889708101, 81.54536772252341, 86.59018011450101, 69.17767536043264, 79.75680085224315, 78.56529753309063, 82.2060186756351, 73.52950935658103, 77.75702001691153, 77.51002653285624, 82.92616971124569, 79.04785651415386, 87.01003690734291, 83.53572803088701, 79.81799053518037, 71.29659826171805, 72.14030242736231, 63.36520878077149, 64.71333123839327, 78.42098612570665, 69.14234281795264, 68.41975799771181, 68.44032477250599, 66.62709804596261, 64.69928664746745, 69.83418694001004, 62.8966981647391, 63.21819301952704, 68.76525491750698, 66.85725968587113, 70.67626538840612</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>[0.6877145233380563, 0.4740261796160652, 0.9868094741351618, 0.9850288894546619, 0.6155248929171632, 0.3146058626391999, 0.9665491059442418, 0.3481699892060035, 0.04824941117384751, 0.4852711685209258, 0.17060349522526108, 0.056677936737869916, 0.1767248167658232]</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
-        <v>0.5307662219619328</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.7484222175337762</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.01033167791037748</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.2398398912978038</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0.6690837567336351</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0.5641706768930584</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0.3692245559513855</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0.9430120604821765</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0.5283473499202928</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0.5778160888079612</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3143,41 +2327,17 @@
           <t>68.10392440198342, 81.53402001800099, 77.01584208107674, 62.21772730244494, 70.30932244981835, 71.67354230315844, 71.44442509924572, 73.17128292025701, 75.24460458947502, 74.20111787684526, 78.47256522664121, 55.491851652587904, 65.2394729011215, 68.8193182241113, 66.15097356902177, 43.63710801452501, 77.51728847905852, 115.83222156033766, 77.680168625048, 82.08655802525651, 81.63007964470671, 99.11259921478353, 25.12808810387994, 113.35226406719595, 4.998766333653531, 69.2823411813897, 77.89543462737407, 86.05768754545377, 67.16486444627749, 54.4507874130461, 66.87246443845557, 79.61030095491633, 80.91709756390024, 83.59525309020749, 78.9413110916777, 76.58330868018216, 82.24802193631051, 81.23257113401753, 81.29036053788913, 43.22575343674693, 126.12147950911155, 116.29860251820988, 60.65550596040942, 78.9365368445173, 77.8939916192402, 36.52462005530135, 59.10957114572381, 70.73379146315408, 68.86398828380189, 54.13090285836468, 76.63514038473265, 71.2447769114004, 130.29313170328064, 39.98033108682676, 35.9877777105783, 98.13301070003376, 141.87469060726886, 76.98997295711634, 64.83832207283119, 98.6593298992801, 101.43201189377727, 98.54836745484528, 99.51650667694744, 58.632281315868624, 72.80777617943859, 68.85802585350015, 75.4975184848995, 73.14882143002916, 74.12720373346517, 79.21359319866446, 78.25709934287242, 73.13301322704963, 70.60460466272141, 57.94438678778351, 67.94727268039219, 63.3615245980866, 63.77745845316776, 61.488782641929795, 54.52576871572272, 69.11743238472083, 76.05452823605371, 55.30052483892244, 71.52974959594216, 64.72319057317029, 32.390361861084834, 66.18887412413643, 71.05601189894209, 65.6010024543168, 70.39483771741641, 73.98502607975868, 71.7634054809308, 64.93634292135164, 40.499906278223825, 139.06796190733843, 53.44906431813746, 53.7042853574272, 73.89055823441637, 54.53153362359988, 69.54765895655012, 87.30890997954134, 80.71270695862961, 83.34299792631695, 71.06441051998117, 66.66915043367895, 75.80920453271999, 56.542029420871344, 73.64442103510001, 68.60212090966138, 73.17865767529945, 68.56916341855036, 32.94031497550445, 50.75912690660192, 84.55300808116358, 70.93664280167638, 64.93544065480233, 65.10553735327792, 88.3368179926527, 69.95220213949403, 64.7791153432124, 63.933145187330304, 70.23614194051076, 72.6838952172921, 77.10322062071688, 70.01869273562896, 72.1748316190003, 75.16455220278002, 87.2732683875979, 83.18012900555564, 80.87981821660884, 82.77395953705954, 65.86549127083434, 47.50321267963056, 42.735584197770585, 108.22160496783995, 61.302129524592296, 62.88403421881122, 55.712484919102536, 56.07739914779592, 85.61767999419004, 63.757575421356535, 75.00936004660977, 72.0189706215523, 72.95633338907106, 53.025658511289215, 54.6129965501385, 61.66435625204616, 67.0799400974522, 65.30092280422949, 74.27244458389835, 63.76489840090354, 71.36519092994365, 67.77630776251497, 67.91527669163159, 60.822345136798425, 65.33196396374561, 74.08893545636647, 68.8176628182598, 54.75541575414258, 51.963659103351745, 52.00205144800638, 53.31860804740086, 74.37301348003697, 77.32973213695695, 83.91629757386343, 78.19376973800155, 75.17769482828844, 81.1634712463071, 67.84807039314813, 52.22853142636503, 73.01578262619913, 21.847398220026385, 153.05956299591483, 12.364501208068901, 49.448246518007586, 80.17373207462055, 77.15926155790014, 72.24046338388986, 65.81381624121136, 64.96837607411699, 83.77975109001567, 66.582078749388, 139.2349641413957, 79.62577514152464, 76.634091661929, 80.0765890752156, 78.39520499771021, 71.47215516324624, 72.96446365086217, 72.07265546942153, 75.84622271907723, 77.74026509845818, 79.52193316084255, 48.0577086003162, 49.371927034731215, 73.89441201379556, 78.25907619017954, 69.19354567213382, 72.96356056582134, 57.88534691300016, 61.082056121558466, 56.37177802428937, 53.63844055328793, 51.67669756087297, 100.51356579164505, 68.81363288666697, 76.69373814381021, 73.10397468968281, 75.51033435557463, 77.53521249591279, 79.2345786141946, 66.55029557932033, 75.35350435192473, 69.42445370941962, 72.86019034816628, 65.33437623365353, 64.75531274112518, 75.97343087510258, 57.68423736678608, 83.77255302905566, 141.39061547707382, 167.5944858232004, 96.80112093581386, 87.72460017235238, 120.99861039167186, 173.09900606111702, 111.54735957826315, 72.33662177912178, 66.42115803549088, 70.5933304813955, 80.97148304569927, 90.3319729657787, 69.2481835146473, 77.01829513374491, 74.62912289787008, 100.68328068782614, 102.8044728268362, 98.58550756961883, 99.19889637168241, 102.39514775907418, 109.61351985044683, 71.84525476478295, 77.56378679353732, 71.24678832458679, 77.1948091748597, 66.74718372527876, 54.91499600891964, 70.09662212198833, 76.35182994814164, 77.78392018942147, 62.737782298336526, 72.41280111540706, 68.58684445163722, 72.68418879384184, 76.40862039822674, 72.28255068868842, 73.4860064226977, 74.79687686720011, 82.59859277462273, 51.72356847653712, 73.55597241829734, 78.1348755835512, 66.7312785718977, 70.46397737534497, 102.94856408780174, 122.01043059902912, 110.66725233832165, 114.76783130086494, 85.95118720422063, 90.7470788671872, 81.32325350402414, 82.22297250542871, 65.8163877988187, 127.68237606903516, 94.58199426634611, 87.87174488411881, 79.96585078259733, 72.32381392969106, 76.49371959000688, 79.14879955433418, 73.47735316147941, 67.28493201685997, 68.25487055790589, 63.908589623159095, 74.93374539225687, 72.66966370236256, 80.59193528741358, 160.56895873757477, 78.39655653283421, 78.06851778686543, 63.81348546824106, 61.96680657245303, 67.13413415591717, 57.762758140699646, 71.82135352719551, 67.92723193170058, 59.59611802311008, 78.81525649792665, 132.1077354396443, 77.30376675675213, 73.51667449727897, 67.3770749873051, 71.23627735598876, 75.55926403380678, 79.64597947478818, 66.13665432649961, 56.10674089973116, 96.27750810556478, 71.44008669595405, 76.58846788938733, 69.38337369416229, 78.76700427715942, 73.10567200920637, 83.28783933148584, 65.94107173082743, 66.29126265225118, 77.77572387871241, 74.4731475909794, 64.28116971529008, 66.23025799735194, 65.90019155382431, 65.81251689097328, 71.3807967400374, 73.20578097929413, 72.13547786040314, 62.01180464823458, 57.026509618936785, 83.4937513637453, 70.16517182721715, 170.20802252078207, 125.718374038859, 87.36391644139387, 68.67064572486304, 78.81226024337477, 74.08920246973466, 75.50222814201858, 69.24430221384134, 75.26843995866624, 79.69966779694579, 80.28458379076811, 73.8953900420071, 61.50066807926442, 66.57047903822507, 49.8540817892883, 68.70316876840361, 67.63892390327935, 59.47498840613473, 76.36187459048818, 77.31277768784943, 78.45780798632138, 69.59542224838717, 76.7454678243941, 70.88271143749508, 74.23241863385017, 70.28914349946473, 69.01674339644454, 81.1679656823747, 78.55171769701305, 75.63197616597064, 71.34126083848638, 75.80239486582867, 74.74701844946546, 73.22002591288066, 66.56876764471102, 62.51314755388774, 81.0336001311718, 106.81619047176707, 59.785692458834475, 80.0024071414167, 80.92947880033536, 61.09838497761161, 71.01792600177453, 70.04897708874768, 72.03799920243905, 77.28069867664883, 80.3311554229235, 86.1602970011145, 62.25174610623918, 74.13001670100707, 76.9626379034323, 72.26991173434028, 80.59527099287273, 79.02943868969425, 67.7712456409739, 69.79959129389452, 86.56412215146915, 77.38428319852251, 62.557124955917864, 74.13486000958079, 174.99251317045685, 66.60347076342369, 54.49904214004645, 56.06074689594352, 72.94285108771003, 62.95487023051445, 75.80874408678733, 98.31549078693988, 88.17075751792476, 108.94676602907643, 77.67580993157894, 82.06319530014761, 85.23117152436801, 22.29965501569402, 114.65071699877466, 64.0873399096503, 70.63602870794007, 70.34480131137106, 77.09573727669908, 63.14640819342136, 66.35546180492253, 75.35522152448512, 79.63518996566008, 55.484210690745954, 30.65825475328114, 64.15940533306832, 7.6986802032408805, 70.40653976512269, 74.62126619632186, 89.8903778887965, 43.42704625016454, 12.166944435718408, 88.17492038584243, 98.91555869399382, 77.62534310557731, 79.65485629233658, 69.57000880090222, 73.2176506253937, 91.85250707198988, 0.04698974023409696, 64.82647196420832, 71.41994548844887, 76.0147342113676, 70.22911365012642, 81.71289146410236, 78.31062268094152, 61.54171230465242, 64.18165410347959, 85.21123577687202, 66.83285887714713, 91.19099979310147, 82.34654503301992, 77.40937652176375, 77.64001701118144, 59.68181682747387, 69.00358070980299, 81.89328025303831, 74.64415752765142, 78.61386256842805, 72.65374755103853, 55.852200302817366, 63.74519663159156, 61.72839878071292, 55.013158509553335, 48.483600245135314, 53.04988027717542, 52.147958226946834, 52.161062937601216, 73.86376842802927, 82.09324489399745, 44.91500573089179, 63.3855847433673, 69.13547276449592, 52.3516796142716, 102.53574094024638, 77.56730003407824, 85.82340186373465, 59.57692369984848, 55.97488128961794, 79.13227255501938, 73.21257511841272, 57.93342828796398, 155.52019001577847, 152.40828761636718, 45.63039463518272, 74.85186486355069, 63.06871028391109, 64.98804605469859, 65.36643198124206, 129.72341677024994, 175.038233668259, 36.25169169830506</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>[0.7085937830765507, 0.5061953101509218, 0.3484191123197439, 0.38242724783485604, 0.04337557133301928, 0.03397710509364549, 0.6218002504297298, 0.2559065150746487, 0.905303553500164, 0.1480361595209192, 0.7914172993542711, 0.5486022174584901, 0.35314907784516314]</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
-        <v>0.337292962818059</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.2409713058214999</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.3571912165753892</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.3239915869856187</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0.2794598983488936</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0.13886634249814</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.2634552617909161</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0.9057736584270153</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0.9629254849677196</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0.5275679902337915</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3219,41 +2379,17 @@
           <t>80.67244754691411, 80.59970915325263, 75.20524874910171, 80.89020874097109, 76.1966572004565, 85.2503355371616, 81.7992880036929, 77.14180065530972, 80.88065092365355, 63.09940513217774, 79.20694159567537, 160.46238049584503, 82.99153425528596, 76.48286442786278, 78.72662182946486, 152.12273493529784, 65.54367692647779, 26.934209257256644, 79.79009347419031, 80.86188455298192, 47.55344388413306, 84.79441057965388, 84.67048771803441, 83.06439751282527, 81.2621154937093, 64.58694228769356, 67.09159213273074, 81.58167009824045, 74.34881338236316, 71.37742056989258, 76.2489029988704, 106.06416592938079, 100.29262539592246, 92.00189317688397, 73.83779821954901, 64.60206395611873, 69.97061834159743, 84.87127132044209, 71.38802462931474, 89.88262120239354, 92.65635452242316, 69.26786035397963, 69.5410091917201, 89.15510191320286, 83.98943714766718, 94.86535576821662, 90.96821167288944, 83.00679753238155, 77.27662480964264, 85.98960400245029, 85.43443619807834, 86.6893969380996, 90.47903484587583, 33.253144601004855, 87.92617638939082, 78.69462070290528, 78.1819438847384, 89.9982343067093, 101.04740095672571, 87.20169433191978, 177.02283243396232, 87.07295141466803, 96.05964986122692, 46.87248016910242, 138.32413791294434, 85.26454241935352, 91.13223729044113, 100.09106481039754, 79.04779918021814, 83.68568918867847, 83.9479114926916, 78.64439078304403, 78.20741799476221, 96.33131166802198, 90.72278243722653, 83.71267547640325, 88.2261582650377, 85.78673759923463, 74.57253220497135, 81.29189532476289, 91.07427871261586, 89.32571457398566, 107.34514090229251, 82.26102803191037, 88.95157563543164, 96.23633364895173, 106.83289490751814, 93.1729965903455, 90.37316890849246, 71.99606167050467, 76.8875188021004, 82.25240199608945, 80.26739435603348, 88.67853516869746, 78.05597562325829, 78.00406465919511, 82.3864600889623, 67.44288349348093, 73.69893118266583, 64.80336749730043, 70.63233439493291, 110.97300079591959, 90.6917036765216, 87.91162889868335, 78.45502330941618, 83.36492734679534, 72.59042025810552, 79.21825277497095, 38.80973300214144, 97.77367801083187, 109.05062466974658, 66.6877508413465, 92.00221193407003, 77.5598424571656, 75.98554318828253, 88.026720749254, 82.34454560563924, 79.54395465203898, 87.35119871191964, 109.87238538045287, 102.37078626204244, 71.38192247024321, 81.28016964888928, 84.49572025898944, 99.77965230892394, 83.31081702164273, 93.63249925587932, 110.73886186199726, 74.99966651940571, 173.9893340787521, 24.687333324557525, 99.76419811376971, 95.49804858068711, 79.44581516558303, 88.8618932940414, 103.62507325748906, 85.97103707736431, 81.59191524512897, 69.3025420217723, 80.38844804106036, 91.4981911492543, 91.02102325636298, 91.33784757456861, 88.33436883740774, 90.94507432296604, 89.84574837554615, 96.94848570035397, 52.27328661208222, 73.20823225667834, 72.20693425002432, 62.66631129370057, 77.73753969847616, 69.89313967707615, 72.49917069365215, 68.94118008951797, 78.50827355042398, 73.29664659855895, 64.64349879608261, 70.5389184189632, 70.79011563602911, 72.79217972927722, 66.33551984307084, 71.32864635174077, 93.64781720036136, 78.68667934579356, 82.70601193489736, 96.28188843125446, 85.27459970967706, 39.97605163935637, 45.38806752034376, 44.88750861190322, 41.57956105906916, 85.32390376625474, 83.85272907365402, 86.14212366732777, 82.73237485262061, 87.00434728754257, 84.56786491633774, 87.9432788525639, 87.95064139825094, 89.1769729024782, 83.53122516921842, 98.80753403439861, 87.62575921478067, 98.58832899140181, 147.58128228763252, 80.76655006417968, 74.21463192446224, 103.59220015178514, 49.8497728962744, 85.31953522120709, 73.04313998574044, 101.95439731223925, 81.75381663317982, 103.3276216978565, 77.00350108716832, 64.30005502291804, 67.66688168228595, 49.32772188934006, 107.0597720472422, 52.93586905192136, 47.20020144459924, 21.256030629745517, 71.55492266688294, 52.012159491961405, 61.51168929627693, 34.902763596126114, 132.38116187023266, 30.34763212424099, 34.26880570593531, 33.32303047915226, 46.44203065533699, 163.31908725879146, 88.11892923299854, 31.89318631172919, 85.72235691740572, 103.07304793836708, 17.70255848518839, 128.87752229423273, 68.38266141040046, 158.5095979954607, 122.23652011277677, 74.5126629259352, 51.23666257668197, 61.242098257534586, 75.72159578861267, 62.95431639854054, 72.58281563153972, 82.98574106471175, 69.89534342526551, 92.22369589760505, 93.27063593642673, 89.41022437376479, 89.61162990251742, 82.76780824554972, 80.53027180416598, 71.47002042904354, 63.25609053177272, 62.91706126672958, 99.77721393176884, 63.04462800360095, 57.07488175140309, 66.61271256281789, 67.49398559061453, 94.00341229734904, 91.85642186057235, 82.85563379189391, 70.35611190761527, 69.91160341732107, 70.41762696373547, 81.09740842737321, 82.23452603430013, 81.13325706524763, 71.44702957988076, 75.26210357441369, 77.58582856333352, 64.8562208708568, 83.76533622476481, 73.72550766347605, 76.15346814438614, 92.83505544766555, 82.64053533127573, 74.45942213295967, 87.2896299417583, 94.54639234068065, 94.31701875808047, 102.87822300750527, 69.45203772737791, 64.58772751663764, 79.73231483686926, 75.11410917063301, 74.04371035811758, 98.83222062979053, 72.50531809916298, 52.185839306117, 109.68901309334832, 74.30621075019086, 72.91037746432089, 74.06688156037339, 74.45495524333052, 66.6369978779736, 71.77771993865721, 76.66153246935349, 77.03676773713164, 75.99779604655629, 64.25254525569507, 70.57670734994728, 72.32586196705442, 77.31297935805667, 96.62352266622483, 80.29506582385886, 83.90453740508225, 86.59497301410342, 77.0237397342206, 79.1808593203917, 45.19510258874998, 38.91529319780793, 37.98270592465255, 38.76502214002456, 51.46930033990543, 54.44579707324247, 47.689504061129426, 32.84833598492112, 53.99681782569432, 42.44720337204532, 57.498428527362265, 41.82702791134264, 46.87128312180832, 55.42568582566963, 41.71333373787417, 38.50537596723192, 62.16118213169802, 61.449931640118336, 77.83081597745343, 76.25518045872549, 43.467785945558546, 33.099869733980576, 146.1079523111142, 61.542268458629735, 34.79766692792187, 40.27491935765142, 166.2679775960216, 33.54352456940825, 165.36999927090514, 173.97354778464305, 88.8316254326454, 43.581746989865536, 49.76268679500243, 34.83744655409141, 69.73870628387044, 50.78170244258678, 52.71705834949421, 47.43127692246509, 41.775657186243684, 48.18325749843018, 51.262026437566654, 40.27537630762586, 45.76558063436191, 58.05879131143194, 65.56447315103411, 57.86129021455245, 56.25403872282538, 53.425901387146624, 52.88380039792238, 101.09508298253616, 96.86373115396881, 89.9951541747282, 84.46311810816061, 15.771865375780681, 19.388899962736126, 39.914856808173155, 23.360518898608536, 40.186664946428934, 142.9475154514595, 34.29165657462734, 38.82192500417502, 77.37354079967206, 68.98417571484717, 67.41907052058602, 71.98708524798809, 65.4065106922622, 67.45273697328406, 78.26220256534693, 82.13591115806332, 81.87166580504973, 86.9312651522764, 75.63591325941603, 70.548236649832, 63.8573472015522, 66.72385866252749, 57.30274564993503, 75.71907018823204, 62.94705052980959, 72.15160821342222, 71.61954848489445, 66.61687548979373, 21.3140467604646, 63.871769605626575, 16.407852639646467, 41.96948274055206, 46.32491557067145, 55.44104677112586, 21.284050537776796, 179.73895894893272, 175.82980322952682, 100.90770532554005, 68.42446275025249, 67.13342919055464, 177.35452759480182, 102.21053847147722, 84.26400584874818, 70.47426632848841, 146.41737532805033, 152.99347681209397, 112.22241908499952, 111.78642282871148, 117.3332354792729, 44.52787390773415, 50.57723189362067, 48.2909641029215, 44.38618529999452, 52.991111704312985, 50.27298560532089, 56.79645967145329, 43.652586740549864, 51.76737474727503, 55.238127648452455, 43.51408263262287, 45.90053658192125, 51.295336503193234, 59.331033411368466, 55.223060221612556, 48.18094712548947, 46.47596210992978, 48.92027039515058, 86.69430312157056, 78.52864522423148, 74.91491160457467, 54.132225340758254, 82.67833777999454, 28.047976931601834, 70.58558960839619, 53.00419418968257, 48.28225271576126, 61.10514298318458, 172.91465052252158, 5.582035035069435, 42.316801042411996, 47.01790359342, 24.168888555072595, 19.712168429173957, 56.03992003393744, 35.49445422616234, 33.895811299951546, 45.37125466089166, 40.33292576884466, 146.61856197291755, 78.45009502240515, 67.83872009413366, 102.76269824446138, 46.07784653051322, 49.10862310654487, 85.59125471918976, 126.22004421615645, 77.09340906172697, 52.036167386218295, 49.36160603817014, 58.94214477342337, 44.30843272374183, 46.51348719211712, 173.4692054992463, 121.76266637346696, 146.79141104006382, 166.11544015899648, 65.94641811105203, 68.78015403764495</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>[0.5176369022504206, 0.2056243790947273, 0.13926971456009563, 0.839805635169467, 0.9887592906046893, 0.5758388064582389, 0.798930448535769, 0.6065450261788163, 0.8949742356062279, 0.39206406297668805, 0.8809361582500687, 0.867506786066396, 0.8351626411136722]</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
-        <v>0.8076510104402238</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.9743579683470842</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.1141683289223361</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0.2211711021868078</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0.3939410183434126</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0.08227850197239062</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.1126435087955563</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0.2222724945286828</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0.2460261751511498</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0.3622606651117742</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3295,41 +2431,17 @@
           <t>73.13716518256673, 80.32070195039383, 63.32196749769813, 75.00144927191612, 78.99931406196278, 81.17342594977458, 98.59744081993225, 62.55418329730451, 57.30167714436641, 83.17187175792083, 79.1876829911589, 58.8498285761422, 79.0069656324322, 61.1119069960806, 67.45050503038823, 69.12048847168477, 65.58037729751469, 63.75791442729897, 63.948233899008656, 63.848299150298885, 74.43851704222378, 67.7394045288098, 73.75635852060554, 66.81524008707095, 93.33547000873358, 52.071335384928716, 70.56691025287532, 63.97172407884104, 67.98126948807477, 54.76922817205954, 78.51310551441506, 72.34501300088112, 70.96614153584349, 77.08909968929444, 72.63800654444698, 75.65816038040006, 63.83457116535174, 78.02821369794987, 76.50494610298956, 82.13378819113754, 68.70719821627327, 74.7492462694254, 68.68090627374414, 73.78671662607533, 68.94043001646297, 68.92830112820717, 68.74881153390868, 76.19572690527154, 80.40162569982408, 74.55815948903788, 70.5339711496386, 142.92633880690317, 70.49654932225349, 66.96854450883387, 32.36353727735715, 73.40063815613274, 79.09799703156928, 78.78605551808916, 77.44708368166924, 79.60383733368317, 79.4894240860338, 77.12364812985172, 80.20925977421821, 65.63626631349848, 74.56072214165138, 69.17998389445862, 68.93689747559638, 111.36360333974798, 50.57282880207814, 66.098609390679, 71.92475470489705, 72.94573334194527, 87.57963206631214, 56.59758633826768, 79.86725005468061, 74.26731346849783, 86.78716192490698, 72.45195245582133, 73.0229382426592, 68.06639340660429, 75.59903768427687, 69.25092945307502, 78.42770158828233, 73.37538828678281, 76.85014774505149, 79.04360042071657, 76.41933781279066, 28.16525154416846, 77.70680229505875, 71.95254972414135, 77.19330292978825, 73.3018871558585, 74.3002358065895, 77.0102017020263, 79.7681150500831, 72.94767242443312, 76.13387704579176, 72.4654901181696, 73.39617439761163, 71.25777102512207, 77.52306328565248, 67.11120126722591, 80.56266915594571, 66.23613269498121, 74.88365635740598, 84.6658739190671, 66.24102002026939, 88.86056788184499, 77.0604694674335, 92.35357225729467, 79.70500410892109, 81.45969383416052, 58.58329865630215, 79.7195065509461, 74.39280005294704, 73.34283065337038, 77.75149375949358, 82.10500912946314, 79.27271894408105, 76.99976588094069, 78.91271149566231, 71.33999868460552, 72.41134451232077, 77.04126173556485, 87.53565668611922, 58.0026369978927, 72.02069588861964, 55.017819318090304, 38.27800506644875, 40.694476833398504, 62.11799845547462, 77.09650303903916, 95.31636492389535, 88.05333007693632, 69.4023533443022, 65.59805373331666, 71.4928480038783, 67.84838243731295, 70.27351160468243, 89.3258027686513, 76.70057693425771, 76.97299873947033, 68.29923286512768, 79.02390375195087, 76.44397935940282, 76.50891070799247, 87.7414999754624, 98.15824618356149, 81.22534519994312, 77.89924382561647, 75.8055215272078, 82.4233808192938, 82.33945852516388, 101.08609619302216, 77.08359068979769, 178.10402848057666, 99.229661643982, 97.55808069119047, 108.34470451382201, 77.1159833621771, 82.79845722839332, 82.34606885086178, 79.8852107498299, 77.94164352493108, 71.87514818662889, 78.67580026699352, 77.74361890485102, 62.50008858908554, 89.72177557193478, 94.97025421671047, 62.05908938819561, 76.02138868676072, 78.38583371964422, 160.9256890364807, 98.82485952879908, 100.25956816642883, 119.74116731257735, 177.87183227684216, 44.29921103708119, 31.700834344519052, 178.74729709626112, 97.68658872052886, 88.66391426298699, 91.61530332644656, 78.40062733130272, 83.99274220386013, 90.79613427654799, 98.88939590856003, 85.6268070112042, 82.36000575086167, 84.7185326014151, 88.86806573994683, 88.7813539745412, 78.48403927331384, 80.38344838559775, 81.9478041028737, 79.86547629539919, 94.64095123685436, 83.2650530696539, 88.25249407286536, 77.67523889524912, 82.53247117075158, 45.0437014286374, 90.08094544128826, 97.65087560411584, 106.54820852765721, 66.83133395346746, 80.45544042291593, 76.50323445729221, 82.86160413142213, 70.8745630428823, 70.6793521735993, 66.16523271135983, 69.10332692770014, 71.3200463092993, 73.83225729647111, 75.87738304902354, 73.70232412215091, 66.3315309327693, 73.17050120580349, 97.72585665211362, 73.98781130079493, 79.28793092957225, 60.83782020079759, 135.9937701289555, 68.95958215397589, 62.33171348759809, 78.1398968909903, 74.83059596000126, 79.8109986572977, 74.75090429705274, 78.54159376792002, 79.04397814850819, 75.00530306859896, 73.81970054127119, 70.62757943997707, 73.59635721008254, 79.48560644497995, 82.95919290557082, 84.71959721731777, 87.03074593301712, 85.60998317286119, 84.20755930005782, 85.03976496509355, 79.80672836352853, 72.7813739132608, 54.881298454392265, 74.22267583536684, 77.32932015096284, 45.99981077285714, 35.18084161488905, 113.05603457653199, 70.16711277949013, 59.791303168592066, 58.651274293717954, 62.17589062234586, 64.38080213322662, 62.50621495730949, 59.250520112751275, 41.978771678702344, 34.139337256372244, 45.16895986316744, 43.06844892018141, 101.57509883658521, 74.15091783507131, 62.70744844406214, 102.19572207610626, 36.48892931454597, 43.212478203982506, 52.72927888899018, 26.800883048664392, 74.31580634484182, 99.21660175035699, 104.43992792706477, 110.41604279514905, 133.93605352125786, 169.69298353750384, 49.167605194204995, 42.54972610539201, 124.06420859639036, 108.38556893144025, 76.54379621574219, 77.36061555428564, 71.87819399862417, 76.36965156003242, 88.6988446356053, 87.75959273902755, 68.62547821126623, 78.29612138326759, 68.70957618682834, 83.53065098265941, 75.7097979119468, 70.51001488321677, 69.49109106897457, 73.1980275924121, 90.57911938461301, 72.16486063745675, 79.02825110197838, 80.22475767373076, 71.51878717622952, 59.86591684239136, 66.30194542453427, 59.32321334803842, 59.343700994666634, 69.39304621237407, 56.79186782275294, 81.58909055324331, 66.36465007020877, 64.62640114690981, 51.3683304854261, 103.8888670294682, 101.03009284549078, 38.415516724975774, 90.44443665983783, 134.27782687823202, 44.33140614857251, 74.06716523566739, 68.20218276781547, 75.42220189508424, 139.2838723389579, 80.89175798420338, 65.05144673090574, 105.01752289631939, 70.44759571068872, 89.84516720083928, 76.61711896658771, 77.10175279972437, 75.14656305069744, 72.20679892913999, 71.78355893700436, 68.45213722051834, 72.49729691304871, 74.86747992161055, 41.68639237479419, 66.551686072801, 84.6015751286611, 84.61377785679373, 79.7223274048918, 77.17231241933231, 76.79553533194043, 77.83115217750878, 80.33766613348705, 76.37281872334695, 74.52105626654786, 64.14175440664098, 64.43170502058494, 73.07745433223553, 74.71009454820653, 62.30126901300058, 61.336293029695284, 66.77513235092769, 63.26736512333097, 65.29024725736804, 108.32526434287597, 93.75894318687585, 80.8573671551986, 79.4049751590617, 85.19937364553326, 79.1212990596588, 79.19835670296669, 67.24788173162584, 73.81715918475432, 75.59386562882418, 71.92052800251565, 64.63812221221839, 116.89812831664929, 81.30545343665503, 86.73998125697145, 85.6593830858233, 89.27260688152917, 57.812859000970654, 86.42750849660698, 70.52455057643324, 73.24078841171621, 73.17373334705401, 65.62512328383627, 173.2846526817989, 77.2070583487893, 74.44211003510894, 83.30999256701512, 147.63024696639565, 72.14642221293367</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>[0.6791362398724555, 0.42457053510405707, 0.8457961745756866, 0.8920378552567227, 0.79022706761592, 0.32818460972772856, 0.792302602387058, 0.7957959283201614, 0.2875677291316906, 0.5102294227797515, 0.09898361783178133, 0.44163416137697886, 0.4902657523561583]</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>0.07694796451399377</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.7712691942634293</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8621624350793116</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.4916979197846597</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0.3036574260854861</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0.234085874442908</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0.4873541622447828</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0.3890091707505986</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0.8565535534358145</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0.8895257529131508</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3371,41 +2483,17 @@
           <t>5.108454805819927, 73.11876783701351, 86.05546391168143, 85.45967450474545, 82.3710310295447, 86.15850593697483, 79.38671121285033, 96.35056148913762, 82.69792214044556, 81.75001140565612, 74.20198381862328, 81.86356390688853, 158.46152590733473, 81.60646986939906, 87.35255476986528, 135.6150813658766, 125.48104879713192, 132.57835545663045, 89.5411856925644, 98.78105166285364, 105.80228550669028, 107.67370209665141, 99.72111159012427, 116.0337328006904, 115.8313214749431, 108.92002902404285, 43.3204329853614, 122.85173782327993, 25.490155857339452, 78.92236565161132, 83.68596923243398, 83.69328218730277, 100.34181785267087, 92.61465669293399, 73.58172432544822, 70.02662129110425, 86.1649101766643, 80.87563618900269, 76.98927923207657, 81.23872083032134, 91.51082564622855, 82.45380839297944, 88.03042202770575, 74.90189870099947, 86.9797999572129, 86.94258637613531, 86.10567993360719, 92.81940767257615, 69.98966425676372, 81.9208768105487, 80.72467964143047, 80.9273033782157, 72.00464855453437, 79.0237544701442, 90.34383800776301, 82.74319278744424, 64.33761985930893, 75.08568780457468, 77.31583246016713, 85.39443274834719, 84.99412286885422, 76.6870570652462, 72.54104763247723, 82.56821569910615, 78.98601365484376, 74.81040334761467, 77.25992199859347, 81.11724525943946, 74.82806276782196, 70.69488673091183, 76.02275605418103, 76.66619167930915, 75.04703980745252, 76.02140131021608, 81.36784272607173, 83.05641155797794, 76.20333180452414, 72.83904576153154, 87.4261481791685, 89.34823387835293, 82.02988271705254, 82.75063070770483, 92.20872947663516, 75.33880397133163, 83.43549209324182, 78.97196697080552, 78.05775892278704, 79.96475201464249, 81.19871597111799, 83.05891536180063, 85.17619712103448, 83.0673153274509, 79.74401167218176, 79.027799851399, 80.60610830004119, 74.74040449064181, 86.63327013132438, 95.73901273734026, 92.74222481388735, 77.2258469302689, 71.82129935936592, 80.49238446413368, 25.386643749669066, 175.7507078254018, 37.59913031680894, 122.37777244120916, 38.314571956727484, 88.93868056634855, 77.76806563494395, 71.44556145179354, 81.2370897116733, 81.17996345072247, 78.69445931367545, 76.61652600955624, 73.03875394306712, 71.55096730159684, 67.67771634946855, 76.24092963266526, 59.53133770250137, 64.66539444820661, 81.92485154556776, 91.91350147886634, 31.304275926592258, 29.390715362155, 28.9414260637368, 19.810331205783314, 43.63087714854432, 30.166592411989306, 93.55931085492992, 87.02510367408303, 88.04886977362959, 79.1858307097484, 64.90254479173093, 84.28943580150597, 84.27536278387218, 72.54136745104672, 74.59818737725483, 81.5868919882746, 94.20433294070624, 79.41284322390342, 76.25008855897588, 90.70064014317845, 84.97986616504414, 77.5183193748708, 81.93113466559119, 76.50256863695623, 68.37372602718054, 71.43192388684602, 71.01416154261489, 76.30505771625377, 81.44608508793578, 67.09606786215313, 67.93258316194257, 70.97988031816807, 80.73947626520352, 78.1939249466282, 65.53940112626111, 77.13449560864804, 78.07041386001133, 53.0268457616145, 81.04875793858515, 79.90819213200321, 82.3914122312074, 80.98687282727, 88.8320662275763, 89.19638554201444, 83.20775351985677, 87.256607221739, 108.71885595340008, 90.30096805596062, 74.72615344794968, 92.23532159225675, 79.9002809486916, 79.73784846644057, 85.25679477309113, 89.27546958602942, 94.75392037247477, 106.61370787463619, 23.265236622934815, 37.57218149430737, 175.38859856802614, 95.08694868055606, 72.43743072621187, 96.1659810463384, 85.88535066579733, 79.67050321259467, 85.14293957293523, 86.07251668193197, 95.92727953672221, 95.12382223019509, 82.40529885259474, 85.16381643873503, 87.06455636400283, 88.50727603840144, 85.692718204558, 80.47750493595832, 74.87589479242654, 81.6925383829966, 71.15720160373188, 74.90098258327633, 59.531430587127105, 69.62751439232504, 75.39050074556626, 78.17124230393124, 82.21092864353186, 74.69951950330905, 66.11402033280962, 70.46770642609006, 88.4015674155137, 84.24430206643505, 86.84478999676081, 65.22204649566645, 67.57715608308965, 70.47919757034623, 76.64936288587397, 90.24831797686431, 78.17417762402107, 71.69601144224467, 78.98323537649428, 56.108548317344045, 55.29935913410289, 61.28430653819355, 54.7843747341447, 50.292500726144546, 60.2111892046468, 67.73476808926884, 85.32070381852988, 77.38812446282428, 101.26721301553229, 91.86577730393059, 74.24963388032904, 98.96763198673057, 99.88064094168507, 91.8838673572491, 82.25474355735493, 97.78278233858107, 96.17913096179032, 73.89058926997794, 81.54430954102607, 67.18264958496255, 77.3928358473786, 71.76806261615222, 84.84759759790666, 76.53017916017326, 84.90281425150704, 82.74205886448067, 77.5508972420213, 80.00467823282264, 68.73550108213087, 74.601384735477, 83.7322481372671, 101.71707224328819, 100.11701426497798, 86.80958235327606, 69.85824628908242, 47.23186909136282, 84.07522264712448, 164.3460576380954, 116.71352863159068, 50.003770332494035, 145.75727747107317, 72.91566942497289, 77.87621557181573, 77.7225319932731, 68.41909827442329, 86.19581383017552, 84.9754473371306, 62.857549232572325, 86.73451050481266, 81.25811824380843, 84.52944154833634, 86.79881382498542, 84.27882176518327, 90.46964603427841, 87.29735768657478, 84.7018068538293, 75.35264562171082, 74.89010120992707, 75.03126995493643, 58.02185006338475, 60.152467641780916, 59.58921174383601, 53.74502242224006, 71.5376368539845, 65.85300068188016, 54.93758924449366, 59.06403481563961, 66.53652831163235, 69.97649458651742, 39.843736853856534, 113.15771843245213, 32.751186967014576, 70.85302850973106, 83.32419361775679, 82.74655715589637, 82.99393488839104, 84.43946567358657, 83.90874680936827, 83.16633403760298, 87.61305385762822, 73.27518441703215, 76.38061478373032, 85.0766990055409, 84.51538039508223, 92.3508758948151, 91.44816859545564, 86.3342291092829, 74.83848601002609, 64.97655351003425, 89.52280486258819, 98.6210828848895, 91.58400789563686, 99.01265651623862, 93.57359325488301, 80.34647531291034, 81.2699099132932, 72.10488275414536, 86.16763332345064, 70.17319020967591, 77.9590889249928, 82.01956367850872, 84.34853616811971, 80.37252174656668, 79.51531763455189, 85.75567789210623, 87.80734943527536, 70.10078664037292, 83.63792994302305, 81.56388051584227, 82.87467801778295, 82.43492370757244, 82.12722230058901, 81.68870726470766, 86.27177128055673, 84.58790689499516, 80.71980395028297, 88.49423604203542, 78.65976905647457, 81.32367838864668, 78.37513673467177, 83.12745723556948, 80.67148848847934, 84.68276344082363, 78.1710661328373, 77.82881560326278, 86.71549960456929, 87.0978676707323, 79.13193904403603, 75.15814680017013, 82.30863476823123, 89.51201308671035, 85.20796661688645, 83.78432997765174, 80.04715737253838, 76.30565791180912, 73.50370246696211, 83.2675412394566, 80.84144721717378, 88.10845897059116, 90.645303752113, 98.64775450624012, 83.16069054568797, 90.11470607920472, 76.41194127331983, 82.83886032978293, 86.27284275767207, 84.57326220041718, 91.08002234974089, 81.3581610609868, 92.4522771478884, 81.3702567587034, 77.53649806851189, 83.5761102884137, 81.83696886135648, 90.85037812430616, 95.03136974703766, 56.594566944016464, 86.82733874105566, 86.95560444709245, 86.63857375064332, 83.17253299618838, 84.15590226815195, 77.13744413129056, 93.22350306819615, 76.45719036702039, 82.42493791424829, 76.03070807905962, 78.12242435885246, 79.75394173044346, 79.28400511836094</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>[0.48627155307803616, 0.35700780163469303, 0.8110333438387257, 0.4396209261026788, 0.79825099063404, 0.8833273320092865, 0.642162763386104, 0.7743271355798129, 0.9186935981041487, 0.027651256929534185, 0.5009111562445541, 0.29355926920180253, 0.7203698598354425]</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>0.5583574737236771</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.7074802530518708</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.9690828640521542</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.8303320854216877</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0.9981130383571565</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0.05895522516979546</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.2414301929238211</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0.9915645367685775</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0.3588978995151185</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0.582018027231986</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3447,41 +2535,17 @@
           <t>28.751905877923242, 60.05911855470737, 63.89290005614847, 63.698012350477136, 49.31067661925893, 77.98234678273006, 58.077756398709674, 68.24043849578096, 57.109331480594676, 77.30436117426024, 88.90019069591773, 38.39152062800166, 67.97469589590644, 81.68942736278812, 170.70079469142854, 69.04813444847385, 53.1993299164387, 53.988273689595744, 59.06925453545755, 61.09590451562458, 58.03441847581802, 54.222328861593134, 63.3313188348105, 71.27137780633888, 73.68907443604125, 65.72996501528185, 60.88830201542509, 58.923683610951535, 58.58024197179868, 56.51282659924605, 49.84519245771358, 6.207309418789585, 7.497801917957749, 24.2849030489067, 135.73885463205644, 42.4362309182537, 25.785394934214004, 80.2598903370926, 64.49368126474184, 52.02548531953427, 70.39669033311822, 73.24305214081028, 68.46256315644781, 66.99168315858499, 56.272252660672066, 62.79949266439098, 66.0687823777374, 62.9890070549426, 13.143219745614996, 69.77906293950059, 106.73661127160234, 80.41517479198448, 172.44929168809742, 95.25041289576595, 24.220232170733585, 106.25554141322118, 51.01149913887986, 63.85736193315887, 52.03731752845783, 47.177094765248455, 122.8890047844248, 51.550631773653805, 44.92527805329727, 101.57741960161731, 118.31580106641411, 56.54552198576644, 61.49488776919672, 60.77338633835709, 83.64347907686954, 56.375372030079035, 69.66800355327467, 62.69172473364312, 68.13437360876848, 54.52802742187655, 61.093626310705645, 56.47930086427545, 55.89023629736507, 51.617223012325525, 65.60730147729184, 86.54091918064317, 54.517849103800756, 67.53295741101462, 67.55010634011091, 76.60973270297814, 67.54345106496156, 63.31194914111279, 64.49673068722535, 63.16644675471981, 65.87485411470465, 71.44771053269992, 68.18656961123725, 63.96618551686555, 60.46892958180947, 65.87046413562794, 65.43295901414325, 71.57893495571102, 56.25448754317453, 77.77660039917161, 73.24626640726453, 62.586972605849766, 73.35375037707476, 58.72464914046225, 78.80859831371157, 64.69887763361892, 67.48090384768209, 67.23772886748962, 72.68247043050542, 54.90476312265223, 55.37650231529215, 79.96598495204996, 82.40186812404718, 64.31696705848944, 68.98573523132713, 80.93940347936858, 60.20462681061789, 58.75526065211231, 69.08131493078639, 65.43521144426272, 57.64725007325925, 57.96348449821358, 63.4245644356488, 65.54755823484662, 66.34896286900221, 75.5224947679284, 107.09662200837431, 95.00014812559833, 97.7886218887763, 91.77183936557317, 101.16111892474991, 100.38738130851, 95.88297220038642, 92.9807094869812, 135.99047891972856, 117.65727555161405, 21.04088412221394, 27.347627249507376, 130.20253564550256, 95.30987683604536, 45.0466106004037, 48.074039489229605, 14.591430805745386, 57.11877774335407, 61.83309209245642, 62.103173368542556, 56.93087103997187, 60.42842451577363, 61.681513126416704, 54.637826107582455, 60.03322729862351, 58.2569823094066, 57.468509828768376, 51.468286971802506, 60.41678222245286, 65.32413003334936, 63.36523129179406, 58.124400226247296, 56.2858100928345, 68.54781638616272, 64.66433785996033, 69.57509082898804, 68.93077495279412, 69.0572173850892, 64.58154258610811, 62.484385049050495, 77.67994013908063, 66.0845423750733, 63.01263064369505, 53.61604949231179, 78.88946175105298, 99.17299722431953, 111.60357389627632, 74.98681051763619, 145.6306946651243, 117.02014162379226, 85.68011226456596, 118.81416196659634, 58.71017101348513, 40.19577523965984, 74.72786168526066, 48.799088970017685, 6.21910122107597, 60.036339651124514, 66.20218667769551, 61.35394702342665, 70.64443118923693, 69.0924119693306, 66.4047058500516, 65.89728823657566, 69.67498008623706, 63.9023898555509, 66.50115592451647, 64.6349354716493, 58.77893423459505, 62.4159333772358, 50.85854637807471, 53.15671654582062, 66.2654603352192, 62.750517648758134, 61.76484169537856, 79.1840102093229, 74.27950781376352, 60.53420493522192, 63.79200052928259, 60.367644847818944, 66.69459890378478, 67.19745812963777, 69.72713233692609, 62.205449152526256, 56.055717070028734, 58.267398799277764, 61.53202264439353, 62.424808140630326, 65.97569012783268, 75.79003470839966, 65.65373127549567, 64.1986201390214, 67.01525753420061, 68.76606993988624, 66.30960136731392, 62.91162372993535, 74.72372457741797, 58.477429903059715, 73.86247164651347, 53.94909389653864, 56.1517592000582, 63.09137912887183, 75.02729331200511, 65.44544132875846, 65.1243221030491, 62.98042250598307, 52.67372660570645, 87.4265302238881, 69.58811277764451, 71.74328376503689, 85.66647115147174, 61.26301356970095, 56.7733632639224, 63.43646908522091, 55.23297412885266, 76.1709995746518, 67.08861417936825, 58.63473852213648, 60.38675296974376, 62.198928872678415, 70.6956972592799, 62.63830084986414, 68.27971611269824, 71.17925603178023, 64.86060642963112, 66.31039433732174, 58.762814823041005, 59.2880087526482, 68.85838307176343, 59.45046793666298, 70.97837075301338, 71.25525427157102, 70.27377497874276, 55.232124646214494, 57.37797448842012, 57.00152271936133, 64.86588209521852, 59.08145911566578, 67.45676884185829, 67.08942071475907, 61.253560504565755, 70.0398671513616, 70.19592976570122, 64.58877711593983, 56.6807136942711, 73.8815223763359, 52.76066846449254, 64.37323447122364, 54.851806053616045, 60.97638517050686, 59.77080952199008, 73.994570621153, 60.08233778343958, 63.67833036827548, 56.40313363249985, 55.149868775881885, 64.06052324212308, 70.46670551553937, 68.55329907220104, 54.929769104223475, 64.94014942371429, 57.73864536315693, 55.065144977177766, 56.540514985047636, 54.96532833151062, 58.57443433986077, 96.36832188151708, 71.13068410509443, 55.83235960952883, 13.572308145985351, 144.30513837462078, 61.28700822611622, 71.38318232599566, 72.89562201970648, 61.462195673097504, 63.65184980796912, 74.50155280453515, 82.22023589123667, 86.8461344418522, 66.19964114712144, 62.45069219002926, 61.9825947777484, 54.254924311191985, 57.73518866020134, 57.40221514340428, 58.03402743813777, 69.61601778375304, 57.2807858798102, 58.87415818878179, 65.51860772983632, 60.29010335901197, 65.64312479324006, 69.19074592241428, 55.05299043192295, 58.71411860145176, 60.887751951302164, 58.33677252961304, 56.87553485529968, 65.84261228235614, 71.3860806609562, 58.216967159557036, 55.43811299683098, 54.835525437344714, 56.21362813261136, 62.40201103692492, 47.26544739051624, 63.37153922128947, 62.46547042837579, 63.058453842071636, 63.12051126033391, 65.71097671048092, 63.83153003393704, 51.12111889612838, 69.62366518421607, 69.27512776552841, 65.66498138470563, 68.86942263042785, 73.00309254290597, 63.34870055967207, 66.25368224738128, 64.74679089101043, 62.003800327509666, 65.32188860001543, 78.59791312416436, 76.8741318801366, 55.72392717172407, 67.73756031394369, 67.68271394802775, 69.88097422215728, 71.55716388261838, 68.35397983623966, 66.14083631499379, 64.34669381683413, 62.40576825266443, 61.44640037077364, 66.25495637632834, 55.11736465093303, 68.01058643496673, 73.27264546560733, 69.70970172284134</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>[0.29430356598604634, 0.8516769254815421, 0.02910890450853254, 0.6679367998931243, 0.9247919610336688, 0.5269038989032878, 0.9533157607516867, 0.974755267268917, 0.6696403031614073, 0.7594939465785139, 0.1256364975572447, 0.8422854057405921, 0.23727314543116695]</t>
-        </is>
-      </c>
-      <c r="K40" t="n">
-        <v>0.2721062232283715</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.4812604153690517</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.5923835151396236</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0.4701855815419271</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0.4264390799326113</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0.09897111120228941</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0.5292074626223722</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0.4496793030097095</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0.6832195478863707</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0.2720413908645577</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3523,41 +2587,17 @@
           <t>81.17848691566238, 81.41908751925224, 84.09960833189753, 102.4652806541557, 104.9058980124686, 91.89698234764691, 97.07095488487914, 86.4314004766851, 95.41891788227946, 90.64038038529428, 84.11709298867706, 95.97967139939075, 90.62470877846646, 89.8675358651091, 98.10924548288831, 101.60582109271971, 87.75688027995098, 95.83939534127369, 100.80765090319433, 104.77053638039419, 95.34198380988863, 93.07695480894012, 84.55947376293967, 74.2004986388758, 86.55268966434639, 87.3037828237464, 104.15685267140073, 97.82226957499618, 98.03169437649986, 92.83066885874588, 99.86728002288078, 81.45991879482695, 98.88380143580625, 90.21280005695182, 86.47097318252149, 102.88214430576053, 78.43536054574311, 91.2866399763278, 90.99711945011893, 75.6341011737119, 76.84199905865658, 82.36716448853792, 76.90726485598738, 82.59946434957737, 86.77795647145791, 87.47619842305353, 98.54177357437156, 92.82620227132139, 76.37459289230544, 64.17859907696645, 92.4567756957976, 55.12441148007415, 97.73282512074813, 100.04954547034072, 94.34303394546191, 79.8475863030773, 78.11601770141642, 83.03175305570794, 79.07073720190404, 102.7212852498366, 92.29614988099968, 63.09806828218915, 82.08184235481724, 82.29109703010222, 72.09577597891689, 84.86103861337895, 75.36049450124993, 72.37136149426692, 87.91854758904805, 82.10178876663505, 79.87303294843763, 75.33014140406448, 80.035112594372, 81.28056959515811, 86.73085952499397, 86.63596379230326, 82.15854146706127, 83.85306222176804, 92.76157679341618, 84.91620935913274, 79.06140479909877, 90.41894983742127, 87.00734147630422, 81.29168793993833, 106.93013598785838, 81.11375862445395, 74.3208882378122, 80.53926905566455, 82.84969191367941, 90.74976587532169, 88.4582935423624, 84.88589227503711, 95.03079178531499, 84.94614228371927, 90.37458729217543, 87.81758163178571, 83.9272402826829, 79.10506684468906, 91.91156287915551, 90.38764784194368, 89.06927278856452, 85.68382434877238, 85.06410851913527, 83.01350182056471, 88.52149308304345, 99.95557962345406, 94.51502648263369, 92.51206345184029, 81.8098918937513, 88.83911640939061, 76.26846437251086, 78.82397174535369, 78.28642194266706, 68.49404241395834, 90.50588509627036, 88.6175946266009, 92.58391754613417, 73.01753191797867, 77.23743297649473, 89.14499120448181, 101.85648027852191, 75.45568048226319, 78.50398171597116, 81.20162355708108, 102.49472076724904, 94.81984989492625, 84.72823004283214, 77.0279996774225, 67.16738249763864, 71.40365859435376, 94.98447323209484, 83.39022644665742, 79.56012837710371, 70.37618238830284, 106.61367081690409, 94.96117008875105, 88.73503375116688, 87.40118148649793, 92.12491225090916, 99.81755577704428, 80.24996153742497, 91.60320795723399, 84.39129829718244, 91.01261163000045, 92.17992252657865, 93.34198971704102, 90.64248112831372, 87.86129489891677, 92.90794924867649, 80.54290555213991, 94.16271131657292, 90.04429407029963, 88.99529912617444, 91.9078750742597, 90.06362308695611, 84.8153731947023, 74.78960046224269, 104.88997207413792, 106.08991242473704, 93.88153693822356, 91.56864773713946, 99.63043102965233, 90.27681305100455, 87.55898148254308, 79.93799360432857, 100.49670443557154, 85.92837946811098, 89.49769030164828, 81.98023234381192, 101.73630241010494, 67.31050225805879, 83.57457109817308, 85.36049140417431, 90.89328708844505, 70.34171635314966, 94.38867744182045, 80.09015952467382, 75.32253642259289, 75.9722020669071, 66.55262248536651, 90.91639649106881, 91.81790369098046, 90.34612266669971, 82.95627798422628, 90.19466027566592, 88.75438115704594, 74.38723380312588, 81.2472299795269, 85.08009222197298, 82.24345702725377, 93.61888451845846, 88.49394453439653, 91.95697622142858, 89.4502457808597, 96.55851713638681, 98.65529068541588, 87.73174635150383, 90.12488611945503, 94.91061722488142, 106.53094788674001, 83.03719864597637, 107.67447151111908, 76.71584739100886, 68.72313149942867, 72.83839869587645, 93.00915158931794, 89.58469077180226, 87.56613441401677, 76.01683058521358, 82.11544392067084, 85.48042274211537, 75.23697967947146, 72.98377217880011, 85.04317762916033, 97.92637662624924, 96.83789311958932, 87.87274520086503, 90.65324382494201, 81.43505255273101, 80.62669910035928, 81.87785938748154, 76.4739492848789, 90.07761916569804, 90.15128556849531, 87.24883629215968, 98.20439766393847, 90.11244990677929, 90.73133503333273, 90.46415626823821, 84.2899537581969, 80.51319113748606, 91.08891687620772, 84.50583401385849, 73.45716961413488, 80.74411710291048, 87.53116639677405, 82.99341730664733, 81.14676091263583, 80.56584228719441, 86.83741105886664, 76.5840402093257, 75.34412341784912, 75.19974391404388, 82.29609690955866, 77.57792705271171, 102.7756871834307, 24.467622787605286, 72.5597055223578, 72.5938581537007, 70.7331083438514, 65.95012976729522, 64.63621624031705, 67.74360870211837, 69.27776564343075, 89.9744312783361, 99.73596039759208, 92.55684889602001, 88.28536137867253, 99.25673711935843, 90.09747483472655, 86.93431042355404, 82.70407745715951, 79.71766630452014, 87.4195978098436, 90.4609235056125, 97.48532718720874, 89.89891095604193, 100.08677728054958, 79.99338830332286, 75.19386233815413, 76.34563326063102, 56.380009134061666, 44.03443992592823, 72.56414803742165, 89.35142606006417, 92.96931178632872, 75.41563500271911, 91.24699602233282, 99.85934628554436, 105.05430385358045, 56.15993536189764, 67.96560180932717, 78.33492689962326, 84.5156043208899, 84.28204437722964, 90.27383376580073, 92.9791899696465, 90.2562809567762, 81.74940203072585, 93.3864428637646, 89.38200334724645, 86.86027774101959, 83.52490130383026, 81.94094578778007, 87.14629972447368, 83.87561811409813, 94.08771253771692, 90.6558329006137, 78.97298820819437, 89.13957706342596, 84.10883969481432, 84.62167843872464, 86.87162326892927, 69.61565408339533, 87.17726567940797, 87.25454075181091, 97.46598601921535, 100.91181997486659, 84.52606650006682, 86.88890075226178, 94.26129200788058, 79.5666776285674, 85.29347225961064, 86.63993015522159, 77.31465582132468, 93.89935731849278, 88.82133547311568, 82.74037832763679, 87.56694751408243, 98.16533980789626, 80.6577681479613, 92.15449370419074, 68.48911722753434, 79.18668096841907, 61.561733249542485, 73.34834519018719, 86.6217039216425, 85.35997529401102, 75.72879291491405, 88.9706763645809, 79.59739315444058, 78.10683267340467, 92.44661949904938, 96.55412275496353, 95.81064579244428, 90.55062308693667, 81.5430479485344, 88.87939668744974, 83.71276193099058, 87.98000484312846, 97.34918850512216, 91.70869132108757, 83.14971035923712, 90.53324532671391, 65.13448452768421, 64.75240919144971, 63.26280167814395, 68.30589412256535, 86.74370699164062, 79.43251867228462, 83.39274216347603, 85.19112462360033, 88.8647237489421, 82.74667989976041, 87.58491918461392, 74.4523501922989, 75.37518955258504, 84.53779004787256, 67.80265523178618, 83.07389407521244, 57.20644074052114, 65.89210499185657, 65.37011642672641, 81.60919588496854, 76.40482854200837, 69.80146817846767, 72.55516276336434, 73.58298737230297, 74.4543831787352, 83.60532862234557, 79.87869609046469, 92.51024037028812, 81.33678166333813, 88.22268681228877, 80.80449161737307, 75.7819045986681, 77.18041136145052, 88.01367059969256, 82.03329588490121, 83.78503473701079, 80.7089727242557, 93.6167561681504, 89.61903389874158, 79.03612173162847, 72.66440851675053, 68.23224184653051, 68.51675380547847, 168.18454986386737, 68.53119605786152, 73.17275747626685, 77.4335933399651, 87.69950117337577, 76.84734859830229, 77.37382121973825, 78.18479786456044, 83.15341351789428, 85.44044198946573, 78.98207042830413, 99.4332660266657, 84.94072314709172, 94.75302900366479, 126.704073546408, 18.308675739439643, 28.56113892178678, 32.80360197095407, 80.48319054488755, 80.2915112545398, 84.11585851465995, 97.4248392581184, 94.54888731674173, 88.79494696329695, 172.0068813339992, 60.679989057359634, 109.36223031809978, 59.502019205459874, 52.27853828856123, 50.035478629273854, 53.424305435312775, 83.68077913360843, 78.23710622580883, 88.50189386909898, 85.15045110992372, 84.48570085938094, 75.70945925267839, 79.2234654569004, 73.18936682678566, 78.81047328315042, 83.69161060080542, 86.90337061452712, 53.964393704231895, 83.2588209018253, 87.37440165849159, 74.85852836693712, 87.1043485451408, 70.03617179848666, 84.60210675828235, 93.27300662508617, 95.27248032791783, 91.91591730266865, 96.45666796288693, 88.73053218462852, 92.11326602773035, 91.83240657022995, 97.24890827429809, 91.71727927750351, 85.60227280234301, 129.5617352410958, 82.35753840331878, 84.49013560341638, 99.6039610519572, 97.44342030284015, 99.8461883334691, 30.51624636520293, 93.09326965539941, 87.98738991226848, 81.77473397594444, 80.56235368242753, 91.25677342545235, 75.53150146466137, 85.93797418765418, 78.95207587184908, 91.2323660911959, 77.20446429513385, 87.24964572002636, 75.39425791631626, 83.08449494898893, 77.97874371774287, 92.68084245916909, 85.8494560486563, 79.74368800607039, 79.89237131046585, 82.47230058996591, 82.1138856346559, 86.75717125607382, 70.09426104841312, 76.89287333328843, 86.92398253574663, 86.95097069366608, 96.32488450374146, 95.58574226164208, 90.81104291528621, 81.61478612257538, 82.87762920906582, 88.23286562709097, 82.77777161477755, 88.18536576914366, 87.0616748372403, 79.57913685802865, 89.53378825661018, 97.30192343596502, 79.65022675156352, 84.16413162430399, 93.92790561541618, 113.26943565558184, 86.00842793871894, 82.75354315733152, 86.34515377440248, 72.46275536877715, 83.20357248154282, 69.0478354207137, 74.85675395407036, 88.855132291591, 70.28531926288028, 75.1263769883683, 84.24573611012485, 80.44665869403383, 75.31537378232098, 73.72603118625537, 69.62452777438347, 87.02608024065368, 89.75050294026019, 98.13566307512995, 85.16979124071557, 92.11985693168842, 98.20593341816904, 97.1201711548104, 87.00677417194423, 110.16887901368213, 92.68915749838241, 104.46847105053571, 88.48106627830785, 99.36520066903064, 87.62796150116309, 91.57853562782589, 84.49764357258881, 80.94912837840569, 87.65497001189401, 83.82592031889854, 99.5291570279087, 79.1839465541075, 86.11750111095212, 95.63970914045721, 100.08694205894197</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>[0.3225990109613607, 0.7919880957975356, 0.3979897895635153, 0.7321199046625714, 0.9204706260456065, 0.9460790759166204, 0.6804216353277627, 0.3604426883894233, 0.37382539988695507, 0.3410910426693371, 0.06252725806856951, 0.8314426775661005, 0.3226374830362241]</t>
-        </is>
-      </c>
-      <c r="K41" t="n">
-        <v>0.02335046440062738</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.2477454366084028</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.1126837899803997</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0.4672699334722613</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0.8100914996047412</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0.09037800634702164</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0.7025505047564817</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0.07086226455067368</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0.1519500682597713</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0.2529407020969664</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3599,41 +2639,17 @@
           <t>93.15707736509846, 105.44833124808719, 63.90832054347689, 71.35227405437678, 82.58243013774884, 67.48405946191514, 69.15681278816726, 76.99451453852762, 74.0570368830619, 82.79324099148323, 93.97898401391133, 97.72885626025409, 52.30884967735964, 13.961620164769963, 65.35748948029656, 59.16800116903111, 71.54062193893454, 53.41869972779038, 56.45295509307196, 57.314622266243475, 62.65959644876525, 59.726648928088736, 76.14577072055215, 61.059089740619896, 60.860842141492896, 30.913766767876275, 93.50219065460034, 58.6923675636129, 65.88390724186694, 59.057530145298955, 71.78394312716719, 77.96688161065919, 78.03032734812835, 69.26527401811883, 63.334762578172814, 63.01229795094918, 73.45499423867645, 66.65014035428226, 102.78155243278422, 128.59380148915773, 2.2622657911223003, 45.1257978052841, 45.86198539260818, 147.30891405714138, 12.1657114914969, 156.65484744624015, 134.35843666902744, 31.024449818292283, 57.910569906261344, 66.42992678929612, 60.97264283911711, 65.16841676019283, 68.83041621365724, 60.5654423069098, 69.52247983903939, 62.684271071884545, 65.49958509946713, 67.86538661842799, 68.01530018859091, 66.51979581342421, 65.11890808064918, 65.82406591103395, 68.05418895564354, 65.84337090411806, 140.0774428250705, 150.10596992642257, 159.36877903095086, 42.552279531420055, 48.14280359622313, 147.6659787960486, 111.7120885691551, 93.47358613206734, 72.93461257964886, 130.17550414106682, 89.04915834839836, 101.00635022961646, 85.87227634459617, 136.0368498674984, 97.98776324220651, 152.13150932493116, 113.32526269353498, 25.337183198871937, 117.45153189563136, 19.47971866486786, 36.607067618888394, 77.98318473082148, 77.8852707798688, 77.29051869423182, 73.58095885028646, 76.80160309172372, 105.57522297510675, 142.65629200530083, 107.23005494154195, 3.6544249968515503, 125.46330408386726, 58.68977373922936, 74.48553998351977, 61.80451209999664, 75.69874947565899, 70.61453120431548, 66.35926429648451, 94.19050555347384, 16.38449807626072, 22.818750105317797, 101.20630743581121, 57.010819340920484, 153.80397309292914, 156.24670689059806, 102.86653767920771, 101.19911885980261, 116.59712747936375, 97.04735367346919, 112.94905351834062, 65.49834550250466, 61.65921314537893, 70.78842920277498, 61.202616691170405, 58.64975964057503, 69.06495303399414, 54.83974246265591, 50.84477348572193, 57.74811468048062, 68.94086464097288, 63.95650555719613, 66.43073535212223, 61.40817972632074, 72.00607078362493, 59.900277070381655, 56.049358033079926, 52.70988137497378, 63.00087470096893, 64.00713879613761, 71.91916239408575, 62.56988704400847, 69.91317043500797, 60.712898915300684, 65.02228896248641, 64.62285444848962, 81.39768971825511, 66.40816626138147, 56.43763302118829, 60.858325785160645, 67.9862192180368, 58.45210097459793, 53.03351899687036, 46.8670781411735, 58.1536492975767, 63.40307733344867, 71.39145834591132, 82.1387291403664, 118.4304783087617, 118.68309707967703, 60.25837108001089, 60.74610395507155, 61.770900757834994, 63.38217436754514, 63.331100101490435, 58.97197207859074, 62.871956031173006, 80.16689710661811, 54.60904605667184, 69.5386951490457, 60.093166631846785, 55.64435800493915, 63.61796962195502, 53.28235265494049, 75.16208321221046, 66.29980678828508, 58.35510870394639, 83.28167461278622, 81.79564781483825, 50.473134482793604, 155.83574437137165, 148.53607582614234, 126.29847956444024, 121.70439018568332, 32.15294377207867, 47.838490832437174, 37.13047404373164, 61.61564046460123, 66.26888223747775, 68.59880028434934, 55.5992022939782, 62.96436267786945, 61.065381151410534, 53.78818202505387, 61.0426639418033, 53.721483983749685, 61.685739899954065, 68.58123535063727, 65.02168001920722, 51.97884923593257, 57.60735257924758, 60.363960768430864, 50.01809219925565, 10.725886557348856, 49.68638037257965, 56.66732776985533, 40.677658984128925, 53.62866706470854, 63.877897600996036, 53.12698349777595, 55.54280508887237, 65.83051185258826, 86.75981032956689, 58.746902493544226, 61.41333156060878, 60.06068401585711, 55.53455009149294, 60.53767706233348, 58.069064366803794, 65.53669709237563, 65.08035133551452, 52.51581709512285, 51.91686440545874, 55.90143815729524, 71.91433932051183, 59.57287841807505, 67.30788531575998, 62.902597590407076, 55.528911380325624, 57.857115056943435, 59.67566337612438, 61.27572766080764, 63.63749845705475, 57.41520985801809, 61.34321318489214, 70.86459555318469, 61.269869335869345, 60.39374306888639, 60.323921412940166, 52.70788524585654, 59.51057211858788, 73.68646897458393, 54.43311332926727, 58.09847617261223, 49.300740930930345, 55.596204897000504, 56.93236897206167, 55.672609266017034, 55.3066053264299, 54.448993731525775, 58.19513547912913, 60.57538334758245, 59.514871925503286, 67.29428303676693, 64.28241253665358, 95.31843333005763, 100.6874733315469, 120.46838957785957, 97.6987646267228, 68.31186770981505, 66.34391449090357, 65.36022411254368, 63.7539590537849, 57.27688154381695, 69.34134225359803, 56.11724704431302, 56.395301407445636, 51.16154971336095, 53.683024454186324, 57.14446036798052, 62.84081964804587, 60.88304496301894, 60.70520989672414, 65.23611883033075, 54.73182260497743, 56.60745481199796, 55.63659580855129, 70.18646792167297, 62.998157301258544, 70.80991821663524, 60.37736352749492, 52.19402454890813, 56.38820056782874, 62.41145596923729, 67.84684283290044, 64.85060423583292, 65.12797649096161, 62.900253753571825, 60.257485569783846, 61.541807889944515, 55.1850567118755, 56.46174491706579, 60.788119190660595, 56.59582583731879, 56.96095913293767, 61.00539747459862, 54.75116722588466, 61.489043041740835, 60.431170639935516, 62.869008959161064, 57.30874973230572, 61.77095497823164, 75.0493496384341, 54.666597686131915, 51.24848401808784, 60.160769799182894, 56.745844391180945, 70.55749545814709, 59.3503515804812, 66.17373306146563, 55.58154195905656, 68.97841365265687, 58.50312294123999, 57.175942730462054, 63.91216246903925, 62.95632328534876, 60.881078994815795, 67.50538312166582, 66.54889491532923, 61.44267892643449, 69.50080039383654, 61.691271755776604, 65.1411355763113, 73.05384442540175, 61.574975153122985, 70.61075774641584, 65.05571495275095, 65.64126721846645, 71.32805214169134, 66.7713453766507, 56.707084015339376, 68.45882704930195, 68.7426844073359, 65.24198024190218, 64.36200459307156, 61.66863047218633, 61.786054373847826, 59.21337745124598, 27.87354067781564, 18.12152743616809, 23.003591892362266, 136.35574548638607, 65.37827530925617, 56.43399576371049, 53.75247040508091, 63.34496909918329, 67.7997736831193, 58.764946946754314, 58.98835516871379, 54.17529588984438, 58.1324537184579, 62.80693314059261, 61.6356191661396, 59.97074809365974, 66.26997476114269, 55.37864939672579, 58.66091259606113, 58.838893889817655, 52.51032790724376, 44.79917490254032, 54.754782291627215, 98.38260821955222, 43.94001216667487, 86.3293356054824, 20.158198236284274, 35.06767348001334, 75.27696401139733, 52.025208834847646, 61.235675207893486, 49.81361227322095, 55.38375775889697, 65.35864279210917, 53.320207808823376, 58.277223936783415, 66.1083057345359, 71.88920724125707, 62.819958963301694, 53.17106962081973, 57.7144064928148, 56.42224650177554, 64.46907942212222, 57.87714216089928, 53.17725520145563, 65.11498539485974, 60.6476702614728, 66.75787323964094, 61.1451792909315, 53.845630094937285, 63.72519225321559, 60.486278334730116, 55.68194262361546, 70.42692101954431, 62.85747646534426, 58.8024862414018, 60.66897987281083, 64.2118077780171, 76.06002819325204, 67.0161468385098, 59.420394872344815, 64.58975064791917, 72.62029513540634, 70.64895643563023, 67.82814660761707, 44.55204423957324, 59.07608097350996, 46.70394372697325, 56.56302970083544, 51.98623239876027, 61.79146700439273, 60.40384579844657, 59.313039056154224, 66.51321698867775, 71.77894850777294, 66.97949543944006, 56.511408595231245, 48.79083666906554, 48.024082785069815, 20.16819088560839, 67.91270747790968, 96.81501191668757, 86.25253067673277, 30.68436503825217, 34.68117140268473, 141.0665932253351, 169.34936267918823, 80.3254964012741, 102.88620488943296, 71.4484725408526, 106.90622203307325, 99.39336420977335, 116.23940731269977, 128.8960556633787, 121.18916718070506, 133.67487023145992, 125.78963868020938, 131.62756354236373, 37.153789352497164, 88.9824540348066, 103.74834409465396, 104.9577000663502, 67.61192951052936, 75.30155638715081, 65.0282625335743, 63.30241645653569, 71.90679389743246, 55.02142757223787, 55.89714307873714, 67.35984998848151, 61.74313020334337, 61.48312370075678, 65.76854178558004, 56.94128817979883, 58.549829241461715, 65.21478396177892, 58.47277420692797, 61.05960113984003, 57.69601871485623, 56.235133646850365, 63.11960631715771, 61.3073949328258, 57.62957016488407, 67.54755847018568, 56.01740111875732, 60.5456254600935, 61.186836116360965, 52.46767934723116, 61.288233290546025, 58.98732936758195, 47.280833660111234, 63.444114112437475, 60.59272024405469, 53.78691134123759, 55.07032797820167, 56.46630677189021, 56.101760688667774, 70.78501612170628, 73.71133245407644, 54.60223822101976, 55.834994576053994, 58.639864686821866, 76.54728777499612, 82.9638982164913, 58.80933813231503, 53.28369750518746, 58.18916688302915, 49.998922734440136, 62.56973245581772, 67.00268193861665, 65.02956941116648, 61.89811829657734, 55.86031826122767, 64.01583050281718, 61.863380502140146, 45.461182546929855, 52.88873478017144, 54.33290510845149, 56.31918194551944, 54.84223232616104, 57.060976551701785, 58.699419708856716, 63.29092486544969, 62.58952456121157, 63.28968041711769, 72.36929407268238, 56.22868011381617, 61.950175770042385, 68.58161252142625, 68.97731468509456</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>[0.4619552266641903, 0.8318182824734744, 0.244889610900773, 0.3525348341904776, 0.5764718302539001, 0.38248571000924125, 0.32199855925629706, 0.9830479795419269, 0.1236435210892618, 0.8801608623271746, 0.8727627822317922, 0.9180378869238582, 0.9872814330079522]</t>
-        </is>
-      </c>
-      <c r="K42" t="n">
-        <v>0.719330038402812</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.8713917729434429</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.1358791251190278</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0.9962857839629483</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0.3793376515827858</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0.2513781558676518</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0.3041970070688451</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0.2862079377796128</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0.1195769250288445</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0.6484317016398575</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3675,41 +2691,17 @@
           <t>67.01220207000381, 70.9745854056935, 68.05791359190117, 59.21428630763375, 63.98895560980204, 62.387808692530044, 61.702796188082246, 59.77616020562578, 65.99288792160193, 58.0406665391084, 61.133846335029226, 74.63561825414898, 63.1715308314667, 53.74862606430005, 50.3654890880936, 53.88014607051483, 72.7447805547913, 66.13313435733895, 60.09364260564413, 53.98649733783254, 66.92237157171083, 69.42916624476024, 59.05129635213477, 4.396767609442766, 104.38141889067542, 33.622510784919, 91.5951355000895, 106.04148826441478, 133.83178947656117, 72.41772861294733, 19.971609138563302, 50.4516021538906, 36.63985028440588, 11.08678903648585, 62.18523810583871, 105.60171124813317, 94.278683649301, 88.21635006533218, 58.23074619035714, 63.99197956661485, 61.13889130303575, 66.96117845109916, 72.23986037273912, 64.964934603918, 61.87045814481732, 72.38251356918337, 49.00247092866149, 56.4593882418375, 27.06651380102961, 66.38290707697517, 75.44958100778393, 68.71560485068916, 62.52606402551323, 62.18329907814548, 66.4748989844711, 62.543555039685145, 68.67912315784723, 58.70178834601993, 63.38935635726043, 64.85685315874656, 61.09268482354511, 61.72851475295607, 61.931414562451856, 64.45711979411544, 52.47607480118388, 63.51539274748053, 164.03063042441255, 18.10260095309545, 25.903828146686166, 72.68274127229833, 110.30317236339326, 54.34308926095446, 85.8325542329106, 72.70780750153547, 69.79720114385488, 60.5044981827131, 66.7185325846036, 51.605265999131134, 60.432424815384756, 62.57546506281201, 60.9465042824521, 65.01339491638402, 69.78032102813258, 59.23705666876877, 65.9979136592938, 61.17719355488298, 58.97732465365854, 61.62228183250143, 56.03576933438483, 56.53868036500132, 64.68212500030346, 55.95794807593318, 28.16183291525398, 29.294157025286907, 25.214500354746114, 20.438832523662647, 26.76649171930386, 78.99486088762401, 39.32939810916415, 94.89090189737888, 105.8002074736874, 173.13949914078106, 27.054235161914566, 136.1543209201293, 88.38357925137569, 132.46412951607178, 115.24594770425787, 123.35440530205975, 67.54165657822855, 68.4142401276056, 24.217795191158423, 156.68248596610567, 81.96441039336088, 159.15743881883785, 112.28909064402143, 89.50811651343402, 7.0771618529947435, 104.5923443014118, 20.15194830376054, 113.81740791028408, 127.27211281989672, 23.76719894222441, 76.12723622064719, 67.30030583832983, 72.19169691490144, 72.24656150088205, 61.768812957566425, 63.8915242863163, 64.91725527298968, 73.62955057183262, 73.28129727891255, 64.24277966964571, 66.96516662796992, 67.24303276658739, 64.11939394061645, 59.34280288837868, 67.33381702915682, 95.64079065171673, 100.57981784348246, 40.49832372599282, 68.34630146758604, 71.08052927891318, 72.9084063864712, 36.71805032855519, 46.82655195968713, 70.94230326895176, 97.95033953865381, 89.31203488210929, 70.5151923055173, 77.5706661819429, 85.5142447212091, 61.83535456672622, 65.13167885921597, 71.03997275468349, 76.75954898063345, 72.68990646843898, 63.309880617871706, 63.8488842682481, 58.81635738025869, 65.75312532575501, 55.74636045741946, 57.9989305861954, 62.11486508326864, 59.61699069245453, 62.49259096977446, 58.78336145478023, 63.71185650103089, 63.383466458224106, 63.139943827361655, 64.00597863097369, 65.24601836384946, 84.1273653281862, 108.30510480468546, 37.06355966145829, 154.5076462644778, 177.86679175686365, 162.54701834129756, 135.82814451541537, 18.377477379908306, 7.9262460270571635, 120.59890610005911, 82.29859624262618, 120.7904941730485, 136.30538930835075, 35.442601643919666, 151.77868646690706, 58.36914830909112, 48.53783608821041, 151.6648293313248, 62.830190573049045, 54.92302229738462, 68.40001181219218, 47.0302784186394, 57.73037398100042, 61.26387388593598, 67.93838194744998, 59.973966704106026, 52.75213653207071, 74.01560460985324, 64.14136850589446, 55.18422520765779, 53.605112621428304, 54.70758811915551, 53.820127217608324, 62.76248917414609, 62.76181109537537, 56.75690996711848, 66.67419891696747, 65.29165580941289, 73.87675694161095, 64.25386624333866, 68.58079462535679, 81.39217723310585, 22.448844381601905, 48.818399232439305, 28.933759828445112, 99.88612068513211, 87.16414392555372, 107.24244501572375, 46.49472104435432, 40.935224028991314, 64.07858556480457, 75.86334256891276, 114.46164111223236, 83.25180113926639, 72.9391490319542, 64.06313799762248, 64.51087525512524, 59.26737887274539, 53.2545375136338, 67.22319417844678, 41.43924829504963, 127.40803867714949, 94.96949258051329, 153.07984085473527, 33.43158164134593, 60.02314049352133, 36.36132009316842, 39.83369176333517, 35.95103794235048, 143.54090074252795, 63.067065873828184, 83.14810868439163, 68.07623765596658, 67.0664186211878, 83.13399051712666, 83.47092040951715, 85.3903863414636, 91.87816537026255, 92.75010303918252, 67.21687081465136, 72.93271678491244, 65.20202440841616, 49.94019692877068, 62.38121204962591, 63.94605861866616, 62.77645503912432, 61.26232726598925, 61.436825497427286, 59.39406878511691, 54.36501281596311, 61.69706741062074, 71.70698615329643, 71.41500089048618, 64.6648087306988, 65.2492072233562, 66.28394053745423, 62.54663446044291, 76.8690586395186, 74.04087892049083, 71.87576860256738, 66.22120572335766, 47.77588317444157, 55.91896017551391, 62.41712227133381, 80.38087867729888, 46.65580026269499, 55.75127483193395, 61.33618918049248, 67.56516709671298, 56.53646807427316, 74.34403265526065, 61.76636886329251, 80.11480974393578, 69.92414658596292, 63.791420157372784, 67.33309410520377, 61.727764794410724, 67.2476480086963, 62.11393368258613, 73.1857147679239, 59.013724701621825, 80.07422435426051, 73.19686394277812, 53.13905413723966, 65.41605023313792, 60.1141192239444, 75.03495648466638, 55.91940049455627, 59.58828356963563, 87.86384848613137, 73.14803379617267, 48.78151696734425, 59.917427861663064, 69.72940517101459, 51.86109365725502, 63.751645557352, 66.5148622318389, 57.640581307706434, 53.382027098356346, 56.78213145503127, 67.48299100644904, 60.91632670382223, 66.47544494291017, 64.94053922004557, 50.197982720483274, 52.872285165249124, 53.44277912784246, 61.37549457291618, 68.97897189892643, 64.75807871422876, 65.52579374805453, 61.356935227063495, 67.49568015796137, 71.04895768802601, 61.93292525341999, 60.86642814178816, 55.33035603211609, 58.2574686700547, 59.38793204504397, 58.77816228151848, 52.39183368199026, 47.19334768154701, 52.14160733953431, 58.44461587092552, 32.44194795815174, 103.14827741003366, 41.32048720155138, 53.517765203488565, 84.7108027498043, 98.21782329195419, 31.450020424143556, 59.817061174045236, 14.228089010759641, 118.4362466772455, 119.04221477767122, 56.16672698061328, 80.0309541790527, 139.5027513456908, 71.54223571649173, 54.880115127027985, 97.59413071012813, 16.026997948382796, 14.6378216655113, 46.6446131239384, 117.92022046759756, 176.07241495844943, 16.703031164674634, 78.11629972665558, 63.36172279086013, 49.06599408739657, 33.11283829722648, 70.98931218645355, 1.391571293085799, 112.09961303334566, 40.67265298008707, 14.739673997880923, 138.15016085621852, 21.44418000855044, 41.80954468392208, 6.627206199717516, 38.11618547379115, 15.115437838696085, 67.95049525587919, 166.08274258877097, 59.72796914748667, 48.53259063286448, 177.17249967026243, 15.575037481438594, 29.611347283731487, 46.169656627483505, 64.04905372750942, 75.36778529842177, 62.642025100466526, 67.57513387792653, 55.287782709835376, 58.258915804562605, 56.24683144035773, 52.143885261675905, 65.39227386188318, 57.14563244835763, 61.376438099098436, 56.21516338259491, 62.905948956336864, 60.33115383761967, 60.83828166467168, 69.83496966614727, 63.95859280160018, 54.03219140944139, 58.68224923457228, 56.085316464290045, 105.42947394055363, 101.52888622901334, 11.421636517366954, 40.89796743570462, 56.74410148377653, 7.021661104430093, 64.5228478815322, 103.36717258623968, 44.82245602117207, 111.66275454712299, 114.29759924787423, 115.12120140708116, 152.57172635562964, 27.37257428138247, 138.7254569241334, 23.36749727385251, 56.815996451757364, 95.57201178308571, 120.32327308756, 44.83599622373301, 32.76393793716278, 26.64836173628802, 47.538651171783094, 47.39221908399733, 35.213063876924956, 34.629757184929446, 30.59209524111878, 91.73381659445097, 88.8196815116359, 79.00179466977536, 24.74158458399585, 20.108739853400312, 73.75156769542552, 27.771055733995176, 87.62557957645187, 65.26470253449376, 69.89137779956224, 60.00860421659772, 59.56175620084036, 63.88197244349996, 72.31014387855632, 71.95629199089602, 58.44705153547113, 63.496779584595444, 66.38109836929925, 59.509103160224946, 63.374929993047544, 68.95273907399161, 79.00253579318256, 76.1591185264114, 67.10530506165405, 59.938664116658224, 68.62571220588211, 69.77322995189822, 74.20628927698918, 59.823219393477935, 60.56243826540797, 69.8036830112886, 62.43357154784951, 72.31812703604832, 58.468702706544, 58.05583477914178, 68.86402880068854, 59.01084759871916, 58.17539389816398</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>[0.15620479108739105, 0.24019957553664184, 0.9433699236106546, 0.47616079169161885, 0.6738077682285775, 0.6286326771607845, 0.32175405777433697, 0.31541732467629413, 0.03425440613106556, 0.9506289500600308, 0.8103355796089468, 0.7558897490231749, 0.9016957889473407]</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
-        <v>0.7152645843805536</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.4387178900734069</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.2751506123148328</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0.9218159615823944</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0.345673074317268</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0.4130136326778044</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0.9576992813058176</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0.6938844818866273</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0.6958401925936796</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0.5663011564546764</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3751,41 +2743,17 @@
           <t>68.3401713730908, 60.22409735524441, 71.80882274077031, 75.5704909556595, 71.45762539342807, 76.26886717429343, 78.77157107263864, 80.25756865968329, 70.73826736925163, 68.81395890052724, 66.44150673180222, 69.03563203927722, 2.4664955263025674, 60.74591920778972, 61.88082172859481, 19.185588085699933, 104.5037419069829, 120.21676909845985, 95.81163393088312, 96.55377286979973, 114.26188951638889, 120.44395556174977, 126.52854398900516, 105.25285483089388, 37.85715896759173, 35.10396233730636, 35.31098412211781, 35.53013247364409, 35.354447621051996, 35.9409532100713, 75.3800331560114, 87.1859994630563, 88.35375460433472, 86.13920418832112, 81.65274815731834, 7.4320433421653815, 57.07136730274219, 107.14652970874126, 0.34172468776082254, 17.661008587734386, 136.90479831562573, 148.32896228960635, 10.470509326140135, 82.90503156631925, 111.94924111871721, 87.92104849187699, 49.894724267995386, 30.886756802258503, 87.94886162469523, 169.83773185422913, 177.8674931307118, 61.02940613623108, 38.080319286611434, 35.16762041913385, 34.316815304544384, 38.334238559764515, 35.29154780903756, 75.67763859028027, 9.62739228051404, 57.69873381497027, 74.9475742946416, 81.21344133978103, 74.13917322382764, 70.38493582440282, 77.491456680583, 79.1225656268347, 64.15701684850518, 71.41817571219207, 68.65631472960449, 66.8438184386427, 72.19453928799608, 70.7964903038441, 60.55378944169291, 58.357925111354206, 73.57523376443851, 71.46971219320746, 65.03691632880269, 65.15375157189942, 60.18753114988045, 66.66405743663593, 67.43184998913094, 65.2319181554777, 62.90851548638545, 76.65100149919296, 121.0834635075964, 144.97858894834908, 72.04856619389503, 46.768577963461475, 54.63698900119118, 63.621674851853825, 30.936572717980592, 46.148986939546404, 136.34783199730447, 81.51268453647083, 61.7413283759553, 14.292964382601301, 52.41915477795046, 33.687313988061874, 37.15400854819823, 35.339638324657095, 80.21954875742885, 68.52097686918631, 64.82031672626238, 65.42761963218815, 73.38294779575052, 76.9642489319674, 77.9278515969381, 75.35189093651465, 76.99031261044429, 77.13117937542458, 80.54649937675724, 104.3919076310931, 50.34596836378281, 74.37570285619887, 71.76296151665706, 75.66952411220035, 71.16954381804439, 70.73597893430727, 68.58539834961068, 78.5383407883281, 78.76198871648162, 74.22607121895572, 81.74495689059871, 86.44249657536326, 80.87102184500934, 80.21556027873058, 77.17837896881193, 78.7395596247043, 78.76107997573779, 80.72248161947027, 78.93676373161965, 75.75293197448877, 80.53506165751949, 79.7844894250808, 76.36083515244226, 75.32246860154328, 79.27333162502457, 79.80855544203207, 82.33356463106881, 80.78394493523264, 76.24947288604119, 64.96973912783812, 74.91160035815639, 76.5150339063127, 70.35293936756828, 83.10643267603862, 74.39397280074901, 82.60765901160698, 82.27012980450289, 75.06495083481535, 66.55547437810425, 76.42321059076103, 77.14540245631649, 149.66420272069138, 3.0596824191725775, 29.424662040979737, 109.2448510455878, 129.0512019695372, 85.35633143343374, 84.37616954591662, 112.33425849436522, 70.96273343572103, 51.435593431474025, 111.3328544000615, 121.42799687012372, 97.18264030724099, 112.50442154650825, 135.06594758590055, 77.60733319792458, 118.89048113621774, 1.880082998046897, 171.3626017439251, 137.21031801087403, 74.5569723112355, 72.85563572469073, 69.86906578187667, 77.31725376382207, 78.19108055298922, 77.33050488457015, 73.36628791633284, 84.02546747869252, 80.56651574038841, 81.36551299829756, 63.36141875757192, 95.3521765651079, 71.69862301721672, 96.54341056773413, 90.66495358026913, 95.682423032965, 17.147846758172985, 10.92963325945953, 115.770051449278, 67.62592440499036, 80.27032214723599, 75.6483059694916, 71.48592134342411, 72.37254579800002, 76.18807718058352, 72.60376591751323, 76.1678715118748, 80.48772689859445, 79.23413311120677, 76.86568587687319, 79.35060242726897, 81.72491380790159, 74.26675315440986, 77.66373387848537, 78.9006118846202, 86.09908531270402, 77.54639665334707, 78.4890083320059, 60.48006149117056, 67.8802477071681, 78.82727780291862, 38.69506643547215, 74.46218986652839, 84.97018733184609, 36.31674042688363, 49.579573725588624, 43.55544774691772, 63.11788249846387, 175.0218712191352, 157.41172874728613, 173.6613158019119, 164.34671894039298, 89.89099817957869, 48.705619079827635, 51.91786327840904, 101.76484475243562, 45.96430908185753, 124.2716621490083, 41.36221767670439, 108.51189821217555, 50.80694992202372, 115.78623268867331, 158.08560509786022, 63.53808809155055, 133.5375371903819, 121.27288274371728, 121.78757169867356, 37.02523576567054, 62.225329438479385, 62.75437646116299, 76.75400467889597, 34.0937132231291, 72.11647718859925, 73.67367071785924, 63.387971438161195, 57.881949804690436, 48.98087411844485, 74.31399762430651, 71.53438046419926, 70.20942960106487, 74.66727957096978, 75.28218903259537, 75.5584765781759, 81.08523692180412, 74.8472910928934, 66.70272439692509</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>[0.2348168388976547, 0.09073772327512164, 0.34491492593270456, 0.5156785271686888, 0.19881082627735347, 0.2111092839581179, 0.274342393522241, 0.7437043590930856, 0.447233378072848, 0.3753410632911426, 0.7505092791479294, 0.5912891564776988, 0.05458609967048944]</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>0.5671183314900441</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.7376369577771336</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.5285656625622357</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0.9330967113321508</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0.410123307892153</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0.2579316685420682</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0.7256702328233345</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0.1510906307555679</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0.4158982149667924</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0.8006968912489567</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3827,41 +2795,17 @@
           <t>77.98435166237806, 79.93931358817363, 77.39598592478349, 78.23942641188471, 75.28367444502705, 66.40316090277918, 79.36755460684681, 97.42909145966533, 87.31596255007639, 79.76088351573276, 76.63598087882943, 91.62264231294743, 25.702913931481927, 68.6513371590792, 72.360457739817, 76.94818864554959, 72.2580835525967, 74.58928344109961, 77.61252393398209, 77.86389666028974, 83.79078145449884, 79.7859908670685, 75.5952084995375, 72.7723652241508, 68.67758571893258, 75.24317718702345, 48.95357350182359, 73.13020615455824, 75.3671797609396, 75.97618643070591, 87.342174432842, 71.42717700221812, 85.46659600718638, 63.66564496167995, 85.33145956489369, 74.52934404207417, 54.93063747509593, 79.79786183381685, 78.35560071927075, 82.43322917934879, 76.72354489146329, 75.98518374973139, 81.70926089486024, 78.06545730762662, 77.62723956312101, 79.23622537287079, 80.30676693840546, 77.50331281681821, 75.09028273813573, 68.01888530753244, 145.18086584561087, 80.61357261041306, 89.04245965143754, 57.96702017437074, 52.634332785055314, 69.80174890942531, 87.99769352455732, 71.49412063527997, 68.72032279161428, 76.1193252557002, 79.0888722851139, 69.64327448111422, 95.36112329215798, 83.74595602333663, 70.14421929980853, 74.97026088417631, 67.90236374148358, 104.9673871849965, 113.87289056925233, 100.67235920074751, 107.50848097241156, 90.74988027307343, 165.9911588972791, 47.66468008270746, 84.30215881238423, 73.59069881708857, 82.33247765016732, 86.86172094521586, 81.170882957387, 85.03802348503788, 80.36142076730543, 83.50015800229066, 80.24278170449169, 81.3329472358565, 83.15677493865411, 71.25537660233182, 74.4804426921656, 81.31255904513915, 71.71107064265672, 109.683835240311, 17.923377969859473, 60.219835079152915, 90.08916802163667, 50.92432261762875, 103.72255901842759, 116.57481770110182, 143.94548980590992, 54.547352889603644, 90.10359310634199, 76.2726392815123, 79.69837539191079, 69.42373462388792, 113.56942887436468, 106.4202140448464, 168.4034401635226, 74.19970861799428</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>[0.9917600351100706, 0.3362400714786472, 0.9717130632090007, 0.725232037969945, 0.06510635161463685, 0.8592558219168521, 0.2762297298031462, 0.12988098451631558, 0.23735557910384375, 0.31794562817414884, 0.3181441924925994, 0.12260550371039369, 0.30252634089272656]</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
-        <v>0.6961884500572179</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.3666918315021541</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.568165098144512</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0.9030825471359533</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0.8861480042400375</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0.7097458774228654</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0.8112043190749382</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0.05119691846608021</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0.1038671745795553</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0.9129923198529561</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3903,41 +2847,17 @@
           <t>78.51687716067862, 82.04687946079386, 89.30437526983818, 89.08131584835161, 70.37301398461278, 71.78637521897834, 79.64217643758383, 72.44613148918691, 71.41406789371882, 76.0996496817956, 96.78438020582914, 101.84388316338388, 104.20985402252792, 83.25313796512557, 65.15676134497629, 71.62916216907152, 86.99747654347237, 67.41385993923993, 81.61647536852847, 76.14939337048449, 78.66604924307822, 82.48432164212903, 77.38420157061009, 76.03760468051668, 83.72889447290389, 85.12689507596143, 82.84754946652829, 69.07179371455169, 76.33057582459676, 70.5778037157631, 87.16611318648758, 79.7012738779951, 77.70972490666409, 86.71254728845061, 84.14373934548809, 91.56417792562887, 91.27570973376996, 113.50060764636827, 60.342202203270766, 128.040043856251, 84.35993541821341, 80.19753982477687, 90.29450621533438, 81.04869716975013, 25.923257816162852, 68.86043558979466, 93.69720757891697, 31.17571147919196, 103.88726952960133, 60.84196933256798, 52.885272415568934, 76.93869681853208, 57.27146375469419, 78.94189156179314, 88.7865405478281, 80.09901543219983, 81.50176226132517, 82.4420552534393, 77.1286055385624, 72.45368754120865, 82.23857908215658, 76.45880741225787, 73.48769586378042, 88.70576474226725, 88.73637800244572, 60.586473176016675, 60.997252312508245, 52.862230402536426, 47.07948432182357, 68.96380046501595, 124.93006868255526, 101.01837417239231, 142.97247472010855, 121.82433573354427, 38.05872654116037, 143.642426107039, 1.3564155393411714, 112.42357381688659, 2.364131937280594, 104.75282827712135, 33.04973332438974, 74.65460025398252, 75.69945579377617, 83.06457207429112, 95.26161455572742, 90.94758603955044, 85.62289383921332, 88.1908195487849, 72.2114128074872, 81.47951727550118, 85.39290067701295, 79.12763778202701, 82.84913434058852, 83.13816418989384, 134.30905784499834, 18.249087079046127, 36.59034902298765, 33.50598886936105, 3.3647468581213507, 7.7905592590118085, 5.7934087976912005, 157.3952840822822, 170.01702170054668, 140.53165071808462, 144.54392255459965, 71.1286723238261, 119.15141401396147, 49.32268598870456, 50.47754969868546, 47.56793522621213, 27.19151759369895, 45.40425304992527, 42.642372640871265, 102.93769259672776, 102.1611899664343, 30.930977515213726, 56.84567116351618, 155.68772216560959, 144.5114361636143, 39.54005017335037, 24.91688721083729, 112.04990583795102, 102.86657130488811, 124.15776128205641, 92.68012586667435, 125.34057582888346, 136.16889899180765, 91.4658814567724, 128.26731416815952, 38.646270837112645, 48.68666124639317, 67.17817063615965, 24.291350060504215, 64.64602895702605, 69.09495564184898, 83.78485031199354, 145.83913437403749, 74.44525856829553, 85.43691052275506, 72.91401382431829, 20.1819042649033, 72.8235731487175, 49.45726648176427, 55.1792796031731, 53.716741730031444, 68.068167688353, 44.64432862046874, 16.05653875475024, 63.699185987363336, 72.59180151224622, 74.90868192215557, 65.76771619278227, 75.00839685275801, 84.75943409692272, 91.45272533121985, 87.90095877588752, 75.96990779592242, 77.70845025833297, 86.03618824907934, 83.64540241283304, 92.8664416025125, 77.81840289226116, 77.04783475554463, 63.70769150137162, 65.17723044263631, 8.289727669712144, 84.05761867908863, 96.85604385560961, 128.46391786443655, 53.929157125222986, 3.6428178989235693, 17.352661697132135, 24.827848854200383, 98.83900089204676, 81.456767786428, 76.51443841316295, 79.462389283624, 75.4571316876921, 76.78243128998932, 77.83693731950204, 80.30926116750075, 86.09424677647554, 72.42667035211447, 71.48204268547556, 83.54614526118993, 82.86647715771579, 81.9932913924264, 77.10821361615491, 100.3122794919761, 91.53945019309377, 88.33666264031815, 97.87630720079623, 86.86737208937123, 77.33927033149958, 16.13547662629098, 23.420016282786552, 104.0288184441465, 169.84151751416152, 36.754316929840286, 75.67434099507659, 105.90913688748027, 82.79840881212775, 91.30576521160395, 93.08533440136921, 75.42163727418709, 82.28652333433065, 87.47545336854273, 78.89920695332577, 79.97807787979451, 83.82738937346885, 81.01354217155604, 87.13604751265149, 90.52153755834382, 89.01134320183736, 82.09625906528238, 89.73444704553255, 88.92018288583654, 91.24614197652834, 83.6526724561456, 40.11082507997647, 41.60489756575551, 89.21703778012781, 49.79462470493599, 79.10298300452212, 78.19925589525677, 80.995598209252, 48.30282989573742, 42.38829846587781, 21.495707680730597, 69.32599464628689, 99.59213642168574, 45.76304826610915, 102.31014796856631, 64.81910004446902, 46.81159795874236, 89.88775582494753, 25.065196150927807, 103.77633531875072, 39.65380368017104, 90.0432752856506, 87.91479571854266, 88.92934381499089, 75.86920839880183, 76.02116544271306, 82.19887832252306, 90.0072723180452, 73.03436966914188, 77.1607151695225, 90.80691721548726, 75.04880205153775, 93.19156768187814, 82.12290607278004, 82.49930702230631, 75.40267348832417, 82.55190907668111, 63.87510849164792, 89.7323576656607, 98.73572778554508, 80.9158825001893, 82.7321234521631, 108.99880443446534, 106.42020268622748, 105.2779465806683, 79.78994025018727, 84.69615589632235, 80.2695089316236, 83.05338647441583, 81.88689472454834, 79.9527692954459, 82.4560677572292, 81.15262527705752, 82.70320804007443, 111.03650275862428, 85.621767304351, 93.17678045421366, 100.44817393176196, 89.5447126955421, 81.95460169298292, 72.54236473426262, 84.30630816770729, 89.00069598686883, 96.00284695928133, 102.81965466290202, 104.44123283160381, 12.976135033382203, 72.03311206968435, 92.40102417442854, 85.19736241706062, 36.07159622761474, 85.01332848640509, 104.80376899526588, 102.11045802514707, 84.73014762693855, 90.72277880688118, 83.50399022303307, 96.34611025616742, 87.32150581761273, 93.66008602364472, 93.00436532615602, 106.94084819865273, 115.91655085489802, 107.88040852265515, 105.45154246988983, 93.74132130037937, 104.59687415496656, 82.84191473530566, 90.42892818125976, 97.54181937558177, 112.22849771592023, 105.45832320763884, 104.4946756437396, 97.77110064068619, 90.31474797331623, 94.8199874620036, 99.34483674673842, 107.32715066407434, 82.65609871200762, 83.5694932560268, 82.8001554604782, 81.46217579011747, 80.2023748290104, 82.94507013159065, 86.93920369186787, 85.98257185215625, 81.12942563480118, 80.33368244297209, 80.5401540667417, 57.88630736373018, 71.20605407066621, 87.11681762371101, 77.43920647968348, 79.09447679753154, 80.0292003266685, 114.09464197179415, 41.41727091270881, 74.14815373003913, 78.97830823218368, 68.3316004303026, 63.86750246802399, 95.92533730551048, 121.14868350926783, 99.67938015815956, 90.39774767152018, 40.04159006509082, 46.67395952501618, 73.31576647849941, 95.31827724461601, 67.713099548969, 41.13390342012876, 39.909441101481924, 72.46415184584019, 77.82652393151075, 49.06485438161541, 2.482504720152237, 51.866042895174886, 53.972207013465265, 44.213140914418275, 50.90692043914302, 46.415916515221895, 49.2967748361648, 63.09046189851971, 59.39353916774214, 63.79675811939014, 58.52353080477461, 46.65710047217126, 47.84225731581782, 59.16616087388001, 50.34728501920441, 57.63463785255629, 69.89549437144647, 65.40080549500398, 62.46246663572713, 75.29047167633118, 67.74994541562832, 65.17620856669467, 46.77014505816655, 111.02440993122961, 128.2701270349861, 175.66949713148406, 56.5489755242732, 98.87647967710119, 106.48912992169704, 107.71667630992133, 90.7692380235973, 92.51566516609738, 99.78229369341686, 92.68677898867799, 76.91204873420465, 75.87800151449518, 90.3899198176657, 85.95006788407487, 79.57287811288867, 72.29859287650196, 76.00116184995143, 80.20571885416119, 78.10682992851355, 76.26506446244636, 79.9331478169161, 83.05825530798447, 84.11611717161037, 76.28607980357583, 84.75398404212426, 78.91460360248013, 75.81522265003645, 79.47242207786022, 84.20825385488847, 77.82456685306803, 79.92362229726037, 76.66622782701215, 75.0036695439238, 80.94656489826421, 79.07011194323492, 80.27926688768694, 71.81597137550285, 77.41570300320922, 83.1098909509256, 80.66109932776368, 72.23718550165208, 74.63363917747125, 71.48596504432847, 78.42779352118973, 69.72614073912735, 74.98633829679981, 78.00409751177038, 81.05117646653117, 92.11932540730068, 81.87424552119379, 78.32321970904626, 81.36926289556878, 83.04741164931158, 40.07279897659446, 78.9505880706326, 89.7908117796334, 69.02217166091732, 61.06040882514526, 42.62596467986408, 119.19197504244498, 74.46115484178502, 53.67983534353395, 70.88805543457975, 72.64067142451606, 78.59055001006003, 76.73367183377249, 99.91615348813995, 78.1858444599776, 76.52482498184717, 72.61269419633028, 73.75606860729523, 83.85932489847839, 59.51792911434965, 89.03374521264334, 45.19995218014556, 62.334572444871576, 55.08301380861627, 52.89932884883915, 70.3403573342786, 42.543327538636184, 70.14797387373486, 49.68888405752195, 53.482491092160686, 48.035606723336684, 79.43658615847352, 83.24774596120555, 77.2126158065649, 79.49807335760399, 77.35913596730231, 73.11041387984332, 75.33197586392592, 78.29844507636169, 89.4214173121281, 101.24820256154884, 91.1121865793513, 86.57736414017832, 73.21491041198786, 81.48555941144193, 69.61307284690739, 54.493094171038265, 65.26378254350544, 63.741536668899386, 3.346071466717405, 32.03945015984912, 58.82886026763928, 53.265000109055094, 58.04220380154982, 110.5332953347063, 37.33265927772819, 122.15491340597978, 43.886562331449106, 100.11690421110566, 102.81846176736313, 39.0306601639949, 127.69572474321343, 76.14533943757347, 28.359132358430898, 98.02181003744963, 37.23649145293129, 51.492102054379544, 52.15484719446972, 53.74056797511033, 69.40197273629396, 66.52307768461421, 102.86798154718392, 131.03831704065982, 82.65535051924648, 38.77197379964371, 167.58818526052883, 54.47209499271973, 3.031303445507985, 56.33136043205221, 77.9865754501776, 172.81547594127184, 111.22459225311665, 92.21835192822653, 64.14398060690466, 135.27866746525626, 104.48116499044517, 66.57736106885658, 35.16200781767325, 110.37962769140468, 21.55427556478622, 55.8908608835407, 95.22953230526586, 62.55536736416004, 146.54849833879038, 158.97783385169126, 73.48654325366334, 84.16856657294775, 76.99479735126975, 97.55583444661639, 91.36743631813647, 81.0149369557233, 91.27869908888982, 74.1189674499083, 79.16843740902137, 85.71184285348505, 80.80150548806884, 84.05752291874585, 49.54698036713217, 59.231319316343466, 25.239212700276134, 114.14451306069336, 54.35334907239662, 70.05246590550014, 34.40301325756287, 22.651874406122754, 42.368321883222066, 15.346846033740704, 71.5179867280636, 70.18661757049536, 61.65120932670427, 75.0686602136612, 78.6948383659183, 87.26277019594892, 85.88694915019097, 80.67869736807387, 78.0739898789428, 85.87136073521744, 79.24964792980347, 76.94233533157323, 93.78103138722675, 81.00346322667333, 82.00626581151539, 80.0090516564127, 93.76518373923608, 91.75228542133388, 74.26316430753161, 89.28542413924225, 81.28906741328062, 95.16471480650648, 77.07666111584147, 92.18405754020107, 88.67527530942705, 83.09067542849849, 82.67178541657296, 82.39713631143432, 78.06951300897468, 56.86696124701086, 56.962381050091274, 84.05807052961012, 82.47021238589979, 105.11945644474089, 0.49021211316770247, 109.36093637895694, 10.999419402956102, 149.28001156968475, 27.755838443425798, 46.12933841527365, 117.11423099222334, 97.4402029850228, 13.52253813116405, 38.16752400955285, 35.29221181396735, 52.753711013873136, 48.53099116114366, 53.01340102106111, 52.028913102274984, 46.08008817644555, 109.6582954400489, 16.78426223545221, 53.08097838308102, 35.30210594698586, 19.401054681935484, 33.267067590355964, 141.41636755413344, 54.959513026027935, 95.82276674126338, 41.69234155927047, 8.416610235352548, 178.34218151154155, 163.292510785887, 174.4401904960149, 103.22533531773418, 101.88702155113522, 93.34610316449539, 132.03172788786875, 35.28939882293975, 80.56363468471041, 67.95951329494343, 124.39514059601538, 115.06036247794854, 114.14976323813354, 118.28268644519417, 14.633514143012277, 75.69338084142667, 19.8236492765665, 72.29445654857531, 41.70750238804368, 2.592469735263561, 48.691006745496296, 10.77993535638676, 114.64442077210774, 57.23277345109549, 30.674073106011978, 61.808364287986, 57.881961248770615, 149.43138665578635, 87.74958053944502, 95.70177566570193, 131.08741601516329, 164.4437923300028, 154.57166757655196, 82.02306034054502, 85.42943845683072, 96.50089675985599, 91.8895368727348, 81.63854044331401, 81.73155078564328, 82.26822001389247, 86.88900611522656, 87.60141788985328, 84.77678803760706, 100.50378599756972, 80.86575455740935, 70.39803789266081, 78.64170458141157, 79.86279013692602, 81.93655777969559, 77.79881885078098, 76.01357287987419, 76.08001878141687, 88.38042798773691, 89.32620318422444, 76.9369771016376, 85.89076599716643, 74.16108942437843, 77.47799712200178, 101.93054234887275, 89.27267960066513, 87.93691866492475, 90.90232997125611, 73.54074219156162, 97.12009014914992, 80.60647177860491, 90.0758487821796, 84.68052775854234, 95.00329417205889, 92.98213510031644, 69.08584145788392, 67.59005817222517, 77.99756981592816, 67.47390321594293, 78.41183936587312, 78.26085789246812, 75.9447498699444, 77.80937688874383, 77.19462561367118, 75.770709798874, 81.71226207405009, 84.89371881963937, 81.88764839850134, 81.83859490451349, 96.68417534825171, 80.41286831724237, 81.0960824528269, 80.55183316567222, 72.54065681685496, 74.59626870784042, 87.98352151987014, 66.41678945428195, 77.87837957514935, 74.34827023327529, 72.57040579317231, 72.71589397889461, 74.76656508072867, 75.1690575691098, 87.5057595486676, 76.49412279381616, 79.96959996297664, 78.57492032975354, 99.99576753703697, 74.75833444458199, 82.29002401381521, 87.63738392150111, 73.81918843022429, 79.231524209622, 77.98393527911382, 84.46561043893807</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>[0.9520593575031455, 0.3499518146081094, 0.4956956196107384, 0.9691004874018473, 0.9866286762193142, 0.8636648664961615, 0.9141373118472599, 0.5326155798027888, 0.8084957098939731, 0.26223697069291996, 0.09386314503394366, 0.7099185906549763, 0.5839465945399231]</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
-        <v>0.5642262456129785</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.3362075956113986</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.6975104416225238</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0.5081669047029134</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0.2006202501329248</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0.9629059094282224</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0.1045542270576686</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0.002999858159895785</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0.1759490423967951</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0.1068668458360359</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3979,41 +2899,17 @@
           <t>2.5120395231947836, 74.14592503729874, 74.10656388703599, 69.53737625568193, 73.1682891842689, 78.73595006387085, 77.92183171612307, 61.93135531079708, 67.05142213215355, 69.9108258125982, 67.94218484497807, 66.70924033254342, 72.43066831992114, 74.44359253746441, 72.29252885508167, 86.07715765477576, 174.75503011066908, 142.41916094177893, 40.33677687816675, 16.28420566794715, 65.45593833677044, 120.59355429733577, 168.66869331169067, 37.905127055226046, 47.040393566365175, 68.92080284729579, 79.62357628805087, 75.7737749046174, 70.33399961832257, 76.0640484344765, 65.1426289277385, 83.69151074744057, 82.19900054209698, 78.00580350058928, 58.71473371446209, 74.08923145786636, 68.92185696446536, 72.27360642150474, 76.48459017880494, 151.95356601859126, 142.56281218897027, 152.55920461112171, 91.34694562008563, 156.5910644085713, 76.20902677576346, 108.51263574944798, 75.95538415822645, 65.98581436896266, 83.97277903083882, 69.80789741394145, 73.56683365940566, 74.86608061962583, 67.52566027896484, 74.65904752018092, 66.49058827186707, 69.08925499413965, 73.15402461127506, 69.3952426676112, 64.14280513814472, 58.77198979995796, 61.98147846051754, 79.18545382363432, 63.0425707106833, 107.19856063205803, 109.44973190106973, 97.7505151106675, 146.7800561157124, 78.10612805349481, 60.578964608856964, 25.722538282459734, 20.265868157072955, 138.10724018025007, 157.88247248255627, 160.07598207018648, 54.56993351104898, 74.90145938497389, 70.92129343592806, 73.71067270696652, 70.08512405786742, 87.79069813026501, 31.99722573335662, 36.82788107979896, 26.38039814881184, 93.38385413144707, 106.71811258793186, 18.079335707067795, 129.13611897994537, 71.13773520396701, 1.6973700692666447, 53.31874305426282, 104.32640864321571, 173.87710984053254, 72.36245494341183, 47.40092433995639, 72.81178589285749, 72.47451077520837, 69.26606099850191, 61.23878517542179, 78.36263372059045, 73.81188135865739, 73.53418341721343, 75.8952650780767, 71.65003531278593, 52.69829840373696, 57.03999429448555, 81.02288495057941, 79.48507248965977, 72.47745018554164, 85.83526315618971, 82.3701801439653, 78.070590903287, 80.41139317991096, 75.29452204366588, 70.13682437336625, 76.88238734871156, 66.1572356816209, 69.09952154408484, 67.69672952584384, 74.57147916225688, 71.37665746808689, 74.34324722109035, 71.24436280804998, 60.90161893324519, 70.02903796843984, 59.25573585088514, 74.07994305420475, 71.11647990377438, 110.52269114763621, 9.345585741085607, 60.12031476181861, 167.7623118553106, 151.7083588029664, 160.45482270484078, 147.49264401652925, 46.92912815657039, 92.18534108631164, 70.31553618611315, 81.90028036321156, 68.75882205575141, 80.25708736131578, 70.63047221053185, 69.68599125029733, 67.89312824075516, 65.57040597243747, 68.87839439191605, 83.15509766462502, 55.04188014509224, 57.80918269096893, 72.48618194828002, 19.227939382669415, 70.35981296659544, 74.57920861454032, 66.12639205724479, 67.33690994740954, 65.56694945235198, 69.07767308955671, 64.18584602735294, 60.884097873801316, 81.86000511701566, 77.06767806545527, 84.92101283435358, 82.7059311509973, 72.63239665469058, 77.99128169178995, 76.1221867799339, 80.96937957870024, 57.76840174096271, 67.61694252911742, 64.37232517632128, 72.31693387122141, 72.05899091840256, 70.99568314892932, 75.97523189832273, 63.29741758162829, 58.57918404506471, 83.12996185206434, 88.61701243029711, 77.911995201625, 80.69316706560676, 73.54373117471489, 78.37617882522461, 75.53618833402084, 74.295042152492, 78.57138586794069, 75.56801184861935, 21.004616927713734, 137.1302260004867, 22.11801026391081, 80.80741002919945, 69.12972297776903, 57.39698793381464, 71.78510861676725, 82.67410815054794, 61.843417304776494, 56.83022876174235, 69.69705529352831, 76.0281095052006, 73.59537814366139, 77.19072698369101, 73.1038330128618, 73.88496162636419, 73.95797219678282, 68.43557716155996, 74.18292350880353, 81.81506970622333, 62.694432295615066, 69.18693048871829, 64.61343613104947, 66.22219134592694, 72.86599595659392, 70.7822340529658, 62.33001995879441, 65.46067752583721, 71.09256488709437, 66.55398288357738, 80.88432762414372, 59.895975519871854, 63.26372713211915, 67.1530339388061, 69.37900735447448, 68.19746454243875, 78.46795371521846, 85.32214564793784, 73.54009026590896, 73.78051583561995, 68.0364095338727, 80.20917726953988, 71.34873097015598, 71.41508577061414, 54.82018715539105, 71.07827970151573, 64.41690789297665, 70.97866340368269, 77.44660391915295, 81.37340886280363, 70.31836811035059, 71.43529281942855, 51.8439700367126, 56.98180664405395, 71.80626062027241, 72.83703265043826, 78.00306361032705, 60.298125146473, 61.62584979865814, 70.2661649937287, 80.34891994863216, 66.39041972266581, 78.55654293722124, 69.87027152147584, 46.78749036712532, 44.38638870427615, 37.02740625650236, 48.02761968251116, 116.20255108526544, 100.21383502132407, 122.65986585143528, 133.83580101070177, 40.99162523585608, 47.72266593590414, 37.79569633634668, 77.63683242234804, 77.67194398992962, 74.90931099326308, 58.070672817115984, 58.13820759231751, 22.625263906974855, 134.15145687197517, 59.88445836637994, 76.29256092792868, 65.38888948912292, 72.77542328930704, 69.38559240115728, 54.93740658724216, 71.62443775421633, 69.92999891343672, 80.1433298771438, 60.61029155131455, 62.92919631811135, 61.760486304337014, 70.94077422779714, 131.60592455220527, 103.82436903497049, 92.69238978124919, 123.12093036519448, 63.32200683918423, 65.67880528241444, 67.24054956948959, 66.23465440494132, 64.90030924222644, 82.76696322057911, 82.60545771705635, 81.01455442129007, 79.02216834889673, 73.40869943728278, 71.65710333808931, 71.09816232778034, 71.08984273095274, 65.15970505243703, 79.67810794526679, 58.51154340043787, 72.29813879697181, 75.67529046531665, 60.31838017977751, 72.91017934347322, 69.94258238242354, 84.31189801576058, 70.08000532462987, 55.68026899685724, 66.34306704585158, 74.40326160603028, 74.44199520819414, 73.18677578089428, 79.28171888074102, 77.10723918204343, 91.99096130716578, 62.05977131551234, 75.8344571606504, 80.34391099425916, 73.76469731549504, 67.12345468946903, 56.65301616564261, 67.9564577250424, 72.56703976205411, 64.02801404250174, 64.61880438494994, 64.21463877854544, 77.02213003742294, 94.7423596291964, 78.20211728168049, 127.01225098222885, 98.35271761308874, 100.62085447316369, 157.04544154209432, 109.49422900405645, 113.24978713909108, 116.26176850539404, 124.1513696709656, 111.58498523330152, 113.794056001555, 97.8671223299526, 28.885283645670057, 116.92964829143027, 29.26981412038199, 150.4609652238948, 134.96391519599572, 159.40785305165997, 56.676205920111954, 116.41607175830158, 85.04864005725837, 44.23538661193257, 20.194593000962563, 34.091009372887484, 13.99704328189364, 35.252211092244515, 22.475525545342, 145.57326961180019, 68.04073191951676, 79.5116262199517, 84.6561783726806, 73.70599322876372, 66.81196860747072, 57.130924976961076, 74.8626034107055, 72.68135478481999, 63.23582893913795, 76.58228643497587, 86.47784754988747, 71.86679867559579, 60.002073826920935, 69.59759532556629, 77.48934001843975, 62.05731984829428, 76.47795807503667, 75.51522093442671, 87.25113570386098, 64.5975807140047, 73.91480740668142, 78.5959256992916, 63.70001762357395, 55.73611557733402, 81.88010466854509, 84.43012575373207, 73.90533834460912, 67.7833122754775, 72.62163164545713, 70.65239625750672, 17.928142068889763, 46.403302917660056, 22.097194155996068, 33.09036400908318, 76.82728943472205, 80.06271976192497, 94.49302952599119, 72.29601737193993, 74.71798896844365, 70.31010806252836, 72.81944207216348, 71.72697559563287, 73.68698157290997, 71.66862540306605, 74.3945419523548, 64.60105301397833, 73.61498706909165, 68.56212057002799, 68.14751431354091, 66.15611638133564, 76.10457210683657, 69.69921453964704, 74.90546849488258, 73.64045604442964, 73.06087333413625, 71.59269364392813, 74.11029690156512, 161.6423353973006, 176.4977289106693, 140.3117872723087, 164.11786238728033, 75.8442237021708, 109.04277236103205, 153.58543665625746, 95.8866009357751, 139.22376309902364, 141.8074001235188, 106.86202839798906, 47.85309467924213, 106.64860513377538, 66.37733036518429, 52.46276560149902, 50.84685900778513, 63.49202350048854, 53.2226253160541, 87.13349722561405, 77.17710669240486, 83.6348663585497, 72.3398114642872, 81.12695002189963, 68.1831812503646, 75.11314628717307, 62.454081821148016, 78.94095370160801, 72.34711862672526, 58.959975671005516, 82.4078308369155, 68.23269757644438, 68.92321721012598, 81.20132254099313, 72.44149452551682, 83.07858625864091, 74.3141248820151, 68.0503652911325, 72.87683392543929, 76.21740215158793, 85.41352104552958, 61.71263350236643, 58.50608666347562, 63.1129208807572, 67.73682454464372, 77.60571959954581, 80.13488632859006, 57.85774713293527, 70.17108442362411, 134.43452719711448, 92.5357891162841, 42.004767250787395, 52.41045807103381, 56.63552951512088, 17.366946466300902, 44.14773393223001, 8.207644101072638, 107.88731496861156, 87.38053476727131, 48.876141614847384, 73.2481383625406, 75.40901486112914, 68.86110011132948, 73.44632396928277, 70.18434803790105, 73.82838521303123, 70.20838874011187, 76.12116949388911, 75.00622085795091, 79.36203032728487, 75.96875890592725, 68.54518882488092, 77.7046001687653, 75.4932129704256, 68.90456484667874, 74.55823800234324, 68.6126559002606, 72.68962745715551, 72.03648011922797, 84.28468422626815, 81.0262330867777, 80.4808177944974, 79.69384599522672, 75.16493339570697, 85.07583508962443, 84.90933948110813, 60.33823974293648, 78.1250227979494, 67.6259967884059, 69.18734675879685, 133.4813584953796, 84.35327367229785, 99.72504670167093, 130.4428277808406, 92.3382129282181, 96.17190187555731</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>[0.08491129181843748, 0.9659204567690145, 0.43451142327257075, 0.1404645851595515, 0.5203271632165676, 0.8097737408854504, 0.11503722074192868, 0.36198610167983636, 0.8680431994699321, 0.9931005922659285, 0.00453489808928742, 0.8462457276217835, 0.11762432177565407]</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
-        <v>0.7197263949835792</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.7204694858114364</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.6843945387132906</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0.1678869772771707</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0.8630828746765662</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0.9720415411034213</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0.6653903631261143</v>
-      </c>
-      <c r="R47" t="n">
-        <v>0.5674688677373758</v>
-      </c>
-      <c r="S47" t="n">
-        <v>0.4125951692584726</v>
-      </c>
-      <c r="T47" t="n">
-        <v>0.2427402235396976</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4055,41 +2951,17 @@
           <t>78.48395959519144, 94.8803943294244, 76.99249669576866, 82.18459162988421, 85.62726997290109, 91.12592547253165, 76.39713730093871, 78.86047048953007, 54.021216681167, 162.0821055897047, 136.96314260125988, 87.99715491530824, 26.61250354362787, 80.28200316083885, 79.29799787765643, 74.49875018774738, 87.11875155583691, 80.0742472886401, 66.54276863025126, 75.2330774353894, 68.58017163027736, 70.45456094329437, 71.85233864634226, 105.11543625860553, 88.66718157945152, 115.14261731910013, 127.35436704464968, 93.17749143762005, 69.5647866182121, 66.98467046130898, 69.74116720311328, 70.6489790216822, 78.73635434674267, 71.40673428084908, 43.130201774370875, 127.39471442719567, 84.85366469014762, 56.410534279518664, 87.14651426938009, 25.62177305262774, 80.46468894946602, 159.84941738396628, 144.4831342619746, 65.02754840242697, 76.37733881548371, 97.07701446159567, 66.32736647227027, 82.45243822674131, 56.78454096131165, 63.77453017481872, 67.53954319717622, 45.62944813022135, 49.7640126514611, 79.0326715048093, 72.81261878232313, 56.274496005201, 86.60471656692968, 84.31105619893722, 68.08942270063255, 115.89683215653287, 107.12948793724624, 11.61188386878528, 158.9453874029294, 165.9018013918812, 66.46739454130869, 38.541006848239896, 36.62632072951407, 49.629455890206906, 33.63923273725917, 117.80011406883975, 173.22541162975736, 172.94067160412774, 78.56727925877632, 77.78346212000925, 97.82603101386653, 85.52383360448631, 83.32354493935729, 74.93789685405481, 83.11365937934828, 87.52272176033735, 57.93944741802376, 88.94936751708046, 83.63587937806703, 93.08092647091676, 77.99530159873181, 77.06397493177161, 121.87476200097872, 154.68664339258237, 171.13345950634985, 88.67888208747854, 65.62826237000763, 52.02499226172654, 37.51449513331001, 27.62544775033013, 48.070634739335595, 44.45913710878832, 22.58924797322733, 164.21817024339413, 151.09609198185893, 30.400743411603866, 68.52580992889912, 135.6621482009789, 107.25076874328542, 37.756873976050784, 95.29951042548471, 68.18085054910762, 42.979760742200654, 66.82459546607943, 34.55421628100183, 30.59829146025197, 103.52783543465769, 90.48064596674466, 82.59170968402202, 86.91791104714721, 104.29054193306442, 94.57957029900501, 88.3717942297463, 89.43941130709892, 73.1592872525346, 90.59156060955173, 76.81562881836709, 77.02755944236084, 95.57987482091366, 90.09831876196708, 83.40682429745635, 108.78104072684782, 77.1768128054602, 77.39706480983591, 79.55046157658442, 89.8825376098145, 96.15361267367916, 82.61922468581898, 92.62075434669462, 50.27736402015531, 140.54260996792286, 72.72956028782122, 95.51462425480756, 48.28860510967721, 117.03968472651202, 41.41392553828907, 90.73457547678436, 43.879193822286965, 76.08460728604877, 63.193079819060245, 69.28027382877754, 68.26930075729202, 68.71146572968836, 71.02370473883077, 86.34669431114568, 73.37309300882757, 89.50209681953264, 77.8957326967999, 74.74587068713952, 80.70735009549036, 86.91894678455994, 91.19887117357769, 75.40786816786888, 78.54885583077744, 74.30220311928477, 60.902143578669616, 74.89571896532878, 79.24494566906282, 88.52887333600816, 83.25602654774396, 65.01794777572702, 77.27062263296621, 71.8645616143539, 85.42938001186738, 70.65988951320045, 49.94145539094952, 56.262660737308856, 74.64692187212897, 83.47211050847758, 40.090893983887206, 162.32413388098126, 99.72059232138675, 3.0399901803923037, 97.51811231676221, 78.35592670523447, 35.930670731441246, 46.72203019003209, 25.055110326399674, 15.485750563560295, 21.357354239282337, 145.0733017679093, 20.931199835388387, 81.19706925469956, 31.068438225257687, 75.89574288388802, 20.927574254801335, 43.52267002006446, 6.812196996573827, 41.88737441876801, 65.49593912164215, 29.868601805895956, 48.162259691684156, 50.553275556500985, 62.35744834990402, 32.22357168159345, 38.31215852109617, 56.25176098649679, 27.32765209510702, 84.5203321113861, 78.46548014560747, 80.03198328641476, 75.65701022534245, 76.99160994013334, 76.84238445117624, 79.54317965697875, 87.1057519695631, 80.82412189543837, 88.18412419511387, 87.26222139655177, 80.68373677599648, 102.05000414817138, 82.65195366847556, 84.45881415628187, 88.14576522345399, 90.36507337749238, 92.97769874026997, 85.09214214058852, 91.10915183480496, 78.66069537398573, 89.30809557542534, 31.25411672159335, 10.84883353734272, 64.44309954311952, 151.884545273071, 91.20719627759715, 111.2752912610839, 74.76819781329783, 21.9179585750116, 88.21988789489777, 60.44080838822865, 96.23241788595412, 132.1000185110673, 30.790322523410513, 141.37763168419954, 63.25504312418352, 65.34539070268981, 63.637284374257085, 62.565991301947854, 116.71344685317527, 138.4930209130189, 84.07761303847757, 94.68566862888754, 50.29893520217775, 97.7649064877046, 85.82434001162353, 12.047040373376705, 90.06273813901232, 91.03045227439583, 90.33014343337227, 66.34827556271509, 73.37788931029355, 75.3714395459521, 80.33793230759827, 80.04577393146613, 79.85839165714643, 79.8302860860321, 80.93329597430602, 74.00967586048766, 75.86531205546416, 66.32228186169422, 90.54939282568452, 88.32575099369643, 86.59236330430545, 88.71730493370666, 83.07367405269677, 77.5478062503685, 96.95406812252196, 90.08000779253156, 85.8605335092493, 83.92319655420879, 88.78816878920442, 92.27216987245453, 89.68902802249752, 89.05434588546822, 89.43644247897068, 79.5515983727938, 93.20333380505241, 86.91908637208586, 83.70315833057803, 85.88925973073299, 79.1554057877556, 84.97340501295471, 89.67484238966206, 76.47505759257864, 78.61228220178452, 69.86867848248717, 88.3648825877419, 78.73802226059794, 77.76068199285857, 84.71020753838539, 82.97728890255412, 85.93508098240127, 76.27259340425024, 68.81082464099283, 75.70947764384889, 79.19937062883861, 89.25967748282427, 109.26933058529289, 102.62020176329192, 101.46624589932016, 111.36556840009403, 112.55744645310324, 113.6537458733732, 116.01068455820828, 116.83743200713214, 123.81570050682888, 100.28808152332054, 67.30785702109384, 50.185560384865845, 36.04457789462447, 139.60493824972426, 134.43921556201124, 123.62580675741826, 14.098165108204313, 13.682331583050814, 177.6551592905402, 94.23198043244238, 93.32644708808628, 78.76639935041676, 146.82922242433594, 23.89189052001092, 18.841111439449087, 20.455703913394874, 34.787904134308256, 55.61360277357805, 69.57133762335002, 47.64274049055148, 41.941975223634444, 69.10648044811253, 76.36688132847303, 97.47518209858566, 84.96172092092392, 76.69448881170752, 90.29486073786137, 84.12535398949443, 77.60293156354456, 73.73435052537778, 92.00946690394451, 81.5747440740773, 82.79631924096162, 82.01448242579863, 107.13663810981463, 68.71195881021453, 65.38645837362702, 77.01518191871988, 91.16241253635353, 163.5212367049152, 41.16227120224383, 95.75970117323993, 114.99945530794905, 136.31383005352598, 44.58516486504899, 43.150695658732005, 58.87384157578248, 83.78592557691499, 30.13517710194921, 83.33157674409715, 59.128075849405114, 98.08434895946402, 83.20059567458028, 81.65578049839655, 96.85096893927293, 82.8204705903853, 79.0189586053712, 74.6055423000019, 78.27788163100352, 77.53155180285323, 76.48985037181166, 87.17912294595804, 72.32462836773178, 2.9538841379469156, 127.84801343330649, 81.50500363452807, 127.82814067968117, 111.64792772535147, 128.51240418396284, 42.75979176055341, 30.642196627502642, 135.90615330901466, 118.2138436534969, 138.74420619052418, 16.000738626530538, 46.01899042072878, 116.89732397886743, 91.21851849548598, 111.35062969924982, 70.95987593873137, 68.751786770897, 56.88523308351412, 73.98150638051162, 63.67835812775706, 90.22817767954878, 75.95100512882898, 80.1168632877035, 95.12279163566679, 108.07807318562283, 105.84927219779657, 88.17081220673627, 66.28509631519316, 86.58148265428882, 92.49573240303866, 98.77532344334699, 68.29928175881254, 85.64788116420824, 74.7849397716715, 81.21895338664103, 71.66118098183073, 87.21619254616725, 88.86614461453148, 71.06109248408248, 71.20080659437316, 87.79822723701216, 94.58143509976574, 102.48062248991182, 88.09931419315878, 76.22692958991809, 74.2846364829221, 66.25527805192867, 89.02577953468328, 91.72059823789571, 78.11291154933153, 81.2172976072181, 101.622376607067, 96.977351326435, 82.26579051444254, 76.71920583319212, 95.37689743881812, 74.13252349941382, 81.95941007850901, 79.1493756540038, 71.05863490716293, 89.69083106390629, 94.6541630529341, 95.57949462302814, 89.3936775846954, 85.35070795704868, 83.05518377625329, 98.72851317954746, 77.366397399448, 82.49168503802476, 78.3859019867242, 79.99924766692594, 88.49512167644923, 79.46721803117579, 90.14110614947614, 92.42851538869976, 78.6491542896164, 98.44838193227419, 87.09228056426717, 87.30877928571395, 72.58198320552339, 83.91564932757404, 97.24385014402208</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>[0.8675907998630799, 0.8631069708050156, 0.41202254313671083, 0.028576985210647887, 0.5977093932165569, 0.266374680200124, 0.7735437872940465, 0.9776944134276869, 0.39798647412120636, 0.9630302879090212, 0.06436045766491905, 0.18055712773235733, 0.40425827932729985]</t>
-        </is>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2709864211083014</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.4612514670581108</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.7760428401991315</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0.8816879092823309</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0.9049600365556207</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0.707047228520255</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0.531040601636833</v>
-      </c>
-      <c r="R48" t="n">
-        <v>0.7881017608942217</v>
-      </c>
-      <c r="S48" t="n">
-        <v>0.6865186023248561</v>
-      </c>
-      <c r="T48" t="n">
-        <v>0.6457839449288159</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4131,41 +3003,17 @@
           <t>76.94116281165137, 72.11371310968106, 70.85256592353613, 64.68846075213784, 72.20096290889462, 87.68339204790516, 85.62393195252153, 87.8888283651039, 76.05164689838531, 57.627895503787244, 61.57780331808189, 70.13835350823189, 59.74401640542822, 69.15352804591885, 84.20291237353028, 73.12096088195732, 84.69984313517152, 82.68068131745699, 77.05290937223917, 71.3660394302371, 78.42836765682084, 85.37546327415865, 84.84887047624855, 75.20764819367145, 65.87709538373802, 86.03754887720105, 78.23622147032556, 76.76177919190003, 82.44769109087437, 86.66651950034108, 87.12135298033992, 61.97603425987378, 78.80144409488554, 76.24008896730426, 72.22076671468716, 80.40738032437048, 71.46958722898697, 87.23385929832534, 99.20243002061032, 82.94431052383072, 73.42473483729906, 79.34799736551292, 81.55687931959893, 79.04202656520418, 87.5820356946742, 113.074659439191, 93.59924762751079, 91.50585104837965, 102.73666837288167, 80.9350757292157, 81.91994482202267, 75.54632919577634, 72.35388056032957, 75.611889192802, 73.1691651140383, 72.9723172420909, 99.87578006568465, 80.34985999404935, 74.65754956217049, 79.81923119220723, 41.2070055816798, 44.20531854250907, 83.8102344784861, 88.71149204580824, 79.45070920228406, 81.27927038586786, 64.42634659094576, 65.99866734193955, 79.26602501414462, 74.87867197429497, 78.24849182714156, 66.98436876352652, 78.73782537039509, 79.65137291578452, 75.2724728846869, 70.09526394000551, 73.77242697860137, 59.59105213401763, 87.97785397233193, 96.85204213321163, 76.24369799522488, 83.01662026184916, 78.06404576429811, 76.21648354162333, 74.27690387878464, 82.11178535660326, 79.41155354556874, 85.93067038801695, 92.1448418358816, 84.85713901791138, 119.14101530240056, 100.99086683982439, 79.96428994456338, 79.8444466260399, 73.07354486039438, 84.84417293771445, 90.96116461119266, 86.15277059211812, 81.09401876667052, 89.82931057572563, 76.57480825745922, 88.5809893219583, 79.5278032611868, 79.09226058608154, 84.75162153741775, 78.34122379877572, 84.29360444327442, 96.05559754636239, 83.93075906264218, 78.81979465459415, 81.99120433676485, 82.45285752624265, 83.03707994596111, 89.06681604863088, 72.02485443762188, 78.93389426318286, 82.37998332454774, 85.04718809519095, 90.35442575743991, 85.4646688286098, 93.99510282599954, 85.2241020608448, 89.7753215075665, 86.87323520648485, 83.15106875502116, 79.21726084820449, 82.01144267954112, 76.68237672707501, 88.26448610860224, 82.07029994364095, 81.4941959594797, 65.81542087975568, 78.18760687799957, 80.7970264635004, 82.78957849233106, 75.07280254221224, 74.83092792078513, 79.42085010377573, 81.1563811037964, 101.62813876903923, 92.50641369878258, 75.92271663467464, 73.1779712632419, 76.45917470349012, 89.00209722137859, 80.07316010270836, 82.0714068182125, 68.70359724946944, 128.36817697789698, 79.44912792725212, 89.69875807012195, 74.46724972044636, 78.21924875517884, 75.44426458481009, 88.36197870217586, 78.63958583465998, 78.8352247497577, 81.55595373758506, 72.36242835679357, 76.23844129070092, 92.44624903615798, 97.89259417551689, 97.28713040791514, 84.08287570772325, 78.6111677656221, 80.18432682359885, 85.83750102888521, 68.49765805948263, 66.87562188427556, 79.18780033019955, 78.12840762605109, 79.19934843756147, 81.21654180631607, 86.74758337523261, 82.6175242089413, 80.82115684925778, 27.791234345579095, 85.61259763446287, 86.4011642220863, 87.53538621748865, 75.76809104032124, 77.06931003624265, 84.25186341032155, 78.83467007703203, 81.331505673583, 80.07560181140315, 87.49101790265816, 96.97956621403344, 100.17168320248103, 87.16107912543806, 88.15627302845058, 83.76955559780788, 93.02961029603708, 90.69301637120746, 88.8675944647701, 94.10273126160435, 96.67639197381945, 98.2071752372763, 87.06383952244843, 81.00882196574948, 105.32334784503234, 101.44134048795878, 107.51533988081482, 101.5594119139224, 99.3802501015482, 91.03333599137501, 87.50337026378723, 81.4772376802772, 79.03341402302648, 78.83275696219896, 80.8454961660468, 73.23650330432815, 96.53631979872931, 71.00885965035368, 76.41447878736354, 85.33142266399632, 91.33577770780586, 75.44731073307675, 74.43299828946138, 89.88287869681228, 97.59537615104135, 74.94742207903316, 77.42780477217461, 76.33111633241732, 85.09869134331841, 93.2264214851825, 76.79925122098518, 77.63591157173704, 67.72063025829848, 65.92911490962328, 80.90410586335702, 81.97267990817264, 81.17507109702804, 79.21725734960278, 79.46737732359415, 83.18599533147301, 77.69682145879743, 69.36932074550171, 71.32900101670265, 85.51892458086076, 82.5799189543376, 81.31374448667297, 88.01264104284613, 81.05620108909794, 79.7402820910194, 81.23275093807001, 109.20362111681494, 95.46413711105752, 85.97468770994732, 81.69788519429001, 83.54887340220165, 80.02874679161235, 84.7477056033587, 88.45760218952378, 82.07519574821416, 90.68771533535593, 80.35580746820315, 68.6655539271396, 81.94586951799842, 95.28615675528644, 81.65812761015665, 77.45002630155237, 77.69898891999667, 82.55901456285575, 85.4200477866912, 82.09302340858432, 77.16709223787747, 83.95114821026775, 80.45650788693108, 83.66898651453228, 78.03736572079163, 75.63568053516595, 80.19345647380652, 73.38757401441963, 86.27125740026659, 85.22685807057258, 84.69765857772636, 85.73205792129522, 70.09053941429798, 73.70246310253796, 71.3908115611482, 70.24412522304188, 66.98256418273195, 78.66264422210864, 76.49002986231659, 73.70722899469374, 96.30567767902033, 101.76328989094536, 91.7848150569182, 85.94569890755177, 93.0230092100236, 94.13197174146157, 83.30778643439807, 88.39734688251326, 73.08329113175901, 77.14155914155577, 84.25189202168815, 94.79399406460173, 78.2780284324075, 78.31329010404028, 74.28574788470678, 79.60495550701526, 84.0611322967482, 95.87135343124883, 65.96305663570789, 83.38828159718071, 90.23755937461914, 87.59938834472221, 87.45129318527361, 77.78439511535947, 81.23356062944555, 85.55782147847384, 75.49784495741334, 81.81090215074242, 65.67792744465005, 77.11768492217371, 78.77107403302176, 77.41021465821342, 82.15839292625056, 74.96647727836083, 83.55087235420797, 74.28228265858047, 70.17526273791364, 78.33978964824294, 81.98316594296871, 71.03448712004655, 73.06629872150063, 79.11285729842504, 70.73984588279775, 71.87257138033691, 66.94352557410669, 91.8897099090522, 79.03646697106298, 86.05779258857405, 87.64455576439883, 76.08280746795552, 77.58225988947052, 79.39283694411391, 76.8898591475368, 83.32608401968325, 84.19679170881895, 85.67955260668927, 87.84655863995852, 83.32756788654947, 57.813093650350005, 79.14209350527712, 73.10911871044293, 63.221678654817424, 78.99477140933045, 62.80408646530738, 81.15093725534105, 70.7806962531771, 55.254360590671304, 65.09207039535238, 60.6910868928378, 63.14688301973494, 71.45591859851454, 62.577042724059844, 69.74183453639952, 88.04517427157529, 78.20831612573356, 83.19298772297533, 74.3305537346094, 81.99039052219128, 81.22380072612725, 85.69780174738536, 76.48102324551104, 97.08218427082784, 78.87347966135437, 69.31022624017933, 77.64679384980128, 78.80370364108622, 78.77761307392855, 101.51912444895383, 79.51914281259269, 81.55247135126811, 78.88840381314618, 83.60711560020992, 68.25110927553021, 78.75008862917412, 79.48885332201593, 76.90736308448489, 78.06131862285343, 78.31659256440737, 75.54183347767253, 75.93335038554389, 73.21451987258169, 64.0426096341867, 61.303033345079164, 87.04708650513473, 80.51872020129001, 87.08734495199577, 82.26340744902777, 81.20114698536143, 80.87021531451592, 84.43593842798246, 82.42328905504364, 84.6602959973544, 77.84431072141335, 77.86267193920828, 80.32887493382476, 81.38158407875983, 78.61977509595306, 79.87378599023762, 83.9786304567674, 72.50935441207073, 75.87788907547515, 73.2634036258462, 72.02565816794434, 68.9238914621937, 73.56599500049083, 74.88335013019756, 67.98663706490969, 79.8310275089401, 84.43479046243264, 75.21502561395806, 74.3714538228631, 82.04349602226358, 86.66550263097632, 84.35953236775653, 74.26517482707725, 82.0806966904821, 81.16951523391565, 87.30595836703677, 83.82586205025598, 85.7515550144973, 92.24317342599424, 81.66807100926934, 85.77001138591794, 61.36578180976344, 71.42922124621926, 62.075044010967105, 76.41435804291044, 71.07652014276083, 77.04976926354124, 72.06254545791846, 73.42231922123943, 88.36715692798161, 77.9753894726818, 77.0390089777138, 74.79570948842023, 103.89780856874285, 75.29038457538323, 85.43475769403274, 65.06418431634764, 64.97040005892765, 64.78315659479547, 78.04909207534058, 78.82304053453389, 75.96042613476448, 84.67184479381692, 80.63460139367092, 89.00533621724718, 85.00066843456656, 81.24869452762726, 76.58269734413511, 60.794389154951645, 80.27004603356048, 77.14378616480647, 75.46479814433988, 78.75745959571249, 76.33127372056344, 77.07945669322088, 70.24933994991044, 78.04703700954406, 77.30125732217122, 57.97307691592345, 75.14878169799937, 78.77709210229209, 71.94082901240583, 78.09037902203694, 62.38089024439981, 78.08964461203196, 89.39515339837264, 67.87243817289661, 78.81024417611356, 82.81257601458141, 93.12409762175959, 95.58874923612537, 98.94070811074225, 123.23335979044408, 115.04585011780736, 74.67405464291383, 76.60817152966482, 76.17547541006425, 84.23785797220818, 75.35861255368701, 78.03615237447619, 80.99209740738925, 76.47030838514326, 78.44425509460228, 81.2733554359734, 77.27211084910914, 82.00201060585839, 79.27961374332862, 77.92677608199388, 63.630233702991475, 67.3661116627765, 79.33682012056822, 78.07726870988319, 81.29371060032669, 66.46026509246767, 66.18962199235489, 69.45559328471013, 86.95853616388514, 85.47581149963186, 98.80932603411897, 87.84857753757538, 78.35869051560375, 78.14827941596204, 94.02129591463228, 94.21815813066354, 74.27843150548944, 83.32521192239841, 81.96700461325112, 86.17053084937868, 80.54158159497736, 90.50796532814778, 90.29436363698758, 93.79629659361211, 65.42819357126977, 81.57409981273406, 76.9432548195946, 84.42677320831542, 83.11373780792015, 83.22047723806783, 77.36057475709688, 77.33952959463036, 66.28343596320738, 76.13447289529388, 73.27545388844803, 86.06300640772608, 101.05335104045453, 82.61999550473898, 79.1193110669399, 91.16357462730053, 69.6125200831728, 69.47425682485256, 73.38463362420535, 83.38592969052871, 74.87615503422558, 73.49309854628312, 94.08362141541207, 103.77396131705765, 66.32862593781623, 79.69797923778094, 74.80239187559813, 71.95713989280766, 75.44992397350954, 70.50642019776706, 72.87850532090815, 86.35370234398465, 74.5296675988801, 82.23301277406259, 76.27998933281714, 78.84030131745742, 84.97626604700271, 100.40251118381886, 44.466220852257614, 64.29743040641783, 86.24692994164748, 85.04626628034399, 147.74945962664174, 75.40308705458148, 75.06294399790957, 79.37397167262044, 75.8076401952082, 73.73982408576525, 67.00415809829572, 72.60943218972226, 65.97427022408182, 54.77504079931341, 44.493001582056245, 73.9833249045007, 52.09933900588774, 59.58283836557442, 83.4833012162968, 77.41213156745899, 83.73099193603356, 84.22801835387655, 77.05751053786005, 74.53934296722205, 78.47387610091745, 68.44282463818674, 59.96739132385365, 64.44376095913151, 66.83837544828317, 78.13020684721036, 66.6704225762497, 64.04974447075966, 73.12101828316538, 82.07837809745531, 72.43751907676582, 87.66879384110041, 102.45736923458338, 98.29246721860083, 64.60498485626597, 58.78837299476478, 88.55332970191306, 111.75406139974486, 101.77742268448023, 75.49293072643518, 79.08073792804996, 71.33877191099727, 76.16411802542429, 52.2542758413388, 77.62116799797019, 73.689347876122, 85.72425719688954, 72.88673321242817, 82.53219704104724, 88.45292784031989, 75.91929832443702, 106.78014818752956, 111.89258620298232, 98.69270192761289, 64.55800907485465, 69.3262568182723, 81.01607847532094, 63.59850552985181, 92.66253011366743, 71.36168516263122, 61.75234584702069, 111.74053110776566, 59.9654290524537, 87.07521784360239, 149.44773102103508, 10.09304010130473, 68.83262554280296, 76.37302465139935, 60.18034609947326, 73.35371829293382, 55.24034374291378, 59.046688319451846, 61.06286764249591, 62.56442331713238, 63.67798494434296, 71.68943989215644, 62.801697129617736, 51.22458951581896, 89.95597923525462, 28.862936515132706, 126.99151415952588, 116.64560455161426, 113.80370101929259, 116.58683275277049, 119.77574190126923, 120.34525974695676, 119.08491168865154, 119.06282737549131, 120.33795165486436, 120.84562697185214, 116.80401057078589, 115.07098850450797, 113.52917224036939, 106.37569343837085, 92.5033148731289, 136.39764113234196, 64.05970217399452, 89.17618089741723, 69.35525782236513, 59.83350210499628, 73.50902191555328, 64.66053065026954, 71.94026865105589, 71.46718887127523, 80.9057976199109, 78.42282388139024, 69.30056863244586, 68.09648136914122, 59.02504289248379, 63.193005987794, 65.46081658402412, 57.23953324092656, 53.78052109249698, 67.73527376585139, 54.75993230896795, 55.974455108249494, 67.27903322104457, 66.26960332005599, 79.23844768423679, 70.95906194219734, 74.20969055496897, 74.39995382928655, 79.78032663969022, 73.88069005071178, 70.8931925657031, 82.71871112009589, 72.00618479795816, 65.16045399175925, 66.84669199944685, 72.55224095989185</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>[0.29337720417519386, 0.10117633344554655, 0.530451009479808, 0.46799283829194616, 0.7701207489294647, 0.6370696268117458, 0.0428879896673674, 0.4315645713345785, 0.4719575185863403, 0.21967765631241642, 0.6349592485273958, 0.4368113661802333, 0.67336259727282]</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
-        <v>0.2952852678162166</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.7651034351517486</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.03412956196753747</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0.5378863233000739</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0.2602714920120097</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0.6390475654654929</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0.2339617468926257</v>
-      </c>
-      <c r="R49" t="n">
-        <v>0.9231305406885071</v>
-      </c>
-      <c r="S49" t="n">
-        <v>0.7948431245847942</v>
-      </c>
-      <c r="T49" t="n">
-        <v>0.03702541900579515</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4207,41 +3055,17 @@
           <t>86.31045558832844, 79.81636734918692, 83.48366646828929, 86.35488921446621, 86.96522729947482, 59.974293457751884, 75.64883206647568, 78.16229787862504, 78.97705309348378, 74.83209307809535, 84.90383562838024, 80.96765402718637, 83.29933116769591, 83.28734046726998, 93.3496588691073, 82.7896531873002, 86.88739087385103, 75.80338116269685, 80.48700978994911, 77.4012736254784, 76.79750325255328, 69.8648739009114, 66.90745415141431, 72.83449657626436, 72.70371775003854, 80.41695506109649, 81.36177151440548, 73.01014392709311, 84.94941151623776, 88.17645111475584, 78.4464837292873, 81.35182080042375, 83.91221578841602, 68.65632156111556, 80.92585930910472, 75.02114667799657, 85.03654414726796, 88.84123256788844, 87.57965094637096, 83.66288960579362, 86.03840686839226, 83.06551119969119, 75.06661932630212, 77.4200922522255, 77.64620863027655, 83.87729245611361, 90.96523808699209, 82.12383003551943, 74.1708178990531, 71.14767486894984, 75.99697015510773, 79.01792236432809, 83.29764496113809, 81.98420978961495, 85.03158259060402, 91.67901905072134, 84.10806695106056, 82.2660620132287, 73.72754691135353, 83.35381796854853, 79.21355816241878, 88.87579413453221, 84.96553892208212, 81.77439696984361, 79.33019784114735, 71.4952434191024, 61.50215828194535, 68.49301334413116, 83.73608384985442, 81.31117552675241, 77.13734020398356, 75.52951193712201, 72.85094707014456, 81.91002348609881, 73.44163445792469, 72.34821722398547, 78.13736523358635, 101.78223782178421, 85.66771112316022, 107.23045231298164, 81.1534178598896, 78.99896948726246, 77.56751110136317, 75.08610764957726, 71.99806638316954, 81.08711619774549, 78.65608624270986, 82.87241438581954, 76.52047245524409, 80.43323412289817, 78.0660826333889, 64.471833102022, 79.41139591256585, 77.20707989166816, 91.80943608309218, 74.67389701156024, 76.03657927369483, 77.56001838820067, 72.95902369417816, 78.30929079770733, 80.90219287614224, 75.28714468837046, 73.27277419892235, 70.86021444467386, 65.07181665952187, 65.70033850820865, 78.38067738513945, 80.05055608232303, 78.76346387477581, 82.37263646133431, 82.53023463363023, 72.03865211179892, 78.16007184916828, 76.67579414813412, 79.93389719846395, 86.10318521567464, 64.72448916636894, 64.75425806885482, 72.04876919280312, 76.9235160647368, 78.74959612488766, 80.42028709122108, 80.92472647861746, 78.8438562281477, 79.77468346829815, 81.34421982342437, 82.10827344996873, 78.96437533570013, 109.6908768179771, 91.32417387304825, 74.91695314629156, 74.60965311785885, 69.67319118235847, 60.42008382085511, 82.17617808499695, 90.34500314206703, 81.84905063674626, 83.02923464181201, 78.81597486503006, 77.48510541262765, 87.32467011626889, 58.188964859973, 55.521102017633986, 70.87093014370707, 67.21647847067416, 64.00538950925254, 67.49176362734195, 68.05971951502205, 74.57124159648092, 72.77352277055877, 57.37755439952548, 65.93487938561398, 71.11604957725844, 82.57702863430279, 90.7882263708782, 86.38126645674613, 93.69381407115034, 96.53590075837234, 57.912031965391336, 54.19578919171802, 62.924106807249615, 63.524834266668236, 66.12728159083025, 74.12837174051253, 76.36508132862535, 78.38392525916403, 77.92641505992405, 89.00504164693879, 79.23409599855835, 86.80865548861024, 77.25110154078324, 83.92954634834366, 73.50345326928544, 79.62747440297466, 78.44541021352835, 70.13911374983824, 61.208200771223574, 80.28702778910677, 76.90789300202323, 73.92678271696633, 74.06654079581709, 75.00426974342128, 81.68942944189492, 69.59275936409269, 73.65889293648085, 73.02313808942425, 82.86249268854985, 80.2441179069834, 79.58659388350151, 77.13311943098317, 98.60280166035884, 73.4111200325751, 54.209283411460326, 68.29286841577017, 71.92506329195751, 75.06913292980046, 89.68190512963537, 90.01521948248899, 85.34752673605234, 84.83115097938789, 83.3011411114126, 78.44574018236627, 75.29065125203132, 77.68978820886286, 74.21412943425592, 70.46944524079412, 76.33853540076991, 99.59831998597272, 93.44188260524136, 85.58531300868391, 73.2931100092083, 71.44879569204382, 73.99334464673821, 69.88525860487708, 67.10465602279635, 90.43974853512248, 81.01516123383173, 65.4570936044151, 87.50274812362133, 73.52216206229016, 65.11892908623867, 66.16219654286611, 66.71119196294005, 71.7462051701911, 64.20604714378673, 85.45162173644708, 86.5400542869611, 81.33965978399966, 89.89570060790072, 113.47816403804435, 84.60875414413152, 80.2024723540896, 85.13749587214035, 88.24412356327254, 84.4539354812071, 76.514878600543, 77.20184947696605, 77.55877976452949, 75.20687475020858, 74.70213215554435, 73.74121121234906, 70.06603275584622, 84.04666436360681, 87.10875409826092, 77.29735824353004, 77.67398833229865, 76.81680567457639, 64.54762562572674, 73.31181551354148, 64.94178666266475, 64.81736563475289, 59.68052473390433, 63.91202017835587, 57.10777714914955, 48.679203099298896, 56.38499837274537, 71.07785590069244, 79.48638868557194, 79.6008288192305, 88.16518494095665, 88.1856320984473, 78.87057275126408, 78.118769663367, 89.16655326924159, 88.09174359531363, 82.90880603292285, 68.47168375532223, 67.39074050468031, 71.65400776140626, 74.04103183897787, 60.27993001160636, 68.03005154399129, 76.35095305381606, 91.63810890998982, 92.47846811224669, 85.55196347897746, 86.51780932761915, 81.52917469650887, 80.06482895674547, 71.84121434809732, 64.04742280790511, 69.47793799116698, 72.13063361357199, 72.53143524591268, 69.08698237942171, 72.5583608753044, 82.04387468570845, 72.13227597676531, 63.585500793498525, 83.5025317720218, 78.68616963657952, 91.8799567714357, 77.56284082387866, 77.55636492749832, 76.79245627363642, 73.34201553485966, 74.18687492043324, 75.8484381867897, 76.75398616534544, 80.52205061167069, 78.22874263134567, 84.75194323889485, 78.76872650172622, 79.60919154817994, 84.16280934891789, 76.11073234824354, 65.49056522605397, 67.69090188539528, 73.5138289514649, 69.15934394560642, 72.31992037171267, 83.2033930595193, 69.27049859743143, 79.23960626807141, 76.16898942505378, 81.66660391787443, 105.90554810065731, 70.6222970646766, 76.0382946870341, 76.11564185792443, 70.56963679430005, 74.1263339937291, 68.54280360474473, 58.60173904879274, 83.33009336010404, 73.20903906817891, 78.01112590202304, 85.57946508255229, 84.77244712593934, 85.86989408103436, 78.90718060612627, 82.36887577283507, 76.02901381052573, 71.37132922091949, 83.51338731292628, 79.05048689942555, 75.3347788531964, 85.00637552986429, 77.42753355475953, 71.38210370876706, 74.00364322612327, 67.45565759497525, 74.24312438219786, 90.1359179708248, 84.69774597414336, 74.28780759862096, 71.62107151754131, 76.43821060045913, 73.6879954706556, 73.09421885840295, 101.12070345428005</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>[0.46206787446877395, 0.33171270602272396, 0.7487079904573442, 0.7123070140173922, 0.17019189691376413, 0.9717426423598761, 0.373957369936773, 0.6040274703497552, 0.7668815975612823, 0.29223511491238474, 0.6853213181209661, 0.8618746004640973, 0.4424008008995648]</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
-        <v>0.6515633457452112</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.2659321531322979</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.9589637894264219</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0.6103301105094687</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0.7411456260580522</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0.00516319935786147</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0.2565813192441672</v>
-      </c>
-      <c r="R50" t="n">
-        <v>0.1022350045092109</v>
-      </c>
-      <c r="S50" t="n">
-        <v>0.2170597870384575</v>
-      </c>
-      <c r="T50" t="n">
-        <v>0.6506782030212575</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4283,41 +3107,17 @@
           <t>74.64839189536336, 80.20194483185335, 81.27216508940167, 78.82927498865925, 100.93970734790355, 91.12253281740155, 59.02100513376002, 78.96401438102521, 84.41302627973573, 81.86063668476199, 80.38345492040685, 51.51826435718495, 7.9240626546817765, 105.37136132628687, 57.25381393587951, 102.42076176379773, 74.69400119797193, 71.98189485353836, 75.90750325546148, 84.30451604236197, 65.49774738245429, 84.11934502644628, 76.94603096857463, 86.16749868607062, 88.76418513887333, 81.43319573846176, 78.9191744286871, 85.3059430032459, 79.02812783592242, 77.18787576831357, 77.81849103002068, 23.01384428913377, 76.21245743506356, 74.50446613356438, 74.91258636566654, 70.19121223122703, 73.56305308542262, 74.44537502680744, 75.00538256382148, 76.69204275091704, 77.11080585389297, 69.82023360701736, 73.37297445902873, 68.89511868923672, 69.10383938462768, 70.48668755864674, 70.93704771665037, 66.12959871487845, 66.01550591168943, 28.911751280433524, 6.119766657654795, 36.85434934832614, 71.1596320522445, 78.01949772996787, 82.61950591008971, 73.34320352720502, 73.79557009796407, 76.1464652046307, 78.65200919209532, 80.85200646799498, 81.0603240662198, 76.62536184547685, 85.20036035321759, 86.13144753769281, 83.81661924700057, 82.34270049960956, 78.61542278514214, 84.54748231598786, 79.07565260362436, 75.86345747484499, 78.28958816629817, 84.27688208411809, 81.89735040185448, 90.01025937558639, 85.16957185927309, 86.23588011463802, 86.15612618166848, 89.35224512621967, 83.60536485430346, 70.18119768147393, 73.26673998236657, 85.22248418618184, 75.44939418721366, 80.09116399238943, 71.48918861644506, 83.47297792589256, 82.08896031478243, 79.17505988966923, 75.86955417522226, 80.08902913208914, 83.25170092901804, 79.17289307568414, 77.08691533720868, 77.44139373374227, 82.24440609419966, 84.42960244532894, 78.8567828809398, 87.95244797622156, 83.54654999321129, 86.56045637710795, 84.18974302064714, 86.5934837551396, 77.57489208081428, 76.17133637900935, 75.049577017389, 75.56745131206725, 79.40311034290946, 73.72501501647217, 74.1466738308593, 70.19033506469898, 79.9166090390057, 73.87967629836481, 73.78972643477448, 72.82319146431992, 83.46997923232706, 77.41154000912746, 73.61560574004459, 66.87248997718018, 76.58077528184934, 74.8424732472034, 72.93628946319275, 77.81925763231715, 69.95457178996512, 75.57317280873912, 71.97343203541193, 76.88746659497046, 80.19440290725895, 83.34487689124725, 81.4081916301629, 78.1053726494766, 76.8286534628863, 78.78890643219655, 80.46217363896194, 81.33887965382524, 80.78407944949826, 81.20507149202454, 79.14313191874878, 74.30470365628213, 86.55040464131287, 85.87796425397262, 62.94131024177925, 62.50884930920133, 74.96891016408529, 84.12270182659043, 85.06800929426835, 82.94655887496086, 80.16112566018029, 110.85516689168398, 85.18156728836236, 81.560861883473, 84.91767636694055, 78.03878022202771, 83.64727420564687, 89.81672958533619, 80.81481465061664, 81.6987991754571, 85.80533812367304, 85.04490765336878, 79.43956802408377, 87.86654481639346, 81.8846125157108, 79.06703521575025, 81.89192420060729, 62.2045553927337, 69.26353726285846, 80.35935227029641, 80.2371723680317, 74.12112951494791, 76.39467650806776, 77.2029686698832, 81.76969344274212, 82.47527131193365, 77.10827222600581, 82.67718869568252, 86.26136076935506, 91.13834741161774, 83.8478728984727, 84.16371751509512, 85.92973236407995, 88.13816134713113, 90.58268572194761, 97.49133319216439, 97.78206765247661, 94.27800283804227, 99.23275058569057, 92.59962666850919, 101.83254320862166, 98.20045476634827, 98.23258589132703, 97.67028334623257, 98.16599297018442, 95.1448303483864, 89.62215958521969, 62.09186680331767, 79.8367793940535, 86.38886811150874, 91.91737816850038, 94.72806420193608, 84.28846095827936, 86.59235207934739, 91.01103627109826, 89.81769717300246, 94.75679252034237, 92.98010227593619, 92.52893351383014, 77.25672979252063, 85.56911753942768, 78.55425985032826, 81.04262811784005, 13.952383839794054, 155.26464752712104, 84.14970274394179, 71.77217115333436, 79.9323729124103, 83.55995698635085, 83.35453261134772, 85.7260358790075, 94.22409995265974, 94.19466704737916, 93.07181982328824, 72.58927181287989, 63.0826402051086, 82.97931949779523, 87.14716393657243, 91.90247611775933, 89.34437557458091, 82.31139512915081, 76.70034155319114, 80.4584774352946, 83.38384715276403, 84.2795806523815, 79.13342118589495, 75.05850351572347, 80.75140772903744, 78.05391678662359, 71.57944047806846, 77.90171102945509, 67.72643247373499, 64.33837934670653, 70.68529595883376, 73.7305223505976, 83.45048633891552, 83.63791614423617, 78.75883821308214, 80.65770524214156, 67.20715565016333, 87.93247668975599, 80.3379756695929, 75.62279140740318, 77.45368964618969, 77.40259884769874, 73.19708129888575, 79.80620750101309, 78.05101928969123, 73.58536162428146, 77.34444889113725, 90.36455709598052, 93.69273176439246, 66.60868950160115, 81.72259019361279, 73.99123523644197, 83.66737776572752, 81.93055729173456, 79.42581151305187, 83.79393485391381, 76.65561196747204, 79.6726939581942, 81.36214446998605, 76.53587881680077, 84.75413147888452, 84.43962036862145, 74.61448710917662, 76.0832967914454, 73.28082933925641, 92.53807807826729, 90.65330251758124, 79.29434231909562, 79.96624417376154, 81.94693211290182, 81.18241752581514, 81.32844534417205, 85.68756132240648, 76.63931899820571, 81.97485952134599, 69.7286334633538, 69.4528302009785, 71.0348770772082, 73.08751472158981, 73.3589446648346, 77.51124913328343, 70.33987275267721, 69.34788485992063, 83.38308351773192, 77.68099021026859, 74.25015296871545, 79.33476457382874, 72.5430799469992, 72.26605400343458, 71.7589710944682, 71.70520264710986, 73.66952412834027, 60.02129990997741, 67.66518569112267, 67.52024195794101, 62.21554676095966, 71.43552316471533, 84.97980606729303, 70.71848248637454, 84.80640322266082, 87.82279827742519, 82.7275426699668, 83.89998699381844, 85.64111924685362, 70.76297844202044, 70.02994863488468, 73.49299033976801, 79.97757448855127, 87.41245884130996, 78.71239819405841, 87.59800495450017, 83.97688073859571, 81.11941526930634, 75.72454389933334, 77.79872162457521, 80.43666053336787, 94.54166411075187, 88.73663460291519, 85.3175128598813, 78.45152257263946, 93.76061277539544, 71.37556820376926, 87.94130726924915, 69.4743076997453, 89.61198819258277, 80.19986918746467, 89.18692777501397, 98.35959935560555, 89.30008980519, 70.33641790411424, 70.16032778439389, 92.70520245471306, 102.92333541206453, 103.79179693078154, 71.71650233844237, 79.39159156217015, 75.75472527317017, 70.36342598317135, 90.28966244573066, 68.66377693252782, 85.49652262862064, 81.4246544840517, 76.15019038712178, 77.47572019850087, 92.59441492366469, 71.09922769161298, 74.6346732011559, 70.20411445966893, 70.10429881444965, 74.41665351939781, 70.00313538029826, 83.44943008602385, 85.69855894469303, 82.20771853258502, 66.3494095130301, 71.08711531074097, 79.81546328726971, 79.97466351870337, 78.468702218437, 78.97431153825303, 78.0445405455497, 81.4763846138837, 102.62201919584464, 87.91003902953008, 78.46078329126372, 75.00277997878216, 49.29045428681588, 53.76897178216988, 61.45282809388161, 55.46944431801517, 54.236461900347486, 52.90549309131545, 53.80147761555192, 104.82277420081911, 96.02177904782727, 100.90622674311457, 93.2922516182821, 117.50244974943976, 123.70282225480969, 78.37933716156306, 77.82163100886856, 91.65121921587688, 80.82141801403759, 108.700194336659, 88.81579092060427, 77.07386078731224, 82.33473464204822, 90.38684952102795, 77.69819604374013, 83.17374442785237, 80.8754191737721, 82.8157404803871, 75.08232283611548, 70.19504831921573, 95.75131514068941, 75.89167749917496, 86.10994877858494, 65.24672629801924, 83.97493735650332, 88.66459414196741, 81.92593946133988, 79.09986663571277, 74.14962224579888, 70.27438898754903, 76.9110289994285, 74.99911571226508, 88.06330095237189, 86.9775358224032, 88.14074913795392, 104.63396328712714, 94.42633720754219, 82.28216171085217, 81.6008181046291, 78.72079049905486, 75.9606593104277, 79.52122065785227, 82.96070872048973, 78.30819103440577, 77.06993207139813, 82.71465819772743, 84.23196192589266, 79.66224898813901, 94.61487199996762, 80.9416637318803, 97.00611457391445, 88.75491046934094, 88.8230431428704, 83.3348197024326, 85.1217855240561, 100.77476304028754, 103.22982162454875, 80.60472365863411, 67.76218727350923, 80.86546175771184, 77.60618961279552, 74.34577050201831, 74.756965119772, 75.72566265241039, 79.0835278729904, 77.48792790659425, 73.47643897466197, 74.35331737268413, 73.45198316192062, 90.95457257899454, 66.74900317114908, 78.95111716489446, 74.57585356500331, 71.85291049858697, 166.90371166384094, 47.58041997597715, 1.003578828154337, 78.55413384666213, 105.80498470864453, 50.93312453568731, 81.99588995758518, 79.00025916525037, 84.138269247546, 76.81676182394301, 84.92521798900586, 89.98605088702082, 62.50991821690684, 76.83043561817931, 79.21915368605433, 81.97669419368582, 74.6377970194688, 77.47919776776843, 80.30179712591521, 81.4172516347811, 77.54768964341648, 80.66831780947263, 79.59934250436359, 84.78692427324727, 83.0640724731102, 74.95164015237351, 76.62132898172545, 22.981033998537722, 138.70190813065543, 43.29049272552235, 46.13695046975546, 79.13326659424237, 83.07359073444555, 80.82778108650882, 71.53586704688887, 70.68677876385017, 81.44857943151148, 74.21197540404663, 80.77820695467774, 80.20971296135774, 81.20416665998985, 77.0817409299611, 76.63156277480867, 78.75504282844179, 83.73510638942983, 82.03677504312364, 73.89636337909671, 82.56377297245255, 88.19747036136927, 80.61138235650415, 69.57190276139816, 79.6565953893482, 82.93988892416844, 80.97509554046785, 81.47293599073032, 76.98863388787436, 72.89527580674198, 77.65213041183466, 78.63561696001115, 73.43304285851212, 81.05714413200523, 88.47942560733343, 84.88678099651243, 71.57687111281587, 77.7709874456412, 70.66220431792571, 64.71209734422652, 71.67611842526779, 73.93190181610106, 64.7678649261724, 66.010464743571, 74.04106679791752, 67.45648106870789, 74.81369144915617, 75.05760789811468, 86.41858617933545, 56.86648242574327, 73.01994503899553, 76.27007989975647, 76.05218786222125, 79.38800258419931, 4.557088278062396, 28.455902693076514, 16.559654292507254, 4.47714911272759, 65.35073809039775, 60.367307846313885, 68.67388453415231, 93.42682571715311, 85.05602694203607, 76.99559845975581, 84.00663048435945, 78.32449957004056, 79.86631968989786, 73.96293118282189, 76.92941583151037, 79.78953776423025, 81.78007580888075, 77.5653898055206, 89.50831999111298, 72.72557602397224, 79.97117073082376, 81.24681561075072, 74.95374118120994, 74.24570574731264, 73.0457431974822, 77.17963173304886, 78.86766840401468, 56.128969165641536, 76.36020463553713, 74.99328813961738, 80.09626679361408, 73.71181282157204, 74.02274894154905, 76.42373993690846, 66.50670224118983, 73.12640921408807, 84.85713575980084, 83.4546778370017, 81.2774550999137, 83.38200767248829, 76.49531138773595, 84.00447488225247, 70.45911492195123, 73.03137360503837, 76.73933341565653, 82.972602025203, 77.42598137441664, 78.85532668533521, 77.55731579416319, 74.32187240095557, 70.56771541653403, 73.94754623196424, 81.0734991325399, 86.48182505012198, 77.11936213959191, 81.39438392750564, 74.9486291927922, 78.95735641184994, 83.08191405078196, 91.03855827992042, 84.00620973901118, 77.90503229162073, 82.79887455706319, 76.54028837599662, 68.45682975662251, 76.2622737356903, 79.27516078948453, 78.80262270865047, 62.36450745663212, 112.92361192726611, 87.23603624926162, 110.09022611036, 112.03309430004758, 117.61836272383594, 68.76108239301564, 80.34010836665499, 81.22547640815253, 77.92553729577162, 72.1914739831268, 70.30952924495605, 80.22184152492471, 74.53602812407155, 75.72823292878158, 75.46877187007796, 87.65287438805673, 168.7440338327432, 145.19359107915002, 109.77088222840065, 116.52139730295008, 108.11812823069125, 83.0231567197142, 79.6880734244457, 75.51038814928712, 76.09327596731917, 78.49546736279929, 91.34745990446083, 86.53784308605941, 96.78272212780145, 91.83701659991672, 95.65475428636792, 84.99244011953105, 85.34585738410154, 95.02465240831935, 80.74376328102353, 76.30751863877164, 66.12685948159202, 73.11872273859575, 70.58172781087048, 80.66369219240327, 68.42277049466631, 66.5837276899923, 68.4905241171987, 71.08780762964702, 51.00894095297156, 76.12851428973124, 67.60100744409341, 77.61473035974637, 79.06789569886617, 79.57372822325561, 80.48519603790061, 82.00729998079603, 80.89814797105262, 79.77292347600066, 81.48857831495214, 77.16782277048463, 69.78584947267683, 71.68384075524992, 69.99909769997744, 75.13888474747942, 71.89833365001073, 76.18250858139794, 93.42787850300847, 78.76236010595794, 92.71148668504631, 81.97412402981487, 78.87367926397056, 86.75047327719012, 84.80187637352935, 70.69783335058187, 85.84087784075903, 87.35453373892184, 92.38782069232195, 80.62825252365448, 79.93105501283401, 92.37063477844123, 78.14870963226927, 85.49164337368326, 83.15911449707669, 76.36499391087662, 85.8749775851801, 79.10237756670571, 81.42062860126411, 68.33569826041948, 73.2940564675553, 93.77879208197523, 96.53579291334268, 85.59290386987378, 73.37368292591827, 75.44829410582082, 83.85876558365865, 75.47132337899079, 83.93246347373666, 83.05668371733705, 88.04067469506907, 86.97592178620903, 85.63929701336171, 84.31543357771942, 81.05432533336013, 81.25021462646441, 85.38144723069865, 94.67303669757521, 80.84002760633959, 76.34759739497078, 92.46420915991379, 88.62365554134485, 82.61279686970735, 86.91355935123373, 81.76036367159756, 93.20800588156817, 99.8204469000278, 82.00635477571473, 80.01545617604631, 85.75736443412964, 82.81557506355297, 78.01755826780222, 78.97080466767244, 85.9839863886031, 95.36990516155205, 79.99560684778248, 74.01530514620076, 69.70604488520519, 79.40903599360222, 83.5549350638645, 75.36055752987042, 70.95840576610696, 73.89058746401147, 74.8324535751564, 77.31722305609725, 69.81893657992872, 76.67558177604683, 75.55305864535056, 74.73765606319493, 78.03421065299507, 82.53426310993594, 85.01500907570107, 80.21257741498019, 82.89117887295528, 82.0541948014602</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>[0.2949251152979072, 0.9263811683257712, 0.47710241309112456, 0.7923298605326123, 0.7776073006883082, 0.21529578267616034, 0.7002487430119035, 0.5262174742281792, 0.47960575575357034, 0.14581898111771885, 0.12124243861070605, 0.3740513172594493, 0.3517253172057835]</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
-        <v>0.9835396490764585</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0.1884688550638047</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.08705547470055675</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0.7145747657566547</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0.2470226060436598</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0.8089207652419788</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0.1214698445387913</v>
-      </c>
-      <c r="R51" t="n">
-        <v>0.07629131000247125</v>
-      </c>
-      <c r="S51" t="n">
-        <v>0.8618031232707403</v>
-      </c>
-      <c r="T51" t="n">
-        <v>0.8706024908237384</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4359,41 +3159,17 @@
           <t>33.846774725334406, 70.29180116991122, 71.55831997607486, 75.41926299509818, 72.73367361464392, 61.40447435551579, 63.84800309188114, 58.38397940407842, 65.08536719292172, 52.64169379193354, 61.583747710657484, 66.19647663710573, 77.90933891636979, 47.080332442447315, 67.43366298908678, 65.97756458393742, 70.41718658614235, 85.54183221325009, 77.07591186234205, 43.33976893161376, 81.47340663710168, 86.88985440765332, 93.8483289776286, 54.54221664474024, 58.330674881979434, 71.70268883415103, 76.24135057615376, 77.7936627505752, 93.47941582101211, 82.1492850198388, 53.197617710408444, 53.310264550074294, 73.43126734171778, 55.58001966306264, 63.51904296809717, 61.53046988394893, 33.062643096618075, 33.10708887571631, 98.30093529520072, 21.83580825477778, 142.25023968942835, 165.17223991443254, 150.2690194262798, 63.60299501190186, 70.66882740167706, 152.4050654917898, 62.55777361048233, 36.101836120096976, 64.07229864158606, 73.37643185920382, 77.4382962368039, 90.44716375987518, 63.02531779148915, 63.06554847758759, 47.57136430192557, 51.72767742510122, 56.49413362987949, 106.5096747537275, 64.47973670692149, 77.60500637599475, 57.62548346448213, 67.79947779167512, 74.74081012312043, 61.60729561991128, 72.11515342079248, 63.18318569924438, 63.79022385010145, 68.55843538830337, 80.22225210435631, 72.24584085763505, 69.70459326619358, 83.4955751678475, 81.17616211657699, 73.95254608638501, 70.28894567803734, 60.21838110004592, 68.23077328669724, 68.2796851726661, 59.75143604318626, 67.9752404987335, 50.94646624577392, 49.47592567186955, 73.68205465181487, 68.95705773797064, 121.11586085619766, 91.15942861094693, 169.11543971755648, 34.16657984457244, 92.2298290160687, 149.8565648372804, 27.9490171737756, 12.681295181679962, 66.60584027442641, 27.9563710568472, 26.870881956245945, 57.79354761846736, 86.08628044314909, 90.43928050728637, 31.785881692426376, 91.63681797360462, 59.8703283554404, 27.75245501815691, 61.404383677120485, 51.170852626709966, 54.253764478775466, 175.04426290144727, 76.13882753704063, 53.73661458997811, 51.657819934813496, 49.85273969743622, 114.09271336249408, 170.7961019053891, 126.03224785801457, 88.85802651045078, 66.49412057651986, 67.92133595426283, 59.46277244005369, 54.9744689524099, 173.69232203530234, 167.56094153405007, 102.24500737697106, 80.92191823412554, 75.43037612215673, 1.498207170616859, 81.47503148928091, 41.1219391619492, 54.05891738585536, 82.02139321194764, 60.53246893887199, 55.874263565109224, 100.85151032891544, 94.61480843166859, 48.86334967110787, 63.984113994970166, 24.132040892674944, 12.411047233819023, 52.52938714704818, 28.277446614310257, 5.626459898188021, 77.06553817727433, 85.09547736735172, 107.80305644511844, 67.20603588498086, 71.22836377361728, 66.68891666409012, 57.96205720776569, 65.42272859442105, 72.63948768906451, 75.7407916948097, 70.6371596806841, 78.54719834798819, 73.57663735957563, 55.73989964593281, 73.09966083216143, 71.46957705261325, 74.39025575153914, 66.5482668909813, 56.5611404864804, 67.43826086679204, 65.08806020114203, 75.58747751194426, 67.8931494902657, 55.111629165569546, 67.34600049914724, 85.27171374303968, 67.76874119350137, 63.37109467401373, 70.83866826696037, 28.652806431242535, 17.754471947052096, 62.81976602586888, 100.25706714043656, 69.62233163816417, 81.79453801752386, 78.83486603000202, 89.90414835413252, 88.9579175787109, 83.40156977947056, 70.00703178436774, 91.71036243524435, 69.51304353839807, 64.26066296486907, 67.8956176527581, 63.06967557984211, 71.92656442047274, 80.21952257173047, 66.60697942875997, 69.24120136031229, 41.52994339542933, 60.28953858382105, 62.47216398854317, 63.21281361338637, 60.92994708306542, 67.6109729727798, 65.94175586801246, 70.74930963907754, 81.00000683104385, 68.73767637363721, 60.34489828122477, 70.08724331278177, 65.38266743367245, 83.91679171115098, 62.03930125601455, 64.21960424151744, 52.46317566307663, 46.60147098705162, 68.28105186010454, 71.67888651648673, 55.87024950976558, 58.25325245839237, 86.70475954686995, 79.24053341545925, 55.68592831714374, 64.04782044434126, 79.00593589919289, 48.060286063930505, 66.40082479375963, 67.4320065075271, 60.39390659072354, 66.8058489790609, 54.33529950105574, 57.230409697453595, 52.89540863658697, 61.21773476264961, 63.07550110605807, 46.339653384786665, 58.59045774766861, 65.08323567659772, 82.56810823482972, 64.94327446578426, 35.624469914874155, 145.49380067632873, 28.41873713976336, 72.41336465537643, 55.98705160646539, 85.65549058183122, 54.205960912834975, 64.36542160905994, 74.80850622098005, 67.4830285907952, 59.144215098497504, 53.0582812467918, 50.39893685321701, 67.7108376945245, 70.50122102932305, 62.55020407787961, 68.95187988254172, 87.49549899833049, 73.1270543820345, 68.53572422720683, 72.52801385949518, 73.69210100697656, 67.75098751412334, 70.86920944917817, 64.60216140566342, 84.6470674006134, 53.64189458467179, 59.04449844079786, 40.95580808893782, 57.15721454218256, 67.55384846235636, 85.35092001234301, 96.08421274899081, 73.67449300463262, 82.56679844438152, 73.73692890180696, 75.38464108136836, 84.91726527591409, 65.88750486800743, 68.5054494372856, 58.80461726952959, 68.73958266222076, 74.08723027443133, 65.29289307892762, 67.46540498592168, 64.7279710982507, 67.9319420633998, 71.77089504063449, 90.95187571298973, 65.73269114486509, 74.33298056453464, 78.34504663297737, 87.38641376790441, 81.92400959737206, 80.07411485331973, 76.77668413149063, 55.866371206750635, 137.0205142068959, 68.17733070768134, 28.150354425028183, 14.341386029017551, 103.27125607912464, 82.20040434303704, 88.90781282118687, 67.44600375191546, 91.79437266625278, 62.57517151149286, 76.0030565375421, 59.64464551949451, 65.53784757840197, 72.86609922083412, 75.85190025450761, 58.10903075517908, 71.54175723113879, 73.7491411050761, 79.54692285615158, 60.32264412406564, 73.8754019461181, 79.53153402092221, 67.7697997119905, 54.328011733506244, 66.03832831140726, 59.589320483286485, 75.54948166727664, 81.65925061292756, 71.06435382871076, 68.01593059506436, 69.49560363677256, 67.02411467741145, 63.6033352860995, 46.425892969329034, 49.02066364648613, 56.57836007938793, 66.58199320125195, 70.02102160861853</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>[0.8211970743106807, 0.04427925134119981, 0.8054754635538223, 0.36443718335664377, 0.5512786172713213, 0.9446274246565008, 0.2978085395776905, 0.03174984994198593, 0.6214357316227965, 0.37726981500346013, 0.4314163833380924, 0.8028683256276953, 0.18758923757197388]</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
-        <v>0.5167676640657698</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0.6263146599247326</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8999663505531759</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0.9507593810983022</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0.2597339107317861</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0.1294466294931229</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0.7481182266717553</v>
-      </c>
-      <c r="R52" t="n">
-        <v>0.1444658042175616</v>
-      </c>
-      <c r="S52" t="n">
-        <v>0.7405023702143044</v>
-      </c>
-      <c r="T52" t="n">
-        <v>0.7367402833155751</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4435,41 +3211,17 @@
           <t>65.694430572534, 65.65469473922404, 70.60984109961305, 72.85205764073419, 172.47026420051708, 69.71296924161778, 57.51825250345889, 8.090492121667928, 75.78052419429996, 68.68313694988552, 70.80812656568122, 83.8335612173881, 56.4327771069765, 63.68589945177965, 64.84499244866028, 49.98194716112972, 56.32850839947755, 65.24649553728463, 64.79657952892688, 71.17973990473702, 99.33706810864581, 89.77696231724602, 64.54354573128934, 73.85655078198651, 65.61462555013823, 73.44539155712809, 68.81181037117355, 76.01678649147101, 76.83010457418524, 87.8448889506341, 50.637675369223224, 60.74119356118878, 72.70819637838564, 164.00813777099864, 56.218086088096314, 76.8712908881423, 82.2192120040951, 75.47078091834841, 54.807977847877815, 76.99857425632571, 66.16289581402496, 66.58184380966354, 76.91567701725305, 67.85085534717265, 91.83429729356753, 68.16697706999929, 66.31128009817196, 99.85775180987667, 76.48440712569294, 63.90886609429719, 73.66861781089672, 49.13970186648109, 75.13481368676555, 79.90642775897835, 50.281730206847485, 60.63966535091171, 74.13089691887713, 69.40597689737307, 77.58867740602784, 75.14172178321229, 62.6698447894607, 59.28647356899832, 73.79034355586326, 73.1394754181121, 75.82601822943984, 73.32215378427493, 73.7933436700551, 44.3943229843511, 50.877969794452255, 49.28862175284423, 55.28320019289173, 102.32203914875906, 71.07949988276127, 66.42612181068313, 75.1228655895869, 78.85493029553987, 68.72949508771055, 74.86854913458781, 74.16934275165852, 60.83416938147042, 66.11596146858477, 76.98023643698117, 75.95377667723106, 54.883148375951606, 42.86251994741162, 65.92400440438925, 62.55030107323135, 63.26560764772306, 73.11539614666631, 71.92173656944104, 75.41159261286415, 70.03073110004202, 67.03551237240916, 68.35105448658655, 61.91208470177756, 77.7038888647709, 4.0429109232508065, 58.281092588586496, 70.10429964600564, 75.45888478844971, 64.21660052830272, 63.5655002886442, 66.69002705202963, 54.574135295717134, 57.470004691175504, 105.94064774402854, 57.26940723839183, 62.124331123442346, 54.95983919493841, 139.60437867812823, 54.052784930119415, 48.094903620248154, 171.5036463393081, 76.41072858682219, 60.763134089381715, 64.77352710349545, 66.63827786078993, 84.65844988055996, 54.67029282278197, 63.812272094565905, 56.477245106082094, 82.9679064101686, 71.20018042412931, 89.36442493462077, 99.88497021344048, 75.16943898901265, 81.71881148586692, 81.01371008906817, 102.44089324993135, 58.96710893063989, 60.78929258101417, 63.38023016904523, 72.48287849865278, 52.15593239925141, 161.6947510588656, 43.93987806262225, 74.45020730757201, 81.28468825233945, 71.38091352556029, 111.15148605360943, 40.10288938312485, 66.54254929359783, 59.12678503409261, 65.21882181179626, 60.31511446809977, 58.30651636039904, 65.17953343364304, 51.23922615551803, 61.951952948352606, 59.0841230425103, 163.3615503873602, 124.94952750363491, 25.9420049285705, 63.51814676774877, 73.25198485154013, 80.43344450428346, 78.03739440076818, 59.00048090592623, 63.47814083352112, 69.26958117578583, 62.390855860179634, 83.71994527775708, 66.86931680069196, 56.536053616626944, 72.35950708879513, 74.95195032727608, 61.43012599104081, 66.87581004113764, 66.64453606926217, 65.85238429171758, 139.28040622949374, 75.02201054290387, 68.4743784373861, 66.80267498654628, 74.97069834206434, 67.42861577973267, 70.43264655425345, 74.10405286616526, 78.55849645994043, 54.36398625088486, 72.89798970782704, 55.951705894085904, 9.778591805589794, 179.77031863837416, 72.98495167327437, 71.6256434110427, 68.51431466396905, 66.55842344180257, 36.04604892298619, 70.55874008344054, 67.09193440077313, 81.70714437252037, 66.52186889520202, 66.13005066992295, 80.33360412352216, 92.05907648155335, 70.942927126628, 50.40373571771153, 79.58114071939616, 65.48363820164849, 69.61913025203233, 75.5230237887176, 126.43270299130997, 153.1570952544096, 74.56959729136382, 67.49853165068664, 80.11300045118656, 78.04346129701135, 87.33354255208071, 76.29240368711966, 64.21705310211004, 63.26585424097844, 75.68069671972756, 68.6969699367852, 68.45052657521815, 62.36478375373001, 72.22362690289314, 91.83734456987791, 37.58934635208527, 69.66386721928315, 66.91511495149878, 67.48265338883182, 65.00791462926503, 69.90009806551618, 73.33492353098556, 76.63421934917501, 78.05453553780016, 96.27182477781164, 81.20420312479798, 79.30425287937473, 69.93573660342199, 63.66872997516811, 78.5699922865505, 153.2784027108268, 72.16670966667576, 68.87624996487227, 88.79603272697761, 73.88694378150915, 67.26438537402797, 31.609581898591184, 141.11390442775, 77.26922078235565, 72.10331417925924, 67.74466782569476, 111.02490924656361, 14.686774299141277, 61.09407185133553, 55.90492642348162, 150.62928251962003, 42.032624067695814, 75.2236321384525, 70.94433533267755, 62.425482700464784, 67.08611289153275, 69.53489579640221, 64.85755740691899, 65.25119355121282, 66.03964598974522, 73.68120074399943, 69.13685219442918, 61.884779920397804, 69.72536018514201, 71.38822439841398, 65.91586487544257, 74.97588510784512, 73.30224853940648, 56.37985790881015, 82.13813936532041, 79.17260993736856, 84.79925255588807, 81.09745707235821, 71.51435986079248, 75.12522643903924, 61.762824607314535, 26.279317917970477, 82.17139292891417, 47.29451503179649, 69.95376751830545, 59.41811992539465, 79.82895299923057, 73.62311314835613, 83.25151017077113, 74.72434378607821, 62.6745364459801, 60.03851684712186, 73.69362001568548, 73.89586947930884, 74.93489987550697, 167.96060656378867, 67.23535423362404, 80.49899444051425, 68.02376341723289, 60.410005443047226, 37.23403451254472, 34.29538757377233, 50.86222983311316, 64.30676503382773, 71.92993099354675, 76.65271918752408, 79.72430120662672, 58.04957513311433, 132.98811919503834, 55.91826495076842, 65.81639598175235, 64.65326482153417, 56.796751521115226, 82.155233340776, 61.82858994116418, 76.10258339258256, 80.26768364402703, 77.75579047676875, 59.87024272178047, 59.158271240886386, 71.8171692755465, 70.42548274288959, 67.31655958912687, 74.7339667423474, 111.79393667157359, 22.29868277120025, 18.436045412452913, 131.17802117567902, 76.58841366972173, 65.83968905379257, 73.93509844486508, 71.84760864947417, 121.01819911153949, 70.4876666821066, 99.66608266650663, 157.7688019804373, 72.05673261665991, 67.2279700514818, 70.7623527972609, 78.10256608058931, 76.04624553815732, 68.01837834737483, 72.54670333087849, 87.38726443611993, 79.46887888023649, 77.09178131264282, 121.41770875779198, 69.73895275449092, 71.8668962683096, 83.85961786028571, 72.25366134057884, 71.78082941925976, 69.04197240737692, 69.45286008249586, 65.28830895891804, 68.77428787391078, 73.79711572987688, 74.27311356382407, 73.26269834649442, 76.15137078387731, 80.04436900572537, 74.86533235062963, 65.28570867604611, 70.74480423590781, 53.09035273042464, 67.11560271082459, 57.358617902144665, 77.0276736188022, 71.8603952482466, 62.190933290905335, 57.97126526311987, 64.07619850301515, 80.30825478207196, 61.64852184667568, 46.1668209915981, 59.702538254152856, 50.706887247907716, 61.579375770031994, 60.96435198098744, 71.2456379162179, 78.27464643162986, 43.786918620744856, 56.293709295577074, 56.07043112483477, 74.04032637060824, 77.22178626201233, 65.98273918350908, 79.20102827497799, 62.51380761830553, 76.63584482174475, 71.50806674459461, 73.27306230872819, 76.46150192779933, 57.77938547152327, 84.93464098810317, 69.36085002612477, 47.11693584331688, 73.40594600387709, 7.279765537035661, 65.8293817586285, 76.1309301612106, 74.5179132199754, 80.12023663322002, 71.62949355593832, 74.14009759155257, 63.303607109951756, 79.49458383165992, 57.89089942860868, 58.12275728670798, 68.33360344619012, 65.58658593109057, 67.21823890770803, 67.1946793436348, 64.83201402375461, 79.16843301341166, 69.50858838470027, 64.39996089428988, 68.23261468076478, 62.651337461345946, 56.3263603077076, 45.3000777967325, 55.44087820300134</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>[0.5847001109834018, 0.27922929150667863, 0.6047331259989904, 0.8893966022407633, 0.11265389285856353, 0.02757312829660219, 0.9717038328242388, 0.14297525823161672, 0.991571402834369, 0.8049665586952167, 0.8004129847155986, 0.23332828289748675, 0.7023873834491502]</t>
-        </is>
-      </c>
-      <c r="K53" t="n">
-        <v>0.4943702545176978</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0.7634603061899498</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.1726476931270324</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0.8849910714447761</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0.769979549972781</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0.671069781680667</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>0.06221127969796159</v>
-      </c>
-      <c r="R53" t="n">
-        <v>0.7026806451887049</v>
-      </c>
-      <c r="S53" t="n">
-        <v>0.3817629137832201</v>
-      </c>
-      <c r="T53" t="n">
-        <v>0.6955223479787173</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4511,41 +3263,17 @@
           <t>76.27263705105513, 64.30941987098221, 62.94788559418966, 67.08020080688286, 66.48647528251263, 73.58588127531556, 51.64064722445867, 83.51527407195675, 84.77934231930048, 66.10082098671121, 76.45905756485743, 81.5786843876078, 104.38047083644818, 62.970662271672104, 79.8989550565564, 45.06079772055376, 48.83690297027538, 95.36926256907242, 84.94941826430359, 81.9121462273903, 81.35334827056842, 100.4531460868984, 62.3629532660354, 85.80286580277469, 84.11195860971786, 67.92105203913783, 97.22785958537983, 86.85655883527693, 68.16198313711418, 64.51091313616514, 82.24472008152614, 83.44328031851379, 81.38581551895591, 75.90718095689449, 169.99585422782954, 56.83400609433695, 57.90631135963255, 54.80183292775843, 60.56192755780533, 71.87593698976139, 70.90175758193895, 71.42579700186653, 71.77494564617916, 57.695984478528366, 64.47992686113481, 73.66914720337387, 63.69494321591186, 64.09058893673995, 81.97795608152764, 65.67724335799977, 58.82868547191416, 47.11830069365225, 67.5143934931936, 71.23270100569782, 62.864420260341355, 67.51376595252815, 66.02862596536849, 53.072977281278824, 82.89794313537982, 84.55477365709913, 57.61185230690822, 62.80342626363325, 58.030419020358764, 84.34229979908183, 46.78918415466877, 52.01169326620488, 79.35559108188706, 74.30803311118837, 65.22537060924915, 51.81766751700926, 57.529705898710276, 70.66830130582696, 93.01522940414367, 72.6784461040955, 68.06532863655923, 94.1740516799744, 57.46831688484776, 78.22255624967032, 70.39939176654663, 72.52941452977613, 70.54643035149866, 73.41047871905492, 68.28562245926044, 6.034310714955262, 80.11985774696097, 48.41383115691831, 87.11888558470986, 60.01537605245749, 60.81654412554631, 54.66053440961142, 71.20281652494614, 59.26775663396926, 47.583911365479366, 38.2524754551946, 65.79196320917922, 53.98408681551925, 83.43520013440191, 51.08478894741418, 54.53609436797782, 84.92315165501257, 76.6185969289855, 78.69838934961943, 80.58760869907476, 61.42584225950206, 53.05722552425524, 72.64593193412927, 59.848530110136686, 62.76670591835597, 77.70383897087517, 103.98180582147288, 98.95249952046852, 62.16417832797705, 91.10091009197548, 74.46346814634832, 59.799665288026944, 4.58982483139807, 29.255775716469994, 74.29504883037565, 73.44198024372938, 89.81365913662374, 87.56866593861598, 78.32585998190545, 68.7292227770028, 73.05043273141412, 59.88850233634948, 56.282099723650894, 55.69389859881615, 64.10078665627664, 55.26552502169287, 47.46332443772128, 71.28284477998574, 73.24638819448762, 66.85109754070164, 80.94482920776981, 68.89826803155839, 75.52968699209308, 64.37368882570807, 66.18176292328864, 56.87839301811918, 74.61291855548986, 115.46490152436188, 104.53861697659967, 65.01657103620558, 49.77288931444248, 68.32038250525028, 57.335209574639066, 66.66112858697616, 170.8864922820265, 95.19681533901225, 52.75865729813464, 20.06763538300174, 32.083346154033784, 51.22606114404421, 27.13198851577922, 69.22199486286742, 146.02391390534785, 64.89910691249784, 84.0224398217718, 68.78547376601502, 81.60758428839107, 100.87764770083525, 70.71875301209474, 77.67921904093097, 81.06629458383863, 174.70163121597466, 46.652116107313994, 41.21905889987839, 46.980836098577086, 48.8800192247128, 59.234622252806034, 57.17314407874012, 92.44014519923289, 89.24306594692425, 56.985544793526145, 75.01123678421844, 82.21432532246179, 73.83044958134576, 74.46273502555385, 79.50860018618171, 67.38810142666506, 76.66880261386204, 78.89792032991559, 81.59595344287118, 58.74895767077766, 65.38193702238895, 82.80741617820787, 76.64117984103784, 68.2029185014537, 76.78109695186966, 173.00160185803173, 62.9977608353279, 53.33802436481429, 68.82634896095043, 132.1387330569542, 15.794033639812373, 75.44324906516411, 45.9051169133065, 60.982911537520415, 142.69323913529246, 102.88456886160668, 89.82540808381953, 72.29943040292508, 64.71729960240572, 71.22568074347474, 67.1546207520934, 79.72210179916392, 57.75380061580725, 65.66606867230442, 77.07017260634434, 74.23081387896399, 76.38227031258987, 65.82889848494213, 82.84549453220245, 79.71293682687757, 75.07992912336441, 80.08288030756995, 72.35679917296693, 83.15154074926359, 81.0782533621003, 61.514247630028116, 71.10825234838164, 78.25577541873395, 75.49534184356337, 72.64426303092557, 64.66299031127343, 71.41383192379958, 70.93163002818227, 86.23745025725137, 56.97564985464699, 64.42560164528777, 84.86235443611487, 72.8742379848643, 66.44861904449232, 70.77642213599955, 66.35880834259673, 67.30727306156525, 62.78039136201967, 68.80937412805226, 60.51259135004875, 68.61963692028073, 82.14954462935312, 60.96642839319513, 61.178923465532804, 74.33362387661874, 71.81513147109462, 71.56270758171647, 55.90212955868922, 55.06168722487867, 67.8156570303042, 28.21290875045172, 72.99690279722321, 62.95313204729198, 58.57679648217477, 77.23710910714442, 77.18506036241905, 79.55580548216125, 60.144805260575474, 27.56034324690221, 61.73278203283289, 57.11387731126243, 62.61253769055989, 57.642166080146964, 65.52301009750887, 76.79640058722559, 75.94411213964354, 42.61093453351133, 76.54035539230564, 113.79605512882101, 96.69501872675488, 78.88973530175913, 52.80688875200071, 53.720746255743194, 76.07882305866018, 88.31986215907574, 79.26026313029807, 79.53416362325281, 105.25213487027786, 75.62142888926158, 112.9403951006956, 86.94105889805698, 87.88094240674982, 89.7559203947504, 69.57932345768045, 70.57081125320404, 66.51668836645146, 79.18770497642666, 58.38449179993049</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>[0.6952997997210733, 0.02461225026635938, 0.3131516855481279, 0.5137458043573614, 0.2655612261615764, 0.12713995123695665, 0.5674076753317696, 0.3227694337394432, 0.4560678765024839, 0.3101720109362983, 0.2680895349505107, 0.2996116513715592, 0.6279176028565965]</t>
-        </is>
-      </c>
-      <c r="K54" t="n">
-        <v>0.537313645094268</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0.922003318652541</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.6676308395490643</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0.8892033419664908</v>
-      </c>
-      <c r="O54" t="n">
-        <v>0.2375331914976481</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0.8706637403814902</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>0.1275811759496017</v>
-      </c>
-      <c r="R54" t="n">
-        <v>0.3800311605458302</v>
-      </c>
-      <c r="S54" t="n">
-        <v>0.1117940844032405</v>
-      </c>
-      <c r="T54" t="n">
-        <v>0.5789821567161318</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4587,41 +3315,17 @@
           <t>54.69558316556451, 75.33617414150767, 68.15310294129833, 63.284209773738496, 61.91634051005902, 68.96623486634911, 103.63737668975196, 87.59410119694151, 50.47814116070607, 63.277679932056564, 72.22079527709924, 68.52006374462029, 69.7785312414454, 86.47796781294788, 51.364943552538186, 76.086834857435, 77.64043453865658, 75.22191631066232, 78.12603497315094, 63.72179125547351, 54.48777920003771, 71.98912915571454, 64.97690150318051, 78.58847743024674, 72.90939075845425, 67.83114852595435, 67.59953909258743, 66.07319892572404, 58.34537532252994, 46.85539138576742, 65.42532587909535, 77.26047375290216, 71.05631804483471, 69.31946822444291, 65.97963894685044, 63.51714293959869, 78.21869835695092, 92.90318373737946, 57.85436270872208, 70.34265435996929, 72.07555999348487, 63.03114052921257, 54.92455900536185, 74.93865819260311, 83.8932445900821, 78.812162748751, 82.25364034734393, 70.42391697566643, 54.809218185001775, 66.93739844493678, 75.26470275875798, 71.17620606182716, 62.67424263149122, 68.7002358156478, 63.65304779153203, 76.15568129311923, 74.61643318770159, 66.02429707817926, 73.36730801528657, 73.84165091333347, 75.41058725445696, 77.96251621559728, 163.41731069989225, 48.80960341513014, 77.84300845607514, 76.42202544613073, 68.56467424875137, 63.00267659894461, 97.40294979261836, 74.59273979869089, 68.00143627357107, 84.73729890329929, 104.87174672269776, 61.67962945821067, 62.1552143029934, 73.16038292515361, 77.14087981139257, 63.02090692280986, 70.07229559262029, 70.12399085821892, 79.0652134488619, 75.59144946475155, 67.3671622846948, 70.1039431762878, 67.12981965301398, 74.25241122892174, 65.0643341388788, 67.41886043475742, 91.28901774789948, 80.22488957702514, 73.21767489166916, 66.55216417241587, 65.17546437472167, 72.72643825776126, 102.18643085734983, 70.27066260082984, 63.396239201057135, 67.77830572755497, 64.27601130604752, 75.57579103644613, 85.45383823227216, 77.42842176212326, 79.57134862749265, 53.70203369152337, 65.8424645266792, 79.45795922041142, 71.94799934282211, 10.482288019321766, 119.00557487440958, 72.81842061377961, 68.23043284753288, 77.40301376280388, 82.86447107779232, 67.79808673071109, 70.91987259759435, 172.1868261039853, 83.37762998174038, 77.65212684877311, 83.53728077449425, 65.94364974524241, 70.60827665705165, 76.07615859570802, 73.552920295033, 57.63680667539756, 72.72475733147128, 42.99041059027911, 113.46899309360278, 63.26734347347065, 71.1001245364177, 70.17399089136694, 78.19462840249453, 77.61921402330745, 68.67809015935259, 78.10710304293868, 75.78591398112991, 97.71963806564577, 53.326434914758906, 58.24002130596575, 89.70272981265339, 61.472208313852526, 83.61144478676927, 70.96558825447279, 60.00223396123763, 71.39215945212133, 82.81301167603448, 61.673413497507745, 83.7661277662616, 61.944573421846975, 73.65423465576842, 50.09842978888167, 80.4862712449411, 92.73691624772607, 85.92068602837092, 91.57850092688481, 77.17560516327558, 85.10621518524472, 81.59993625125877, 39.76150284512905, 31.984865634859293, 27.33205711885097, 48.41419391208781, 78.37023409386856, 74.97766122910573, 81.45098835717421, 78.19815567229318, 62.842193069463455, 74.03124421673631, 76.49685985252229, 78.56347038346219, 99.59786685148836, 140.0129195181343, 68.25209850823119, 68.23032598318358, 49.33759565071117, 78.81704208562726, 74.94333495574654, 71.14477575324196, 94.46643531612922, 80.86503536756781, 79.99248861028644, 83.4301419037142, 62.88819300768085, 68.2081331618812, 66.54344670197281, 71.27564693141042, 75.41985225625668, 85.94805943406624, 91.28362058388585, 79.09538216729317, 86.64595947227244, 74.89427439262839, 65.4362034019234, 58.167763218817946, 72.5912930002054, 70.54343401572723, 81.73591881837935, 72.22325001938569, 72.28449212469347, 71.2086190857994, 67.24076840386131, 64.46612677861933, 68.39468325091653, 69.89324940354331, 69.51401739952091, 51.43541121931645, 58.072159528707616, 81.19800020305081, 66.6557739367804, 62.11037781242363, 62.92188426859392, 118.72498283368643, 69.72724845057581, 77.59295768276003, 61.33588315511805, 54.010319747486186, 71.46934627382235, 68.96194740616143, 71.79120259249258, 64.34345129156188, 75.8185920526637, 65.36173071014969, 55.669581022337255, 67.71852926407165, 54.30946380638657, 78.91495831616227, 69.12614256353922, 52.824028235829175, 156.91615045023025, 176.4065567970169, 159.76753597722723, 115.76290032581171, 68.3000588708366, 78.76404679266444, 60.48645995025357, 64.79430872747182, 111.62723577065739, 79.48264531824921, 67.33174912691291, 103.55731311857477, 33.56078255458478, 12.440274608316933, 70.0909367636447, 95.23262655213813, 75.41511228675772, 50.23326419241055, 74.12340541666096, 80.22932602742158, 64.02365391271627, 60.002159181504624, 67.12160867796315, 53.906607883738964, 69.97506902577405, 75.6526846966266, 61.77377072664106, 65.36817821278343, 65.24938134543672, 56.866674595269586, 70.71365170905437, 70.8783460697648, 64.82193713745005, 68.0407588147917, 51.24847032677112, 49.08312063323467, 59.84290730849056, 67.01997386787174, 71.4741083230505, 66.89659395053543, 69.47221393031968, 64.06152162587891, 60.7772837864494, 61.5776562865711, 64.24245472434764, 65.30323429152557, 73.7275196261175, 61.015779299004556, 57.16293046595845, 63.56235217012404, 71.53567421771469, 68.92601163742147, 68.996946300247, 109.9785037855946, 109.51264247580298, 77.64254313086883, 119.1465119680384, 21.740154486885142, 63.364038553074636, 61.661959395110266, 114.0984899240631, 68.27771117057056, 60.01718497642491, 23.96079163304654, 77.06309365970779, 58.39788887606608, 109.61681839627467, 80.94964933591153, 67.45467155496893, 82.38586263851316, 76.08209231627617, 52.844384667744144, 65.4004024092916, 77.06371661632069, 74.66130047889511, 72.0862408487852, 49.949825785513426, 68.94213104057414, 60.12539848762339, 87.20369527160865, 82.63914412172656, 83.32720578773929, 74.30273099040505, 67.77320796296348, 75.61925493421367, 72.37035797540585, 69.77130631473736, 71.15390026992931, 95.41952835724416, 172.11671559209833, 20.144568460867394, 79.19251655036278, 90.70518995780634, 77.05958931105683, 67.46741624935706, 57.20282113355225, 145.1208630917537, 63.12125695621735, 62.45194619213667, 51.58912417973759, 59.83699683988652, 70.39202804979134, 73.13314371427289, 56.20628227303784, 65.63769187647898, 80.07322795284699, 82.56515285730788, 169.5359726224411, 67.0242652716838, 69.077382780986, 73.99723601917918, 91.01204193548895, 76.47747522788019, 82.90415807454171, 82.46292201882424, 95.9025058888186, 54.10114717498991, 68.76155209081038, 62.38241937144076, 66.17104551226934, 69.05453328095892, 70.9028901401028, 28.87558736312746, 50.86459107207973, 64.62358481141149, 73.80187091105418, 74.6641540192048, 70.54967055838235, 73.9691560759976, 58.35476792960532, 20.75878959826877, 59.07794208595902, 82.23272295308936, 61.33040038118852, 97.19845526892688, 68.53674874857695, 79.00673366044165, 51.12765260705702, 86.26357360587399, 76.4226341028654, 46.83025520225894, 64.87062103903703, 77.30481827525008, 66.24571938069496, 70.84717513511438, 70.07956061892868, 77.04984724028434, 66.77536017250338, 74.08798373039961, 49.51026401153369, 64.01967145379565, 71.62195336500848, 81.26855399666692, 52.76230965474076, 73.81341086868026, 71.98331787008841, 72.81648703398173, 68.84588669405743, 64.27293065190923, 54.892377468300175, 55.589159790774474, 71.96341226686903, 51.47608877138132, 58.978014533155815, 61.25985239193037, 64.16676803693134, 69.7680041032454, 68.31733455053033, 74.62474976329807, 69.40557776345122, 43.197246052435325, 61.51017885772164, 70.53124093624231, 56.50801025134761, 53.34895606543556, 64.1117061877462, 68.58099270511433, 71.87116747607591, 70.68133381560618, 81.17662192596298, 75.96918844323054, 80.87949886593682, 98.06997091635502, 76.62009280485644, 83.0343477313159</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>[0.1708106855028545, 0.9662350028259963, 0.026064878143043924, 0.6960630888977944, 0.670975925194455, 0.6451328829272628, 0.1877177249781522, 0.8779774146667374, 0.80476467547354, 0.5267811514635548, 0.32181293011248613, 0.9312138444553645, 0.5469093285233596]</t>
-        </is>
-      </c>
-      <c r="K55" t="n">
-        <v>0.7409069519392231</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0.8522457501808347</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.884915124107264</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0.4250963972082936</v>
-      </c>
-      <c r="O55" t="n">
-        <v>0.0888073667437671</v>
-      </c>
-      <c r="P55" t="n">
-        <v>0.4290649927983836</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>0.4373410033113697</v>
-      </c>
-      <c r="R55" t="n">
-        <v>0.6347759223048124</v>
-      </c>
-      <c r="S55" t="n">
-        <v>0.8379109127437456</v>
-      </c>
-      <c r="T55" t="n">
-        <v>0.7427305129566766</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4659,41 +3363,17 @@
           <t>92.53453608664952, 99.4430891389519, 96.8657845842171, 89.56536013731471, 89.12180417642544, 111.99536271165454, 88.32108336648749, 96.91488132365947, 75.0293098467551, 88.95438646329649, 93.91665556931682, 63.61511904426645, 70.49700640482169, 93.53196012561457, 87.92270151265669, 88.97022477023346, 87.5464944150319, 96.69153537060774, 61.28105855100538, 65.10291421330089, 9.668810339828063, 76.9806725101954, 71.86072869653076, 78.79112469893624, 69.6979084480444, 74.1502826644494, 68.68965410829142, 73.46448471075426, 96.9909399386015, 172.6847718323196, 81.35393347092318, 72.22783141399263, 76.5423629718384, 71.65762612310671, 78.56362783579047, 70.81986284806821, 75.67596136385957, 58.71381078924138, 73.36089178434689, 87.41965983752294, 77.00700391204691, 80.77779201783957, 94.78838860266967, 84.79488619838705, 106.0987972233902, 77.06174322691004, 72.6576633035069, 79.7692133909481, 66.54899079344867, 62.577774295969384, 62.6353940360215, 103.226155274567, 116.29686747366337, 112.656238860757, 88.02679413274106, 89.68206729121317, 85.54959385876376, 89.27465187889338, 95.97832629177344, 61.59243629762919, 54.420294465674836, 55.16124898773608, 73.19949890884514, 85.6349633613479, 88.20994016908692, 86.81253949643927, 93.95432805893435, 58.344774419692094, 73.4085720302456, 47.0051155425858, 62.790952730271194, 90.78285080123894, 81.59582670010795, 45.51000557067933, 71.84266238447458, 80.80761575046814, 41.85994944686981, 83.06329495995934, 92.59073457298994, 85.96372206955681, 106.52250781106362, 43.66796357985322, 51.22259112166319, 61.55313677008952, 28.661279582200763, 59.37910655898462, 67.33520885342064, 75.87675460963662, 95.4048966254504, 24.22381049287061, 19.317107244655748, 34.22599897287704, 92.37993746002054, 82.34747960626518, 77.52432277836395, 68.4978950770336, 82.85441984695457, 88.00145058362027, 81.60201930812575, 69.51237309698774, 92.48611864581254, 63.51262204885226, 76.83630804747291, 82.14623112123384, 80.6655429498702, 50.8088647373113, 76.56748242157317, 77.83644167138475, 71.24835475580369, 91.14313532139933, 76.67680150690022, 87.90379412787388, 84.88259035566293, 95.03672125957321, 87.47998106279647, 81.21868235160333, 76.67941632690382, 61.13420141273165, 65.40200752746026, 73.2229559647634, 34.77150768112362, 55.215040088587635, 72.58021568840444, 58.92937887487747, 11.801526439991564, 113.73025254605236, 43.35998482057147, 53.063907330639346, 81.13858161909404, 112.2767628217912, 91.18808000290858, 87.80553056366166, 127.83126691163247, 80.99696796589838, 101.72422594303626, 78.98827263006362, 66.91268546638855, 82.69308204619402, 82.38983139607518, 92.88348054514118, 75.90457977117487, 85.0057207709979, 80.81942415727346, 80.45751862994199, 74.95071201184653, 67.32310726731279, 88.20171828079708, 51.06081562828151, 53.94188190888775, 73.31195717969653, 65.91545563017033, 67.19214275896624, 72.81584870980994, 65.17969833013494, 54.63468299858804, 68.71177191112163, 71.20008109642502, 87.18832478875008, 73.71976734709467, 77.63820878051747, 79.92067874631226, 79.84022861695077, 79.911003666068, 77.72342827237044, 91.66283895451137, 72.92423504464305, 77.44925746360308, 95.99409334545349, 83.22326830142514, 86.57865174122144, 82.93913211387036, 85.20914905008816, 88.22188479982917, 83.19428369019818, 85.52980959715808, 93.38913789865424, 67.77085360023494, 86.60563771247885, 85.08397333234429, 86.27741298079285, 111.02249911893306, 114.12307699272371, 78.86198223431367, 71.88937023418426, 86.79631224986446, 58.180154075712196, 58.375329085863996, 77.9381495326734, 47.16036099570239, 87.64876841150938, 176.29531919167977, 54.366315935363296, 90.51604558564615, 79.42579242322007, 81.49973558454597, 29.987537188343122, 84.80336100227278, 75.81597977552428, 81.25560750346683, 79.71245001812524, 83.41215849795212, 59.66019343408366, 77.51516877437223, 78.11638896585939, 45.518284925344, 83.27587094608339, 45.50913175409641, 38.12138375735277, 82.97165244114247, 79.99908854605002, 78.23207914038156, 71.57769055819563, 33.078690849434764, 41.73981088715583, 83.18281662310667, 76.00631802397064, 60.39670933121362, 70.84733960523832, 79.7013147030221, 90.84211690376183, 146.31985245647192, 67.57346886839346, 67.7149016839129, 71.43071557070313, 76.3238020267377, 104.9797566897677, 65.45168768887672, 76.60040352523887, 13.410294489673031, 11.938454262664452, 112.20088073317048, 80.91756780765644, 76.0484182295136, 76.63203435007298, 76.45766380808196, 76.09255203702853, 76.15247105889482, 71.91635941663164, 75.66250237316792, 74.58663626836267, 96.49930453877883, 73.22581543644918, 61.500250121587264, 72.81514243925318, 71.65608815041453, 67.79921069091999, 70.25409820844392, 71.48392154563331, 72.01085934817955, 77.9477027245606, 81.5495571945338, 104.2419845176401, 77.04265398701604, 81.48289002141254, 72.62678748790516, 74.66370474467648, 96.97189116663533, 64.05756201607417, 83.16705774454907, 85.3336694470774, 75.93290701507608, 66.00875165785538, 78.36458440806828, 71.78521855984361, 97.71341256657249, 102.76928017447531, 79.22695898535274, 77.48666694848781, 74.9498352544622, 131.65687179570637, 63.94920972507442, 78.00350686342108, 81.83175741932419, 60.73670904756634, 60.253452139231555, 1.8608083499081158, 66.61937056326867, 65.34007970400343, 72.57421432215978, 71.47033919322844, 73.62733066707541, 62.717686907366094, 71.22308654485664, 99.42162532720968, 78.84983859098156, 72.74047077228265, 141.84639995389094, 54.315599760826935, 115.70722998787225, 151.94985080278164, 49.959232016008315, 59.96662211061156, 133.89722112567037, 81.36604198328816, 70.8216838913207, 37.30026199118997, 65.74098908386863, 62.29588857905665, 57.210626540985224, 74.32143483425543, 77.73075406757059, 61.68782848259638, 63.91223394737801, 28.033428640618208, 22.32024579966412, 103.40333170474992, 50.47787172001686, 57.52855363042212, 50.8819247967429, 67.89676196369143, 75.93252083347262, 78.23477261751502, 74.70033870293256, 80.52120132498537, 65.65067064494431, 70.9544418886907, 35.09136403874694, 118.94585136425546, 44.32285498466092, 86.74455099645182, 140.3350356792349, 82.77372624969428</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>[0.04712751235938295, 0.051667191036025795, 0.1299021875771591, 0.27371219232707067, 0.1855879009710053, 0.019722068370177315, 0.8216396614709462, 0.4407597572599262, 0.3492449283794674, 0.09169899832622219, 0.5640211447658616, 0.8929830345132179, 0.9605209788383966]</t>
-        </is>
-      </c>
-      <c r="K56" t="n">
-        <v>0.9737568588610556</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0.781942036802002</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.2340211205503429</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0.03153174068139564</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0.1654381049058455</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0.4276622847707228</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0.203108289632101</v>
-      </c>
-      <c r="R56" t="n">
-        <v>0.9698586733495848</v>
-      </c>
-      <c r="S56" t="n">
-        <v>0.1716459567531436</v>
-      </c>
-      <c r="T56" t="n">
-        <v>0.03269898618111089</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4731,41 +3411,17 @@
           <t>73.41967110121124, 75.74786321385987, 55.24749585151162, 53.49714933103047, 82.96878633903836, 45.00517853385231, 29.971770736935397, 66.27392189961212, 65.48692589175566, 67.17290527491407, 1.0687478158900485, 66.28839324035106, 114.73239075907985, 64.57181733672455, 53.11950521201605, 72.22016110080109, 52.8158749898921, 52.18271349801474, 76.69611384384807, 74.11413391981236, 79.34766648249361, 109.5165054813519, 84.05657080950296, 17.364570559072394, 27.105509965816204, 9.569744735188229, 39.18261872032461, 29.49185134164091, 27.11285697037044, 5.7527990397551, 102.57510370849047, 17.98656366026771, 70.64871079014327, 77.75173193940148, 113.1978316940143, 100.44788984417697, 89.99859433620284, 64.9362693068711, 69.06709170377121, 110.90804867203128, 68.1498787174225, 29.813700111241225, 78.88591500815306, 113.28313956479907, 71.03646237528436, 75.69331590542834, 82.13637135860354, 61.234167750017946, 75.73718799023533, 23.041798690529742, 33.327010912436116, 97.12505075205311, 93.16211093170764, 93.76316447985852, 65.52677416032478, 80.7515271350671, 82.17787483405014, 140.43573695002416, 71.29942690740498, 68.27581046336884, 71.465538040032, 27.3688038572159, 64.5594397061585, 63.65740751540087, 74.42644728886197, 74.252137126756, 93.01576133190184, 85.87198204140762, 44.74137566861296, 70.0598198126895, 88.05223034611585, 76.42910021142238, 89.47148820321057, 163.93043751960803, 19.250721734973663, 57.57935563414819, 38.592735326561666, 47.02033051957798, 72.78247203239364, 16.113510804600196, 4.9380876661383075, 65.74635826346433, 82.97459629246755, 90.3230676791535, 74.886480864874, 79.40191353003827, 92.94964934405358, 83.88104868862501, 62.297933676743284, 82.36704033604497, 82.60498078383786, 95.79124094603176, 24.834630696056582, 77.36857607913643, 78.9050531207431, 90.0820109551199, 44.34890076190191, 70.91945361223407, 89.18080103859751, 65.89524280664818, 61.37395137759905, 71.17418811255966, 66.70067097904067, 68.83873667301685, 76.27660802209917, 86.50721113253724, 72.39710998727394, 80.22698252650096, 109.61687260004736, 84.29952944008751, 94.40279187425381, 89.86455325649045, 63.04999643237589, 55.11515007206062, 0.6721754772196343, 88.96113426940913, 66.60618819862282, 68.58790215485911, 79.39776886934709, 91.8048047479972, 62.04712265828367, 79.98274124702047, 49.868142591966716, 147.19915851485527, 128.40826662796343, 82.11255803111953, 85.08002869370121, 47.266604881967496, 74.57923450843101, 88.61737663774937, 61.78092123679577, 96.11641778608858, 115.32193146946112, 123.17847422605959, 131.8113897809706, 68.19976115900405, 70.44659101495053, 71.41755837512947, 62.109755660271986, 70.52787732297901, 74.94389315276975, 110.79153332725856, 65.37103116529391, 77.70815045170714, 79.16374565981015, 53.21275335310488, 64.66159073233612, 66.147894070515, 58.55249219255497, 107.24075227138131, 19.16623017879573, 86.76735354615876, 62.801764266847535, 25.2195320457017, 38.36435405168383, 71.78617968971946, 69.86833689913344, 62.07590730186793, 68.7565571781483, 82.7452475336266, 67.61365662435428, 81.35127719704035, 80.16509424955932, 102.40792193377987, 92.34926092758171, 44.53388267088244, 95.71668869357873, 68.85819826903193, 71.10826472445095, 59.33558283973962, 72.65386640905184, 34.792657746964835, 101.9600131799833, 68.97707997008963, 64.33062264707611, 105.30871209932478, 76.08466274015657, 81.60107885911718, 82.35964659056481, 60.942087370690196, 68.53491530627947, 49.29048913289925, 71.04351340043301, 50.84739213662185, 72.48424294515331, 72.61822405519843, 64.27143045509251, 72.61490047843739, 55.964394522045005, 75.1027834361279, 55.83712049887823, 96.99906358818696, 81.99814951890461, 74.17745337662996, 88.2464881945335, 73.5111033646274, 75.29276291961347, 95.95992376705884, 65.76152490405002, 62.602691001194216, 82.26121364572158, 31.71192711531497, 41.14976896313414, 53.3409659796715, 52.77803811555658, 48.05128902044578, 58.690832800043374, 17.15757253922562, 69.57403665417323, 102.06421613710563, 97.86044537468082, 83.80499608569006, 79.82194601191678, 91.9955799513209, 84.44750919646545, 86.66698273110859, 86.22311120744246, 90.1572699938329, 87.25575848577616, 76.89499045226484, 100.93500076046118, 92.86062241534422, 72.73071438203856, 98.33407076865916, 48.190738719404145, 55.23858299799085, 53.08833024502675, 67.88136106787996, 61.44890233558527, 49.25742660411443, 90.09953159891353, 74.35769507280003, 83.09228339003221, 72.68428067506578, 72.30480092965333, 95.90191220693514, 38.25102009232815, 78.09080012500444, 78.7543417832858, 68.96816685483704, 111.20949441749633, 77.39006536661859, 68.67817696905827, 69.79842844707461, 65.25773674890839, 106.9954188378718, 147.1214270017645, 91.3956663234307, 73.31934511531938, 82.48500830105996, 88.94765209192349, 84.76045797693187, 84.61446734422013, 81.14706912361807, 82.05106126079792, 92.36365159732297, 96.14120756548772, 70.9955128985036, 84.78028840157178, 78.77008156348673, 86.5627172298699, 83.9310022318449, 12.26107934087967, 63.093721025785406, 68.97431358575696, 89.75141843129143, 94.02937314727365, 96.60796520966083, 105.27398710219657, 97.66967775855109, 69.23203279524616, 90.25077612179152, 89.53794751888566, 101.37109991180984, 38.06258415630664, 34.26272191698384, 84.36888106624313, 97.20480537341707, 76.34326174424757, 79.98030483350648, 163.16652236581155, 34.19235375853856, 81.0948420610264, 58.53735309641154, 79.94480560199105, 81.21005041856905, 75.94193963315192, 85.07194826842446, 84.97635129680651, 71.50743128721619, 69.2324453275626, 123.12356842180449, 108.65192906303439, 58.38821613126322, 86.07248819672887, 101.62194932043185, 77.05622802266396, 86.55329578360374, 106.25013293122778, 102.04505961364711, 59.62394566428105, 71.61748703888819, 68.89469226017935, 65.68633483766862, 168.98627343434478, 54.45430150312094, 19.223991690374355, 39.90149910286355, 37.69356232425245, 63.63759477731193, 59.80939068333343, 57.300742394356355, 74.81462163412736, 91.32045111533371, 69.41387565262373, 64.23062162032568, 75.61545169439232, 41.31037180825201, 60.41728892628273, 42.649195222026805, 134.5722469694351, 48.70877541540784, 98.57221137288836, 26.927070437520335, 64.08858338742098, 93.61063334717964, 41.86083352842942, 54.44435684667445, 67.68549008087926, 96.42108092886723, 80.02452251560774, 65.98645315175813, 73.84740907065532, 55.14813280646888, 66.26277303305169, 48.841283856372016, 103.54721329193397, 109.01538586891466, 107.986678039797, 46.35649848711108, 48.203139018200936, 48.31054286413028, 86.57344613018888</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>[0.46529897138637233, 0.1049474935917013, 0.9590094364024395, 0.24393655478811338, 0.9434037818624766, 0.9636982538720011, 0.9840766182041991, 0.5694702757727395, 0.8603524280671795, 0.07960600438337095, 0.22457040972314224, 0.6937164200963302, 0.18765836661193236]</t>
-        </is>
-      </c>
-      <c r="K57" t="n">
-        <v>0.3925621946461009</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0.5495448215476735</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.6108942969102314</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0.1905797372715087</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0.6239234565039692</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0.2875445870131207</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0.4323278332127887</v>
-      </c>
-      <c r="R57" t="n">
-        <v>0.4791382625222721</v>
-      </c>
-      <c r="S57" t="n">
-        <v>0.7431171718992522</v>
-      </c>
-      <c r="T57" t="n">
-        <v>0.2956879642434818</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4807,41 +3463,17 @@
           <t>113.81551117492032, 96.750620612624, 38.15651231891537, 42.90030708268608, 67.34008460834285, 65.60179439342737, 82.04006779620724, 75.60017371434067, 101.33896653838954, 168.34091961808645, 65.54357415764792, 73.05465945955659, 103.86326381808898, 74.37781493340009, 94.46566601358997, 74.23346575584868, 78.80833578485331, 92.36671087820827, 94.29090195618006, 78.63040620060352, 57.85720076744699, 89.4816074809769, 140.45560318460616, 80.8995356268342, 78.25222230564697, 75.386140057958, 75.73037373532468, 64.34139279352453, 54.60161137709224, 50.19414679864285, 52.134029978841966, 71.77209332878391, 99.72605635722546, 77.62256975738478, 79.67975652731026, 76.88359754027388, 79.23826235780497, 82.18246789665199, 94.97339021746363, 110.43330419172645, 93.7163125067952, 47.17486816315768, 8.664764771317683, 51.83412819078983, 63.28117133739888, 60.83368433140757, 75.17683789840964, 142.09792874036393, 85.07653283657814, 90.10318964058318, 11.266373679713857, 8.042315517694796, 75.36843313749335, 82.12973911138181, 67.59444482464777, 83.55783097637618, 83.09948641878299, 52.077506651388816, 77.29129585409085, 81.66519798480056, 113.97759665134748, 149.0777137432411, 75.90898274561992, 85.93210720144258, 90.85060146174634, 90.0365204632755, 113.42797311405982, 46.76605979696781, 89.250432783788, 99.35391973460423, 81.29190722819597, 92.99649138020631, 129.52358785778696, 66.83225539585689, 85.90661420868157, 95.53659980820242, 23.012200322839213, 75.04375124972562, 28.741243608093217, 16.717329151971374, 19.371497212798076, 172.15579542514894, 40.24323888942027, 17.559903592907506, 176.92164600024762, 74.17755482108191, 60.47271587527912, 57.64560543854324, 5.124126002150088, 41.79019972901201, 130.28282410395457, 74.56821997516471, 75.80520249758214, 144.16061260078897, 103.21975894932615, 93.79909307668134, 51.894929652192346, 172.04400566747833, 36.137304036643684, 28.241194806274812, 60.506143628519084, 39.188800314675866, 86.8805243161795, 34.264300366980976, 91.82576224248976, 92.44287031682616, 2.522519011783152, 100.99554394463047, 84.48954451805292, 97.12971358766376, 48.46369856114035, 49.842631384933206, 66.67180890984478, 83.57103783185056, 82.1557213606469, 87.91194047603929, 80.01187813638163, 79.26865149265375, 114.32442833456695, 64.54403782430938, 57.706786525068864, 68.9382097579836, 85.99379984699684, 63.405592616000725, 81.50702941476108, 74.0112671347109, 90.27308433900859, 56.57976286173973, 101.22722684400554, 72.76174928301874, 70.1975791224701, 125.71917531589156, 129.51462082791073, 13.193228072395026, 64.9972891211947, 93.90495367567952, 59.61912668977436, 134.8005408488329, 28.12416452259293, 139.4485508199478, 99.05135740749465, 73.6883519959441, 69.73309121171512, 68.71720722625935, 60.65984848509508, 37.158880200876645, 53.68266035403697, 22.258613788638463, 87.13323155808128, 30.28972457202449, 13.58071341560387, 44.553609509149766, 58.199847431866665, 54.93133381259436, 54.661386846645534, 69.01377021725115, 84.47259487470374, 95.72761965217391, 33.913431469096544, 53.1580566855171, 47.273331196116175, 173.7223646552684, 52.71880210132839, 29.878675686038324, 117.3066715319517, 18.328583743114994, 86.16641317377092, 95.75639846603751, 90.1560532193333, 90.91830655665676, 91.72446441149347, 80.5798137464881, 93.07704276164321, 86.91273723830186, 70.76332847731969, 121.66677483016406, 84.82714928199107, 30.07031884529294, 53.36228650147904, 85.20859999967142, 92.23149296393555, 103.08985892801766, 19.239817131378512, 136.15620427820392, 70.77882025629793, 130.20266015019428, 66.25150156579917, 29.163138199388644, 70.83718868079225, 140.62636507962932, 39.036632342382205, 46.92638270300015, 35.29758139369554, 33.03763069549793, 83.54107074226937, 38.203646693491464, 29.383888474172846, 72.3196019824491, 93.47465970971257, 92.36965259090213, 90.7746802236845, 94.00646117135997, 75.4262150835348, 117.06373982420924, 110.46055394960712, 74.81797874371226, 65.10296823900038, 74.35751894594647, 67.01844832595087, 69.18691187498747, 97.49231065235101, 47.320308756070645, 100.525796186925, 63.37172647287378, 101.68844747948098, 38.08246712963349, 113.52556770725276, 72.58690413439909, 80.9520484894162, 74.90616428681412, 60.10995909526362, 65.3077380526854, 61.91131526719159, 63.203592297696275, 81.13114864562911, 64.86293553746815, 81.11766797553656, 89.33451881301282, 89.73103607413702, 55.579017698512104, 71.15610022270815, 80.07944499697808, 47.33897659389853, 72.64737930517684, 63.511358808258734, 50.620853013800236, 63.46921216377076, 75.52632627137041, 89.0133264091287, 61.70583015726263, 84.73322030696146, 82.1324363489332, 79.72416536794316, 16.393371848363813, 84.34869131345886, 73.45935633599896, 131.79358533648636, 95.98334550140636, 69.51243810188554, 73.79108553379767, 64.22448767608503, 69.67470326696287, 56.84542175805295, 66.63955456264532, 64.18487786560493, 37.15168548360746, 23.732528654469725, 56.908595128239035, 101.58513058831251, 76.68128844332792, 74.8969248169672, 74.91028514116674, 73.07873061634771, 85.21293668310724, 22.609860026844, 69.91703187288098, 68.56118245847516, 110.25261988992942, 128.74236960265114, 16.257420030987635, 60.50541316012229, 108.10858182539002, 107.8768372933016, 68.70891768648873, 64.31100667522, 67.0011701928603, 32.522069109159716, 162.7609567217822, 146.74389794398363, 79.20103825481601, 76.15078157789323, 67.69401952887522, 32.588545753273266, 48.45204028809272, 72.39583231777675, 66.35965754522798, 75.05001973484313, 81.06973626412753, 82.08848452919214, 61.65886792369869, 62.99666941816567, 93.06774920053309, 98.95542143050716, 122.0912626166097, 51.50070932981919, 72.10614958765449, 109.22669034070053, 45.161952114354705, 75.01366557841452, 92.32696186631414, 107.24820249525357, 41.86548814501031, 53.52988734477308, 57.89895056809763, 63.382125578708624, 57.95805410421718, 57.98836470979529, 75.73312344108811, 71.35659006085405, 103.76769553655132, 100.04942424262305, 80.08868321966891, 102.00888253636704, 70.49481852026712, 84.54154021066769, 109.40691366012906, 104.1221349506487, 1.7432453047617342, 69.29841516482608, 74.03905273479147, 87.29898073447407, 112.82212590147577, 73.82909637709412, 77.02967079836633, 73.7047046137515, 58.544026147627, 59.57727143432102, 55.84053005949058, 6.126051853749745, 57.69144344018373, 107.49916499177303, 106.30425213155458, 98.31665098487687, 92.80740725396288, 70.90761411121738, 87.04600099841316, 85.3624831126665, 87.27052622014611, 90.15092551089174, 79.9205751009152, 69.1747760369106, 68.15795995882691, 63.355714791761024, 100.19900842418748, 86.90836194165995, 89.82233715047637, 83.78818756635233, 85.21404303855223, 82.12625370562837, 100.58260512467943, 119.67408137893473, 42.5763423911338, 52.77506847189736, 114.15584138119057, 80.79828714029529, 34.7913150333896, 29.099144035118165, 34.37194717245877, 19.317162266555098, 123.8162549524151, 168.858056126057, 75.47229103728709, 74.41683578541593, 67.7022555958036, 74.93286573764728, 87.16468481408842, 78.6873065699767, 1.4805686691770201, 122.5121241335095, 43.456850352807756, 129.43988079801161, 76.39648838741111, 66.3475507083393, 75.0232453646633, 89.8638543612702, 86.16310704810469, 87.87420247268894, 4.806110662573044, 18.329968706000038, 56.71068824513128, 17.110029670495607, 109.83210824378138</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>[0.2816029006434697, 0.6715939069218525, 0.2460897680678864, 0.5164532412089345, 0.8717110578903706, 0.7209445850629037, 0.05595907276037915, 0.15629686426471856, 0.15242122860015206, 0.697663942436398, 0.6941710287304175, 0.5522672166929978, 0.7345471297574775]</t>
-        </is>
-      </c>
-      <c r="K58" t="n">
-        <v>0.8738228821209933</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0.8694413921800098</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.01639853328605767</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0.1189912066246156</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0.7562788091383029</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0.1824971810019093</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0.1665968761164164</v>
-      </c>
-      <c r="R58" t="n">
-        <v>0.3023154739162992</v>
-      </c>
-      <c r="S58" t="n">
-        <v>0.5221680992584202</v>
-      </c>
-      <c r="T58" t="n">
-        <v>0.1780065398189048</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4883,41 +3515,17 @@
           <t>45.89896673312334, 67.27499733905827, 64.77683085496135, 60.18919408150037, 44.62250426129363, 54.782409228259944, 60.514889653062106, 20.783193672687975, 37.02233128997494, 31.65446813813951, 87.02447723784553, 64.99591730030612, 87.47165335855188, 103.72271194793743, 76.15341112560344, 93.40342313597726, 94.13134712148347, 100.27982639682261, 109.28697765339949, 66.35991193892197, 47.5935934747796, 97.88347664498075, 86.09541681071619, 71.55562670717228, 68.30939467663126, 51.77502613015146, 65.64322711994191, 65.13943741760872, 61.888407712608, 55.986456833786804, 48.000047792872884, 56.30907564388772, 49.39602179011434, 74.85105507764057, 67.95168111300542, 112.83174121111585, 64.33725014915333, 107.94094865944717, 69.93262971693352, 51.65083130409226, 68.78249590312113, 71.0976232967659, 101.19408577924258, 84.71663091866478, 95.46063692872168, 67.59418333482239, 91.9364443317448, 75.27522186573368, 105.94637268543337, 90.92854040551754, 76.10000715439818, 52.76782427492219, 74.34999550215065, 56.98255241981897, 151.27395838747927, 140.59869264774585, 67.69003978925406, 60.354359262985994, 41.564953100081105, 52.727326848032995, 53.633154939426916, 48.27882280902958, 61.98837406803762, 96.04429274318771, 60.6740267184752, 88.63882728687891, 60.22826946578556, 50.84827431853483, 80.47268180906295, 72.51256684674372, 70.31317384381111, 64.13029199287213, 88.7560853008014, 73.12620213188266, 61.3113950408336, 84.61342199122791, 58.92563511124157, 65.06748793840332, 74.34788491826747, 81.58470786173, 65.48931955151465, 116.95783441346946, 75.55098544322098, 27.42496834507355, 52.44828275929144, 88.43099977032023, 167.6661982101651, 65.60094253801034, 75.48443295970364, 23.44167826983917, 63.32439877392725, 66.37496625737343, 72.2695163100821, 33.866119188792915, 89.472416086657, 87.32630501842418, 54.919656849033494, 56.49546933287928, 63.67800358146331, 52.21969360973309, 69.06519539392627, 49.57923902132038, 15.466153717793922, 57.77581825483229, 59.88874133797181, 106.94611374993558, 59.80862236547245, 74.73918057648913, 19.895171715591285, 63.32683654163187, 84.25874540285542, 66.22460040290117, 48.66523087161702, 45.03449081950753, 48.945166985678526, 35.859111029461815, 53.352286721437686, 117.7404824303399, 87.52587670069606, 27.442440932665612, 102.62685684210729, 59.38614697643823, 133.54239475967964, 66.96647597123973, 65.76174326947681, 76.02990745969448, 61.858532660009324, 67.58988409763586, 16.658749943781068, 6.3883089415814815, 71.11491659420064, 74.18991949038326, 83.48303133764844, 59.56214448660132, 65.94891447576316, 71.43258232886288, 91.22178079484294, 68.79080631455162, 52.762049034972854, 47.757561160558275, 66.2394025180323, 72.32943797295746, 62.73164840398079, 66.13412217937038, 68.08228365573498, 84.82982307602448, 73.38242706998273, 53.457802190607204, 90.38325603814492, 89.23329068802522, 90.29824685966868, 73.40621159356425, 84.36587605762357, 82.6753694615442, 92.11546179693559, 62.48590823951837, 72.9379453130338, 62.37883266703463, 50.21951884203875, 54.36762589709579, 66.66299437378605, 73.882684400034, 81.55800788782766, 64.89586416119782, 34.51422772529486, 73.27190850361353, 76.60903301401572, 68.89531602743156, 72.01378090461864, 70.50278745637769, 50.8878438485323, 51.50166541128435, 74.14757144154757, 60.62142843320694, 72.57598149537024, 78.33295671488065, 73.52169163188402, 63.27784116064237, 120.79101885705366, 89.99374591949847, 74.58874657014714, 59.40004501099264, 59.30656881268993, 103.53104920425565, 97.58334326634133, 48.93423025804841, 68.07142414354404, 61.69621885420905, 107.68140833896382, 80.63043535121245, 81.4255805219299, 52.89567518815838, 78.46948399481117, 70.73129318112554</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>[0.9273032465405131, 0.15993313335014814, 0.6135763349694502, 0.8329263587618949, 0.6237077046566819, 0.7243398323022706, 0.518221333695422, 0.0043293437109221955, 0.17424889155805778, 0.2795978089069626, 0.7461637797544791, 0.6335978861218496, 0.7208484960642609]</t>
-        </is>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1395635712241915</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0.9593682891308607</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.5553848638142795</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0.3312251161642564</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0.3773836931332845</v>
-      </c>
-      <c r="P59" t="n">
-        <v>0.8665665597307427</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>0.1872799903362788</v>
-      </c>
-      <c r="R59" t="n">
-        <v>0.3167502434173515</v>
-      </c>
-      <c r="S59" t="n">
-        <v>0.5104704890309478</v>
-      </c>
-      <c r="T59" t="n">
-        <v>0.4931142528538111</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4959,41 +3567,17 @@
           <t>68.90865992230306, 63.15760699169146, 70.05673693298544, 67.0973083974983, 62.62048827533448, 162.27833062647682, 65.30318329786684, 94.38550678131102, 110.8328063485022, 74.37564844679585, 85.30789021637278, 160.01161325768103, 102.88705726331041, 71.10410802695421, 58.690680846074876, 65.28317446433455, 71.70410793910712, 59.66988754215805, 46.80534555553109, 125.86221854216015, 120.60074690845235, 126.74938033757496, 92.18353062640367, 94.09710818582113, 136.9891945813838, 39.85749340173246, 70.55916030157425, 60.102927137647804, 73.90299100474851, 66.93608608262147, 52.57214130591776, 52.60381944660597, 47.82957197139277, 53.03970513088134, 53.04107852800816, 52.139845250199585, 62.43904681664762, 87.5822518111126, 73.13629277846871, 89.66493454563303, 30.928605707271537, 63.03820915086662, 66.08868842091026, 50.506231595829185, 78.12027039648326, 82.6933678977593, 67.08551309225844, 51.78729279968091, 71.0953452880657, 65.1505562990215, 67.69819962162741, 65.91898150826353, 86.46769671193816, 58.19089575291326, 78.38863782487579, 69.99208362708214, 61.376525207321464, 67.55459816380278, 58.69728579123232, 88.31003090512588, 66.4200986213857, 13.664059152119775, 175.26680887432474, 57.592751309689035, 69.10188962024985, 81.13713107315255, 81.30414851291566, 76.74742577498122, 61.37289406625031, 68.91270388500223, 77.12819860707128, 52.45169526389401, 69.13453475910194, 58.29756862739296, 54.298664422357625, 18.513669498047566, 149.9613005384447, 96.6342437775004, 175.5159647190617, 80.10016997824324, 52.13511436991903, 75.33782553076054, 27.510537146543147, 97.16556545331194, 81.14690915330421, 82.70834105298552, 65.65279802743008, 83.37238737037859, 2.402672977741948, 64.2556541397453, 67.82674596349632, 72.79852323051485, 62.1297454503196, 63.0660999136622, 81.57196590896953, 57.65288376602726, 87.96474853830118, 76.5687360812409, 76.16399145548779, 76.53194928815451, 73.47045209037972, 71.28755444640059, 58.230627866747795, 58.80820085381525, 75.33158601525356, 65.75426291110824, 76.65217939414612, 74.24140871808243, 132.90861889374253, 73.16546656845996, 62.81526772631719, 65.9974157903933, 98.84840424974138, 86.04944137816902, 68.66927117736687, 62.00068257468771, 85.2573566529455, 83.65777912325959, 64.01622653558516, 58.17082075724224, 75.06520991586547, 110.32250828307883, 5.421588900192792, 96.03422642359915, 62.82637130019777, 65.04668396135614, 79.37316960676426, 63.12128999142495, 108.3880233345671, 53.650863836944396, 70.57668224629988, 60.23321654293669, 62.90290171839094, 56.33453713504141, 95.41377000708366, 44.50280685239081, 39.85129874031828, 79.581731833091, 77.66230576519546, 71.39857436916756, 76.62779734690666, 68.88919634202273, 69.8397605098631, 61.515421539173715, 63.87784137103716, 60.19501060558383, 59.959872436906664, 69.6476421271863, 64.6072952760776, 68.14527641772627, 82.69490821138747, 65.65802691181945, 77.19150913686791, 70.14297010276447, 77.442618046397, 78.976488649661, 90.89852241019061, 74.20724619495138, 75.73055044001565, 79.35799163051695, 80.51169141168424, 78.7211107691534, 77.23342512504875, 106.13843991557613, 80.14660239574422, 53.81028015948142, 54.14962832075999, 61.36039411798213, 65.93513428536929, 71.54026056378234, 89.93338232855551, 98.6588276920695, 76.40813117936537, 74.788158675477, 72.07639380181466, 158.56625266975263, 97.07220177599197, 65.8259448939034, 68.83601951944037, 71.58893039310978, 66.74432709753911, 104.62531908910307, 75.69607723562295, 67.42774684563253, 63.305294877047395, 55.62979364858231, 44.33315814705798, 80.40021861749315, 82.39484140070225, 86.39594618122685, 74.27549357148155, 77.85091391024284, 66.27979242815557, 99.02654208750363, 69.40976769834784, 104.5545345330122, 117.50211639478268, 109.447239887137, 5.200991484980584, 43.790288935124394, 57.436230462870725, 103.57219076443707, 72.0183587601343, 66.98327441426768, 78.34782253423718, 75.93701056634595, 71.70576506086825, 98.52953173099573, 63.477493429787174, 108.97607858556252, 107.68952257496916, 72.25593889396576, 77.29528439938336, 74.43060466108376, 77.00157375368552, 72.74721696425662, 72.2191918092986, 56.30273968519988, 70.66602043211742, 77.93823659909297, 79.05413070739492, 87.7714823797915, 79.96034374658468, 65.04759184423379, 52.03533094093971, 74.65564295338068, 58.31960356822605, 84.88685504161434, 165.59563648264213, 135.20977587880463, 162.87576800612476, 73.67107157357721, 66.57295070908484, 57.47965929696376, 108.62976088073036, 65.83460177047581, 57.34895813963351, 80.07184358053703, 62.37901343109566, 73.96505770458279, 70.34413058500498, 62.397921832177815, 68.68644841495858, 79.30300460691717, 56.53666472160372, 68.78578382745711, 60.7650694445007, 73.6202867017026, 52.82559045554824, 84.93557816243238, 59.65745445877889, 48.34331236771146, 57.669208043986075, 69.33635121543082, 70.08388639078014, 56.88960997291039, 49.85092946816468, 74.04008500450236, 73.31706388186387, 71.4186521176845</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>[0.3471775390233378, 0.9433394468431574, 0.6103088927923286, 0.4187178749243371, 0.010842663043504785, 0.062021880959508, 0.961477848829948, 0.2101211526363843, 0.5405300090455601, 0.8744995787105896, 0.3475703880016291, 0.099554293238173, 0.3403150749886019]</t>
-        </is>
-      </c>
-      <c r="K60" t="n">
-        <v>0.8876962175687456</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0.05056964173029876</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.5832034236091708</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0.2864106883008407</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0.9336986455846926</v>
-      </c>
-      <c r="P60" t="n">
-        <v>0.8107604227305536</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>0.1357904208053961</v>
-      </c>
-      <c r="R60" t="n">
-        <v>0.4659600283950002</v>
-      </c>
-      <c r="S60" t="n">
-        <v>0.9226364792345564</v>
-      </c>
-      <c r="T60" t="n">
-        <v>0.9449575604380327</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
